--- a/spine_rts-gmlc/datasets/gen.xlsx
+++ b/spine_rts-gmlc/datasets/gen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="gen" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9649" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9697" uniqueCount="438">
   <si>
     <t>GEN UID</t>
   </si>
@@ -1341,6 +1341,9 @@
   <si>
     <t>unit__from_direction</t>
   </si>
+  <si>
+    <t>313_HEAD_STORAGE</t>
+  </si>
 </sst>
 </file>
 
@@ -46852,10 +46855,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H799"/>
+  <dimension ref="A1:H807"/>
   <sheetViews>
-    <sheetView topLeftCell="A715" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A619" workbookViewId="0">
+      <selection activeCell="E636" sqref="E636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60242,211 +60245,213 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B638" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="C638" t="s">
-        <v>281</v>
+        <v>437</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B639" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="C639" t="s">
-        <v>282</v>
+        <v>437</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B640" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="C640" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B641" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="C641" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+      <c r="E641" s="3"/>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>434</v>
       </c>
       <c r="B642" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="C642" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>434</v>
       </c>
       <c r="B643" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="C643" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>434</v>
       </c>
       <c r="B644" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="C644" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>434</v>
       </c>
       <c r="B645" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="C645" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+      <c r="E645" s="3"/>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>434</v>
       </c>
       <c r="B646" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C646" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>434</v>
       </c>
       <c r="B647" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C647" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>434</v>
       </c>
       <c r="B648" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C648" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>434</v>
       </c>
       <c r="B649" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C649" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>434</v>
       </c>
       <c r="B650" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C650" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>434</v>
       </c>
       <c r="B651" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C651" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>434</v>
       </c>
       <c r="B652" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C652" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>434</v>
       </c>
       <c r="B653" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C653" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>434</v>
       </c>
       <c r="B654" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C654" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>434</v>
       </c>
       <c r="B655" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C655" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>434</v>
       </c>
       <c r="B656" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C656" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.35">
@@ -60454,10 +60459,10 @@
         <v>434</v>
       </c>
       <c r="B657" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C657" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.35">
@@ -60465,10 +60470,10 @@
         <v>434</v>
       </c>
       <c r="B658" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C658" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.35">
@@ -60476,10 +60481,10 @@
         <v>434</v>
       </c>
       <c r="B659" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C659" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.35">
@@ -60487,10 +60492,10 @@
         <v>434</v>
       </c>
       <c r="B660" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C660" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.35">
@@ -60498,10 +60503,10 @@
         <v>434</v>
       </c>
       <c r="B661" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C661" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.35">
@@ -60509,10 +60514,10 @@
         <v>434</v>
       </c>
       <c r="B662" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C662" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.35">
@@ -60520,10 +60525,10 @@
         <v>434</v>
       </c>
       <c r="B663" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C663" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.35">
@@ -60531,10 +60536,10 @@
         <v>434</v>
       </c>
       <c r="B664" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C664" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.35">
@@ -60542,10 +60547,10 @@
         <v>434</v>
       </c>
       <c r="B665" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C665" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.35">
@@ -60553,10 +60558,10 @@
         <v>434</v>
       </c>
       <c r="B666" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C666" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.35">
@@ -60564,10 +60569,10 @@
         <v>434</v>
       </c>
       <c r="B667" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C667" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.35">
@@ -60575,10 +60580,10 @@
         <v>434</v>
       </c>
       <c r="B668" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C668" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.35">
@@ -60586,10 +60591,10 @@
         <v>434</v>
       </c>
       <c r="B669" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C669" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.35">
@@ -60597,10 +60602,10 @@
         <v>434</v>
       </c>
       <c r="B670" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C670" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.35">
@@ -60608,10 +60613,10 @@
         <v>434</v>
       </c>
       <c r="B671" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C671" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.35">
@@ -60619,10 +60624,10 @@
         <v>434</v>
       </c>
       <c r="B672" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C672" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.35">
@@ -60630,10 +60635,10 @@
         <v>434</v>
       </c>
       <c r="B673" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C673" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.35">
@@ -60641,10 +60646,10 @@
         <v>434</v>
       </c>
       <c r="B674" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C674" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.35">
@@ -60652,10 +60657,10 @@
         <v>434</v>
       </c>
       <c r="B675" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C675" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.35">
@@ -60663,10 +60668,10 @@
         <v>434</v>
       </c>
       <c r="B676" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C676" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.35">
@@ -60674,10 +60679,10 @@
         <v>434</v>
       </c>
       <c r="B677" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C677" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.35">
@@ -60685,10 +60690,10 @@
         <v>434</v>
       </c>
       <c r="B678" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C678" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.35">
@@ -60696,10 +60701,10 @@
         <v>434</v>
       </c>
       <c r="B679" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C679" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.35">
@@ -60707,10 +60712,10 @@
         <v>434</v>
       </c>
       <c r="B680" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C680" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.35">
@@ -60718,10 +60723,10 @@
         <v>434</v>
       </c>
       <c r="B681" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C681" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.35">
@@ -60729,10 +60734,10 @@
         <v>434</v>
       </c>
       <c r="B682" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C682" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.35">
@@ -60740,10 +60745,10 @@
         <v>434</v>
       </c>
       <c r="B683" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C683" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.35">
@@ -60751,10 +60756,10 @@
         <v>434</v>
       </c>
       <c r="B684" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C684" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.35">
@@ -60762,10 +60767,10 @@
         <v>434</v>
       </c>
       <c r="B685" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C685" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.35">
@@ -60773,10 +60778,10 @@
         <v>434</v>
       </c>
       <c r="B686" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C686" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.35">
@@ -60784,10 +60789,10 @@
         <v>434</v>
       </c>
       <c r="B687" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C687" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.35">
@@ -60795,10 +60800,10 @@
         <v>434</v>
       </c>
       <c r="B688" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C688" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.35">
@@ -60806,10 +60811,10 @@
         <v>434</v>
       </c>
       <c r="B689" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C689" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.35">
@@ -60817,10 +60822,10 @@
         <v>434</v>
       </c>
       <c r="B690" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C690" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.35">
@@ -60828,10 +60833,10 @@
         <v>434</v>
       </c>
       <c r="B691" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C691" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.35">
@@ -60839,10 +60844,10 @@
         <v>434</v>
       </c>
       <c r="B692" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C692" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.35">
@@ -60850,10 +60855,10 @@
         <v>434</v>
       </c>
       <c r="B693" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C693" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.35">
@@ -60861,10 +60866,10 @@
         <v>434</v>
       </c>
       <c r="B694" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C694" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.35">
@@ -60872,10 +60877,10 @@
         <v>434</v>
       </c>
       <c r="B695" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C695" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.35">
@@ -60883,10 +60888,10 @@
         <v>434</v>
       </c>
       <c r="B696" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C696" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.35">
@@ -60894,10 +60899,10 @@
         <v>434</v>
       </c>
       <c r="B697" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C697" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.35">
@@ -60905,10 +60910,10 @@
         <v>434</v>
       </c>
       <c r="B698" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C698" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.35">
@@ -60916,10 +60921,10 @@
         <v>434</v>
       </c>
       <c r="B699" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="C699" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.35">
@@ -60927,10 +60932,10 @@
         <v>434</v>
       </c>
       <c r="B700" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="C700" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.35">
@@ -60938,10 +60943,10 @@
         <v>434</v>
       </c>
       <c r="B701" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="C701" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.35">
@@ -60949,10 +60954,10 @@
         <v>434</v>
       </c>
       <c r="B702" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C702" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.35">
@@ -60960,10 +60965,10 @@
         <v>434</v>
       </c>
       <c r="B703" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="C703" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.35">
@@ -60971,10 +60976,10 @@
         <v>434</v>
       </c>
       <c r="B704" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="C704" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.35">
@@ -60982,10 +60987,10 @@
         <v>434</v>
       </c>
       <c r="B705" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="C705" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.35">
@@ -60993,10 +60998,10 @@
         <v>434</v>
       </c>
       <c r="B706" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="C706" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.35">
@@ -61004,10 +61009,10 @@
         <v>434</v>
       </c>
       <c r="B707" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C707" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.35">
@@ -61015,10 +61020,10 @@
         <v>434</v>
       </c>
       <c r="B708" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C708" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.35">
@@ -61026,10 +61031,10 @@
         <v>434</v>
       </c>
       <c r="B709" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C709" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.35">
@@ -61037,10 +61042,10 @@
         <v>434</v>
       </c>
       <c r="B710" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C710" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.35">
@@ -61048,10 +61053,10 @@
         <v>434</v>
       </c>
       <c r="B711" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C711" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.35">
@@ -61059,10 +61064,10 @@
         <v>434</v>
       </c>
       <c r="B712" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C712" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.35">
@@ -61070,10 +61075,10 @@
         <v>434</v>
       </c>
       <c r="B713" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C713" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.35">
@@ -61081,10 +61086,10 @@
         <v>434</v>
       </c>
       <c r="B714" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C714" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.35">
@@ -61092,10 +61097,10 @@
         <v>434</v>
       </c>
       <c r="B715" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C715" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.35">
@@ -61103,10 +61108,10 @@
         <v>434</v>
       </c>
       <c r="B716" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C716" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.35">
@@ -61114,10 +61119,10 @@
         <v>434</v>
       </c>
       <c r="B717" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C717" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.35">
@@ -61125,87 +61130,98 @@
         <v>434</v>
       </c>
       <c r="B718" t="s">
+        <v>170</v>
+      </c>
+      <c r="C718" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A719" t="s">
+        <v>434</v>
+      </c>
+      <c r="B719" t="s">
+        <v>171</v>
+      </c>
+      <c r="C719" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A720" t="s">
+        <v>434</v>
+      </c>
+      <c r="B720" t="s">
+        <v>172</v>
+      </c>
+      <c r="C720" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A721" t="s">
+        <v>434</v>
+      </c>
+      <c r="B721" t="s">
+        <v>173</v>
+      </c>
+      <c r="C721" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A722" t="s">
+        <v>434</v>
+      </c>
+      <c r="B722" t="s">
+        <v>174</v>
+      </c>
+      <c r="C722" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A723" t="s">
+        <v>434</v>
+      </c>
+      <c r="B723" t="s">
+        <v>176</v>
+      </c>
+      <c r="C723" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A724" t="s">
+        <v>434</v>
+      </c>
+      <c r="B724" t="s">
+        <v>177</v>
+      </c>
+      <c r="C724" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A725" t="s">
+        <v>434</v>
+      </c>
+      <c r="B725" t="s">
+        <v>178</v>
+      </c>
+      <c r="C725" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A726" t="s">
+        <v>434</v>
+      </c>
+      <c r="B726" t="s">
         <v>179</v>
       </c>
-      <c r="C718" t="s">
+      <c r="C726" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="720" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A720" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B720" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C720" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="721" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A721" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B721" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C721" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="722" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A722" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B722" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C722" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A723" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B723" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C723" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A724" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B724" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C724" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A725" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B725" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C725" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A726" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B726" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="C726" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="728" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -61218,12 +61234,6 @@
       <c r="C728" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D728" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E728" s="4">
-        <v>2000</v>
-      </c>
     </row>
     <row r="729" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A729" s="4" t="s">
@@ -61235,12 +61245,6 @@
       <c r="C729" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D729" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E729" s="4">
-        <v>2000</v>
-      </c>
     </row>
     <row r="730" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A730" s="4" t="s">
@@ -61252,12 +61256,6 @@
       <c r="C730" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D730" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E730" s="4">
-        <v>2000</v>
-      </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A731" s="4" t="s">
@@ -61269,8 +61267,6 @@
       <c r="C731" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D731" s="4"/>
-      <c r="E731" s="4"/>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A732" s="4" t="s">
@@ -61282,8 +61278,6 @@
       <c r="C732" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D732" s="4"/>
-      <c r="E732" s="4"/>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733" s="4" t="s">
@@ -61295,11 +61289,110 @@
       <c r="C733" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D733" s="4"/>
-      <c r="E733" s="4"/>
-    </row>
-    <row r="799" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B799" s="1"/>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A734" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C734" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A736" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C736" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D736" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E736" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A737" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C737" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D737" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E737" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A738" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C738" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D738" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E738" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A739" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B739" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C739" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D739" s="4"/>
+      <c r="E739" s="4"/>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A740" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B740" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C740" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D740" s="4"/>
+      <c r="E740" s="4"/>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A741" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C741" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D741" s="4"/>
+      <c r="E741" s="4"/>
+    </row>
+    <row r="807" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B807" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -61308,10 +61401,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H794"/>
+  <dimension ref="A1:H802"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="D640" sqref="D640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -61319,7 +61412,7 @@
     <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -74698,211 +74791,213 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B638" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="C638" t="s">
-        <v>281</v>
+        <v>437</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B639" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="C639" t="s">
-        <v>282</v>
+        <v>437</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B640" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="C640" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B641" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="C641" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+      <c r="E641" s="3"/>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>434</v>
       </c>
       <c r="B642" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="C642" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>434</v>
       </c>
       <c r="B643" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="C643" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>434</v>
       </c>
       <c r="B644" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="C644" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>434</v>
       </c>
       <c r="B645" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="C645" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+      <c r="E645" s="3"/>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>434</v>
       </c>
       <c r="B646" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C646" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>434</v>
       </c>
       <c r="B647" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C647" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>434</v>
       </c>
       <c r="B648" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C648" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>434</v>
       </c>
       <c r="B649" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C649" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>434</v>
       </c>
       <c r="B650" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C650" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>434</v>
       </c>
       <c r="B651" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C651" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>434</v>
       </c>
       <c r="B652" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C652" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>434</v>
       </c>
       <c r="B653" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C653" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>434</v>
       </c>
       <c r="B654" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C654" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>434</v>
       </c>
       <c r="B655" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C655" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>434</v>
       </c>
       <c r="B656" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C656" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.35">
@@ -74910,10 +75005,10 @@
         <v>434</v>
       </c>
       <c r="B657" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C657" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.35">
@@ -74921,10 +75016,10 @@
         <v>434</v>
       </c>
       <c r="B658" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C658" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.35">
@@ -74932,10 +75027,10 @@
         <v>434</v>
       </c>
       <c r="B659" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C659" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.35">
@@ -74943,10 +75038,10 @@
         <v>434</v>
       </c>
       <c r="B660" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C660" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.35">
@@ -74954,10 +75049,10 @@
         <v>434</v>
       </c>
       <c r="B661" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C661" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.35">
@@ -74965,10 +75060,10 @@
         <v>434</v>
       </c>
       <c r="B662" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C662" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.35">
@@ -74976,10 +75071,10 @@
         <v>434</v>
       </c>
       <c r="B663" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C663" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.35">
@@ -74987,10 +75082,10 @@
         <v>434</v>
       </c>
       <c r="B664" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C664" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.35">
@@ -74998,10 +75093,10 @@
         <v>434</v>
       </c>
       <c r="B665" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C665" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.35">
@@ -75009,10 +75104,10 @@
         <v>434</v>
       </c>
       <c r="B666" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C666" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.35">
@@ -75020,10 +75115,10 @@
         <v>434</v>
       </c>
       <c r="B667" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C667" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.35">
@@ -75031,10 +75126,10 @@
         <v>434</v>
       </c>
       <c r="B668" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C668" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.35">
@@ -75042,10 +75137,10 @@
         <v>434</v>
       </c>
       <c r="B669" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C669" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.35">
@@ -75053,10 +75148,10 @@
         <v>434</v>
       </c>
       <c r="B670" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C670" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.35">
@@ -75064,10 +75159,10 @@
         <v>434</v>
       </c>
       <c r="B671" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C671" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.35">
@@ -75075,10 +75170,10 @@
         <v>434</v>
       </c>
       <c r="B672" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C672" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.35">
@@ -75086,10 +75181,10 @@
         <v>434</v>
       </c>
       <c r="B673" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C673" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.35">
@@ -75097,10 +75192,10 @@
         <v>434</v>
       </c>
       <c r="B674" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C674" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.35">
@@ -75108,10 +75203,10 @@
         <v>434</v>
       </c>
       <c r="B675" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C675" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.35">
@@ -75119,10 +75214,10 @@
         <v>434</v>
       </c>
       <c r="B676" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C676" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.35">
@@ -75130,10 +75225,10 @@
         <v>434</v>
       </c>
       <c r="B677" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C677" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.35">
@@ -75141,10 +75236,10 @@
         <v>434</v>
       </c>
       <c r="B678" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C678" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.35">
@@ -75152,10 +75247,10 @@
         <v>434</v>
       </c>
       <c r="B679" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C679" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.35">
@@ -75163,10 +75258,10 @@
         <v>434</v>
       </c>
       <c r="B680" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C680" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.35">
@@ -75174,10 +75269,10 @@
         <v>434</v>
       </c>
       <c r="B681" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C681" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.35">
@@ -75185,10 +75280,10 @@
         <v>434</v>
       </c>
       <c r="B682" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C682" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.35">
@@ -75196,10 +75291,10 @@
         <v>434</v>
       </c>
       <c r="B683" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C683" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.35">
@@ -75207,10 +75302,10 @@
         <v>434</v>
       </c>
       <c r="B684" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C684" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.35">
@@ -75218,10 +75313,10 @@
         <v>434</v>
       </c>
       <c r="B685" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C685" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.35">
@@ -75229,10 +75324,10 @@
         <v>434</v>
       </c>
       <c r="B686" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C686" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.35">
@@ -75240,10 +75335,10 @@
         <v>434</v>
       </c>
       <c r="B687" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C687" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.35">
@@ -75251,10 +75346,10 @@
         <v>434</v>
       </c>
       <c r="B688" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C688" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.35">
@@ -75262,10 +75357,10 @@
         <v>434</v>
       </c>
       <c r="B689" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C689" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.35">
@@ -75273,10 +75368,10 @@
         <v>434</v>
       </c>
       <c r="B690" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C690" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.35">
@@ -75284,10 +75379,10 @@
         <v>434</v>
       </c>
       <c r="B691" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C691" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.35">
@@ -75295,10 +75390,10 @@
         <v>434</v>
       </c>
       <c r="B692" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C692" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.35">
@@ -75306,10 +75401,10 @@
         <v>434</v>
       </c>
       <c r="B693" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C693" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.35">
@@ -75317,10 +75412,10 @@
         <v>434</v>
       </c>
       <c r="B694" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C694" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.35">
@@ -75328,10 +75423,10 @@
         <v>434</v>
       </c>
       <c r="B695" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C695" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.35">
@@ -75339,10 +75434,10 @@
         <v>434</v>
       </c>
       <c r="B696" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C696" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.35">
@@ -75350,10 +75445,10 @@
         <v>434</v>
       </c>
       <c r="B697" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C697" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.35">
@@ -75361,10 +75456,10 @@
         <v>434</v>
       </c>
       <c r="B698" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C698" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.35">
@@ -75372,10 +75467,10 @@
         <v>434</v>
       </c>
       <c r="B699" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="C699" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.35">
@@ -75383,10 +75478,10 @@
         <v>434</v>
       </c>
       <c r="B700" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="C700" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.35">
@@ -75394,10 +75489,10 @@
         <v>434</v>
       </c>
       <c r="B701" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="C701" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.35">
@@ -75405,10 +75500,10 @@
         <v>434</v>
       </c>
       <c r="B702" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C702" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.35">
@@ -75416,10 +75511,10 @@
         <v>434</v>
       </c>
       <c r="B703" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="C703" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.35">
@@ -75427,10 +75522,10 @@
         <v>434</v>
       </c>
       <c r="B704" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="C704" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.35">
@@ -75438,10 +75533,10 @@
         <v>434</v>
       </c>
       <c r="B705" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="C705" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.35">
@@ -75449,10 +75544,10 @@
         <v>434</v>
       </c>
       <c r="B706" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="C706" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.35">
@@ -75460,10 +75555,10 @@
         <v>434</v>
       </c>
       <c r="B707" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C707" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.35">
@@ -75471,10 +75566,10 @@
         <v>434</v>
       </c>
       <c r="B708" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C708" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.35">
@@ -75482,10 +75577,10 @@
         <v>434</v>
       </c>
       <c r="B709" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C709" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.35">
@@ -75493,10 +75588,10 @@
         <v>434</v>
       </c>
       <c r="B710" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C710" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.35">
@@ -75504,10 +75599,10 @@
         <v>434</v>
       </c>
       <c r="B711" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C711" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.35">
@@ -75515,10 +75610,10 @@
         <v>434</v>
       </c>
       <c r="B712" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C712" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.35">
@@ -75526,10 +75621,10 @@
         <v>434</v>
       </c>
       <c r="B713" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C713" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.35">
@@ -75537,10 +75632,10 @@
         <v>434</v>
       </c>
       <c r="B714" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C714" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.35">
@@ -75548,10 +75643,10 @@
         <v>434</v>
       </c>
       <c r="B715" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C715" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.35">
@@ -75559,10 +75654,10 @@
         <v>434</v>
       </c>
       <c r="B716" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C716" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.35">
@@ -75570,10 +75665,10 @@
         <v>434</v>
       </c>
       <c r="B717" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C717" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.35">
@@ -75581,91 +75676,179 @@
         <v>434</v>
       </c>
       <c r="B718" t="s">
+        <v>170</v>
+      </c>
+      <c r="C718" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A719" t="s">
+        <v>434</v>
+      </c>
+      <c r="B719" t="s">
+        <v>171</v>
+      </c>
+      <c r="C719" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A720" t="s">
+        <v>434</v>
+      </c>
+      <c r="B720" t="s">
+        <v>172</v>
+      </c>
+      <c r="C720" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A721" t="s">
+        <v>434</v>
+      </c>
+      <c r="B721" t="s">
+        <v>173</v>
+      </c>
+      <c r="C721" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A722" t="s">
+        <v>434</v>
+      </c>
+      <c r="B722" t="s">
+        <v>174</v>
+      </c>
+      <c r="C722" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A723" t="s">
+        <v>434</v>
+      </c>
+      <c r="B723" t="s">
+        <v>176</v>
+      </c>
+      <c r="C723" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A724" t="s">
+        <v>434</v>
+      </c>
+      <c r="B724" t="s">
+        <v>177</v>
+      </c>
+      <c r="C724" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A725" t="s">
+        <v>434</v>
+      </c>
+      <c r="B725" t="s">
+        <v>178</v>
+      </c>
+      <c r="C725" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A726" t="s">
+        <v>434</v>
+      </c>
+      <c r="B726" t="s">
         <v>179</v>
       </c>
-      <c r="C718" t="s">
+      <c r="C726" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="720" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A720" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B720" s="4" t="s">
+    <row r="728" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A728" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B728" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C720" s="4" t="s">
+      <c r="C728" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="721" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A721" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B721" s="4" t="s">
+    <row r="729" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A729" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B729" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C721" s="4" t="s">
+      <c r="C729" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="722" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A722" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B722" s="4" t="s">
+    <row r="730" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A730" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B730" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C722" s="4" t="s">
+      <c r="C730" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A723" s="4" t="s">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A731" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B723" s="4" t="s">
+      <c r="B731" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C723" s="4" t="s">
+      <c r="C731" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A724" s="4" t="s">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A732" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B724" s="4" t="s">
+      <c r="B732" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C724" s="4" t="s">
+      <c r="C732" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A725" s="4" t="s">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A733" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B725" s="4" t="s">
+      <c r="B733" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C725" s="4" t="s">
+      <c r="C733" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A726" s="4" t="s">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A734" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B726" s="4" t="s">
+      <c r="B734" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C726" s="4" t="s">
+      <c r="C734" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="794" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B794" s="1"/>
+    <row r="802" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B802" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -75677,7 +75860,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -77664,8 +77847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/spine_rts-gmlc/datasets/gen.xlsx
+++ b/spine_rts-gmlc/datasets/gen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="gen" sheetId="1" r:id="rId1"/>
@@ -1349,6 +1349,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1832,12 +1835,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2162,7 +2166,7 @@
   <dimension ref="A1:BD159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AO4" sqref="AO4"/>
@@ -2185,9 +2189,10 @@
     <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.90625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.7265625" customWidth="1"/>
     <col min="30" max="30" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.81640625" customWidth="1"/>
     <col min="32" max="35" width="13.1796875" bestFit="1" customWidth="1"/>
@@ -29240,8 +29245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29339,7 +29344,7 @@
         <v>259</v>
       </c>
       <c r="I2">
-        <f>VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J2" t="s">
@@ -29352,16 +29357,16 @@
       <c r="L2" t="s">
         <v>275</v>
       </c>
-      <c r="M2" s="3">
-        <f>VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC2/1000+VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.1747000000000001E-2</v>
+      <c r="M2" s="5">
+        <f>VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC2+VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
       <c r="N2" t="s">
         <v>276</v>
       </c>
-      <c r="O2">
-        <f>VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O2" s="5">
+        <f>VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC2+VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -29393,7 +29398,7 @@
         <v>259</v>
       </c>
       <c r="I3">
-        <f>VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -29406,16 +29411,16 @@
       <c r="L3" t="s">
         <v>275</v>
       </c>
-      <c r="M3" s="3">
-        <f>VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC3/1000+VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.1747000000000001E-2</v>
+      <c r="M3" s="5">
+        <f>VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC3+VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
       <c r="N3" t="s">
         <v>276</v>
       </c>
-      <c r="O3">
-        <f>VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O3" s="5">
+        <f>VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC3+VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -29447,7 +29452,7 @@
         <v>259</v>
       </c>
       <c r="I4">
-        <f>VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J4" t="s">
@@ -29460,16 +29465,16 @@
       <c r="L4" t="s">
         <v>275</v>
       </c>
-      <c r="M4" s="3">
-        <f>VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC4/1000+VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>11.172014352</v>
+      <c r="M4" s="5">
+        <f>VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC4+VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
       <c r="N4" t="s">
         <v>276</v>
       </c>
-      <c r="O4">
-        <f>VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O4" s="5">
+        <f>VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC4+VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -29501,7 +29506,7 @@
         <v>259</v>
       </c>
       <c r="I5">
-        <f>VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J5" t="s">
@@ -29514,16 +29519,16 @@
       <c r="L5" t="s">
         <v>275</v>
       </c>
-      <c r="M5" s="3">
-        <f>VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC5/1000+VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>11.172014352</v>
+      <c r="M5" s="5">
+        <f>VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC5+VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
       <c r="N5" t="s">
         <v>276</v>
       </c>
-      <c r="O5">
-        <f>VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O5" s="5">
+        <f>VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC5+VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -29555,7 +29560,7 @@
         <v>259</v>
       </c>
       <c r="I6">
-        <f>VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J6" t="s">
@@ -29568,16 +29573,16 @@
       <c r="L6" t="s">
         <v>275</v>
       </c>
-      <c r="M6" s="3">
-        <f>VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC6/1000+VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.1747000000000001E-2</v>
+      <c r="M6" s="5">
+        <f>VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC6+VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
       <c r="N6" t="s">
         <v>276</v>
       </c>
-      <c r="O6">
-        <f>VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O6" s="5">
+        <f>VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC6+VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -29609,7 +29614,7 @@
         <v>259</v>
       </c>
       <c r="I7">
-        <f>VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J7" t="s">
@@ -29622,16 +29627,16 @@
       <c r="L7" t="s">
         <v>275</v>
       </c>
-      <c r="M7" s="3">
-        <f>VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC7/1000+VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.1747000000000001E-2</v>
+      <c r="M7" s="5">
+        <f>VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC7+VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
       <c r="N7" t="s">
         <v>276</v>
       </c>
-      <c r="O7">
-        <f>VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O7" s="5">
+        <f>VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC7+VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -29663,7 +29668,7 @@
         <v>259</v>
       </c>
       <c r="I8">
-        <f>VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J8" t="s">
@@ -29676,16 +29681,16 @@
       <c r="L8" t="s">
         <v>275</v>
       </c>
-      <c r="M8" s="3">
-        <f>VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC8/1000+VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>11.172014352</v>
+      <c r="M8" s="5">
+        <f>VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC8+VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
       <c r="N8" t="s">
         <v>276</v>
       </c>
-      <c r="O8">
-        <f>VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O8" s="5">
+        <f>VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC8+VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -29717,7 +29722,7 @@
         <v>259</v>
       </c>
       <c r="I9">
-        <f>VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J9" t="s">
@@ -29730,16 +29735,16 @@
       <c r="L9" t="s">
         <v>275</v>
       </c>
-      <c r="M9" s="3">
-        <f>VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC9/1000+VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>11.172014352</v>
+      <c r="M9" s="5">
+        <f>VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC9+VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
       <c r="N9" t="s">
         <v>276</v>
       </c>
-      <c r="O9">
-        <f>VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O9" s="5">
+        <f>VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC9+VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -29771,7 +29776,7 @@
         <v>259</v>
       </c>
       <c r="I10">
-        <f>VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J10" t="s">
@@ -29784,16 +29789,16 @@
       <c r="L10" t="s">
         <v>275</v>
       </c>
-      <c r="M10" s="3">
-        <f>VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC10/1000+VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>28.046681022000001</v>
+      <c r="M10" s="5">
+        <f>VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC10+VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
       <c r="N10" t="s">
         <v>276</v>
       </c>
-      <c r="O10">
-        <f>VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O10" s="5">
+        <f>VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC10+VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -29825,7 +29830,7 @@
         <v>259</v>
       </c>
       <c r="I11">
-        <f>VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J11" t="s">
@@ -29838,16 +29843,16 @@
       <c r="L11" t="s">
         <v>275</v>
       </c>
-      <c r="M11" s="3">
-        <f>VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC11/1000+VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M11" s="5">
+        <f>VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC11+VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N11" t="s">
         <v>276</v>
       </c>
-      <c r="O11">
-        <f>VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O11" s="5">
+        <f>VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC11+VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -29879,7 +29884,7 @@
         <v>259</v>
       </c>
       <c r="I12">
-        <f>VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J12" t="s">
@@ -29892,16 +29897,16 @@
       <c r="L12" t="s">
         <v>275</v>
       </c>
-      <c r="M12" s="3">
-        <f>VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC12/1000+VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M12" s="5">
+        <f>VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC12+VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N12" t="s">
         <v>276</v>
       </c>
-      <c r="O12">
-        <f>VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O12" s="5">
+        <f>VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC12+VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -29933,7 +29938,7 @@
         <v>259</v>
       </c>
       <c r="I13">
-        <f>VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J13" t="s">
@@ -29946,16 +29951,16 @@
       <c r="L13" t="s">
         <v>275</v>
       </c>
-      <c r="M13" s="3">
-        <f>VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC13/1000+VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M13" s="5">
+        <f>VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC13+VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N13" t="s">
         <v>276</v>
       </c>
-      <c r="O13">
-        <f>VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O13" s="5">
+        <f>VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC13+VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -29987,7 +29992,7 @@
         <v>259</v>
       </c>
       <c r="I14">
-        <f>VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J14" t="s">
@@ -30000,16 +30005,16 @@
       <c r="L14" t="s">
         <v>275</v>
       </c>
-      <c r="M14" s="3">
-        <f>VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC14/1000+VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M14" s="5">
+        <f>VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC14+VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N14" t="s">
         <v>276</v>
       </c>
-      <c r="O14">
-        <f>VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O14" s="5">
+        <f>VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC14+VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -30041,7 +30046,7 @@
         <v>259</v>
       </c>
       <c r="I15">
-        <f>VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J15" t="s">
@@ -30054,16 +30059,16 @@
       <c r="L15" t="s">
         <v>275</v>
       </c>
-      <c r="M15" s="3">
-        <f>VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC15/1000+VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>0.70375919999999992</v>
+      <c r="M15" s="5">
+        <f>VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC15+VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
       <c r="N15" t="s">
         <v>276</v>
       </c>
-      <c r="O15">
-        <f>VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O15" s="5">
+        <f>VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC15+VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -30095,7 +30100,7 @@
         <v>259</v>
       </c>
       <c r="I16">
-        <f>VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J16" t="s">
@@ -30108,16 +30113,16 @@
       <c r="L16" t="s">
         <v>275</v>
       </c>
-      <c r="M16" s="3">
-        <f>VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC16/1000+VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>0.70375919999999992</v>
+      <c r="M16" s="5">
+        <f>VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC16+VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
       <c r="N16" t="s">
         <v>276</v>
       </c>
-      <c r="O16">
-        <f>VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O16" s="5">
+        <f>VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC16+VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -30149,7 +30154,7 @@
         <v>259</v>
       </c>
       <c r="I17">
-        <f>VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J17" t="s">
@@ -30162,16 +30167,16 @@
       <c r="L17" t="s">
         <v>275</v>
       </c>
-      <c r="M17" s="3">
-        <f>VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC17/1000+VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>22.784795619</v>
+      <c r="M17" s="5">
+        <f>VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC17+VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
       <c r="N17" t="s">
         <v>276</v>
       </c>
-      <c r="O17">
-        <f>VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O17" s="5">
+        <f>VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC17+VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -30203,7 +30208,7 @@
         <v>259</v>
       </c>
       <c r="I18">
-        <f>VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J18" t="s">
@@ -30216,16 +30221,16 @@
       <c r="L18" t="s">
         <v>275</v>
       </c>
-      <c r="M18" s="3">
-        <f>VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC18/1000+VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>22.784795619</v>
+      <c r="M18" s="5">
+        <f>VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC18+VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
       <c r="N18" t="s">
         <v>276</v>
       </c>
-      <c r="O18">
-        <f>VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O18" s="5">
+        <f>VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC18+VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -30257,7 +30262,7 @@
         <v>259</v>
       </c>
       <c r="I19">
-        <f>VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J19" t="s">
@@ -30270,16 +30275,16 @@
       <c r="L19" t="s">
         <v>275</v>
       </c>
-      <c r="M19" s="3">
-        <f>VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC19/1000+VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>28.046681022000001</v>
+      <c r="M19" s="5">
+        <f>VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC19+VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
       <c r="N19" t="s">
         <v>276</v>
       </c>
-      <c r="O19">
-        <f>VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O19" s="5">
+        <f>VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC19+VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -30311,7 +30316,7 @@
         <v>259</v>
       </c>
       <c r="I20">
-        <f>VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J20" t="s">
@@ -30324,16 +30329,16 @@
       <c r="L20" t="s">
         <v>275</v>
       </c>
-      <c r="M20" s="3">
-        <f>VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC20/1000+VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>22.784795619</v>
+      <c r="M20" s="5">
+        <f>VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC20+VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
       <c r="N20" t="s">
         <v>276</v>
       </c>
-      <c r="O20">
-        <f>VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O20" s="5">
+        <f>VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC20+VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -30365,7 +30370,7 @@
         <v>259</v>
       </c>
       <c r="I21">
-        <f>VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J21" t="s">
@@ -30378,16 +30383,16 @@
       <c r="L21" t="s">
         <v>275</v>
       </c>
-      <c r="M21" s="3">
-        <f>VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC21/1000+VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>36.749813558999996</v>
+      <c r="M21" s="5">
+        <f>VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC21+VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>36749.813558999995</v>
       </c>
       <c r="N21" t="s">
         <v>276</v>
       </c>
-      <c r="O21">
-        <f>VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O21" s="5">
+        <f>VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC21+VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>36749.813558999995</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -30419,7 +30424,7 @@
         <v>259</v>
       </c>
       <c r="I22">
-        <f>VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J22" t="s">
@@ -30432,16 +30437,16 @@
       <c r="L22" t="s">
         <v>275</v>
       </c>
-      <c r="M22" s="3">
-        <f>VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC22/1000+VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M22" s="5">
+        <f>VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC22+VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N22" t="s">
         <v>276</v>
       </c>
-      <c r="O22">
-        <f>VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O22" s="5">
+        <f>VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC22+VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -30473,7 +30478,7 @@
         <v>259</v>
       </c>
       <c r="I23">
-        <f>VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J23" t="s">
@@ -30486,16 +30491,16 @@
       <c r="L23" t="s">
         <v>275</v>
       </c>
-      <c r="M23" s="3">
-        <f>VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC23/1000+VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M23" s="5">
+        <f>VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC23+VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N23" t="s">
         <v>276</v>
       </c>
-      <c r="O23">
-        <f>VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O23" s="5">
+        <f>VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC23+VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -30527,7 +30532,7 @@
         <v>259</v>
       </c>
       <c r="I24">
-        <f>VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J24" t="s">
@@ -30540,16 +30545,16 @@
       <c r="L24" t="s">
         <v>275</v>
       </c>
-      <c r="M24" s="3">
-        <f>VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC24/1000+VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M24" s="5">
+        <f>VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC24+VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N24" t="s">
         <v>276</v>
       </c>
-      <c r="O24">
-        <f>VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O24" s="5">
+        <f>VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC24+VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -30581,7 +30586,7 @@
         <v>259</v>
       </c>
       <c r="I25">
-        <f>VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J25" t="s">
@@ -30594,16 +30599,16 @@
       <c r="L25" t="s">
         <v>275</v>
       </c>
-      <c r="M25" s="3">
-        <f>VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC25/1000+VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.1747000000000001E-2</v>
+      <c r="M25" s="5">
+        <f>VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC25+VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
       <c r="N25" t="s">
         <v>276</v>
       </c>
-      <c r="O25">
-        <f>VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O25" s="5">
+        <f>VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC25+VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -30635,7 +30640,7 @@
         <v>259</v>
       </c>
       <c r="I26">
-        <f>VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J26" t="s">
@@ -30648,16 +30653,16 @@
       <c r="L26" t="s">
         <v>275</v>
       </c>
-      <c r="M26" s="3">
-        <f>VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC26/1000+VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.1747000000000001E-2</v>
+      <c r="M26" s="5">
+        <f>VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC26+VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
       <c r="N26" t="s">
         <v>276</v>
       </c>
-      <c r="O26">
-        <f>VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O26" s="5">
+        <f>VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC26+VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -30689,7 +30694,7 @@
         <v>259</v>
       </c>
       <c r="I27">
-        <f>VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -30702,16 +30707,16 @@
       <c r="L27" t="s">
         <v>275</v>
       </c>
-      <c r="M27" s="3">
-        <f>VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC27/1000+VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>11.172014352</v>
+      <c r="M27" s="5">
+        <f>VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC27+VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
       <c r="N27" t="s">
         <v>276</v>
       </c>
-      <c r="O27">
-        <f>VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O27" s="5">
+        <f>VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC27+VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -30743,7 +30748,7 @@
         <v>259</v>
       </c>
       <c r="I28">
-        <f>VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J28" t="s">
@@ -30756,16 +30761,16 @@
       <c r="L28" t="s">
         <v>275</v>
       </c>
-      <c r="M28" s="3">
-        <f>VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC28/1000+VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.1747000000000001E-2</v>
+      <c r="M28" s="5">
+        <f>VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC28+VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
       <c r="N28" t="s">
         <v>276</v>
       </c>
-      <c r="O28">
-        <f>VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O28" s="5">
+        <f>VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC28+VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -30797,7 +30802,7 @@
         <v>259</v>
       </c>
       <c r="I29">
-        <f>VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J29" t="s">
@@ -30810,16 +30815,16 @@
       <c r="L29" t="s">
         <v>275</v>
       </c>
-      <c r="M29" s="3">
-        <f>VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC29/1000+VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.1747000000000001E-2</v>
+      <c r="M29" s="5">
+        <f>VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC29+VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
       <c r="N29" t="s">
         <v>276</v>
       </c>
-      <c r="O29">
-        <f>VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O29" s="5">
+        <f>VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC29+VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -30851,7 +30856,7 @@
         <v>259</v>
       </c>
       <c r="I30">
-        <f>VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J30" t="s">
@@ -30864,16 +30869,16 @@
       <c r="L30" t="s">
         <v>275</v>
       </c>
-      <c r="M30" s="3">
-        <f>VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC30/1000+VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>11.172014352</v>
+      <c r="M30" s="5">
+        <f>VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC30+VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
       <c r="N30" t="s">
         <v>276</v>
       </c>
-      <c r="O30">
-        <f>VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O30" s="5">
+        <f>VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC30+VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -30905,7 +30910,7 @@
         <v>259</v>
       </c>
       <c r="I31">
-        <f>VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J31" t="s">
@@ -30918,16 +30923,16 @@
       <c r="L31" t="s">
         <v>275</v>
       </c>
-      <c r="M31" s="3">
-        <f>VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC31/1000+VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>11.172014352</v>
+      <c r="M31" s="5">
+        <f>VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC31+VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
       <c r="N31" t="s">
         <v>276</v>
       </c>
-      <c r="O31">
-        <f>VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O31" s="5">
+        <f>VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC31+VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>11172.014352</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -30959,7 +30964,7 @@
         <v>259</v>
       </c>
       <c r="I32">
-        <f>VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J32" t="s">
@@ -30972,16 +30977,16 @@
       <c r="L32" t="s">
         <v>275</v>
       </c>
-      <c r="M32" s="3">
-        <f>VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC32/1000+VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M32" s="5">
+        <f>VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC32+VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N32" t="s">
         <v>276</v>
       </c>
-      <c r="O32">
-        <f>VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O32" s="5">
+        <f>VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC32+VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -31013,7 +31018,7 @@
         <v>259</v>
       </c>
       <c r="I33">
-        <f>VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J33" t="s">
@@ -31026,16 +31031,16 @@
       <c r="L33" t="s">
         <v>275</v>
       </c>
-      <c r="M33" s="3">
-        <f>VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC33/1000+VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M33" s="5">
+        <f>VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC33+VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N33" t="s">
         <v>276</v>
       </c>
-      <c r="O33">
-        <f>VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O33" s="5">
+        <f>VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC33+VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -31067,7 +31072,7 @@
         <v>259</v>
       </c>
       <c r="I34">
-        <f>VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J34" t="s">
@@ -31080,16 +31085,16 @@
       <c r="L34" t="s">
         <v>275</v>
       </c>
-      <c r="M34" s="3">
-        <f>VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC34/1000+VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>28.046681022000001</v>
+      <c r="M34" s="5">
+        <f>VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC34+VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
       <c r="N34" t="s">
         <v>276</v>
       </c>
-      <c r="O34">
-        <f>VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O34" s="5">
+        <f>VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC34+VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -31121,7 +31126,7 @@
         <v>259</v>
       </c>
       <c r="I35">
-        <f>VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J35" t="s">
@@ -31134,16 +31139,16 @@
       <c r="L35" t="s">
         <v>275</v>
       </c>
-      <c r="M35" s="3">
-        <f>VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC35/1000+VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M35" s="5">
+        <f>VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC35+VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N35" t="s">
         <v>276</v>
       </c>
-      <c r="O35">
-        <f>VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O35" s="5">
+        <f>VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC35+VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -31175,7 +31180,7 @@
         <v>259</v>
       </c>
       <c r="I36">
-        <f>VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J36" t="s">
@@ -31188,16 +31193,16 @@
       <c r="L36" t="s">
         <v>275</v>
       </c>
-      <c r="M36" s="3">
-        <f>VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC36/1000+VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M36" s="5">
+        <f>VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC36+VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N36" t="s">
         <v>276</v>
       </c>
-      <c r="O36">
-        <f>VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O36" s="5">
+        <f>VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC36+VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -31229,7 +31234,7 @@
         <v>259</v>
       </c>
       <c r="I37">
-        <f>VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J37" t="s">
@@ -31242,16 +31247,16 @@
       <c r="L37" t="s">
         <v>275</v>
       </c>
-      <c r="M37" s="3">
-        <f>VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC37/1000+VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M37" s="5">
+        <f>VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC37+VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N37" t="s">
         <v>276</v>
       </c>
-      <c r="O37">
-        <f>VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O37" s="5">
+        <f>VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC37+VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -31283,7 +31288,7 @@
         <v>259</v>
       </c>
       <c r="I38">
-        <f>VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J38" t="s">
@@ -31296,16 +31301,16 @@
       <c r="L38" t="s">
         <v>275</v>
       </c>
-      <c r="M38" s="3">
-        <f>VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC38/1000+VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M38" s="5">
+        <f>VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC38+VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N38" t="s">
         <v>276</v>
       </c>
-      <c r="O38">
-        <f>VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O38" s="5">
+        <f>VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC38+VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -31337,7 +31342,7 @@
         <v>259</v>
       </c>
       <c r="I39">
-        <f>VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J39" t="s">
@@ -31350,16 +31355,16 @@
       <c r="L39" t="s">
         <v>275</v>
       </c>
-      <c r="M39" s="3">
-        <f>VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC39/1000+VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>22.784795619</v>
+      <c r="M39" s="5">
+        <f>VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC39+VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
       <c r="N39" t="s">
         <v>276</v>
       </c>
-      <c r="O39">
-        <f>VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O39" s="5">
+        <f>VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC39+VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -31391,7 +31396,7 @@
         <v>259</v>
       </c>
       <c r="I40">
-        <f>VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J40" t="s">
@@ -31404,16 +31409,16 @@
       <c r="L40" t="s">
         <v>275</v>
       </c>
-      <c r="M40" s="3">
-        <f>VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC40/1000+VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>28.046681022000001</v>
+      <c r="M40" s="5">
+        <f>VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC40+VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
       <c r="N40" t="s">
         <v>276</v>
       </c>
-      <c r="O40">
-        <f>VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O40" s="5">
+        <f>VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC40+VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -31445,7 +31450,7 @@
         <v>259</v>
       </c>
       <c r="I41">
-        <f>VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J41" t="s">
@@ -31458,16 +31463,16 @@
       <c r="L41" t="s">
         <v>275</v>
       </c>
-      <c r="M41" s="3">
-        <f>VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC41/1000+VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>28.046681022000001</v>
+      <c r="M41" s="5">
+        <f>VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC41+VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
       <c r="N41" t="s">
         <v>276</v>
       </c>
-      <c r="O41">
-        <f>VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O41" s="5">
+        <f>VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC41+VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -31499,7 +31504,7 @@
         <v>259</v>
       </c>
       <c r="I42">
-        <f>VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J42" t="s">
@@ -31512,16 +31517,16 @@
       <c r="L42" t="s">
         <v>275</v>
       </c>
-      <c r="M42" s="3">
-        <f>VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC42/1000+VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>22.784795619</v>
+      <c r="M42" s="5">
+        <f>VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC42+VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
       <c r="N42" t="s">
         <v>276</v>
       </c>
-      <c r="O42">
-        <f>VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O42" s="5">
+        <f>VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC42+VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -31553,7 +31558,7 @@
         <v>259</v>
       </c>
       <c r="I43">
-        <f>VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J43" t="s">
@@ -31566,16 +31571,16 @@
       <c r="L43" t="s">
         <v>275</v>
       </c>
-      <c r="M43" s="3">
-        <f>VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC43/1000+VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>22.784795619</v>
+      <c r="M43" s="5">
+        <f>VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC43+VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
       <c r="N43" t="s">
         <v>276</v>
       </c>
-      <c r="O43">
-        <f>VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O43" s="5">
+        <f>VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC43+VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -31607,7 +31612,7 @@
         <v>259</v>
       </c>
       <c r="I44">
-        <f>VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J44" t="s">
@@ -31620,16 +31625,16 @@
       <c r="L44" t="s">
         <v>275</v>
       </c>
-      <c r="M44" s="3">
-        <f>VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC44/1000+VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>36.749813558999996</v>
+      <c r="M44" s="5">
+        <f>VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC44+VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>36749.813558999995</v>
       </c>
       <c r="N44" t="s">
         <v>276</v>
       </c>
-      <c r="O44">
-        <f>VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O44" s="5">
+        <f>VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC44+VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>36749.813558999995</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -31661,7 +31666,7 @@
         <v>259</v>
       </c>
       <c r="I45">
-        <f>VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J45" t="s">
@@ -31674,16 +31679,16 @@
       <c r="L45" t="s">
         <v>275</v>
       </c>
-      <c r="M45" s="3">
-        <f>VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC45/1000+VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M45" s="5">
+        <f>VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC45+VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N45" t="s">
         <v>276</v>
       </c>
-      <c r="O45">
-        <f>VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O45" s="5">
+        <f>VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC45+VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -31715,7 +31720,7 @@
         <v>259</v>
       </c>
       <c r="I46">
-        <f>VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J46" t="s">
@@ -31728,16 +31733,16 @@
       <c r="L46" t="s">
         <v>275</v>
       </c>
-      <c r="M46" s="3">
-        <f>VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC46/1000+VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M46" s="5">
+        <f>VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC46+VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N46" t="s">
         <v>276</v>
       </c>
-      <c r="O46">
-        <f>VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O46" s="5">
+        <f>VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC46+VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -31769,7 +31774,7 @@
         <v>259</v>
       </c>
       <c r="I47">
-        <f>VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J47" t="s">
@@ -31782,16 +31787,16 @@
       <c r="L47" t="s">
         <v>275</v>
       </c>
-      <c r="M47" s="3">
-        <f>VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC47/1000+VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M47" s="5">
+        <f>VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC47+VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N47" t="s">
         <v>276</v>
       </c>
-      <c r="O47">
-        <f>VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O47" s="5">
+        <f>VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC47+VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -31823,7 +31828,7 @@
         <v>259</v>
       </c>
       <c r="I48">
-        <f>VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J48" t="s">
@@ -31836,16 +31841,16 @@
       <c r="L48" t="s">
         <v>275</v>
       </c>
-      <c r="M48" s="3">
-        <f>VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC48/1000+VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.1747000000000001E-2</v>
+      <c r="M48" s="5">
+        <f>VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC48+VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
       <c r="N48" t="s">
         <v>276</v>
       </c>
-      <c r="O48">
-        <f>VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O48" s="5">
+        <f>VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC48+VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -31877,7 +31882,7 @@
         <v>259</v>
       </c>
       <c r="I49">
-        <f>VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J49" t="s">
@@ -31890,16 +31895,16 @@
       <c r="L49" t="s">
         <v>275</v>
       </c>
-      <c r="M49" s="3">
-        <f>VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC49/1000+VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.1747000000000001E-2</v>
+      <c r="M49" s="5">
+        <f>VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC49+VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
       <c r="N49" t="s">
         <v>276</v>
       </c>
-      <c r="O49">
-        <f>VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O49" s="5">
+        <f>VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC49+VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -31931,7 +31936,7 @@
         <v>259</v>
       </c>
       <c r="I50">
-        <f>VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J50" t="s">
@@ -31944,16 +31949,16 @@
       <c r="L50" t="s">
         <v>275</v>
       </c>
-      <c r="M50" s="3">
-        <f>VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC50/1000+VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M50" s="5">
+        <f>VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC50+VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N50" t="s">
         <v>276</v>
       </c>
-      <c r="O50">
-        <f>VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O50" s="5">
+        <f>VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC50+VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -31985,7 +31990,7 @@
         <v>259</v>
       </c>
       <c r="I51">
-        <f>VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J51" t="s">
@@ -31998,16 +32003,16 @@
       <c r="L51" t="s">
         <v>275</v>
       </c>
-      <c r="M51" s="3">
-        <f>VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC51/1000+VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M51" s="5">
+        <f>VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC51+VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N51" t="s">
         <v>276</v>
       </c>
-      <c r="O51">
-        <f>VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O51" s="5">
+        <f>VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC51+VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -32039,7 +32044,7 @@
         <v>259</v>
       </c>
       <c r="I52">
-        <f>VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J52" t="s">
@@ -32052,16 +32057,16 @@
       <c r="L52" t="s">
         <v>275</v>
       </c>
-      <c r="M52" s="3">
-        <f>VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC52/1000+VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.1747000000000001E-2</v>
+      <c r="M52" s="5">
+        <f>VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC52+VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
       <c r="N52" t="s">
         <v>276</v>
       </c>
-      <c r="O52">
-        <f>VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O52" s="5">
+        <f>VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC52+VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -32093,7 +32098,7 @@
         <v>259</v>
       </c>
       <c r="I53">
-        <f>VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J53" t="s">
@@ -32106,16 +32111,16 @@
       <c r="L53" t="s">
         <v>275</v>
       </c>
-      <c r="M53" s="3">
-        <f>VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC53/1000+VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.1747000000000001E-2</v>
+      <c r="M53" s="5">
+        <f>VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC53+VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
       <c r="N53" t="s">
         <v>276</v>
       </c>
-      <c r="O53">
-        <f>VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O53" s="5">
+        <f>VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC53+VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>51.747</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -32147,7 +32152,7 @@
         <v>259</v>
       </c>
       <c r="I54">
-        <f>VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J54" t="s">
@@ -32160,16 +32165,16 @@
       <c r="L54" t="s">
         <v>275</v>
       </c>
-      <c r="M54" s="3">
-        <f>VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC54/1000+VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M54" s="5">
+        <f>VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC54+VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N54" t="s">
         <v>276</v>
       </c>
-      <c r="O54">
-        <f>VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O54" s="5">
+        <f>VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC54+VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -32201,7 +32206,7 @@
         <v>259</v>
       </c>
       <c r="I55">
-        <f>VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J55" t="s">
@@ -32214,16 +32219,16 @@
       <c r="L55" t="s">
         <v>275</v>
       </c>
-      <c r="M55" s="3">
-        <f>VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC55/1000+VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M55" s="5">
+        <f>VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC55+VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N55" t="s">
         <v>276</v>
       </c>
-      <c r="O55">
-        <f>VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O55" s="5">
+        <f>VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC55+VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -32255,7 +32260,7 @@
         <v>259</v>
       </c>
       <c r="I56">
-        <f>VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J56" t="s">
@@ -32268,16 +32273,16 @@
       <c r="L56" t="s">
         <v>275</v>
       </c>
-      <c r="M56" s="3">
-        <f>VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC56/1000+VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M56" s="5">
+        <f>VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC56+VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N56" t="s">
         <v>276</v>
       </c>
-      <c r="O56">
-        <f>VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O56" s="5">
+        <f>VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC56+VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -32309,7 +32314,7 @@
         <v>259</v>
       </c>
       <c r="I57">
-        <f>VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J57" t="s">
@@ -32322,16 +32327,16 @@
       <c r="L57" t="s">
         <v>275</v>
       </c>
-      <c r="M57" s="3">
-        <f>VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC57/1000+VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M57" s="5">
+        <f>VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC57+VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N57" t="s">
         <v>276</v>
       </c>
-      <c r="O57">
-        <f>VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O57" s="5">
+        <f>VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC57+VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -32363,7 +32368,7 @@
         <v>259</v>
       </c>
       <c r="I58">
-        <f>VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J58" t="s">
@@ -32376,16 +32381,16 @@
       <c r="L58" t="s">
         <v>275</v>
       </c>
-      <c r="M58" s="3">
-        <f>VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC58/1000+VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>28.046681022000001</v>
+      <c r="M58" s="5">
+        <f>VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC58+VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
       <c r="N58" t="s">
         <v>276</v>
       </c>
-      <c r="O58">
-        <f>VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O58" s="5">
+        <f>VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC58+VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -32417,7 +32422,7 @@
         <v>259</v>
       </c>
       <c r="I59">
-        <f>VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J59" t="s">
@@ -32430,16 +32435,16 @@
       <c r="L59" t="s">
         <v>275</v>
       </c>
-      <c r="M59" s="3">
-        <f>VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC59/1000+VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>0.70375919999999992</v>
+      <c r="M59" s="5">
+        <f>VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC59+VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
       <c r="N59" t="s">
         <v>276</v>
       </c>
-      <c r="O59">
-        <f>VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O59" s="5">
+        <f>VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC59+VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -32471,7 +32476,7 @@
         <v>259</v>
       </c>
       <c r="I60">
-        <f>VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J60" t="s">
@@ -32484,16 +32489,16 @@
       <c r="L60" t="s">
         <v>275</v>
       </c>
-      <c r="M60" s="3">
-        <f>VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC60/1000+VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>0.70375919999999992</v>
+      <c r="M60" s="5">
+        <f>VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC60+VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
       <c r="N60" t="s">
         <v>276</v>
       </c>
-      <c r="O60">
-        <f>VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O60" s="5">
+        <f>VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC60+VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -32525,7 +32530,7 @@
         <v>259</v>
       </c>
       <c r="I61">
-        <f>VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J61" t="s">
@@ -32538,16 +32543,16 @@
       <c r="L61" t="s">
         <v>275</v>
       </c>
-      <c r="M61" s="3">
-        <f>VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC61/1000+VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>0.70375919999999992</v>
+      <c r="M61" s="5">
+        <f>VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC61+VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
       <c r="N61" t="s">
         <v>276</v>
       </c>
-      <c r="O61">
-        <f>VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O61" s="5">
+        <f>VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC61+VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -32579,7 +32584,7 @@
         <v>259</v>
       </c>
       <c r="I62">
-        <f>VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J62" t="s">
@@ -32592,16 +32597,16 @@
       <c r="L62" t="s">
         <v>275</v>
       </c>
-      <c r="M62" s="3">
-        <f>VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC62/1000+VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>0.70375919999999992</v>
+      <c r="M62" s="5">
+        <f>VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC62+VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
       <c r="N62" t="s">
         <v>276</v>
       </c>
-      <c r="O62">
-        <f>VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O62" s="5">
+        <f>VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC62+VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -32633,7 +32638,7 @@
         <v>259</v>
       </c>
       <c r="I63">
-        <f>VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J63" t="s">
@@ -32646,16 +32651,16 @@
       <c r="L63" t="s">
         <v>275</v>
       </c>
-      <c r="M63" s="3">
-        <f>VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC63/1000+VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>0.70375919999999992</v>
+      <c r="M63" s="5">
+        <f>VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC63+VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
       <c r="N63" t="s">
         <v>276</v>
       </c>
-      <c r="O63">
-        <f>VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O63" s="5">
+        <f>VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC63+VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>703.75919999999996</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -32687,7 +32692,7 @@
         <v>259</v>
       </c>
       <c r="I64">
-        <f>VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J64" t="s">
@@ -32700,16 +32705,16 @@
       <c r="L64" t="s">
         <v>275</v>
       </c>
-      <c r="M64" s="3">
-        <f>VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC64/1000+VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M64" s="5">
+        <f>VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC64+VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N64" t="s">
         <v>276</v>
       </c>
-      <c r="O64">
-        <f>VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O64" s="5">
+        <f>VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC64+VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -32741,7 +32746,7 @@
         <v>259</v>
       </c>
       <c r="I65">
-        <f>VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J65" t="s">
@@ -32754,16 +32759,16 @@
       <c r="L65" t="s">
         <v>275</v>
       </c>
-      <c r="M65" s="3">
-        <f>VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC65/1000+VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M65" s="5">
+        <f>VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC65+VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N65" t="s">
         <v>276</v>
       </c>
-      <c r="O65">
-        <f>VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O65" s="5">
+        <f>VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC65+VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -32795,7 +32800,7 @@
         <v>259</v>
       </c>
       <c r="I66">
-        <f>VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J66" t="s">
@@ -32808,16 +32813,16 @@
       <c r="L66" t="s">
         <v>275</v>
       </c>
-      <c r="M66" s="3">
-        <f>VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC66/1000+VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M66" s="5">
+        <f>VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC66+VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N66" t="s">
         <v>276</v>
       </c>
-      <c r="O66">
-        <f>VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O66" s="5">
+        <f>VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC66+VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -32849,7 +32854,7 @@
         <v>259</v>
       </c>
       <c r="I67">
-        <f>VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J67" t="s">
@@ -32862,16 +32867,16 @@
       <c r="L67" t="s">
         <v>275</v>
       </c>
-      <c r="M67" s="3">
-        <f>VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC67/1000+VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>22.784795619</v>
+      <c r="M67" s="5">
+        <f>VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC67+VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
       <c r="N67" t="s">
         <v>276</v>
       </c>
-      <c r="O67">
-        <f>VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O67" s="5">
+        <f>VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC67+VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>22784.795619</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -32903,7 +32908,7 @@
         <v>259</v>
       </c>
       <c r="I68">
-        <f>VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J68" t="s">
@@ -32916,16 +32921,16 @@
       <c r="L68" t="s">
         <v>275</v>
       </c>
-      <c r="M68" s="3">
-        <f>VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC68/1000+VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>28.046681022000001</v>
+      <c r="M68" s="5">
+        <f>VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC68+VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
       <c r="N68" t="s">
         <v>276</v>
       </c>
-      <c r="O68">
-        <f>VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O68" s="5">
+        <f>VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC68+VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -32957,7 +32962,7 @@
         <v>259</v>
       </c>
       <c r="I69">
-        <f>VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J69" t="s">
@@ -32970,16 +32975,16 @@
       <c r="L69" t="s">
         <v>275</v>
       </c>
-      <c r="M69" s="3">
-        <f>VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC69/1000+VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>28.046681022000001</v>
+      <c r="M69" s="5">
+        <f>VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC69+VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
       <c r="N69" t="s">
         <v>276</v>
       </c>
-      <c r="O69">
-        <f>VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O69" s="5">
+        <f>VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC69+VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -33011,7 +33016,7 @@
         <v>259</v>
       </c>
       <c r="I70">
-        <f>VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J70" t="s">
@@ -33024,16 +33029,16 @@
       <c r="L70" t="s">
         <v>275</v>
       </c>
-      <c r="M70" s="3">
-        <f>VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC70/1000+VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M70" s="5">
+        <f>VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC70+VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N70" t="s">
         <v>276</v>
       </c>
-      <c r="O70">
-        <f>VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O70" s="5">
+        <f>VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC70+VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
@@ -33065,7 +33070,7 @@
         <v>259</v>
       </c>
       <c r="I71">
-        <f>VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J71" t="s">
@@ -33078,16 +33083,16 @@
       <c r="L71" t="s">
         <v>275</v>
       </c>
-      <c r="M71" s="3">
-        <f>VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC71/1000+VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>5.6652344280000007</v>
+      <c r="M71" s="5">
+        <f>VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC71+VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
       <c r="N71" t="s">
         <v>276</v>
       </c>
-      <c r="O71">
-        <f>VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O71" s="5">
+        <f>VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC71+VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>5665.2344280000007</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -33119,7 +33124,7 @@
         <v>259</v>
       </c>
       <c r="I72">
-        <f>VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J72" t="s">
@@ -33132,16 +33137,16 @@
       <c r="L72" t="s">
         <v>275</v>
       </c>
-      <c r="M72" s="3">
-        <f>VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC72/1000+VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>28.046681022000001</v>
+      <c r="M72" s="5">
+        <f>VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC72+VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
       <c r="N72" t="s">
         <v>276</v>
       </c>
-      <c r="O72">
-        <f>VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O72" s="5">
+        <f>VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC72+VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
@@ -33173,7 +33178,7 @@
         <v>259</v>
       </c>
       <c r="I73">
-        <f>VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J73" t="s">
@@ -33186,16 +33191,16 @@
       <c r="L73" t="s">
         <v>275</v>
       </c>
-      <c r="M73" s="3">
-        <f>VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC73/1000+VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>28.046681022000001</v>
+      <c r="M73" s="5">
+        <f>VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC73+VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
       <c r="N73" t="s">
         <v>276</v>
       </c>
-      <c r="O73">
-        <f>VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O73" s="5">
+        <f>VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC73+VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>28046.681022000001</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
@@ -33227,7 +33232,7 @@
         <v>259</v>
       </c>
       <c r="I74">
-        <f>VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J74" t="s">
@@ -33240,15 +33245,15 @@
       <c r="L74" t="s">
         <v>275</v>
       </c>
-      <c r="M74" s="3">
-        <f>VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC74/1000+VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M74" s="5">
+        <f>VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC74+VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N74" t="s">
         <v>276</v>
       </c>
-      <c r="O74">
-        <f>VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O74" s="5">
+        <f>VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC74+VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33281,7 +33286,7 @@
         <v>259</v>
       </c>
       <c r="I75">
-        <f>VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J75" t="s">
@@ -33294,16 +33299,16 @@
       <c r="L75" t="s">
         <v>275</v>
       </c>
-      <c r="M75" s="3">
-        <f>VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC75/1000+VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
-        <v>63.999822299999998</v>
+      <c r="M75" s="5">
+        <f>VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC75+VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+        <v>63999.8223</v>
       </c>
       <c r="N75" t="s">
         <v>276</v>
       </c>
-      <c r="O75">
-        <f>VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
-        <v>0</v>
+      <c r="O75" s="5">
+        <f>VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC75+VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+        <v>63999.8223</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
@@ -33335,7 +33340,7 @@
         <v>259</v>
       </c>
       <c r="I76">
-        <f>VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J76" t="s">
@@ -33348,15 +33353,15 @@
       <c r="L76" t="s">
         <v>275</v>
       </c>
-      <c r="M76" s="3">
-        <f>VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC76/1000+VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M76" s="5">
+        <f>VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC76+VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N76" t="s">
         <v>276</v>
       </c>
-      <c r="O76">
-        <f>VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O76" s="5">
+        <f>VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC76+VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33389,7 +33394,7 @@
         <v>259</v>
       </c>
       <c r="I77">
-        <f>VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J77" t="s">
@@ -33402,15 +33407,15 @@
       <c r="L77" t="s">
         <v>275</v>
       </c>
-      <c r="M77" s="3">
-        <f>VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC77/1000+VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M77" s="5">
+        <f>VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC77+VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N77" t="s">
         <v>276</v>
       </c>
-      <c r="O77">
-        <f>VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O77" s="5">
+        <f>VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC77+VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33443,7 +33448,7 @@
         <v>259</v>
       </c>
       <c r="I78">
-        <f>VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J78" t="s">
@@ -33456,15 +33461,15 @@
       <c r="L78" t="s">
         <v>275</v>
       </c>
-      <c r="M78" s="3">
-        <f>VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC78/1000+VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M78" s="5">
+        <f>VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC78+VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N78" t="s">
         <v>276</v>
       </c>
-      <c r="O78">
-        <f>VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O78" s="5">
+        <f>VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC78+VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33497,7 +33502,7 @@
         <v>259</v>
       </c>
       <c r="I79">
-        <f>VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J79" t="s">
@@ -33510,15 +33515,15 @@
       <c r="L79" t="s">
         <v>275</v>
       </c>
-      <c r="M79" s="3">
-        <f>VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC79/1000+VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M79" s="5">
+        <f>VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC79+VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N79" t="s">
         <v>276</v>
       </c>
-      <c r="O79">
-        <f>VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O79" s="5">
+        <f>VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC79+VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33551,7 +33556,7 @@
         <v>259</v>
       </c>
       <c r="I80">
-        <f>VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J80" t="s">
@@ -33564,15 +33569,15 @@
       <c r="L80" t="s">
         <v>275</v>
       </c>
-      <c r="M80" s="3">
-        <f>VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC80/1000+VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M80" s="5">
+        <f>VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC80+VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N80" t="s">
         <v>276</v>
       </c>
-      <c r="O80">
-        <f>VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O80" s="5">
+        <f>VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC80+VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33605,7 +33610,7 @@
         <v>259</v>
       </c>
       <c r="I81">
-        <f>VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J81" t="s">
@@ -33618,15 +33623,15 @@
       <c r="L81" t="s">
         <v>275</v>
       </c>
-      <c r="M81" s="3">
-        <f>VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC81/1000+VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M81" s="5">
+        <f>VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC81+VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N81" t="s">
         <v>276</v>
       </c>
-      <c r="O81">
-        <f>VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O81" s="5">
+        <f>VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC81+VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33659,7 +33664,7 @@
         <v>259</v>
       </c>
       <c r="I82">
-        <f>VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J82" t="s">
@@ -33672,15 +33677,15 @@
       <c r="L82" t="s">
         <v>275</v>
       </c>
-      <c r="M82" s="3">
-        <f>VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC82/1000+VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M82" s="5">
+        <f>VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC82+VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N82" t="s">
         <v>276</v>
       </c>
-      <c r="O82">
-        <f>VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O82" s="5">
+        <f>VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC82+VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33713,7 +33718,7 @@
         <v>259</v>
       </c>
       <c r="I83">
-        <f>VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J83" t="s">
@@ -33726,15 +33731,15 @@
       <c r="L83" t="s">
         <v>275</v>
       </c>
-      <c r="M83" s="3">
-        <f>VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC83/1000+VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M83" s="5">
+        <f>VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC83+VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N83" t="s">
         <v>276</v>
       </c>
-      <c r="O83">
-        <f>VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O83" s="5">
+        <f>VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC83+VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33767,7 +33772,7 @@
         <v>259</v>
       </c>
       <c r="I84">
-        <f>VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J84" t="s">
@@ -33780,15 +33785,15 @@
       <c r="L84" t="s">
         <v>275</v>
       </c>
-      <c r="M84" s="3">
-        <f>VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC84/1000+VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M84" s="5">
+        <f>VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC84+VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N84" t="s">
         <v>276</v>
       </c>
-      <c r="O84">
-        <f>VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O84" s="5">
+        <f>VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC84+VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33821,7 +33826,7 @@
         <v>259</v>
       </c>
       <c r="I85">
-        <f>VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J85" t="s">
@@ -33834,15 +33839,15 @@
       <c r="L85" t="s">
         <v>275</v>
       </c>
-      <c r="M85" s="3">
-        <f>VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC85/1000+VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M85" s="5">
+        <f>VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC85+VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N85" t="s">
         <v>276</v>
       </c>
-      <c r="O85">
-        <f>VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O85" s="5">
+        <f>VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC85+VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33875,7 +33880,7 @@
         <v>259</v>
       </c>
       <c r="I86">
-        <f>VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J86" t="s">
@@ -33888,15 +33893,15 @@
       <c r="L86" t="s">
         <v>275</v>
       </c>
-      <c r="M86" s="3">
-        <f>VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC86/1000+VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M86" s="5">
+        <f>VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC86+VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N86" t="s">
         <v>276</v>
       </c>
-      <c r="O86">
-        <f>VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O86" s="5">
+        <f>VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC86+VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33929,7 +33934,7 @@
         <v>259</v>
       </c>
       <c r="I87">
-        <f>VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J87" t="s">
@@ -33942,15 +33947,15 @@
       <c r="L87" t="s">
         <v>275</v>
       </c>
-      <c r="M87" s="3">
-        <f>VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC87/1000+VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M87" s="5">
+        <f>VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC87+VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N87" t="s">
         <v>276</v>
       </c>
-      <c r="O87">
-        <f>VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O87" s="5">
+        <f>VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC87+VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -33983,7 +33988,7 @@
         <v>259</v>
       </c>
       <c r="I88">
-        <f>VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J88" t="s">
@@ -33996,15 +34001,15 @@
       <c r="L88" t="s">
         <v>275</v>
       </c>
-      <c r="M88" s="3">
-        <f>VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC88/1000+VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M88" s="5">
+        <f>VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC88+VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N88" t="s">
         <v>276</v>
       </c>
-      <c r="O88">
-        <f>VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O88" s="5">
+        <f>VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC88+VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34037,7 +34042,7 @@
         <v>259</v>
       </c>
       <c r="I89">
-        <f>VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J89" t="s">
@@ -34050,15 +34055,15 @@
       <c r="L89" t="s">
         <v>275</v>
       </c>
-      <c r="M89" s="3">
-        <f>VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC89/1000+VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M89" s="5">
+        <f>VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC89+VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N89" t="s">
         <v>276</v>
       </c>
-      <c r="O89">
-        <f>VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O89" s="5">
+        <f>VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC89+VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34091,7 +34096,7 @@
         <v>259</v>
       </c>
       <c r="I90">
-        <f>VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J90" t="s">
@@ -34104,15 +34109,15 @@
       <c r="L90" t="s">
         <v>275</v>
       </c>
-      <c r="M90" s="3">
-        <f>VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC90/1000+VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M90" s="5">
+        <f>VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC90+VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N90" t="s">
         <v>276</v>
       </c>
-      <c r="O90">
-        <f>VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O90" s="5">
+        <f>VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC90+VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34145,7 +34150,7 @@
         <v>259</v>
       </c>
       <c r="I91">
-        <f>VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J91" t="s">
@@ -34158,15 +34163,15 @@
       <c r="L91" t="s">
         <v>275</v>
       </c>
-      <c r="M91" s="3">
-        <f>VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC91/1000+VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M91" s="5">
+        <f>VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC91+VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N91" t="s">
         <v>276</v>
       </c>
-      <c r="O91">
-        <f>VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O91" s="5">
+        <f>VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC91+VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34199,7 +34204,7 @@
         <v>259</v>
       </c>
       <c r="I92">
-        <f>VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J92" t="s">
@@ -34212,15 +34217,15 @@
       <c r="L92" t="s">
         <v>275</v>
       </c>
-      <c r="M92" s="3">
-        <f>VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC92/1000+VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M92" s="5">
+        <f>VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC92+VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N92" t="s">
         <v>276</v>
       </c>
-      <c r="O92">
-        <f>VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O92" s="5">
+        <f>VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC92+VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34253,7 +34258,7 @@
         <v>259</v>
       </c>
       <c r="I93">
-        <f>VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J93" t="s">
@@ -34266,15 +34271,15 @@
       <c r="L93" t="s">
         <v>275</v>
       </c>
-      <c r="M93" s="3">
-        <f>VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC93/1000+VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M93" s="5">
+        <f>VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC93+VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N93" t="s">
         <v>276</v>
       </c>
-      <c r="O93">
-        <f>VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O93" s="5">
+        <f>VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC93+VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34307,7 +34312,7 @@
         <v>259</v>
       </c>
       <c r="I94">
-        <f>VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J94" t="s">
@@ -34320,15 +34325,15 @@
       <c r="L94" t="s">
         <v>275</v>
       </c>
-      <c r="M94" s="3">
-        <f>VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC94/1000+VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M94" s="5">
+        <f>VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC94+VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N94" t="s">
         <v>276</v>
       </c>
-      <c r="O94">
-        <f>VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O94" s="5">
+        <f>VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC94+VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34361,7 +34366,7 @@
         <v>259</v>
       </c>
       <c r="I95">
-        <f>VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J95" t="s">
@@ -34374,15 +34379,15 @@
       <c r="L95" t="s">
         <v>275</v>
       </c>
-      <c r="M95" s="3">
-        <f>VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC95/1000+VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M95" s="5">
+        <f>VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC95+VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N95" t="s">
         <v>276</v>
       </c>
-      <c r="O95">
-        <f>VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O95" s="5">
+        <f>VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC95+VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34415,7 +34420,7 @@
         <v>259</v>
       </c>
       <c r="I96">
-        <f>VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J96" t="s">
@@ -34428,15 +34433,15 @@
       <c r="L96" t="s">
         <v>275</v>
       </c>
-      <c r="M96" s="3">
-        <f>VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC96/1000+VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M96" s="5">
+        <f>VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC96+VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N96" t="s">
         <v>276</v>
       </c>
-      <c r="O96">
-        <f>VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O96" s="5">
+        <f>VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC96+VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34469,7 +34474,7 @@
         <v>259</v>
       </c>
       <c r="I97">
-        <f>VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J97" t="s">
@@ -34482,15 +34487,15 @@
       <c r="L97" t="s">
         <v>275</v>
       </c>
-      <c r="M97" s="3">
-        <f>VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC97/1000+VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M97" s="5">
+        <f>VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC97+VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N97" t="s">
         <v>276</v>
       </c>
-      <c r="O97">
-        <f>VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O97" s="5">
+        <f>VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC97+VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34523,7 +34528,7 @@
         <v>259</v>
       </c>
       <c r="I98">
-        <f>VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J98" t="s">
@@ -34536,15 +34541,15 @@
       <c r="L98" t="s">
         <v>275</v>
       </c>
-      <c r="M98" s="3">
-        <f>VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC98/1000+VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M98" s="5">
+        <f>VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC98+VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N98" t="s">
         <v>276</v>
       </c>
-      <c r="O98">
-        <f>VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O98" s="5">
+        <f>VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC98+VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34577,7 +34582,7 @@
         <v>259</v>
       </c>
       <c r="I99">
-        <f>VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J99" t="s">
@@ -34590,15 +34595,15 @@
       <c r="L99" t="s">
         <v>275</v>
       </c>
-      <c r="M99" s="3">
-        <f>VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC99/1000+VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M99" s="5">
+        <f>VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC99+VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N99" t="s">
         <v>276</v>
       </c>
-      <c r="O99">
-        <f>VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O99" s="5">
+        <f>VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC99+VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34631,7 +34636,7 @@
         <v>259</v>
       </c>
       <c r="I100">
-        <f>VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J100" t="s">
@@ -34644,15 +34649,15 @@
       <c r="L100" t="s">
         <v>275</v>
       </c>
-      <c r="M100" s="3">
-        <f>VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC100/1000+VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M100" s="5">
+        <f>VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC100+VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N100" t="s">
         <v>276</v>
       </c>
-      <c r="O100">
-        <f>VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O100" s="5">
+        <f>VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC100+VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34685,7 +34690,7 @@
         <v>259</v>
       </c>
       <c r="I101">
-        <f>VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J101" t="s">
@@ -34698,15 +34703,15 @@
       <c r="L101" t="s">
         <v>275</v>
       </c>
-      <c r="M101" s="3">
-        <f>VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC101/1000+VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M101" s="5">
+        <f>VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC101+VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N101" t="s">
         <v>276</v>
       </c>
-      <c r="O101">
-        <f>VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O101" s="5">
+        <f>VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC101+VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34739,7 +34744,7 @@
         <v>259</v>
       </c>
       <c r="I102">
-        <f>VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J102" t="s">
@@ -34752,15 +34757,15 @@
       <c r="L102" t="s">
         <v>275</v>
       </c>
-      <c r="M102" s="3">
-        <f>VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC102/1000+VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M102" s="5">
+        <f>VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC102+VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N102" t="s">
         <v>276</v>
       </c>
-      <c r="O102">
-        <f>VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O102" s="5">
+        <f>VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC102+VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34793,7 +34798,7 @@
         <v>259</v>
       </c>
       <c r="I103">
-        <f>VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J103" t="s">
@@ -34806,15 +34811,15 @@
       <c r="L103" t="s">
         <v>275</v>
       </c>
-      <c r="M103" s="3">
-        <f>VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC103/1000+VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M103" s="5">
+        <f>VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC103+VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N103" t="s">
         <v>276</v>
       </c>
-      <c r="O103">
-        <f>VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O103" s="5">
+        <f>VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC103+VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34847,7 +34852,7 @@
         <v>259</v>
       </c>
       <c r="I104">
-        <f>VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J104" t="s">
@@ -34860,15 +34865,15 @@
       <c r="L104" t="s">
         <v>275</v>
       </c>
-      <c r="M104" s="3">
-        <f>VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC104/1000+VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M104" s="5">
+        <f>VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC104+VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N104" t="s">
         <v>276</v>
       </c>
-      <c r="O104">
-        <f>VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O104" s="5">
+        <f>VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC104+VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34901,7 +34906,7 @@
         <v>259</v>
       </c>
       <c r="I105">
-        <f>VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J105" t="s">
@@ -34914,15 +34919,15 @@
       <c r="L105" t="s">
         <v>275</v>
       </c>
-      <c r="M105" s="3">
-        <f>VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC105/1000+VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M105" s="5">
+        <f>VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC105+VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N105" t="s">
         <v>276</v>
       </c>
-      <c r="O105">
-        <f>VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O105" s="5">
+        <f>VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC105+VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -34955,7 +34960,7 @@
         <v>259</v>
       </c>
       <c r="I106">
-        <f>VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J106" t="s">
@@ -34968,15 +34973,15 @@
       <c r="L106" t="s">
         <v>275</v>
       </c>
-      <c r="M106" s="3">
-        <f>VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC106/1000+VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M106" s="5">
+        <f>VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC106+VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N106" t="s">
         <v>276</v>
       </c>
-      <c r="O106">
-        <f>VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O106" s="5">
+        <f>VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC106+VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35009,7 +35014,7 @@
         <v>259</v>
       </c>
       <c r="I107">
-        <f>VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J107" t="s">
@@ -35022,15 +35027,15 @@
       <c r="L107" t="s">
         <v>275</v>
       </c>
-      <c r="M107" s="3">
-        <f>VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC107/1000+VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M107" s="5">
+        <f>VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC107+VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N107" t="s">
         <v>276</v>
       </c>
-      <c r="O107">
-        <f>VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O107" s="5">
+        <f>VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC107+VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35063,7 +35068,7 @@
         <v>259</v>
       </c>
       <c r="I108">
-        <f>VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J108" t="s">
@@ -35076,15 +35081,15 @@
       <c r="L108" t="s">
         <v>275</v>
       </c>
-      <c r="M108" s="3">
-        <f>VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC108/1000+VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M108" s="5">
+        <f>VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC108+VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N108" t="s">
         <v>276</v>
       </c>
-      <c r="O108">
-        <f>VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O108" s="5">
+        <f>VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC108+VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35117,7 +35122,7 @@
         <v>259</v>
       </c>
       <c r="I109">
-        <f>VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J109" t="s">
@@ -35130,15 +35135,15 @@
       <c r="L109" t="s">
         <v>275</v>
       </c>
-      <c r="M109" s="3">
-        <f>VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC109/1000+VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M109" s="5">
+        <f>VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC109+VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N109" t="s">
         <v>276</v>
       </c>
-      <c r="O109">
-        <f>VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O109" s="5">
+        <f>VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC109+VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35171,7 +35176,7 @@
         <v>259</v>
       </c>
       <c r="I110">
-        <f>VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J110" t="s">
@@ -35184,15 +35189,15 @@
       <c r="L110" t="s">
         <v>275</v>
       </c>
-      <c r="M110" s="3">
-        <f>VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC110/1000+VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M110" s="5">
+        <f>VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC110+VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N110" t="s">
         <v>276</v>
       </c>
-      <c r="O110">
-        <f>VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O110" s="5">
+        <f>VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC110+VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35225,7 +35230,7 @@
         <v>259</v>
       </c>
       <c r="I111">
-        <f>VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J111" t="s">
@@ -35238,15 +35243,15 @@
       <c r="L111" t="s">
         <v>275</v>
       </c>
-      <c r="M111" s="3">
-        <f>VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC111/1000+VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M111" s="5">
+        <f>VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC111+VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N111" t="s">
         <v>276</v>
       </c>
-      <c r="O111">
-        <f>VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O111" s="5">
+        <f>VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC111+VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35279,7 +35284,7 @@
         <v>259</v>
       </c>
       <c r="I112">
-        <f>VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J112" t="s">
@@ -35292,15 +35297,15 @@
       <c r="L112" t="s">
         <v>275</v>
       </c>
-      <c r="M112" s="3">
-        <f>VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC112/1000+VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M112" s="5">
+        <f>VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC112+VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N112" t="s">
         <v>276</v>
       </c>
-      <c r="O112">
-        <f>VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O112" s="5">
+        <f>VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC112+VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35333,7 +35338,7 @@
         <v>259</v>
       </c>
       <c r="I113">
-        <f>VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J113" t="s">
@@ -35346,15 +35351,15 @@
       <c r="L113" t="s">
         <v>275</v>
       </c>
-      <c r="M113" s="3">
-        <f>VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC113/1000+VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M113" s="5">
+        <f>VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC113+VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N113" t="s">
         <v>276</v>
       </c>
-      <c r="O113">
-        <f>VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O113" s="5">
+        <f>VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC113+VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35387,7 +35392,7 @@
         <v>259</v>
       </c>
       <c r="I114">
-        <f>VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J114" t="s">
@@ -35400,15 +35405,15 @@
       <c r="L114" t="s">
         <v>275</v>
       </c>
-      <c r="M114" s="3">
-        <f>VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC114/1000+VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M114" s="5">
+        <f>VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC114+VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N114" t="s">
         <v>276</v>
       </c>
-      <c r="O114">
-        <f>VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O114" s="5">
+        <f>VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC114+VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35441,7 +35446,7 @@
         <v>259</v>
       </c>
       <c r="I115">
-        <f>VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J115" t="s">
@@ -35454,15 +35459,15 @@
       <c r="L115" t="s">
         <v>275</v>
       </c>
-      <c r="M115" s="3">
-        <f>VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC115/1000+VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M115" s="5">
+        <f>VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC115+VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N115" t="s">
         <v>276</v>
       </c>
-      <c r="O115">
-        <f>VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O115" s="5">
+        <f>VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC115+VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35495,7 +35500,7 @@
         <v>259</v>
       </c>
       <c r="I116">
-        <f>VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J116" t="s">
@@ -35508,15 +35513,15 @@
       <c r="L116" t="s">
         <v>275</v>
       </c>
-      <c r="M116" s="3">
-        <f>VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC116/1000+VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M116" s="5">
+        <f>VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC116+VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N116" t="s">
         <v>276</v>
       </c>
-      <c r="O116">
-        <f>VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O116" s="5">
+        <f>VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC116+VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35549,7 +35554,7 @@
         <v>259</v>
       </c>
       <c r="I117">
-        <f>VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J117" t="s">
@@ -35562,15 +35567,15 @@
       <c r="L117" t="s">
         <v>275</v>
       </c>
-      <c r="M117" s="3">
-        <f>VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC117/1000+VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M117" s="5">
+        <f>VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC117+VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N117" t="s">
         <v>276</v>
       </c>
-      <c r="O117">
-        <f>VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O117" s="5">
+        <f>VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC117+VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35603,8 +35608,8 @@
         <v>259</v>
       </c>
       <c r="I118">
-        <f>VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
-        <v>1100</v>
+        <f>VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J118" t="s">
         <v>266</v>
@@ -35616,15 +35621,15 @@
       <c r="L118" t="s">
         <v>275</v>
       </c>
-      <c r="M118" s="3">
-        <f>VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC118/1000+VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M118" s="5">
+        <f>VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC118+VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>10000</v>
       </c>
       <c r="N118" t="s">
         <v>276</v>
       </c>
-      <c r="O118">
-        <f>VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O118" s="5">
+        <f>VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC118+VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>10000</v>
       </c>
     </row>
@@ -35657,7 +35662,7 @@
         <v>259</v>
       </c>
       <c r="I119">
-        <f>VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J119" t="s">
@@ -35670,15 +35675,15 @@
       <c r="L119" t="s">
         <v>275</v>
       </c>
-      <c r="M119" s="3">
-        <f>VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC119/1000+VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M119" s="5">
+        <f>VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC119+VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N119" t="s">
         <v>276</v>
       </c>
-      <c r="O119">
-        <f>VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O119" s="5">
+        <f>VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC119+VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35711,7 +35716,7 @@
         <v>259</v>
       </c>
       <c r="I120">
-        <f>VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J120" t="s">
@@ -35724,15 +35729,15 @@
       <c r="L120" t="s">
         <v>275</v>
       </c>
-      <c r="M120" s="3">
-        <f>VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC120/1000+VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M120" s="5">
+        <f>VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC120+VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N120" t="s">
         <v>276</v>
       </c>
-      <c r="O120">
-        <f>VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O120" s="5">
+        <f>VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC120+VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35765,7 +35770,7 @@
         <v>259</v>
       </c>
       <c r="I121">
-        <f>VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J121" t="s">
@@ -35778,15 +35783,15 @@
       <c r="L121" t="s">
         <v>275</v>
       </c>
-      <c r="M121" s="3">
-        <f>VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC121/1000+VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M121" s="5">
+        <f>VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC121+VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N121" t="s">
         <v>276</v>
       </c>
-      <c r="O121">
-        <f>VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O121" s="5">
+        <f>VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC121+VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35819,7 +35824,7 @@
         <v>259</v>
       </c>
       <c r="I122">
-        <f>VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J122" t="s">
@@ -35832,15 +35837,15 @@
       <c r="L122" t="s">
         <v>275</v>
       </c>
-      <c r="M122" s="3">
-        <f>VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC122/1000+VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M122" s="5">
+        <f>VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC122+VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N122" t="s">
         <v>276</v>
       </c>
-      <c r="O122">
-        <f>VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O122" s="5">
+        <f>VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC122+VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35873,7 +35878,7 @@
         <v>259</v>
       </c>
       <c r="I123">
-        <f>VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J123" t="s">
@@ -35886,15 +35891,15 @@
       <c r="L123" t="s">
         <v>275</v>
       </c>
-      <c r="M123" s="3">
-        <f>VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC123/1000+VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M123" s="5">
+        <f>VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC123+VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N123" t="s">
         <v>276</v>
       </c>
-      <c r="O123">
-        <f>VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O123" s="5">
+        <f>VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC123+VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35927,7 +35932,7 @@
         <v>259</v>
       </c>
       <c r="I124">
-        <f>VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J124" t="s">
@@ -35940,15 +35945,15 @@
       <c r="L124" t="s">
         <v>275</v>
       </c>
-      <c r="M124" s="3">
-        <f>VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC124/1000+VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M124" s="5">
+        <f>VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC124+VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N124" t="s">
         <v>276</v>
       </c>
-      <c r="O124">
-        <f>VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O124" s="5">
+        <f>VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC124+VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -35981,7 +35986,7 @@
         <v>259</v>
       </c>
       <c r="I125">
-        <f>VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J125" t="s">
@@ -35994,15 +35999,15 @@
       <c r="L125" t="s">
         <v>275</v>
       </c>
-      <c r="M125" s="3">
-        <f>VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC125/1000+VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M125" s="5">
+        <f>VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC125+VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N125" t="s">
         <v>276</v>
       </c>
-      <c r="O125">
-        <f>VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O125" s="5">
+        <f>VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC125+VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36035,7 +36040,7 @@
         <v>259</v>
       </c>
       <c r="I126">
-        <f>VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J126" t="s">
@@ -36048,15 +36053,15 @@
       <c r="L126" t="s">
         <v>275</v>
       </c>
-      <c r="M126" s="3">
-        <f>VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC126/1000+VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M126" s="5">
+        <f>VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC126+VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N126" t="s">
         <v>276</v>
       </c>
-      <c r="O126">
-        <f>VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O126" s="5">
+        <f>VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC126+VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36089,7 +36094,7 @@
         <v>259</v>
       </c>
       <c r="I127">
-        <f>VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J127" t="s">
@@ -36102,15 +36107,15 @@
       <c r="L127" t="s">
         <v>275</v>
       </c>
-      <c r="M127" s="3">
-        <f>VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC127/1000+VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M127" s="5">
+        <f>VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC127+VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N127" t="s">
         <v>276</v>
       </c>
-      <c r="O127">
-        <f>VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O127" s="5">
+        <f>VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC127+VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36143,7 +36148,7 @@
         <v>259</v>
       </c>
       <c r="I128">
-        <f>VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J128" t="s">
@@ -36156,15 +36161,15 @@
       <c r="L128" t="s">
         <v>275</v>
       </c>
-      <c r="M128" s="3">
-        <f>VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC128/1000+VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M128" s="5">
+        <f>VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC128+VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N128" t="s">
         <v>276</v>
       </c>
-      <c r="O128">
-        <f>VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O128" s="5">
+        <f>VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC128+VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36197,7 +36202,7 @@
         <v>259</v>
       </c>
       <c r="I129">
-        <f>VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J129" t="s">
@@ -36210,15 +36215,15 @@
       <c r="L129" t="s">
         <v>275</v>
       </c>
-      <c r="M129" s="3">
-        <f>VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC129/1000+VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M129" s="5">
+        <f>VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC129+VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N129" t="s">
         <v>276</v>
       </c>
-      <c r="O129">
-        <f>VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O129" s="5">
+        <f>VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC129+VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36251,7 +36256,7 @@
         <v>259</v>
       </c>
       <c r="I130">
-        <f>VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J130" t="s">
@@ -36264,15 +36269,15 @@
       <c r="L130" t="s">
         <v>275</v>
       </c>
-      <c r="M130" s="3">
-        <f>VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC130/1000+VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M130" s="5">
+        <f>VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC130+VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N130" t="s">
         <v>276</v>
       </c>
-      <c r="O130">
-        <f>VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O130" s="5">
+        <f>VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC130+VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36305,7 +36310,7 @@
         <v>259</v>
       </c>
       <c r="I131">
-        <f>VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J131" t="s">
@@ -36318,15 +36323,15 @@
       <c r="L131" t="s">
         <v>275</v>
       </c>
-      <c r="M131" s="3">
-        <f>VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC131/1000+VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M131" s="5">
+        <f>VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC131+VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N131" t="s">
         <v>276</v>
       </c>
-      <c r="O131">
-        <f>VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O131" s="5">
+        <f>VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC131+VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36359,7 +36364,7 @@
         <v>259</v>
       </c>
       <c r="I132">
-        <f>VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J132" t="s">
@@ -36372,15 +36377,15 @@
       <c r="L132" t="s">
         <v>275</v>
       </c>
-      <c r="M132" s="3">
-        <f>VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC132/1000+VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M132" s="5">
+        <f>VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC132+VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N132" t="s">
         <v>276</v>
       </c>
-      <c r="O132">
-        <f>VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O132" s="5">
+        <f>VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC132+VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36413,7 +36418,7 @@
         <v>259</v>
       </c>
       <c r="I133">
-        <f>VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J133" t="s">
@@ -36426,15 +36431,15 @@
       <c r="L133" t="s">
         <v>275</v>
       </c>
-      <c r="M133" s="3">
-        <f>VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC133/1000+VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M133" s="5">
+        <f>VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC133+VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N133" t="s">
         <v>276</v>
       </c>
-      <c r="O133">
-        <f>VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O133" s="5">
+        <f>VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC133+VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36467,7 +36472,7 @@
         <v>259</v>
       </c>
       <c r="I134">
-        <f>VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J134" t="s">
@@ -36480,15 +36485,15 @@
       <c r="L134" t="s">
         <v>275</v>
       </c>
-      <c r="M134" s="3">
-        <f>VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC134/1000+VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M134" s="5">
+        <f>VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC134+VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N134" t="s">
         <v>276</v>
       </c>
-      <c r="O134">
-        <f>VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O134" s="5">
+        <f>VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC134+VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36521,7 +36526,7 @@
         <v>259</v>
       </c>
       <c r="I135">
-        <f>VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J135" t="s">
@@ -36534,15 +36539,15 @@
       <c r="L135" t="s">
         <v>275</v>
       </c>
-      <c r="M135" s="3">
-        <f>VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC135/1000+VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M135" s="5">
+        <f>VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC135+VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N135" t="s">
         <v>276</v>
       </c>
-      <c r="O135">
-        <f>VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O135" s="5">
+        <f>VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC135+VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36575,7 +36580,7 @@
         <v>259</v>
       </c>
       <c r="I136">
-        <f>VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J136" t="s">
@@ -36588,15 +36593,15 @@
       <c r="L136" t="s">
         <v>275</v>
       </c>
-      <c r="M136" s="3">
-        <f>VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC136/1000+VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M136" s="5">
+        <f>VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC136+VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N136" t="s">
         <v>276</v>
       </c>
-      <c r="O136">
-        <f>VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O136" s="5">
+        <f>VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC136+VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36629,7 +36634,7 @@
         <v>259</v>
       </c>
       <c r="I137">
-        <f>VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J137" t="s">
@@ -36642,15 +36647,15 @@
       <c r="L137" t="s">
         <v>275</v>
       </c>
-      <c r="M137" s="3">
-        <f>VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC137/1000+VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M137" s="5">
+        <f>VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC137+VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N137" t="s">
         <v>276</v>
       </c>
-      <c r="O137">
-        <f>VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O137" s="5">
+        <f>VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC137+VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36683,7 +36688,7 @@
         <v>259</v>
       </c>
       <c r="I138">
-        <f>VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J138" t="s">
@@ -36696,15 +36701,15 @@
       <c r="L138" t="s">
         <v>275</v>
       </c>
-      <c r="M138" s="3">
-        <f>VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC138/1000+VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M138" s="5">
+        <f>VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC138+VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N138" t="s">
         <v>276</v>
       </c>
-      <c r="O138">
-        <f>VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O138" s="5">
+        <f>VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC138+VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36737,7 +36742,7 @@
         <v>259</v>
       </c>
       <c r="I139">
-        <f>VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J139" t="s">
@@ -36750,15 +36755,15 @@
       <c r="L139" t="s">
         <v>275</v>
       </c>
-      <c r="M139" s="3">
-        <f>VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC139/1000+VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M139" s="5">
+        <f>VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC139+VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N139" t="s">
         <v>276</v>
       </c>
-      <c r="O139">
-        <f>VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O139" s="5">
+        <f>VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC139+VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36791,7 +36796,7 @@
         <v>259</v>
       </c>
       <c r="I140">
-        <f>VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J140" t="s">
@@ -36804,15 +36809,15 @@
       <c r="L140" t="s">
         <v>275</v>
       </c>
-      <c r="M140" s="3">
-        <f>VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC140/1000+VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M140" s="5">
+        <f>VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC140+VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N140" t="s">
         <v>276</v>
       </c>
-      <c r="O140">
-        <f>VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O140" s="5">
+        <f>VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC140+VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36845,7 +36850,7 @@
         <v>259</v>
       </c>
       <c r="I141">
-        <f>VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J141" t="s">
@@ -36858,15 +36863,15 @@
       <c r="L141" t="s">
         <v>275</v>
       </c>
-      <c r="M141" s="3">
-        <f>VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC141/1000+VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M141" s="5">
+        <f>VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC141+VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N141" t="s">
         <v>276</v>
       </c>
-      <c r="O141">
-        <f>VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O141" s="5">
+        <f>VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC141+VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36899,7 +36904,7 @@
         <v>259</v>
       </c>
       <c r="I142">
-        <f>VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J142" t="s">
@@ -36912,15 +36917,15 @@
       <c r="L142" t="s">
         <v>275</v>
       </c>
-      <c r="M142" s="3">
-        <f>VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC142/1000+VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M142" s="5">
+        <f>VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC142+VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N142" t="s">
         <v>276</v>
       </c>
-      <c r="O142">
-        <f>VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O142" s="5">
+        <f>VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC142+VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -36953,7 +36958,7 @@
         <v>259</v>
       </c>
       <c r="I143">
-        <f>VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J143" t="s">
@@ -36966,15 +36971,15 @@
       <c r="L143" t="s">
         <v>275</v>
       </c>
-      <c r="M143" s="3">
-        <f>VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC143/1000+VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M143" s="5">
+        <f>VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC143+VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N143" t="s">
         <v>276</v>
       </c>
-      <c r="O143">
-        <f>VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O143" s="5">
+        <f>VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC143+VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37007,7 +37012,7 @@
         <v>259</v>
       </c>
       <c r="I144">
-        <f>VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J144" t="s">
@@ -37020,15 +37025,15 @@
       <c r="L144" t="s">
         <v>275</v>
       </c>
-      <c r="M144" s="3">
-        <f>VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC144/1000+VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M144" s="5">
+        <f>VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC144+VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N144" t="s">
         <v>276</v>
       </c>
-      <c r="O144">
-        <f>VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O144" s="5">
+        <f>VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC144+VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37061,7 +37066,7 @@
         <v>259</v>
       </c>
       <c r="I145">
-        <f>VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J145" t="s">
@@ -37074,15 +37079,15 @@
       <c r="L145" t="s">
         <v>275</v>
       </c>
-      <c r="M145" s="3">
-        <f>VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC145/1000+VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M145" s="5">
+        <f>VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC145+VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N145" t="s">
         <v>276</v>
       </c>
-      <c r="O145">
-        <f>VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O145" s="5">
+        <f>VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC145+VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37115,7 +37120,7 @@
         <v>259</v>
       </c>
       <c r="I146">
-        <f>VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J146" t="s">
@@ -37128,15 +37133,15 @@
       <c r="L146" t="s">
         <v>275</v>
       </c>
-      <c r="M146" s="3">
-        <f>VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC146/1000+VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M146" s="5">
+        <f>VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC146+VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N146" t="s">
         <v>276</v>
       </c>
-      <c r="O146">
-        <f>VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O146" s="5">
+        <f>VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC146+VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37169,7 +37174,7 @@
         <v>259</v>
       </c>
       <c r="I147">
-        <f>VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J147" t="s">
@@ -37182,15 +37187,15 @@
       <c r="L147" t="s">
         <v>275</v>
       </c>
-      <c r="M147" s="3">
-        <f>VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC147/1000+VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M147" s="5">
+        <f>VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC147+VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N147" t="s">
         <v>276</v>
       </c>
-      <c r="O147">
-        <f>VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O147" s="5">
+        <f>VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC147+VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37223,7 +37228,7 @@
         <v>259</v>
       </c>
       <c r="I148">
-        <f>VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J148" t="s">
@@ -37236,15 +37241,15 @@
       <c r="L148" t="s">
         <v>275</v>
       </c>
-      <c r="M148" s="3">
-        <f>VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC148/1000+VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M148" s="5">
+        <f>VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC148+VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N148" t="s">
         <v>276</v>
       </c>
-      <c r="O148">
-        <f>VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O148" s="5">
+        <f>VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC148+VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37277,7 +37282,7 @@
         <v>259</v>
       </c>
       <c r="I149">
-        <f>VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J149" t="s">
@@ -37290,15 +37295,15 @@
       <c r="L149" t="s">
         <v>275</v>
       </c>
-      <c r="M149" s="3">
-        <f>VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC149/1000+VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M149" s="5">
+        <f>VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC149+VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N149" t="s">
         <v>276</v>
       </c>
-      <c r="O149">
-        <f>VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O149" s="5">
+        <f>VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC149+VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37331,7 +37336,7 @@
         <v>259</v>
       </c>
       <c r="I150">
-        <f>VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J150" t="s">
@@ -37344,15 +37349,15 @@
       <c r="L150" t="s">
         <v>275</v>
       </c>
-      <c r="M150" s="3">
-        <f>VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC150/1000+VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M150" s="5">
+        <f>VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC150+VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N150" t="s">
         <v>276</v>
       </c>
-      <c r="O150">
-        <f>VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O150" s="5">
+        <f>VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC150+VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37385,7 +37390,7 @@
         <v>259</v>
       </c>
       <c r="I151">
-        <f>VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J151" t="s">
@@ -37398,15 +37403,15 @@
       <c r="L151" t="s">
         <v>275</v>
       </c>
-      <c r="M151" s="3">
-        <f>VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC151/1000+VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M151" s="5">
+        <f>VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC151+VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N151" t="s">
         <v>276</v>
       </c>
-      <c r="O151">
-        <f>VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O151" s="5">
+        <f>VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC151+VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37439,7 +37444,7 @@
         <v>259</v>
       </c>
       <c r="I152">
-        <f>VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J152" t="s">
@@ -37452,15 +37457,15 @@
       <c r="L152" t="s">
         <v>275</v>
       </c>
-      <c r="M152" s="3">
-        <f>VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC152/1000+VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M152" s="5">
+        <f>VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC152+VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N152" t="s">
         <v>276</v>
       </c>
-      <c r="O152">
-        <f>VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O152" s="5">
+        <f>VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC152+VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37493,7 +37498,7 @@
         <v>259</v>
       </c>
       <c r="I153">
-        <f>VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J153" t="s">
@@ -37506,15 +37511,15 @@
       <c r="L153" t="s">
         <v>275</v>
       </c>
-      <c r="M153" s="3">
-        <f>VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC153/1000+VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M153" s="5">
+        <f>VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC153+VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N153" t="s">
         <v>276</v>
       </c>
-      <c r="O153">
-        <f>VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O153" s="5">
+        <f>VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC153+VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37547,7 +37552,7 @@
         <v>259</v>
       </c>
       <c r="I154">
-        <f>VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J154" t="s">
@@ -37560,15 +37565,15 @@
       <c r="L154" t="s">
         <v>275</v>
       </c>
-      <c r="M154" s="3">
-        <f>VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC154/1000+VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M154" s="5">
+        <f>VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC154+VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N154" t="s">
         <v>276</v>
       </c>
-      <c r="O154">
-        <f>VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O154" s="5">
+        <f>VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC154+VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37601,7 +37606,7 @@
         <v>259</v>
       </c>
       <c r="I155">
-        <f>VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J155" t="s">
@@ -37614,15 +37619,15 @@
       <c r="L155" t="s">
         <v>275</v>
       </c>
-      <c r="M155" s="3">
-        <f>VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC155/1000+VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M155" s="5">
+        <f>VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC155+VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N155" t="s">
         <v>276</v>
       </c>
-      <c r="O155">
-        <f>VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O155" s="5">
+        <f>VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC155+VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37655,7 +37660,7 @@
         <v>259</v>
       </c>
       <c r="I156">
-        <f>VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J156" t="s">
@@ -37668,15 +37673,15 @@
       <c r="L156" t="s">
         <v>275</v>
       </c>
-      <c r="M156" s="3">
-        <f>VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC156/1000+VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M156" s="5">
+        <f>VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC156+VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N156" t="s">
         <v>276</v>
       </c>
-      <c r="O156">
-        <f>VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O156" s="5">
+        <f>VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC156+VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37709,7 +37714,7 @@
         <v>259</v>
       </c>
       <c r="I157">
-        <f>VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J157" t="s">
@@ -37722,15 +37727,15 @@
       <c r="L157" t="s">
         <v>275</v>
       </c>
-      <c r="M157" s="3">
-        <f>VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC157/1000+VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M157" s="5">
+        <f>VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC157+VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N157" t="s">
         <v>276</v>
       </c>
-      <c r="O157">
-        <f>VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O157" s="5">
+        <f>VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC157+VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37763,7 +37768,7 @@
         <v>259</v>
       </c>
       <c r="I158">
-        <f>VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J158" t="s">
@@ -37776,15 +37781,15 @@
       <c r="L158" t="s">
         <v>275</v>
       </c>
-      <c r="M158" s="3">
-        <f>VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC158/1000+VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M158" s="5">
+        <f>VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC158+VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N158" t="s">
         <v>276</v>
       </c>
-      <c r="O158">
-        <f>VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O158" s="5">
+        <f>VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC158+VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37817,7 +37822,7 @@
         <v>259</v>
       </c>
       <c r="I159">
-        <f>VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)*1000</f>
+        <f>VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$AN$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J159" t="s">
@@ -37830,15 +37835,15 @@
       <c r="L159" t="s">
         <v>275</v>
       </c>
-      <c r="M159" s="3">
-        <f>VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC159/1000+VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
+      <c r="M159" s="5">
+        <f>VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC159+VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$W$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N159" t="s">
         <v>276</v>
       </c>
-      <c r="O159">
-        <f>VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
+      <c r="O159" s="5">
+        <f>VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC159+VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -37852,8 +37857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37941,10 +37946,10 @@
         <v>423</v>
       </c>
       <c r="E3" s="3">
-        <v>5.1747000000000001E-2</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>51.747</v>
+      </c>
+      <c r="F3" s="5">
+        <v>51.747</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -37997,10 +38002,10 @@
         <v>423</v>
       </c>
       <c r="E4" s="3">
-        <v>5.1747000000000001E-2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>51.747</v>
+      </c>
+      <c r="F4" s="5">
+        <v>51.747</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -38053,10 +38058,10 @@
         <v>428</v>
       </c>
       <c r="E5" s="3">
-        <v>11.172014352</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>11172.014352</v>
+      </c>
+      <c r="F5" s="5">
+        <v>11172.014352</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -38109,10 +38114,10 @@
         <v>428</v>
       </c>
       <c r="E6" s="3">
-        <v>11.172014352</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>11172.014352</v>
+      </c>
+      <c r="F6" s="5">
+        <v>11172.014352</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -38165,10 +38170,10 @@
         <v>423</v>
       </c>
       <c r="E7" s="3">
-        <v>5.1747000000000001E-2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>51.747</v>
+      </c>
+      <c r="F7" s="5">
+        <v>51.747</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -38221,10 +38226,10 @@
         <v>423</v>
       </c>
       <c r="E8" s="3">
-        <v>5.1747000000000001E-2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>51.747</v>
+      </c>
+      <c r="F8" s="5">
+        <v>51.747</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -38277,10 +38282,10 @@
         <v>428</v>
       </c>
       <c r="E9" s="3">
-        <v>11.172014352</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>11172.014352</v>
+      </c>
+      <c r="F9" s="5">
+        <v>11172.014352</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -38333,10 +38338,10 @@
         <v>428</v>
       </c>
       <c r="E10" s="3">
-        <v>11.172014352</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>11172.014352</v>
+      </c>
+      <c r="F10" s="5">
+        <v>11172.014352</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -38389,10 +38394,10 @@
         <v>428</v>
       </c>
       <c r="E11" s="3">
-        <v>28.046681022000001</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>28046.681022000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>28046.681022000001</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -38445,10 +38450,10 @@
         <v>426</v>
       </c>
       <c r="E12" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -38501,10 +38506,10 @@
         <v>426</v>
       </c>
       <c r="E13" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -38557,10 +38562,10 @@
         <v>426</v>
       </c>
       <c r="E14" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -38613,10 +38618,10 @@
         <v>426</v>
       </c>
       <c r="E15" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -38669,10 +38674,10 @@
         <v>424</v>
       </c>
       <c r="E16" s="3">
-        <v>0.70375919999999992</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+        <v>703.75919999999996</v>
+      </c>
+      <c r="F16" s="5">
+        <v>703.75919999999996</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -38725,10 +38730,10 @@
         <v>424</v>
       </c>
       <c r="E17" s="3">
-        <v>0.70375919999999992</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+        <v>703.75919999999996</v>
+      </c>
+      <c r="F17" s="5">
+        <v>703.75919999999996</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -38781,10 +38786,10 @@
         <v>428</v>
       </c>
       <c r="E18" s="3">
-        <v>22.784795619</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+        <v>22784.795619</v>
+      </c>
+      <c r="F18" s="5">
+        <v>22784.795619</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -38837,10 +38842,10 @@
         <v>428</v>
       </c>
       <c r="E19" s="3">
-        <v>22.784795619</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+        <v>22784.795619</v>
+      </c>
+      <c r="F19" s="5">
+        <v>22784.795619</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -38893,10 +38898,10 @@
         <v>428</v>
       </c>
       <c r="E20" s="3">
-        <v>28.046681022000001</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+        <v>28046.681022000001</v>
+      </c>
+      <c r="F20" s="5">
+        <v>28046.681022000001</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -38949,10 +38954,10 @@
         <v>428</v>
       </c>
       <c r="E21" s="3">
-        <v>22.784795619</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>22784.795619</v>
+      </c>
+      <c r="F21" s="5">
+        <v>22784.795619</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -39005,10 +39010,10 @@
         <v>431</v>
       </c>
       <c r="E22" s="3">
-        <v>36.749813558999996</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+        <v>36749.813558999995</v>
+      </c>
+      <c r="F22" s="5">
+        <v>36749.813558999995</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -39061,10 +39066,10 @@
         <v>426</v>
       </c>
       <c r="E23" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -39117,10 +39122,10 @@
         <v>426</v>
       </c>
       <c r="E24" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -39173,10 +39178,10 @@
         <v>426</v>
       </c>
       <c r="E25" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -39229,10 +39234,10 @@
         <v>423</v>
       </c>
       <c r="E26" s="3">
-        <v>5.1747000000000001E-2</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+        <v>51.747</v>
+      </c>
+      <c r="F26" s="5">
+        <v>51.747</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -39285,10 +39290,10 @@
         <v>423</v>
       </c>
       <c r="E27" s="3">
-        <v>5.1747000000000001E-2</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+        <v>51.747</v>
+      </c>
+      <c r="F27" s="5">
+        <v>51.747</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -39341,10 +39346,10 @@
         <v>428</v>
       </c>
       <c r="E28" s="3">
-        <v>11.172014352</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+        <v>11172.014352</v>
+      </c>
+      <c r="F28" s="5">
+        <v>11172.014352</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -39397,10 +39402,10 @@
         <v>423</v>
       </c>
       <c r="E29" s="3">
-        <v>5.1747000000000001E-2</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+        <v>51.747</v>
+      </c>
+      <c r="F29" s="5">
+        <v>51.747</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -39453,10 +39458,10 @@
         <v>423</v>
       </c>
       <c r="E30" s="3">
-        <v>5.1747000000000001E-2</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+        <v>51.747</v>
+      </c>
+      <c r="F30" s="5">
+        <v>51.747</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -39509,10 +39514,10 @@
         <v>428</v>
       </c>
       <c r="E31" s="3">
-        <v>11.172014352</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+        <v>11172.014352</v>
+      </c>
+      <c r="F31" s="5">
+        <v>11172.014352</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -39565,10 +39570,10 @@
         <v>428</v>
       </c>
       <c r="E32" s="3">
-        <v>11.172014352</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+        <v>11172.014352</v>
+      </c>
+      <c r="F32" s="5">
+        <v>11172.014352</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -39621,10 +39626,10 @@
         <v>426</v>
       </c>
       <c r="E33" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -39677,10 +39682,10 @@
         <v>426</v>
       </c>
       <c r="E34" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F34" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -39733,10 +39738,10 @@
         <v>428</v>
       </c>
       <c r="E35" s="3">
-        <v>28.046681022000001</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
+        <v>28046.681022000001</v>
+      </c>
+      <c r="F35" s="5">
+        <v>28046.681022000001</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -39789,10 +39794,10 @@
         <v>426</v>
       </c>
       <c r="E36" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F36" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -39845,10 +39850,10 @@
         <v>426</v>
       </c>
       <c r="E37" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F37" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -39901,10 +39906,10 @@
         <v>426</v>
       </c>
       <c r="E38" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F38" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -39957,10 +39962,10 @@
         <v>426</v>
       </c>
       <c r="E39" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F39" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -40013,10 +40018,10 @@
         <v>428</v>
       </c>
       <c r="E40" s="3">
-        <v>22.784795619</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
+        <v>22784.795619</v>
+      </c>
+      <c r="F40" s="5">
+        <v>22784.795619</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -40069,10 +40074,10 @@
         <v>428</v>
       </c>
       <c r="E41" s="3">
-        <v>28.046681022000001</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
+        <v>28046.681022000001</v>
+      </c>
+      <c r="F41" s="5">
+        <v>28046.681022000001</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -40125,10 +40130,10 @@
         <v>428</v>
       </c>
       <c r="E42" s="3">
-        <v>28.046681022000001</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
+        <v>28046.681022000001</v>
+      </c>
+      <c r="F42" s="5">
+        <v>28046.681022000001</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -40181,10 +40186,10 @@
         <v>428</v>
       </c>
       <c r="E43" s="3">
-        <v>22.784795619</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
+        <v>22784.795619</v>
+      </c>
+      <c r="F43" s="5">
+        <v>22784.795619</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -40237,10 +40242,10 @@
         <v>428</v>
       </c>
       <c r="E44" s="3">
-        <v>22.784795619</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
+        <v>22784.795619</v>
+      </c>
+      <c r="F44" s="5">
+        <v>22784.795619</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -40293,10 +40298,10 @@
         <v>431</v>
       </c>
       <c r="E45" s="3">
-        <v>36.749813558999996</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
+        <v>36749.813558999995</v>
+      </c>
+      <c r="F45" s="5">
+        <v>36749.813558999995</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -40349,10 +40354,10 @@
         <v>426</v>
       </c>
       <c r="E46" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F46" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -40405,10 +40410,10 @@
         <v>426</v>
       </c>
       <c r="E47" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F47" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -40461,10 +40466,10 @@
         <v>426</v>
       </c>
       <c r="E48" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F48" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -40517,10 +40522,10 @@
         <v>423</v>
       </c>
       <c r="E49" s="3">
-        <v>5.1747000000000001E-2</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
+        <v>51.747</v>
+      </c>
+      <c r="F49" s="5">
+        <v>51.747</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -40573,10 +40578,10 @@
         <v>423</v>
       </c>
       <c r="E50" s="3">
-        <v>5.1747000000000001E-2</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
+        <v>51.747</v>
+      </c>
+      <c r="F50" s="5">
+        <v>51.747</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -40629,10 +40634,10 @@
         <v>426</v>
       </c>
       <c r="E51" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F51" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -40685,10 +40690,10 @@
         <v>426</v>
       </c>
       <c r="E52" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F52" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -40741,10 +40746,10 @@
         <v>423</v>
       </c>
       <c r="E53" s="3">
-        <v>5.1747000000000001E-2</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
+        <v>51.747</v>
+      </c>
+      <c r="F53" s="5">
+        <v>51.747</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -40797,10 +40802,10 @@
         <v>423</v>
       </c>
       <c r="E54" s="3">
-        <v>5.1747000000000001E-2</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
+        <v>51.747</v>
+      </c>
+      <c r="F54" s="5">
+        <v>51.747</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -40853,10 +40858,10 @@
         <v>426</v>
       </c>
       <c r="E55" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F55" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -40909,10 +40914,10 @@
         <v>426</v>
       </c>
       <c r="E56" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F56" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -40965,10 +40970,10 @@
         <v>426</v>
       </c>
       <c r="E57" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F57" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -41021,10 +41026,10 @@
         <v>426</v>
       </c>
       <c r="E58" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F58" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -41077,10 +41082,10 @@
         <v>428</v>
       </c>
       <c r="E59" s="3">
-        <v>28.046681022000001</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
+        <v>28046.681022000001</v>
+      </c>
+      <c r="F59" s="5">
+        <v>28046.681022000001</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -41133,10 +41138,10 @@
         <v>424</v>
       </c>
       <c r="E60" s="3">
-        <v>0.70375919999999992</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
+        <v>703.75919999999996</v>
+      </c>
+      <c r="F60" s="5">
+        <v>703.75919999999996</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -41189,10 +41194,10 @@
         <v>424</v>
       </c>
       <c r="E61" s="3">
-        <v>0.70375919999999992</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
+        <v>703.75919999999996</v>
+      </c>
+      <c r="F61" s="5">
+        <v>703.75919999999996</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -41245,10 +41250,10 @@
         <v>424</v>
       </c>
       <c r="E62" s="3">
-        <v>0.70375919999999992</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
+        <v>703.75919999999996</v>
+      </c>
+      <c r="F62" s="5">
+        <v>703.75919999999996</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -41301,10 +41306,10 @@
         <v>424</v>
       </c>
       <c r="E63" s="3">
-        <v>0.70375919999999992</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
+        <v>703.75919999999996</v>
+      </c>
+      <c r="F63" s="5">
+        <v>703.75919999999996</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -41357,10 +41362,10 @@
         <v>424</v>
       </c>
       <c r="E64" s="3">
-        <v>0.70375919999999992</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
+        <v>703.75919999999996</v>
+      </c>
+      <c r="F64" s="5">
+        <v>703.75919999999996</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -41413,10 +41418,10 @@
         <v>426</v>
       </c>
       <c r="E65" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F65" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -41469,10 +41474,10 @@
         <v>426</v>
       </c>
       <c r="E66" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F66" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -41525,10 +41530,10 @@
         <v>426</v>
       </c>
       <c r="E67" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F67" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -41581,10 +41586,10 @@
         <v>428</v>
       </c>
       <c r="E68" s="3">
-        <v>22.784795619</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
+        <v>22784.795619</v>
+      </c>
+      <c r="F68" s="5">
+        <v>22784.795619</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -41637,10 +41642,10 @@
         <v>428</v>
       </c>
       <c r="E69" s="3">
-        <v>28.046681022000001</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
+        <v>28046.681022000001</v>
+      </c>
+      <c r="F69" s="5">
+        <v>28046.681022000001</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -41693,10 +41698,10 @@
         <v>428</v>
       </c>
       <c r="E70" s="3">
-        <v>28.046681022000001</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
+        <v>28046.681022000001</v>
+      </c>
+      <c r="F70" s="5">
+        <v>28046.681022000001</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -41749,10 +41754,10 @@
         <v>426</v>
       </c>
       <c r="E71" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F71" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -41805,10 +41810,10 @@
         <v>426</v>
       </c>
       <c r="E72" s="3">
-        <v>5.6652344280000007</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
+        <v>5665.2344280000007</v>
+      </c>
+      <c r="F72" s="5">
+        <v>5665.2344280000007</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -41861,10 +41866,10 @@
         <v>428</v>
       </c>
       <c r="E73" s="3">
-        <v>28.046681022000001</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
+        <v>28046.681022000001</v>
+      </c>
+      <c r="F73" s="5">
+        <v>28046.681022000001</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -41917,10 +41922,10 @@
         <v>428</v>
       </c>
       <c r="E74" s="3">
-        <v>28.046681022000001</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
+        <v>28046.681022000001</v>
+      </c>
+      <c r="F74" s="5">
+        <v>28046.681022000001</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -41975,7 +41980,7 @@
       <c r="E75" s="3">
         <v>0</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="5">
         <v>0</v>
       </c>
       <c r="H75">
@@ -42029,10 +42034,10 @@
         <v>431</v>
       </c>
       <c r="E76" s="3">
-        <v>63.999822299999998</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
+        <v>63999.8223</v>
+      </c>
+      <c r="F76" s="5">
+        <v>63999.8223</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -42087,7 +42092,7 @@
       <c r="E77" s="3">
         <v>0</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="5">
         <v>0</v>
       </c>
       <c r="H77">
@@ -42143,7 +42148,7 @@
       <c r="E78" s="3">
         <v>0</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="5">
         <v>0</v>
       </c>
       <c r="H78">
@@ -42199,7 +42204,7 @@
       <c r="E79" s="3">
         <v>0</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="5">
         <v>0</v>
       </c>
       <c r="H79">
@@ -42255,7 +42260,7 @@
       <c r="E80" s="3">
         <v>0</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="5">
         <v>0</v>
       </c>
       <c r="H80">
@@ -42311,7 +42316,7 @@
       <c r="E81" s="3">
         <v>0</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="5">
         <v>0</v>
       </c>
       <c r="H81">
@@ -42367,7 +42372,7 @@
       <c r="E82" s="3">
         <v>0</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="5">
         <v>0</v>
       </c>
       <c r="H82">
@@ -42423,7 +42428,7 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="5">
         <v>0</v>
       </c>
       <c r="H83">
@@ -42479,7 +42484,7 @@
       <c r="E84" s="3">
         <v>0</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="5">
         <v>0</v>
       </c>
       <c r="H84">
@@ -42535,7 +42540,7 @@
       <c r="E85" s="3">
         <v>0</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="5">
         <v>0</v>
       </c>
       <c r="H85">
@@ -42591,7 +42596,7 @@
       <c r="E86" s="3">
         <v>0</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="5">
         <v>0</v>
       </c>
       <c r="H86">
@@ -42647,7 +42652,7 @@
       <c r="E87" s="3">
         <v>0</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="5">
         <v>0</v>
       </c>
       <c r="H87">
@@ -42703,7 +42708,7 @@
       <c r="E88" s="3">
         <v>0</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="5">
         <v>0</v>
       </c>
       <c r="H88">
@@ -42759,7 +42764,7 @@
       <c r="E89" s="3">
         <v>0</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="5">
         <v>0</v>
       </c>
       <c r="H89">
@@ -42815,7 +42820,7 @@
       <c r="E90" s="3">
         <v>0</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="5">
         <v>0</v>
       </c>
       <c r="H90">
@@ -42871,7 +42876,7 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="5">
         <v>0</v>
       </c>
       <c r="H91">
@@ -42927,7 +42932,7 @@
       <c r="E92" s="3">
         <v>0</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="5">
         <v>0</v>
       </c>
       <c r="H92">
@@ -42983,7 +42988,7 @@
       <c r="E93" s="3">
         <v>0</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="5">
         <v>0</v>
       </c>
       <c r="H93">
@@ -43039,7 +43044,7 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="5">
         <v>0</v>
       </c>
       <c r="H94">
@@ -43095,7 +43100,7 @@
       <c r="E95" s="3">
         <v>0</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="5">
         <v>0</v>
       </c>
       <c r="H95">
@@ -43151,7 +43156,7 @@
       <c r="E96" s="3">
         <v>0</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="5">
         <v>0</v>
       </c>
       <c r="H96">
@@ -43207,7 +43212,7 @@
       <c r="E97" s="3">
         <v>0</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="5">
         <v>0</v>
       </c>
       <c r="H97">
@@ -43263,7 +43268,7 @@
       <c r="E98" s="3">
         <v>0</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="5">
         <v>0</v>
       </c>
       <c r="H98">
@@ -43319,7 +43324,7 @@
       <c r="E99" s="3">
         <v>0</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="5">
         <v>0</v>
       </c>
       <c r="H99">
@@ -43375,7 +43380,7 @@
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="5">
         <v>0</v>
       </c>
       <c r="H100">
@@ -43431,7 +43436,7 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="5">
         <v>0</v>
       </c>
       <c r="H101">
@@ -43487,7 +43492,7 @@
       <c r="E102" s="3">
         <v>0</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="5">
         <v>0</v>
       </c>
       <c r="H102">
@@ -43543,7 +43548,7 @@
       <c r="E103" s="3">
         <v>0</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="5">
         <v>0</v>
       </c>
       <c r="H103">
@@ -43599,7 +43604,7 @@
       <c r="E104" s="3">
         <v>0</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="5">
         <v>0</v>
       </c>
       <c r="H104">
@@ -43655,7 +43660,7 @@
       <c r="E105" s="3">
         <v>0</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="5">
         <v>0</v>
       </c>
       <c r="H105">
@@ -43711,7 +43716,7 @@
       <c r="E106" s="3">
         <v>0</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="5">
         <v>0</v>
       </c>
       <c r="H106">
@@ -43767,7 +43772,7 @@
       <c r="E107" s="3">
         <v>0</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="5">
         <v>0</v>
       </c>
       <c r="H107">
@@ -43823,7 +43828,7 @@
       <c r="E108" s="3">
         <v>0</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="5">
         <v>0</v>
       </c>
       <c r="H108">
@@ -43879,7 +43884,7 @@
       <c r="E109" s="3">
         <v>0</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="5">
         <v>0</v>
       </c>
       <c r="H109">
@@ -43935,7 +43940,7 @@
       <c r="E110" s="3">
         <v>0</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="5">
         <v>0</v>
       </c>
       <c r="H110">
@@ -43991,7 +43996,7 @@
       <c r="E111" s="3">
         <v>0</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="5">
         <v>0</v>
       </c>
       <c r="H111">
@@ -44047,7 +44052,7 @@
       <c r="E112" s="3">
         <v>0</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="5">
         <v>0</v>
       </c>
       <c r="H112">
@@ -44103,7 +44108,7 @@
       <c r="E113" s="3">
         <v>0</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="5">
         <v>0</v>
       </c>
       <c r="H113">
@@ -44159,7 +44164,7 @@
       <c r="E114" s="3">
         <v>0</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="5">
         <v>0</v>
       </c>
       <c r="H114">
@@ -44215,7 +44220,7 @@
       <c r="E115" s="3">
         <v>0</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="5">
         <v>0</v>
       </c>
       <c r="H115">
@@ -44271,7 +44276,7 @@
       <c r="E116" s="3">
         <v>0</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="5">
         <v>0</v>
       </c>
       <c r="H116">
@@ -44327,7 +44332,7 @@
       <c r="E117" s="3">
         <v>0</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="5">
         <v>0</v>
       </c>
       <c r="H117">
@@ -44383,7 +44388,7 @@
       <c r="E118" s="3">
         <v>0</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="5">
         <v>0</v>
       </c>
       <c r="H118">
@@ -44439,7 +44444,7 @@
       <c r="E119" s="3">
         <v>10000</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="5">
         <v>10000</v>
       </c>
       <c r="H119">
@@ -44495,7 +44500,7 @@
       <c r="E120" s="3">
         <v>0</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="5">
         <v>0</v>
       </c>
       <c r="H120">
@@ -44551,7 +44556,7 @@
       <c r="E121" s="3">
         <v>0</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="5">
         <v>0</v>
       </c>
       <c r="H121">
@@ -44607,7 +44612,7 @@
       <c r="E122" s="3">
         <v>0</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="5">
         <v>0</v>
       </c>
       <c r="H122">
@@ -44663,7 +44668,7 @@
       <c r="E123" s="3">
         <v>0</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="5">
         <v>0</v>
       </c>
       <c r="H123">
@@ -44719,7 +44724,7 @@
       <c r="E124" s="3">
         <v>0</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="5">
         <v>0</v>
       </c>
       <c r="H124">
@@ -44775,7 +44780,7 @@
       <c r="E125" s="3">
         <v>0</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="5">
         <v>0</v>
       </c>
       <c r="H125">
@@ -44831,7 +44836,7 @@
       <c r="E126" s="3">
         <v>0</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="5">
         <v>0</v>
       </c>
       <c r="H126">
@@ -44887,7 +44892,7 @@
       <c r="E127" s="3">
         <v>0</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="5">
         <v>0</v>
       </c>
       <c r="H127">
@@ -44943,7 +44948,7 @@
       <c r="E128" s="3">
         <v>0</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="5">
         <v>0</v>
       </c>
       <c r="H128">
@@ -44999,7 +45004,7 @@
       <c r="E129" s="3">
         <v>0</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="5">
         <v>0</v>
       </c>
       <c r="H129">
@@ -45055,7 +45060,7 @@
       <c r="E130" s="3">
         <v>0</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="5">
         <v>0</v>
       </c>
       <c r="H130">
@@ -45111,7 +45116,7 @@
       <c r="E131" s="3">
         <v>0</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="5">
         <v>0</v>
       </c>
       <c r="H131">
@@ -45167,7 +45172,7 @@
       <c r="E132" s="3">
         <v>0</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="5">
         <v>0</v>
       </c>
       <c r="H132">
@@ -45223,7 +45228,7 @@
       <c r="E133" s="3">
         <v>0</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="5">
         <v>0</v>
       </c>
       <c r="H133">
@@ -45279,7 +45284,7 @@
       <c r="E134" s="3">
         <v>0</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="5">
         <v>0</v>
       </c>
       <c r="H134">
@@ -45335,7 +45340,7 @@
       <c r="E135" s="3">
         <v>0</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="5">
         <v>0</v>
       </c>
       <c r="H135">
@@ -45391,7 +45396,7 @@
       <c r="E136" s="3">
         <v>0</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="5">
         <v>0</v>
       </c>
       <c r="H136">
@@ -45447,7 +45452,7 @@
       <c r="E137" s="3">
         <v>0</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="5">
         <v>0</v>
       </c>
       <c r="H137">
@@ -45503,7 +45508,7 @@
       <c r="E138" s="3">
         <v>0</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="5">
         <v>0</v>
       </c>
       <c r="H138">
@@ -45559,7 +45564,7 @@
       <c r="E139" s="3">
         <v>0</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="5">
         <v>0</v>
       </c>
       <c r="H139">
@@ -45615,7 +45620,7 @@
       <c r="E140" s="3">
         <v>0</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="5">
         <v>0</v>
       </c>
       <c r="H140">
@@ -45671,7 +45676,7 @@
       <c r="E141" s="3">
         <v>0</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="5">
         <v>0</v>
       </c>
       <c r="H141">
@@ -45727,7 +45732,7 @@
       <c r="E142" s="3">
         <v>0</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="5">
         <v>0</v>
       </c>
       <c r="H142">
@@ -45783,7 +45788,7 @@
       <c r="E143" s="3">
         <v>0</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="5">
         <v>0</v>
       </c>
       <c r="H143">
@@ -45839,7 +45844,7 @@
       <c r="E144" s="3">
         <v>0</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="5">
         <v>0</v>
       </c>
       <c r="H144">
@@ -45895,7 +45900,7 @@
       <c r="E145" s="3">
         <v>0</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="5">
         <v>0</v>
       </c>
       <c r="H145">
@@ -45951,7 +45956,7 @@
       <c r="E146" s="3">
         <v>0</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="5">
         <v>0</v>
       </c>
       <c r="H146">
@@ -46007,7 +46012,7 @@
       <c r="E147" s="3">
         <v>0</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="5">
         <v>0</v>
       </c>
       <c r="H147">
@@ -46063,7 +46068,7 @@
       <c r="E148" s="3">
         <v>0</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="5">
         <v>0</v>
       </c>
       <c r="H148">
@@ -46119,7 +46124,7 @@
       <c r="E149" s="3">
         <v>0</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="5">
         <v>0</v>
       </c>
       <c r="H149">
@@ -46175,7 +46180,7 @@
       <c r="E150" s="3">
         <v>0</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="5">
         <v>0</v>
       </c>
       <c r="H150">
@@ -46231,7 +46236,7 @@
       <c r="E151" s="3">
         <v>0</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="5">
         <v>0</v>
       </c>
       <c r="H151">
@@ -46287,7 +46292,7 @@
       <c r="E152" s="3">
         <v>0</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="5">
         <v>0</v>
       </c>
       <c r="H152">
@@ -46343,7 +46348,7 @@
       <c r="E153" s="3">
         <v>0</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="5">
         <v>0</v>
       </c>
       <c r="H153">
@@ -46399,7 +46404,7 @@
       <c r="E154" s="3">
         <v>0</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="5">
         <v>0</v>
       </c>
       <c r="H154">
@@ -46455,7 +46460,7 @@
       <c r="E155" s="3">
         <v>0</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="5">
         <v>0</v>
       </c>
       <c r="H155">
@@ -46511,7 +46516,7 @@
       <c r="E156" s="3">
         <v>0</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="5">
         <v>0</v>
       </c>
       <c r="H156">
@@ -46567,7 +46572,7 @@
       <c r="E157" s="3">
         <v>0</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="5">
         <v>0</v>
       </c>
       <c r="H157">
@@ -46623,7 +46628,7 @@
       <c r="E158" s="3">
         <v>0</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="5">
         <v>0</v>
       </c>
       <c r="H158">
@@ -46679,7 +46684,7 @@
       <c r="E159" s="3">
         <v>0</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="5">
         <v>0</v>
       </c>
       <c r="H159">
@@ -46735,7 +46740,7 @@
       <c r="E160" s="3">
         <v>0</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="5">
         <v>0</v>
       </c>
       <c r="H160">
@@ -46857,8 +46862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H807"/>
   <sheetViews>
-    <sheetView topLeftCell="A619" workbookViewId="0">
-      <selection activeCell="E636" sqref="E636"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E318" sqref="E318:E475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55973,7 +55978,7 @@
         <v>259</v>
       </c>
       <c r="E434">
-        <v>1100</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G434" t="str">
         <f t="shared" si="6"/>
@@ -61403,8 +61408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H802"/>
   <sheetViews>
-    <sheetView topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="D640" sqref="D640"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -77847,8 +77852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/spine_rts-gmlc/datasets/gen.xlsx
+++ b/spine_rts-gmlc/datasets/gen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="gen" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9697" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10017" uniqueCount="443">
   <si>
     <t>GEN UID</t>
   </si>
@@ -1344,13 +1344,28 @@
   <si>
     <t>313_HEAD_STORAGE</t>
   </si>
+  <si>
+    <t>para_name_7</t>
+  </si>
+  <si>
+    <t>para_name_8</t>
+  </si>
+  <si>
+    <t>value [MW/h]</t>
+  </si>
+  <si>
+    <t>ramp_up</t>
+  </si>
+  <si>
+    <t>ramp_down</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1835,13 +1850,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2166,10 +2182,10 @@
   <dimension ref="A1:BD159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO4" sqref="AO4"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29243,10 +29259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O159"/>
+  <dimension ref="A1:S159"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I159"/>
+    <sheetView topLeftCell="H139" workbookViewId="0">
+      <selection activeCell="R159" sqref="R2:S159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29266,9 +29282,10 @@
     <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29314,8 +29331,20 @@
       <c r="O1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>440</v>
+      </c>
+      <c r="R1" t="s">
+        <v>439</v>
+      </c>
+      <c r="S1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -29368,8 +29397,22 @@
         <f>VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC2+VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>51.747</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S2" s="6">
+        <f>VLOOKUP(A2,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -29422,8 +29465,22 @@
         <f>VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC3+VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>51.747</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R3" t="s">
+        <v>442</v>
+      </c>
+      <c r="S3" s="6">
+        <f>VLOOKUP(A3,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -29476,8 +29533,22 @@
         <f>VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC4+VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>11172.014352</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
+        <v>442</v>
+      </c>
+      <c r="S4" s="6">
+        <f>VLOOKUP(A4,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -29530,8 +29601,22 @@
         <f>VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC5+VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>11172.014352</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+      <c r="R5" t="s">
+        <v>442</v>
+      </c>
+      <c r="S5" s="6">
+        <f>VLOOKUP(A5,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -29584,8 +29669,22 @@
         <f>VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC6+VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>51.747</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R6" t="s">
+        <v>442</v>
+      </c>
+      <c r="S6" s="6">
+        <f>VLOOKUP(A6,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -29638,8 +29737,22 @@
         <f>VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC7+VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>51.747</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R7" t="s">
+        <v>442</v>
+      </c>
+      <c r="S7" s="6">
+        <f>VLOOKUP(A7,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -29692,8 +29805,22 @@
         <f>VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC8+VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>11172.014352</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+      <c r="R8" t="s">
+        <v>442</v>
+      </c>
+      <c r="S8" s="6">
+        <f>VLOOKUP(A8,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -29746,8 +29873,22 @@
         <f>VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC9+VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>11172.014352</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+      <c r="R9" t="s">
+        <v>442</v>
+      </c>
+      <c r="S9" s="6">
+        <f>VLOOKUP(A9,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -29800,8 +29941,22 @@
         <f>VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC10+VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>28046.681022000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+      <c r="R10" t="s">
+        <v>442</v>
+      </c>
+      <c r="S10" s="6">
+        <f>VLOOKUP(A10,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -29854,8 +30009,22 @@
         <f>VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC11+VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R11" t="s">
+        <v>442</v>
+      </c>
+      <c r="S11" s="6">
+        <f>VLOOKUP(A11,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -29908,8 +30077,22 @@
         <f>VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC12+VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R12" t="s">
+        <v>442</v>
+      </c>
+      <c r="S12" s="6">
+        <f>VLOOKUP(A12,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -29962,8 +30145,22 @@
         <f>VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC13+VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R13" t="s">
+        <v>442</v>
+      </c>
+      <c r="S13" s="6">
+        <f>VLOOKUP(A13,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -30016,8 +30213,22 @@
         <f>VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC14+VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R14" t="s">
+        <v>442</v>
+      </c>
+      <c r="S14" s="6">
+        <f>VLOOKUP(A14,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -30070,8 +30281,22 @@
         <f>VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC15+VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>703.75919999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+      <c r="R15" t="s">
+        <v>442</v>
+      </c>
+      <c r="S15" s="6">
+        <f>VLOOKUP(A15,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -30124,8 +30349,22 @@
         <f>VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC16+VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>703.75919999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+      <c r="R16" t="s">
+        <v>442</v>
+      </c>
+      <c r="S16" s="6">
+        <f>VLOOKUP(A16,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -30178,8 +30417,22 @@
         <f>VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC17+VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>22784.795619</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R17" t="s">
+        <v>442</v>
+      </c>
+      <c r="S17" s="6">
+        <f>VLOOKUP(A17,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -30232,8 +30485,22 @@
         <f>VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC18+VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>22784.795619</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R18" t="s">
+        <v>442</v>
+      </c>
+      <c r="S18" s="6">
+        <f>VLOOKUP(A18,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -30286,8 +30553,22 @@
         <f>VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC19+VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>28046.681022000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q19" s="2">
+        <f>VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+      <c r="R19" t="s">
+        <v>442</v>
+      </c>
+      <c r="S19" s="6">
+        <f>VLOOKUP(A19,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -30340,8 +30621,22 @@
         <f>VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC20+VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>22784.795619</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R20" t="s">
+        <v>442</v>
+      </c>
+      <c r="S20" s="6">
+        <f>VLOOKUP(A20,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -30394,8 +30689,22 @@
         <f>VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC21+VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>36749.813558999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P21" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q21" s="2">
+        <f>VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>240</v>
+      </c>
+      <c r="R21" t="s">
+        <v>442</v>
+      </c>
+      <c r="S21" s="6">
+        <f>VLOOKUP(A21,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -30448,8 +30757,22 @@
         <f>VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC22+VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P22" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R22" t="s">
+        <v>442</v>
+      </c>
+      <c r="S22" s="6">
+        <f>VLOOKUP(A22,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -30502,8 +30825,22 @@
         <f>VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC23+VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P23" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R23" t="s">
+        <v>442</v>
+      </c>
+      <c r="S23" s="6">
+        <f>VLOOKUP(A23,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -30556,8 +30893,22 @@
         <f>VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC24+VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P24" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R24" t="s">
+        <v>442</v>
+      </c>
+      <c r="S24" s="6">
+        <f>VLOOKUP(A24,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -30610,8 +30961,22 @@
         <f>VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC25+VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>51.747</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P25" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q25" s="2">
+        <f>VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R25" t="s">
+        <v>442</v>
+      </c>
+      <c r="S25" s="6">
+        <f>VLOOKUP(A25,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -30664,8 +31029,22 @@
         <f>VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC26+VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>51.747</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P26" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R26" t="s">
+        <v>442</v>
+      </c>
+      <c r="S26" s="6">
+        <f>VLOOKUP(A26,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -30718,8 +31097,22 @@
         <f>VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC27+VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>11172.014352</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P27" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q27" s="2">
+        <f>VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+      <c r="R27" t="s">
+        <v>442</v>
+      </c>
+      <c r="S27" s="6">
+        <f>VLOOKUP(A27,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -30772,8 +31165,22 @@
         <f>VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC28+VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>51.747</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P28" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q28" s="2">
+        <f>VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R28" t="s">
+        <v>442</v>
+      </c>
+      <c r="S28" s="6">
+        <f>VLOOKUP(A28,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -30826,8 +31233,22 @@
         <f>VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC29+VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>51.747</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P29" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q29" s="2">
+        <f>VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R29" t="s">
+        <v>442</v>
+      </c>
+      <c r="S29" s="6">
+        <f>VLOOKUP(A29,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -30880,8 +31301,22 @@
         <f>VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC30+VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>11172.014352</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P30" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q30" s="2">
+        <f>VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+      <c r="R30" t="s">
+        <v>442</v>
+      </c>
+      <c r="S30" s="6">
+        <f>VLOOKUP(A30,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -30934,8 +31369,22 @@
         <f>VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC31+VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>11172.014352</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P31" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q31" s="2">
+        <f>VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+      <c r="R31" t="s">
+        <v>442</v>
+      </c>
+      <c r="S31" s="6">
+        <f>VLOOKUP(A31,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -30988,8 +31437,22 @@
         <f>VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC32+VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P32" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q32" s="2">
+        <f>VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R32" t="s">
+        <v>442</v>
+      </c>
+      <c r="S32" s="6">
+        <f>VLOOKUP(A32,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -31042,8 +31505,22 @@
         <f>VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC33+VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P33" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q33" s="2">
+        <f>VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R33" t="s">
+        <v>442</v>
+      </c>
+      <c r="S33" s="6">
+        <f>VLOOKUP(A33,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -31096,8 +31573,22 @@
         <f>VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC34+VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>28046.681022000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P34" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q34" s="2">
+        <f>VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+      <c r="R34" t="s">
+        <v>442</v>
+      </c>
+      <c r="S34" s="6">
+        <f>VLOOKUP(A34,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -31150,8 +31641,22 @@
         <f>VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC35+VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P35" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q35" s="2">
+        <f>VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R35" t="s">
+        <v>442</v>
+      </c>
+      <c r="S35" s="6">
+        <f>VLOOKUP(A35,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -31204,8 +31709,22 @@
         <f>VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC36+VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P36" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q36" s="2">
+        <f>VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R36" t="s">
+        <v>442</v>
+      </c>
+      <c r="S36" s="6">
+        <f>VLOOKUP(A36,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -31258,8 +31777,22 @@
         <f>VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC37+VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P37" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q37" s="2">
+        <f>VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R37" t="s">
+        <v>442</v>
+      </c>
+      <c r="S37" s="6">
+        <f>VLOOKUP(A37,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -31312,8 +31845,22 @@
         <f>VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC38+VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P38" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q38" s="2">
+        <f>VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R38" t="s">
+        <v>442</v>
+      </c>
+      <c r="S38" s="6">
+        <f>VLOOKUP(A38,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -31366,8 +31913,22 @@
         <f>VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC39+VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>22784.795619</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P39" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q39" s="2">
+        <f>VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R39" t="s">
+        <v>442</v>
+      </c>
+      <c r="S39" s="6">
+        <f>VLOOKUP(A39,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -31420,8 +31981,22 @@
         <f>VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC40+VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>28046.681022000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P40" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q40" s="2">
+        <f>VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+      <c r="R40" t="s">
+        <v>442</v>
+      </c>
+      <c r="S40" s="6">
+        <f>VLOOKUP(A40,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -31474,8 +32049,22 @@
         <f>VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC41+VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>28046.681022000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P41" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q41" s="2">
+        <f>VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+      <c r="R41" t="s">
+        <v>442</v>
+      </c>
+      <c r="S41" s="6">
+        <f>VLOOKUP(A41,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -31528,8 +32117,22 @@
         <f>VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC42+VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>22784.795619</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P42" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q42" s="2">
+        <f>VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R42" t="s">
+        <v>442</v>
+      </c>
+      <c r="S42" s="6">
+        <f>VLOOKUP(A42,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>117</v>
       </c>
@@ -31582,8 +32185,22 @@
         <f>VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC43+VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>22784.795619</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P43" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q43" s="2">
+        <f>VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R43" t="s">
+        <v>442</v>
+      </c>
+      <c r="S43" s="6">
+        <f>VLOOKUP(A43,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -31636,8 +32253,22 @@
         <f>VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC44+VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>36749.813558999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P44" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q44" s="2">
+        <f>VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>240</v>
+      </c>
+      <c r="R44" t="s">
+        <v>442</v>
+      </c>
+      <c r="S44" s="6">
+        <f>VLOOKUP(A44,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -31690,8 +32321,22 @@
         <f>VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC45+VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P45" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q45" s="2">
+        <f>VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R45" t="s">
+        <v>442</v>
+      </c>
+      <c r="S45" s="6">
+        <f>VLOOKUP(A45,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -31744,8 +32389,22 @@
         <f>VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC46+VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P46" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q46" s="2">
+        <f>VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R46" t="s">
+        <v>442</v>
+      </c>
+      <c r="S46" s="6">
+        <f>VLOOKUP(A46,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -31798,8 +32457,22 @@
         <f>VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC47+VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P47" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q47" s="2">
+        <f>VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R47" t="s">
+        <v>442</v>
+      </c>
+      <c r="S47" s="6">
+        <f>VLOOKUP(A47,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>122</v>
       </c>
@@ -31852,8 +32525,22 @@
         <f>VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC48+VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>51.747</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P48" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q48" s="2">
+        <f>VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R48" t="s">
+        <v>442</v>
+      </c>
+      <c r="S48" s="6">
+        <f>VLOOKUP(A48,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>123</v>
       </c>
@@ -31906,8 +32593,22 @@
         <f>VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC49+VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>51.747</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P49" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q49" s="2">
+        <f>VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R49" t="s">
+        <v>442</v>
+      </c>
+      <c r="S49" s="6">
+        <f>VLOOKUP(A49,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -31960,8 +32661,22 @@
         <f>VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC50+VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P50" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q50" s="2">
+        <f>VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R50" t="s">
+        <v>442</v>
+      </c>
+      <c r="S50" s="6">
+        <f>VLOOKUP(A50,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -32014,8 +32729,22 @@
         <f>VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC51+VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P51" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q51" s="2">
+        <f>VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R51" t="s">
+        <v>442</v>
+      </c>
+      <c r="S51" s="6">
+        <f>VLOOKUP(A51,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -32068,8 +32797,22 @@
         <f>VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC52+VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>51.747</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P52" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q52" s="2">
+        <f>VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R52" t="s">
+        <v>442</v>
+      </c>
+      <c r="S52" s="6">
+        <f>VLOOKUP(A52,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>127</v>
       </c>
@@ -32122,8 +32865,22 @@
         <f>VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC53+VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>51.747</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P53" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q53" s="2">
+        <f>VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R53" t="s">
+        <v>442</v>
+      </c>
+      <c r="S53" s="6">
+        <f>VLOOKUP(A53,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>128</v>
       </c>
@@ -32176,8 +32933,22 @@
         <f>VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC54+VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P54" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q54" s="2">
+        <f>VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R54" t="s">
+        <v>442</v>
+      </c>
+      <c r="S54" s="6">
+        <f>VLOOKUP(A54,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>129</v>
       </c>
@@ -32230,8 +33001,22 @@
         <f>VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC55+VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P55" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q55" s="2">
+        <f>VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R55" t="s">
+        <v>442</v>
+      </c>
+      <c r="S55" s="6">
+        <f>VLOOKUP(A55,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -32284,8 +33069,22 @@
         <f>VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC56+VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P56" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q56" s="2">
+        <f>VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R56" t="s">
+        <v>442</v>
+      </c>
+      <c r="S56" s="6">
+        <f>VLOOKUP(A56,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -32338,8 +33137,22 @@
         <f>VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC57+VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P57" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q57" s="2">
+        <f>VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R57" t="s">
+        <v>442</v>
+      </c>
+      <c r="S57" s="6">
+        <f>VLOOKUP(A57,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -32392,8 +33205,22 @@
         <f>VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC58+VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>28046.681022000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P58" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q58" s="2">
+        <f>VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+      <c r="R58" t="s">
+        <v>442</v>
+      </c>
+      <c r="S58" s="6">
+        <f>VLOOKUP(A58,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -32446,8 +33273,22 @@
         <f>VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC59+VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>703.75919999999996</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P59" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q59" s="2">
+        <f>VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+      <c r="R59" t="s">
+        <v>442</v>
+      </c>
+      <c r="S59" s="6">
+        <f>VLOOKUP(A59,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -32500,8 +33341,22 @@
         <f>VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC60+VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>703.75919999999996</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P60" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q60" s="2">
+        <f>VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+      <c r="R60" t="s">
+        <v>442</v>
+      </c>
+      <c r="S60" s="6">
+        <f>VLOOKUP(A60,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>135</v>
       </c>
@@ -32554,8 +33409,22 @@
         <f>VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC61+VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>703.75919999999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P61" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q61" s="2">
+        <f>VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+      <c r="R61" t="s">
+        <v>442</v>
+      </c>
+      <c r="S61" s="6">
+        <f>VLOOKUP(A61,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -32608,8 +33477,22 @@
         <f>VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC62+VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>703.75919999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P62" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q62" s="2">
+        <f>VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+      <c r="R62" t="s">
+        <v>442</v>
+      </c>
+      <c r="S62" s="6">
+        <f>VLOOKUP(A62,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -32662,8 +33545,22 @@
         <f>VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC63+VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>703.75919999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P63" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q63" s="2">
+        <f>VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+      <c r="R63" t="s">
+        <v>442</v>
+      </c>
+      <c r="S63" s="6">
+        <f>VLOOKUP(A63,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>138</v>
       </c>
@@ -32716,8 +33613,22 @@
         <f>VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC64+VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P64" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q64" s="2">
+        <f>VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R64" t="s">
+        <v>442</v>
+      </c>
+      <c r="S64" s="6">
+        <f>VLOOKUP(A64,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -32770,8 +33681,22 @@
         <f>VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC65+VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P65" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q65" s="2">
+        <f>VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R65" t="s">
+        <v>442</v>
+      </c>
+      <c r="S65" s="6">
+        <f>VLOOKUP(A65,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>140</v>
       </c>
@@ -32824,8 +33749,22 @@
         <f>VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC66+VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P66" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q66" s="2">
+        <f>VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R66" t="s">
+        <v>442</v>
+      </c>
+      <c r="S66" s="6">
+        <f>VLOOKUP(A66,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -32878,8 +33817,22 @@
         <f>VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC67+VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>22784.795619</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P67" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q67" s="2">
+        <f>VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+      <c r="R67" t="s">
+        <v>442</v>
+      </c>
+      <c r="S67" s="6">
+        <f>VLOOKUP(A67,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -32932,8 +33885,22 @@
         <f>VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC68+VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>28046.681022000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P68" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q68" s="2">
+        <f>VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+      <c r="R68" t="s">
+        <v>442</v>
+      </c>
+      <c r="S68" s="6">
+        <f>VLOOKUP(A68,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -32986,8 +33953,22 @@
         <f>VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC69+VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>28046.681022000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P69" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q69" s="2">
+        <f>VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+      <c r="R69" t="s">
+        <v>442</v>
+      </c>
+      <c r="S69" s="6">
+        <f>VLOOKUP(A69,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -33040,8 +34021,22 @@
         <f>VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC70+VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P70" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q70" s="2">
+        <f>VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R70" t="s">
+        <v>442</v>
+      </c>
+      <c r="S70" s="6">
+        <f>VLOOKUP(A70,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>145</v>
       </c>
@@ -33094,8 +34089,22 @@
         <f>VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC71+VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>5665.2344280000007</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P71" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q71" s="2">
+        <f>VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+      <c r="R71" t="s">
+        <v>442</v>
+      </c>
+      <c r="S71" s="6">
+        <f>VLOOKUP(A71,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -33148,8 +34157,22 @@
         <f>VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC72+VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>28046.681022000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P72" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q72" s="2">
+        <f>VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+      <c r="R72" t="s">
+        <v>442</v>
+      </c>
+      <c r="S72" s="6">
+        <f>VLOOKUP(A72,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>147</v>
       </c>
@@ -33202,8 +34225,22 @@
         <f>VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC73+VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>28046.681022000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P73" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q73" s="2">
+        <f>VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+      <c r="R73" t="s">
+        <v>442</v>
+      </c>
+      <c r="S73" s="6">
+        <f>VLOOKUP(A73,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>248.39999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>148</v>
       </c>
@@ -33256,8 +34293,22 @@
         <f>VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC74+VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P74" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q74" s="2">
+        <f>VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>0</v>
+      </c>
+      <c r="R74" t="s">
+        <v>442</v>
+      </c>
+      <c r="S74" s="6">
+        <f>VLOOKUP(A74,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -33310,8 +34361,22 @@
         <f>VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC75+VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>63999.8223</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P75" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q75" s="2">
+        <f>VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1200</v>
+      </c>
+      <c r="R75" t="s">
+        <v>442</v>
+      </c>
+      <c r="S75" s="6">
+        <f>VLOOKUP(A75,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -33364,8 +34429,22 @@
         <f>VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC76+VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P76" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q76" s="2">
+        <f>VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R76" t="s">
+        <v>442</v>
+      </c>
+      <c r="S76" s="6">
+        <f>VLOOKUP(A76,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -33418,8 +34497,22 @@
         <f>VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC77+VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P77" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q77" s="2">
+        <f>VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R77" t="s">
+        <v>442</v>
+      </c>
+      <c r="S77" s="6">
+        <f>VLOOKUP(A77,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -33472,8 +34565,22 @@
         <f>VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC78+VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P78" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q78" s="2">
+        <f>VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R78" t="s">
+        <v>442</v>
+      </c>
+      <c r="S78" s="6">
+        <f>VLOOKUP(A78,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -33526,8 +34633,22 @@
         <f>VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC79+VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P79" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q79" s="2">
+        <f>VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R79" t="s">
+        <v>442</v>
+      </c>
+      <c r="S79" s="6">
+        <f>VLOOKUP(A79,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>162</v>
       </c>
@@ -33580,8 +34701,22 @@
         <f>VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC80+VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P80" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q80" s="2">
+        <f>VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R80" t="s">
+        <v>442</v>
+      </c>
+      <c r="S80" s="6">
+        <f>VLOOKUP(A80,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>163</v>
       </c>
@@ -33634,8 +34769,22 @@
         <f>VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC81+VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P81" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q81" s="2">
+        <f>VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R81" t="s">
+        <v>442</v>
+      </c>
+      <c r="S81" s="6">
+        <f>VLOOKUP(A81,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -33688,8 +34837,22 @@
         <f>VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC82+VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P82" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q82" s="2">
+        <f>VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R82" t="s">
+        <v>442</v>
+      </c>
+      <c r="S82" s="6">
+        <f>VLOOKUP(A82,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -33742,8 +34905,22 @@
         <f>VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC83+VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P83" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q83" s="2">
+        <f>VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>0</v>
+      </c>
+      <c r="R83" t="s">
+        <v>442</v>
+      </c>
+      <c r="S83" s="6">
+        <f>VLOOKUP(A83,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -33796,8 +34973,22 @@
         <f>VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC84+VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P84" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q84" s="2">
+        <f>VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R84" t="s">
+        <v>442</v>
+      </c>
+      <c r="S84" s="6">
+        <f>VLOOKUP(A84,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -33850,8 +35041,22 @@
         <f>VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC85+VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P85" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q85" s="2">
+        <f>VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R85" t="s">
+        <v>442</v>
+      </c>
+      <c r="S85" s="6">
+        <f>VLOOKUP(A85,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -33904,8 +35109,22 @@
         <f>VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC86+VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P86" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q86" s="2">
+        <f>VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R86" t="s">
+        <v>442</v>
+      </c>
+      <c r="S86" s="6">
+        <f>VLOOKUP(A86,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -33958,8 +35177,22 @@
         <f>VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC87+VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P87" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q87" s="2">
+        <f>VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R87" t="s">
+        <v>442</v>
+      </c>
+      <c r="S87" s="6">
+        <f>VLOOKUP(A87,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -34012,8 +35245,22 @@
         <f>VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC88+VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P88" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q88" s="2">
+        <f>VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R88" t="s">
+        <v>442</v>
+      </c>
+      <c r="S88" s="6">
+        <f>VLOOKUP(A88,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -34066,8 +35313,22 @@
         <f>VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC89+VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P89" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q89" s="2">
+        <f>VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R89" t="s">
+        <v>442</v>
+      </c>
+      <c r="S89" s="6">
+        <f>VLOOKUP(A89,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -34120,8 +35381,22 @@
         <f>VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC90+VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P90" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q90" s="2">
+        <f>VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R90" t="s">
+        <v>442</v>
+      </c>
+      <c r="S90" s="6">
+        <f>VLOOKUP(A90,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -34174,8 +35449,22 @@
         <f>VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC91+VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P91" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q91" s="2">
+        <f>VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R91" t="s">
+        <v>442</v>
+      </c>
+      <c r="S91" s="6">
+        <f>VLOOKUP(A91,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -34228,8 +35517,22 @@
         <f>VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC92+VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P92" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q92" s="2">
+        <f>VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R92" t="s">
+        <v>442</v>
+      </c>
+      <c r="S92" s="6">
+        <f>VLOOKUP(A92,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -34282,8 +35585,22 @@
         <f>VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC93+VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P93" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q93" s="2">
+        <f>VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>0</v>
+      </c>
+      <c r="R93" t="s">
+        <v>442</v>
+      </c>
+      <c r="S93" s="6">
+        <f>VLOOKUP(A93,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>176</v>
       </c>
@@ -34336,8 +35653,22 @@
         <f>VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC94+VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P94" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q94" s="2">
+        <f>VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R94" t="s">
+        <v>442</v>
+      </c>
+      <c r="S94" s="6">
+        <f>VLOOKUP(A94,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -34390,8 +35721,22 @@
         <f>VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC95+VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P95" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q95" s="2">
+        <f>VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R95" t="s">
+        <v>442</v>
+      </c>
+      <c r="S95" s="6">
+        <f>VLOOKUP(A95,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>178</v>
       </c>
@@ -34444,8 +35789,22 @@
         <f>VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC96+VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P96" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q96" s="2">
+        <f>VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R96" t="s">
+        <v>442</v>
+      </c>
+      <c r="S96" s="6">
+        <f>VLOOKUP(A96,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -34498,8 +35857,22 @@
         <f>VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC97+VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P97" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q97" s="2">
+        <f>VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R97" t="s">
+        <v>442</v>
+      </c>
+      <c r="S97" s="6">
+        <f>VLOOKUP(A97,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -34552,8 +35925,22 @@
         <f>VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC98+VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P98" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q98" s="2">
+        <f>VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3096</v>
+      </c>
+      <c r="R98" t="s">
+        <v>442</v>
+      </c>
+      <c r="S98" s="6">
+        <f>VLOOKUP(A98,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>184</v>
       </c>
@@ -34606,8 +35993,22 @@
         <f>VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC99+VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P99" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q99" s="2">
+        <f>VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3096</v>
+      </c>
+      <c r="R99" t="s">
+        <v>442</v>
+      </c>
+      <c r="S99" s="6">
+        <f>VLOOKUP(A99,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>185</v>
       </c>
@@ -34660,8 +36061,22 @@
         <f>VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC100+VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P100" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q100" s="2">
+        <f>VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3096</v>
+      </c>
+      <c r="R100" t="s">
+        <v>442</v>
+      </c>
+      <c r="S100" s="6">
+        <f>VLOOKUP(A100,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>186</v>
       </c>
@@ -34714,8 +36129,22 @@
         <f>VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC101+VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P101" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q101" s="2">
+        <f>VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>5706</v>
+      </c>
+      <c r="R101" t="s">
+        <v>442</v>
+      </c>
+      <c r="S101" s="6">
+        <f>VLOOKUP(A101,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>187</v>
       </c>
@@ -34768,8 +36197,22 @@
         <f>VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC102+VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P102" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q102" s="2">
+        <f>VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>5562</v>
+      </c>
+      <c r="R102" t="s">
+        <v>442</v>
+      </c>
+      <c r="S102" s="6">
+        <f>VLOOKUP(A102,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>5562</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>188</v>
       </c>
@@ -34822,8 +36265,22 @@
         <f>VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC103+VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P103" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q103" s="2">
+        <f>VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3096</v>
+      </c>
+      <c r="R103" t="s">
+        <v>442</v>
+      </c>
+      <c r="S103" s="6">
+        <f>VLOOKUP(A103,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>189</v>
       </c>
@@ -34876,8 +36333,22 @@
         <f>VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC104+VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P104" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q104" s="2">
+        <f>VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>5598</v>
+      </c>
+      <c r="R104" t="s">
+        <v>442</v>
+      </c>
+      <c r="S104" s="6">
+        <f>VLOOKUP(A104,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>190</v>
       </c>
@@ -34930,8 +36401,22 @@
         <f>VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC105+VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P105" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q105" s="2">
+        <f>VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3102</v>
+      </c>
+      <c r="R105" t="s">
+        <v>442</v>
+      </c>
+      <c r="S105" s="6">
+        <f>VLOOKUP(A105,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>191</v>
       </c>
@@ -34984,8 +36469,22 @@
         <f>VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC106+VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P106" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q106" s="2">
+        <f>VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>2982</v>
+      </c>
+      <c r="R106" t="s">
+        <v>442</v>
+      </c>
+      <c r="S106" s="6">
+        <f>VLOOKUP(A106,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>192</v>
       </c>
@@ -35038,8 +36537,22 @@
         <f>VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC107+VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P107" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q107" s="2">
+        <f>VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>5646</v>
+      </c>
+      <c r="R107" t="s">
+        <v>442</v>
+      </c>
+      <c r="S107" s="6">
+        <f>VLOOKUP(A107,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>5646</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>193</v>
       </c>
@@ -35092,8 +36605,22 @@
         <f>VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC108+VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P108" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q108" s="2">
+        <f>VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3096</v>
+      </c>
+      <c r="R108" t="s">
+        <v>442</v>
+      </c>
+      <c r="S108" s="6">
+        <f>VLOOKUP(A108,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>194</v>
       </c>
@@ -35146,8 +36673,22 @@
         <f>VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC109+VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P109" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q109" s="2">
+        <f>VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3096</v>
+      </c>
+      <c r="R109" t="s">
+        <v>442</v>
+      </c>
+      <c r="S109" s="6">
+        <f>VLOOKUP(A109,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>195</v>
       </c>
@@ -35200,8 +36741,22 @@
         <f>VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC110+VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P110" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q110" s="2">
+        <f>VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3060</v>
+      </c>
+      <c r="R110" t="s">
+        <v>442</v>
+      </c>
+      <c r="S110" s="6">
+        <f>VLOOKUP(A110,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>196</v>
       </c>
@@ -35254,8 +36809,22 @@
         <f>VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC111+VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P111" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q111" s="2">
+        <f>VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>5616</v>
+      </c>
+      <c r="R111" t="s">
+        <v>442</v>
+      </c>
+      <c r="S111" s="6">
+        <f>VLOOKUP(A111,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>197</v>
       </c>
@@ -35308,8 +36877,22 @@
         <f>VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC112+VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P112" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q112" s="2">
+        <f>VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>11292</v>
+      </c>
+      <c r="R112" t="s">
+        <v>442</v>
+      </c>
+      <c r="S112" s="6">
+        <f>VLOOKUP(A112,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>11292</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>198</v>
       </c>
@@ -35362,8 +36945,22 @@
         <f>VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC113+VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P113" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q113" s="2">
+        <f>VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>7506</v>
+      </c>
+      <c r="R113" t="s">
+        <v>442</v>
+      </c>
+      <c r="S113" s="6">
+        <f>VLOOKUP(A113,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>7506</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>199</v>
       </c>
@@ -35416,8 +37013,22 @@
         <f>VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC114+VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P114" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q114" s="2">
+        <f>VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1536</v>
+      </c>
+      <c r="R114" t="s">
+        <v>442</v>
+      </c>
+      <c r="S114" s="6">
+        <f>VLOOKUP(A114,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>200</v>
       </c>
@@ -35470,8 +37081,22 @@
         <f>VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC115+VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P115" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q115" s="2">
+        <f>VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1554</v>
+      </c>
+      <c r="R115" t="s">
+        <v>442</v>
+      </c>
+      <c r="S115" s="6">
+        <f>VLOOKUP(A115,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>201</v>
       </c>
@@ -35524,8 +37149,22 @@
         <f>VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC116+VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P116" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q116" s="2">
+        <f>VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1518</v>
+      </c>
+      <c r="R116" t="s">
+        <v>442</v>
+      </c>
+      <c r="S116" s="6">
+        <f>VLOOKUP(A116,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>202</v>
       </c>
@@ -35578,8 +37217,22 @@
         <f>VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC117+VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P117" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q117" s="2">
+        <f>VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1608</v>
+      </c>
+      <c r="R117" t="s">
+        <v>442</v>
+      </c>
+      <c r="S117" s="6">
+        <f>VLOOKUP(A117,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>203</v>
       </c>
@@ -35632,8 +37285,22 @@
         <f>VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC118+VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P118" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q118" s="2">
+        <f>VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1200</v>
+      </c>
+      <c r="R118" t="s">
+        <v>442</v>
+      </c>
+      <c r="S118" s="6">
+        <f>VLOOKUP(A118,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>205</v>
       </c>
@@ -35686,8 +37353,22 @@
         <f>VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC119+VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P119" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q119" s="2">
+        <f>VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1602</v>
+      </c>
+      <c r="R119" t="s">
+        <v>442</v>
+      </c>
+      <c r="S119" s="6">
+        <f>VLOOKUP(A119,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>206</v>
       </c>
@@ -35740,8 +37421,22 @@
         <f>VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC120+VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P120" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q120" s="2">
+        <f>VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1572</v>
+      </c>
+      <c r="R120" t="s">
+        <v>442</v>
+      </c>
+      <c r="S120" s="6">
+        <f>VLOOKUP(A120,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>207</v>
       </c>
@@ -35794,8 +37489,22 @@
         <f>VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC121+VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P121" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q121" s="2">
+        <f>VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1548</v>
+      </c>
+      <c r="R121" t="s">
+        <v>442</v>
+      </c>
+      <c r="S121" s="6">
+        <f>VLOOKUP(A121,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -35848,8 +37557,22 @@
         <f>VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC122+VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P122" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q122" s="2">
+        <f>VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3690</v>
+      </c>
+      <c r="R122" t="s">
+        <v>442</v>
+      </c>
+      <c r="S122" s="6">
+        <f>VLOOKUP(A122,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>209</v>
       </c>
@@ -35902,8 +37625,22 @@
         <f>VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC123+VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P123" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q123" s="2">
+        <f>VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3995.9999999999995</v>
+      </c>
+      <c r="R123" t="s">
+        <v>442</v>
+      </c>
+      <c r="S123" s="6">
+        <f>VLOOKUP(A123,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3995.9999999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>210</v>
       </c>
@@ -35956,8 +37693,22 @@
         <f>VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC124+VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P124" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q124" s="2">
+        <f>VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>6054</v>
+      </c>
+      <c r="R124" t="s">
+        <v>442</v>
+      </c>
+      <c r="S124" s="6">
+        <f>VLOOKUP(A124,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>213</v>
       </c>
@@ -36010,8 +37761,22 @@
         <f>VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC125+VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P125" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q125" s="2">
+        <f>VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>6102</v>
+      </c>
+      <c r="R125" t="s">
+        <v>442</v>
+      </c>
+      <c r="S125" s="6">
+        <f>VLOOKUP(A125,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>214</v>
       </c>
@@ -36064,8 +37829,22 @@
         <f>VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC126+VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P126" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q126" s="2">
+        <f>VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3786</v>
+      </c>
+      <c r="R126" t="s">
+        <v>442</v>
+      </c>
+      <c r="S126" s="6">
+        <f>VLOOKUP(A126,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>215</v>
       </c>
@@ -36118,8 +37897,22 @@
         <f>VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC127+VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P127" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q127" s="2">
+        <f>VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3924.0000000000005</v>
+      </c>
+      <c r="R127" t="s">
+        <v>442</v>
+      </c>
+      <c r="S127" s="6">
+        <f>VLOOKUP(A127,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3924.0000000000005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>216</v>
       </c>
@@ -36172,8 +37965,22 @@
         <f>VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC128+VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P128" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q128" s="2">
+        <f>VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>4020</v>
+      </c>
+      <c r="R128" t="s">
+        <v>442</v>
+      </c>
+      <c r="S128" s="6">
+        <f>VLOOKUP(A128,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>217</v>
       </c>
@@ -36226,8 +38033,22 @@
         <f>VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC129+VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P129" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q129" s="2">
+        <f>VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3888</v>
+      </c>
+      <c r="R129" t="s">
+        <v>442</v>
+      </c>
+      <c r="S129" s="6">
+        <f>VLOOKUP(A129,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>218</v>
       </c>
@@ -36280,8 +38101,22 @@
         <f>VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC130+VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P130" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q130" s="2">
+        <f>VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3828</v>
+      </c>
+      <c r="R130" t="s">
+        <v>442</v>
+      </c>
+      <c r="S130" s="6">
+        <f>VLOOKUP(A130,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>219</v>
       </c>
@@ -36334,8 +38169,22 @@
         <f>VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC131+VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P131" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q131" s="2">
+        <f>VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3845.9999999999995</v>
+      </c>
+      <c r="R131" t="s">
+        <v>442</v>
+      </c>
+      <c r="S131" s="6">
+        <f>VLOOKUP(A131,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3845.9999999999995</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>220</v>
       </c>
@@ -36388,8 +38237,22 @@
         <f>VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC132+VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P132" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q132" s="2">
+        <f>VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3995.9999999999995</v>
+      </c>
+      <c r="R132" t="s">
+        <v>442</v>
+      </c>
+      <c r="S132" s="6">
+        <f>VLOOKUP(A132,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3995.9999999999995</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>221</v>
       </c>
@@ -36442,8 +38305,22 @@
         <f>VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC133+VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P133" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q133" s="2">
+        <f>VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3744</v>
+      </c>
+      <c r="R133" t="s">
+        <v>442</v>
+      </c>
+      <c r="S133" s="6">
+        <f>VLOOKUP(A133,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>222</v>
       </c>
@@ -36496,8 +38373,22 @@
         <f>VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC134+VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P134" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q134" s="2">
+        <f>VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>4014.0000000000005</v>
+      </c>
+      <c r="R134" t="s">
+        <v>442</v>
+      </c>
+      <c r="S134" s="6">
+        <f>VLOOKUP(A134,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>4014.0000000000005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>223</v>
       </c>
@@ -36550,8 +38441,22 @@
         <f>VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC135+VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P135" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q135" s="2">
+        <f>VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3912</v>
+      </c>
+      <c r="R135" t="s">
+        <v>442</v>
+      </c>
+      <c r="S135" s="6">
+        <f>VLOOKUP(A135,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>224</v>
       </c>
@@ -36604,8 +38509,22 @@
         <f>VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC136+VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P136" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q136" s="2">
+        <f>VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1668</v>
+      </c>
+      <c r="R136" t="s">
+        <v>442</v>
+      </c>
+      <c r="S136" s="6">
+        <f>VLOOKUP(A136,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>225</v>
       </c>
@@ -36658,8 +38577,22 @@
         <f>VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC137+VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P137" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q137" s="2">
+        <f>VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1638</v>
+      </c>
+      <c r="R137" t="s">
+        <v>442</v>
+      </c>
+      <c r="S137" s="6">
+        <f>VLOOKUP(A137,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>226</v>
       </c>
@@ -36712,8 +38645,22 @@
         <f>VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC138+VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P138" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q138" s="2">
+        <f>VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1620</v>
+      </c>
+      <c r="R138" t="s">
+        <v>442</v>
+      </c>
+      <c r="S138" s="6">
+        <f>VLOOKUP(A138,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>227</v>
       </c>
@@ -36766,8 +38713,22 @@
         <f>VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC139+VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P139" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q139" s="2">
+        <f>VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1698</v>
+      </c>
+      <c r="R139" t="s">
+        <v>442</v>
+      </c>
+      <c r="S139" s="6">
+        <f>VLOOKUP(A139,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>228</v>
       </c>
@@ -36820,8 +38781,22 @@
         <f>VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC140+VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P140" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q140" s="2">
+        <f>VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1632</v>
+      </c>
+      <c r="R140" t="s">
+        <v>442</v>
+      </c>
+      <c r="S140" s="6">
+        <f>VLOOKUP(A140,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>229</v>
       </c>
@@ -36874,8 +38849,22 @@
         <f>VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC141+VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P141" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q141" s="2">
+        <f>VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1620</v>
+      </c>
+      <c r="R141" t="s">
+        <v>442</v>
+      </c>
+      <c r="S141" s="6">
+        <f>VLOOKUP(A141,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>230</v>
       </c>
@@ -36928,8 +38917,22 @@
         <f>VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC142+VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P142" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q142" s="2">
+        <f>VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1692</v>
+      </c>
+      <c r="R142" t="s">
+        <v>442</v>
+      </c>
+      <c r="S142" s="6">
+        <f>VLOOKUP(A142,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>231</v>
       </c>
@@ -36982,8 +38985,22 @@
         <f>VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC143+VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P143" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q143" s="2">
+        <f>VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>558</v>
+      </c>
+      <c r="R143" t="s">
+        <v>442</v>
+      </c>
+      <c r="S143" s="6">
+        <f>VLOOKUP(A143,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>232</v>
       </c>
@@ -37036,8 +39053,22 @@
         <f>VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC144+VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P144" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q144" s="2">
+        <f>VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>582</v>
+      </c>
+      <c r="R144" t="s">
+        <v>442</v>
+      </c>
+      <c r="S144" s="6">
+        <f>VLOOKUP(A144,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>233</v>
       </c>
@@ -37090,8 +39121,22 @@
         <f>VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC145+VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P145" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q145" s="2">
+        <f>VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>564</v>
+      </c>
+      <c r="R145" t="s">
+        <v>442</v>
+      </c>
+      <c r="S145" s="6">
+        <f>VLOOKUP(A145,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>234</v>
       </c>
@@ -37144,8 +39189,22 @@
         <f>VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC146+VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P146" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q146" s="2">
+        <f>VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>546</v>
+      </c>
+      <c r="R146" t="s">
+        <v>442</v>
+      </c>
+      <c r="S146" s="6">
+        <f>VLOOKUP(A146,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>235</v>
       </c>
@@ -37198,8 +39257,22 @@
         <f>VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC147+VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P147" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q147" s="2">
+        <f>VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>546</v>
+      </c>
+      <c r="R147" t="s">
+        <v>442</v>
+      </c>
+      <c r="S147" s="6">
+        <f>VLOOKUP(A147,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>236</v>
       </c>
@@ -37252,8 +39325,22 @@
         <f>VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC148+VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P148" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q148" s="2">
+        <f>VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>582</v>
+      </c>
+      <c r="R148" t="s">
+        <v>442</v>
+      </c>
+      <c r="S148" s="6">
+        <f>VLOOKUP(A148,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>237</v>
       </c>
@@ -37306,8 +39393,22 @@
         <f>VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC149+VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P149" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q149" s="2">
+        <f>VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>564</v>
+      </c>
+      <c r="R149" t="s">
+        <v>442</v>
+      </c>
+      <c r="S149" s="6">
+        <f>VLOOKUP(A149,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>238</v>
       </c>
@@ -37360,8 +39461,22 @@
         <f>VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC150+VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P150" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q150" s="2">
+        <f>VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>708</v>
+      </c>
+      <c r="R150" t="s">
+        <v>442</v>
+      </c>
+      <c r="S150" s="6">
+        <f>VLOOKUP(A150,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>239</v>
       </c>
@@ -37414,8 +39529,22 @@
         <f>VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC151+VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P151" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q151" s="2">
+        <f>VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>672</v>
+      </c>
+      <c r="R151" t="s">
+        <v>442</v>
+      </c>
+      <c r="S151" s="6">
+        <f>VLOOKUP(A151,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>240</v>
       </c>
@@ -37468,8 +39597,22 @@
         <f>VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC152+VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P152" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q152" s="2">
+        <f>VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>618</v>
+      </c>
+      <c r="R152" t="s">
+        <v>442</v>
+      </c>
+      <c r="S152" s="6">
+        <f>VLOOKUP(A152,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>241</v>
       </c>
@@ -37522,8 +39665,22 @@
         <f>VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC153+VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P153" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q153" s="2">
+        <f>VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>270</v>
+      </c>
+      <c r="R153" t="s">
+        <v>442</v>
+      </c>
+      <c r="S153" s="6">
+        <f>VLOOKUP(A153,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>242</v>
       </c>
@@ -37576,8 +39733,22 @@
         <f>VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC154+VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P154" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q154" s="2">
+        <f>VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>792</v>
+      </c>
+      <c r="R154" t="s">
+        <v>442</v>
+      </c>
+      <c r="S154" s="6">
+        <f>VLOOKUP(A154,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>243</v>
       </c>
@@ -37630,8 +39801,22 @@
         <f>VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC155+VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P155" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q155" s="2">
+        <f>VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>8898</v>
+      </c>
+      <c r="R155" t="s">
+        <v>442</v>
+      </c>
+      <c r="S155" s="6">
+        <f>VLOOKUP(A155,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>8898</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>246</v>
       </c>
@@ -37684,8 +39869,22 @@
         <f>VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC156+VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P156" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q156" s="2">
+        <f>VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>47946</v>
+      </c>
+      <c r="R156" t="s">
+        <v>442</v>
+      </c>
+      <c r="S156" s="6">
+        <f>VLOOKUP(A156,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>47946</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>247</v>
       </c>
@@ -37738,8 +39937,22 @@
         <f>VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC157+VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P157" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q157" s="2">
+        <f>VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>50820</v>
+      </c>
+      <c r="R157" t="s">
+        <v>442</v>
+      </c>
+      <c r="S157" s="6">
+        <f>VLOOKUP(A157,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>50820</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>248</v>
       </c>
@@ -37792,8 +40005,22 @@
         <f>VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC158+VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P158" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q158" s="2">
+        <f>VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>42810</v>
+      </c>
+      <c r="R158" t="s">
+        <v>442</v>
+      </c>
+      <c r="S158" s="6">
+        <f>VLOOKUP(A158,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>249</v>
       </c>
@@ -37845,6 +40072,20 @@
       <c r="O159" s="5">
         <f>VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$U$1,gen!$1:$1,0),FALSE)*gen!AC159+VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$X$1,gen!$1:$1,0),FALSE)</f>
         <v>0</v>
+      </c>
+      <c r="P159" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q159" s="2">
+        <f>VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
+      </c>
+      <c r="R159" t="s">
+        <v>442</v>
+      </c>
+      <c r="S159" s="6">
+        <f>VLOOKUP(A159,gen!$A$2:$BD$159,MATCH(gen!$Q$1,gen!$1:$1,0),FALSE)*60</f>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -37857,7 +40098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F160"/>
     </sheetView>
   </sheetViews>
@@ -46862,8 +49103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H807"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E318" sqref="E318:E475"/>
+    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
+      <selection activeCell="H630" sqref="H630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56338,7 +58579,7 @@
         <v>0</v>
       </c>
       <c r="G451" t="str">
-        <f t="shared" ref="G451:G637" si="7">CONCATENATE("Region-",LEFT(B451,1))</f>
+        <f t="shared" ref="G451:G636" si="7">CONCATENATE("Region-",LEFT(B451,1))</f>
         <v>Region-3</v>
       </c>
     </row>
@@ -60244,7 +62485,7 @@
         <v>0</v>
       </c>
       <c r="G637" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("Region-",LEFT(B637,1))</f>
         <v>Region-3</v>
       </c>
     </row>
@@ -61408,8 +63649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H802"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D633" sqref="D633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -70170,7 +72411,7 @@
         <v>0</v>
       </c>
       <c r="G417" t="str">
-        <f t="shared" ref="G417:G636" si="9">CONCATENATE("bus-",LEFT(B417,3))</f>
+        <f t="shared" ref="G417:G633" si="9">CONCATENATE("bus-",LEFT(B417,3))</f>
         <v>bus-313</v>
       </c>
     </row>
@@ -74664,7 +76905,7 @@
         <v>0</v>
       </c>
       <c r="G631" t="str">
-        <f t="shared" si="9"/>
+        <f>CONCATENATE("bus-",LEFT(B631,3))</f>
         <v>bus-303</v>
       </c>
     </row>
@@ -74727,7 +76968,7 @@
         <v>50</v>
       </c>
       <c r="G634" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G634:G637" si="10">CONCATENATE("bus-",LEFT(B634,3))</f>
         <v>bus-313</v>
       </c>
     </row>
@@ -74748,7 +76989,7 @@
         <v>0</v>
       </c>
       <c r="G635" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>bus-313</v>
       </c>
     </row>
@@ -74769,7 +77010,7 @@
         <v>0</v>
       </c>
       <c r="G636" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>bus-313</v>
       </c>
     </row>
@@ -74790,7 +77031,7 @@
         <v>0</v>
       </c>
       <c r="G637" t="str">
-        <f t="shared" ref="G637" si="10">CONCATENATE("bus-",LEFT(B637,3))</f>
+        <f t="shared" si="10"/>
         <v>bus-313</v>
       </c>
     </row>
@@ -75709,7 +77950,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>434</v>
       </c>
@@ -75720,7 +77961,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>434</v>
       </c>
@@ -75731,7 +77972,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>434</v>
       </c>
@@ -75742,7 +77983,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>434</v>
       </c>
@@ -75753,7 +77994,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>434</v>
       </c>
@@ -75764,7 +78005,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>434</v>
       </c>
@@ -75775,7 +78016,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="728" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A728" s="4" t="s">
         <v>433</v>
       </c>
@@ -75785,8 +78026,10 @@
       <c r="C728" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="729" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D728" s="4"/>
+      <c r="E728" s="4"/>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A729" s="4" t="s">
         <v>433</v>
       </c>
@@ -75796,8 +78039,10 @@
       <c r="C729" s="4" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="730" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D729" s="4"/>
+      <c r="E729" s="4"/>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A730" s="4" t="s">
         <v>433</v>
       </c>
@@ -75807,8 +78052,10 @@
       <c r="C730" s="4" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D730" s="4"/>
+      <c r="E730" s="4"/>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A731" s="4" t="s">
         <v>434</v>
       </c>
@@ -75819,7 +78066,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A732" s="4" t="s">
         <v>434</v>
       </c>
@@ -75830,7 +78077,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733" s="4" t="s">
         <v>434</v>
       </c>
@@ -75841,7 +78088,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A734" s="4" t="s">
         <v>434</v>
       </c>

--- a/spine_rts-gmlc/datasets/gen.xlsx
+++ b/spine_rts-gmlc/datasets/gen.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="gen" sheetId="1" r:id="rId1"/>
     <sheet name="Spine" sheetId="2" r:id="rId2"/>
     <sheet name="obj_unit" sheetId="12" r:id="rId3"/>
-    <sheet name="rel_unit__direction_node" sheetId="17" r:id="rId4"/>
-    <sheet name="rel_u__d_n-bus_detailed" sheetId="18" r:id="rId5"/>
-    <sheet name="rel_unit__node__node" sheetId="16" r:id="rId6"/>
-    <sheet name="rel_u__n__n-bus_detailed" sheetId="19" r:id="rId7"/>
+    <sheet name="rel_for_units_on_resolution" sheetId="20" r:id="rId4"/>
+    <sheet name="rel_unit__direction_node" sheetId="17" r:id="rId5"/>
+    <sheet name="rel_u__d_n-bus_detailed" sheetId="18" r:id="rId6"/>
+    <sheet name="rel_unit__node__node" sheetId="16" r:id="rId7"/>
+    <sheet name="rel_u__n__n-bus_detailed" sheetId="19" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gen!$A$1:$BE$159</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10013" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10823" uniqueCount="451">
   <si>
     <t>GEN UID</t>
   </si>
@@ -1356,6 +1357,33 @@
   <si>
     <t>parameter_values</t>
   </si>
+  <si>
+    <t>unit_group__unit</t>
+  </si>
+  <si>
+    <t>all_units</t>
+  </si>
+  <si>
+    <t>units_on_resolution</t>
+  </si>
+  <si>
+    <t>node__temporal_block</t>
+  </si>
+  <si>
+    <t>temporal_block</t>
+  </si>
+  <si>
+    <t>object_class</t>
+  </si>
+  <si>
+    <t>object_name</t>
+  </si>
+  <si>
+    <t>blk_t1</t>
+  </si>
+  <si>
+    <t>blk_t2</t>
+  </si>
 </sst>
 </file>
 
@@ -40095,8 +40123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46558,6 +46586,2782 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>442</v>
+      </c>
+      <c r="B13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" t="s">
+        <v>443</v>
+      </c>
+      <c r="D16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>442</v>
+      </c>
+      <c r="B17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>442</v>
+      </c>
+      <c r="B18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" t="s">
+        <v>443</v>
+      </c>
+      <c r="D18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" t="s">
+        <v>443</v>
+      </c>
+      <c r="D19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>442</v>
+      </c>
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" t="s">
+        <v>443</v>
+      </c>
+      <c r="D20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>442</v>
+      </c>
+      <c r="B21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>442</v>
+      </c>
+      <c r="B22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" t="s">
+        <v>443</v>
+      </c>
+      <c r="D22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" t="s">
+        <v>443</v>
+      </c>
+      <c r="D23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>442</v>
+      </c>
+      <c r="B24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" t="s">
+        <v>443</v>
+      </c>
+      <c r="D24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>442</v>
+      </c>
+      <c r="B25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" t="s">
+        <v>443</v>
+      </c>
+      <c r="D25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" t="s">
+        <v>443</v>
+      </c>
+      <c r="D26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>442</v>
+      </c>
+      <c r="B27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" t="s">
+        <v>443</v>
+      </c>
+      <c r="D27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>442</v>
+      </c>
+      <c r="B28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" t="s">
+        <v>443</v>
+      </c>
+      <c r="D28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>442</v>
+      </c>
+      <c r="B29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" t="s">
+        <v>443</v>
+      </c>
+      <c r="D29" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" t="s">
+        <v>443</v>
+      </c>
+      <c r="D30" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>442</v>
+      </c>
+      <c r="B31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" t="s">
+        <v>443</v>
+      </c>
+      <c r="D31" t="s">
+        <v>262</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" t="s">
+        <v>443</v>
+      </c>
+      <c r="D32" t="s">
+        <v>262</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>442</v>
+      </c>
+      <c r="B33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" t="s">
+        <v>443</v>
+      </c>
+      <c r="D33" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>442</v>
+      </c>
+      <c r="B34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" t="s">
+        <v>443</v>
+      </c>
+      <c r="D34" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" t="s">
+        <v>443</v>
+      </c>
+      <c r="D35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>442</v>
+      </c>
+      <c r="B36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" t="s">
+        <v>443</v>
+      </c>
+      <c r="D36" t="s">
+        <v>262</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>442</v>
+      </c>
+      <c r="B37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" t="s">
+        <v>443</v>
+      </c>
+      <c r="D37" t="s">
+        <v>262</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>442</v>
+      </c>
+      <c r="B38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" t="s">
+        <v>443</v>
+      </c>
+      <c r="D38" t="s">
+        <v>262</v>
+      </c>
+      <c r="E38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>442</v>
+      </c>
+      <c r="B39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" t="s">
+        <v>443</v>
+      </c>
+      <c r="D39" t="s">
+        <v>262</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" t="s">
+        <v>443</v>
+      </c>
+      <c r="D40" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>442</v>
+      </c>
+      <c r="B41" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" t="s">
+        <v>443</v>
+      </c>
+      <c r="D41" t="s">
+        <v>262</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>442</v>
+      </c>
+      <c r="B42" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" t="s">
+        <v>443</v>
+      </c>
+      <c r="D42" t="s">
+        <v>262</v>
+      </c>
+      <c r="E42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>442</v>
+      </c>
+      <c r="B43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" t="s">
+        <v>443</v>
+      </c>
+      <c r="D43" t="s">
+        <v>262</v>
+      </c>
+      <c r="E43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>442</v>
+      </c>
+      <c r="B44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" t="s">
+        <v>443</v>
+      </c>
+      <c r="D44" t="s">
+        <v>262</v>
+      </c>
+      <c r="E44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>442</v>
+      </c>
+      <c r="B45" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" t="s">
+        <v>443</v>
+      </c>
+      <c r="D45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>442</v>
+      </c>
+      <c r="B46" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" t="s">
+        <v>443</v>
+      </c>
+      <c r="D46" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>442</v>
+      </c>
+      <c r="B47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" t="s">
+        <v>443</v>
+      </c>
+      <c r="D47" t="s">
+        <v>262</v>
+      </c>
+      <c r="E47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>442</v>
+      </c>
+      <c r="B48" t="s">
+        <v>262</v>
+      </c>
+      <c r="C48" t="s">
+        <v>443</v>
+      </c>
+      <c r="D48" t="s">
+        <v>262</v>
+      </c>
+      <c r="E48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>442</v>
+      </c>
+      <c r="B49" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" t="s">
+        <v>443</v>
+      </c>
+      <c r="D49" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>442</v>
+      </c>
+      <c r="B50" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" t="s">
+        <v>443</v>
+      </c>
+      <c r="D50" t="s">
+        <v>262</v>
+      </c>
+      <c r="E50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>442</v>
+      </c>
+      <c r="B51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" t="s">
+        <v>443</v>
+      </c>
+      <c r="D51" t="s">
+        <v>262</v>
+      </c>
+      <c r="E51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>442</v>
+      </c>
+      <c r="B52" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" t="s">
+        <v>443</v>
+      </c>
+      <c r="D52" t="s">
+        <v>262</v>
+      </c>
+      <c r="E52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>442</v>
+      </c>
+      <c r="B53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" t="s">
+        <v>443</v>
+      </c>
+      <c r="D53" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>442</v>
+      </c>
+      <c r="B54" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" t="s">
+        <v>443</v>
+      </c>
+      <c r="D54" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>442</v>
+      </c>
+      <c r="B55" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" t="s">
+        <v>443</v>
+      </c>
+      <c r="D55" t="s">
+        <v>262</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B56" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" t="s">
+        <v>443</v>
+      </c>
+      <c r="D56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>442</v>
+      </c>
+      <c r="B57" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" t="s">
+        <v>443</v>
+      </c>
+      <c r="D57" t="s">
+        <v>262</v>
+      </c>
+      <c r="E57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>442</v>
+      </c>
+      <c r="B58" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" t="s">
+        <v>443</v>
+      </c>
+      <c r="D58" t="s">
+        <v>262</v>
+      </c>
+      <c r="E58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>442</v>
+      </c>
+      <c r="B59" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" t="s">
+        <v>443</v>
+      </c>
+      <c r="D59" t="s">
+        <v>262</v>
+      </c>
+      <c r="E59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>442</v>
+      </c>
+      <c r="B60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" t="s">
+        <v>443</v>
+      </c>
+      <c r="D60" t="s">
+        <v>262</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>442</v>
+      </c>
+      <c r="B61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" t="s">
+        <v>443</v>
+      </c>
+      <c r="D61" t="s">
+        <v>262</v>
+      </c>
+      <c r="E61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>442</v>
+      </c>
+      <c r="B62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" t="s">
+        <v>443</v>
+      </c>
+      <c r="D62" t="s">
+        <v>262</v>
+      </c>
+      <c r="E62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>442</v>
+      </c>
+      <c r="B63" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" t="s">
+        <v>443</v>
+      </c>
+      <c r="D63" t="s">
+        <v>262</v>
+      </c>
+      <c r="E63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>442</v>
+      </c>
+      <c r="B64" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" t="s">
+        <v>443</v>
+      </c>
+      <c r="D64" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>442</v>
+      </c>
+      <c r="B65" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" t="s">
+        <v>443</v>
+      </c>
+      <c r="D65" t="s">
+        <v>262</v>
+      </c>
+      <c r="E65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>442</v>
+      </c>
+      <c r="B66" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66" t="s">
+        <v>443</v>
+      </c>
+      <c r="D66" t="s">
+        <v>262</v>
+      </c>
+      <c r="E66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>442</v>
+      </c>
+      <c r="B67" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" t="s">
+        <v>443</v>
+      </c>
+      <c r="D67" t="s">
+        <v>262</v>
+      </c>
+      <c r="E67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>442</v>
+      </c>
+      <c r="B68" t="s">
+        <v>262</v>
+      </c>
+      <c r="C68" t="s">
+        <v>443</v>
+      </c>
+      <c r="D68" t="s">
+        <v>262</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>442</v>
+      </c>
+      <c r="B69" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" t="s">
+        <v>443</v>
+      </c>
+      <c r="D69" t="s">
+        <v>262</v>
+      </c>
+      <c r="E69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>442</v>
+      </c>
+      <c r="B70" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" t="s">
+        <v>443</v>
+      </c>
+      <c r="D70" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>442</v>
+      </c>
+      <c r="B71" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" t="s">
+        <v>443</v>
+      </c>
+      <c r="D71" t="s">
+        <v>262</v>
+      </c>
+      <c r="E71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>442</v>
+      </c>
+      <c r="B72" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" t="s">
+        <v>443</v>
+      </c>
+      <c r="D72" t="s">
+        <v>262</v>
+      </c>
+      <c r="E72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>442</v>
+      </c>
+      <c r="B73" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" t="s">
+        <v>443</v>
+      </c>
+      <c r="D73" t="s">
+        <v>262</v>
+      </c>
+      <c r="E73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>442</v>
+      </c>
+      <c r="B74" t="s">
+        <v>262</v>
+      </c>
+      <c r="C74" t="s">
+        <v>443</v>
+      </c>
+      <c r="D74" t="s">
+        <v>262</v>
+      </c>
+      <c r="E74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>442</v>
+      </c>
+      <c r="B75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" t="s">
+        <v>443</v>
+      </c>
+      <c r="D75" t="s">
+        <v>262</v>
+      </c>
+      <c r="E75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>442</v>
+      </c>
+      <c r="B76" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" t="s">
+        <v>443</v>
+      </c>
+      <c r="D76" t="s">
+        <v>262</v>
+      </c>
+      <c r="E76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>442</v>
+      </c>
+      <c r="B77" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" t="s">
+        <v>443</v>
+      </c>
+      <c r="D77" t="s">
+        <v>262</v>
+      </c>
+      <c r="E77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>442</v>
+      </c>
+      <c r="B78" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" t="s">
+        <v>443</v>
+      </c>
+      <c r="D78" t="s">
+        <v>262</v>
+      </c>
+      <c r="E78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>442</v>
+      </c>
+      <c r="B79" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" t="s">
+        <v>443</v>
+      </c>
+      <c r="D79" t="s">
+        <v>262</v>
+      </c>
+      <c r="E79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>442</v>
+      </c>
+      <c r="B80" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" t="s">
+        <v>443</v>
+      </c>
+      <c r="D80" t="s">
+        <v>262</v>
+      </c>
+      <c r="E80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>442</v>
+      </c>
+      <c r="B81" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" t="s">
+        <v>443</v>
+      </c>
+      <c r="D81" t="s">
+        <v>262</v>
+      </c>
+      <c r="E81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>442</v>
+      </c>
+      <c r="B82" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" t="s">
+        <v>443</v>
+      </c>
+      <c r="D82" t="s">
+        <v>262</v>
+      </c>
+      <c r="E82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>442</v>
+      </c>
+      <c r="B83" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" t="s">
+        <v>443</v>
+      </c>
+      <c r="D83" t="s">
+        <v>262</v>
+      </c>
+      <c r="E83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>442</v>
+      </c>
+      <c r="B84" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" t="s">
+        <v>443</v>
+      </c>
+      <c r="D84" t="s">
+        <v>262</v>
+      </c>
+      <c r="E84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>442</v>
+      </c>
+      <c r="B85" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" t="s">
+        <v>443</v>
+      </c>
+      <c r="D85" t="s">
+        <v>262</v>
+      </c>
+      <c r="E85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>442</v>
+      </c>
+      <c r="B86" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" t="s">
+        <v>443</v>
+      </c>
+      <c r="D86" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>442</v>
+      </c>
+      <c r="B87" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" t="s">
+        <v>443</v>
+      </c>
+      <c r="D87" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>442</v>
+      </c>
+      <c r="B88" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" t="s">
+        <v>443</v>
+      </c>
+      <c r="D88" t="s">
+        <v>262</v>
+      </c>
+      <c r="E88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>442</v>
+      </c>
+      <c r="B89" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" t="s">
+        <v>443</v>
+      </c>
+      <c r="D89" t="s">
+        <v>262</v>
+      </c>
+      <c r="E89" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>442</v>
+      </c>
+      <c r="B90" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" t="s">
+        <v>443</v>
+      </c>
+      <c r="D90" t="s">
+        <v>262</v>
+      </c>
+      <c r="E90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>442</v>
+      </c>
+      <c r="B91" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" t="s">
+        <v>443</v>
+      </c>
+      <c r="D91" t="s">
+        <v>262</v>
+      </c>
+      <c r="E91" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>442</v>
+      </c>
+      <c r="B92" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" t="s">
+        <v>443</v>
+      </c>
+      <c r="D92" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>442</v>
+      </c>
+      <c r="B93" t="s">
+        <v>262</v>
+      </c>
+      <c r="C93" t="s">
+        <v>443</v>
+      </c>
+      <c r="D93" t="s">
+        <v>262</v>
+      </c>
+      <c r="E93" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>442</v>
+      </c>
+      <c r="B94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" t="s">
+        <v>443</v>
+      </c>
+      <c r="D94" t="s">
+        <v>262</v>
+      </c>
+      <c r="E94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>442</v>
+      </c>
+      <c r="B95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C95" t="s">
+        <v>443</v>
+      </c>
+      <c r="D95" t="s">
+        <v>262</v>
+      </c>
+      <c r="E95" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>442</v>
+      </c>
+      <c r="B96" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" t="s">
+        <v>443</v>
+      </c>
+      <c r="D96" t="s">
+        <v>262</v>
+      </c>
+      <c r="E96" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>442</v>
+      </c>
+      <c r="B97" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" t="s">
+        <v>443</v>
+      </c>
+      <c r="D97" t="s">
+        <v>262</v>
+      </c>
+      <c r="E97" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>442</v>
+      </c>
+      <c r="B98" t="s">
+        <v>262</v>
+      </c>
+      <c r="C98" t="s">
+        <v>443</v>
+      </c>
+      <c r="D98" t="s">
+        <v>262</v>
+      </c>
+      <c r="E98" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>442</v>
+      </c>
+      <c r="B99" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" t="s">
+        <v>443</v>
+      </c>
+      <c r="D99" t="s">
+        <v>262</v>
+      </c>
+      <c r="E99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>442</v>
+      </c>
+      <c r="B100" t="s">
+        <v>262</v>
+      </c>
+      <c r="C100" t="s">
+        <v>443</v>
+      </c>
+      <c r="D100" t="s">
+        <v>262</v>
+      </c>
+      <c r="E100" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>442</v>
+      </c>
+      <c r="B101" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" t="s">
+        <v>443</v>
+      </c>
+      <c r="D101" t="s">
+        <v>262</v>
+      </c>
+      <c r="E101" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>442</v>
+      </c>
+      <c r="B102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" t="s">
+        <v>443</v>
+      </c>
+      <c r="D102" t="s">
+        <v>262</v>
+      </c>
+      <c r="E102" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>442</v>
+      </c>
+      <c r="B103" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" t="s">
+        <v>443</v>
+      </c>
+      <c r="D103" t="s">
+        <v>262</v>
+      </c>
+      <c r="E103" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>442</v>
+      </c>
+      <c r="B104" t="s">
+        <v>262</v>
+      </c>
+      <c r="C104" t="s">
+        <v>443</v>
+      </c>
+      <c r="D104" t="s">
+        <v>262</v>
+      </c>
+      <c r="E104" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>442</v>
+      </c>
+      <c r="B105" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" t="s">
+        <v>443</v>
+      </c>
+      <c r="D105" t="s">
+        <v>262</v>
+      </c>
+      <c r="E105" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>442</v>
+      </c>
+      <c r="B106" t="s">
+        <v>262</v>
+      </c>
+      <c r="C106" t="s">
+        <v>443</v>
+      </c>
+      <c r="D106" t="s">
+        <v>262</v>
+      </c>
+      <c r="E106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>442</v>
+      </c>
+      <c r="B107" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107" t="s">
+        <v>443</v>
+      </c>
+      <c r="D107" t="s">
+        <v>262</v>
+      </c>
+      <c r="E107" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>442</v>
+      </c>
+      <c r="B108" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" t="s">
+        <v>443</v>
+      </c>
+      <c r="D108" t="s">
+        <v>262</v>
+      </c>
+      <c r="E108" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>442</v>
+      </c>
+      <c r="B109" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" t="s">
+        <v>443</v>
+      </c>
+      <c r="D109" t="s">
+        <v>262</v>
+      </c>
+      <c r="E109" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>442</v>
+      </c>
+      <c r="B110" t="s">
+        <v>262</v>
+      </c>
+      <c r="C110" t="s">
+        <v>443</v>
+      </c>
+      <c r="D110" t="s">
+        <v>262</v>
+      </c>
+      <c r="E110" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>442</v>
+      </c>
+      <c r="B111" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" t="s">
+        <v>443</v>
+      </c>
+      <c r="D111" t="s">
+        <v>262</v>
+      </c>
+      <c r="E111" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>442</v>
+      </c>
+      <c r="B112" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" t="s">
+        <v>443</v>
+      </c>
+      <c r="D112" t="s">
+        <v>262</v>
+      </c>
+      <c r="E112" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>442</v>
+      </c>
+      <c r="B113" t="s">
+        <v>262</v>
+      </c>
+      <c r="C113" t="s">
+        <v>443</v>
+      </c>
+      <c r="D113" t="s">
+        <v>262</v>
+      </c>
+      <c r="E113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>442</v>
+      </c>
+      <c r="B114" t="s">
+        <v>262</v>
+      </c>
+      <c r="C114" t="s">
+        <v>443</v>
+      </c>
+      <c r="D114" t="s">
+        <v>262</v>
+      </c>
+      <c r="E114" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>442</v>
+      </c>
+      <c r="B115" t="s">
+        <v>262</v>
+      </c>
+      <c r="C115" t="s">
+        <v>443</v>
+      </c>
+      <c r="D115" t="s">
+        <v>262</v>
+      </c>
+      <c r="E115" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>442</v>
+      </c>
+      <c r="B116" t="s">
+        <v>262</v>
+      </c>
+      <c r="C116" t="s">
+        <v>443</v>
+      </c>
+      <c r="D116" t="s">
+        <v>262</v>
+      </c>
+      <c r="E116" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>442</v>
+      </c>
+      <c r="B117" t="s">
+        <v>262</v>
+      </c>
+      <c r="C117" t="s">
+        <v>443</v>
+      </c>
+      <c r="D117" t="s">
+        <v>262</v>
+      </c>
+      <c r="E117" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>442</v>
+      </c>
+      <c r="B118" t="s">
+        <v>262</v>
+      </c>
+      <c r="C118" t="s">
+        <v>443</v>
+      </c>
+      <c r="D118" t="s">
+        <v>262</v>
+      </c>
+      <c r="E118" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>442</v>
+      </c>
+      <c r="B119" t="s">
+        <v>262</v>
+      </c>
+      <c r="C119" t="s">
+        <v>443</v>
+      </c>
+      <c r="D119" t="s">
+        <v>262</v>
+      </c>
+      <c r="E119" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>442</v>
+      </c>
+      <c r="B120" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" t="s">
+        <v>443</v>
+      </c>
+      <c r="D120" t="s">
+        <v>262</v>
+      </c>
+      <c r="E120" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>442</v>
+      </c>
+      <c r="B121" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" t="s">
+        <v>443</v>
+      </c>
+      <c r="D121" t="s">
+        <v>262</v>
+      </c>
+      <c r="E121" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>442</v>
+      </c>
+      <c r="B122" t="s">
+        <v>262</v>
+      </c>
+      <c r="C122" t="s">
+        <v>443</v>
+      </c>
+      <c r="D122" t="s">
+        <v>262</v>
+      </c>
+      <c r="E122" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>442</v>
+      </c>
+      <c r="B123" t="s">
+        <v>262</v>
+      </c>
+      <c r="C123" t="s">
+        <v>443</v>
+      </c>
+      <c r="D123" t="s">
+        <v>262</v>
+      </c>
+      <c r="E123" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>442</v>
+      </c>
+      <c r="B124" t="s">
+        <v>262</v>
+      </c>
+      <c r="C124" t="s">
+        <v>443</v>
+      </c>
+      <c r="D124" t="s">
+        <v>262</v>
+      </c>
+      <c r="E124" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>442</v>
+      </c>
+      <c r="B125" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" t="s">
+        <v>443</v>
+      </c>
+      <c r="D125" t="s">
+        <v>262</v>
+      </c>
+      <c r="E125" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>442</v>
+      </c>
+      <c r="B126" t="s">
+        <v>262</v>
+      </c>
+      <c r="C126" t="s">
+        <v>443</v>
+      </c>
+      <c r="D126" t="s">
+        <v>262</v>
+      </c>
+      <c r="E126" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>442</v>
+      </c>
+      <c r="B127" t="s">
+        <v>262</v>
+      </c>
+      <c r="C127" t="s">
+        <v>443</v>
+      </c>
+      <c r="D127" t="s">
+        <v>262</v>
+      </c>
+      <c r="E127" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>442</v>
+      </c>
+      <c r="B128" t="s">
+        <v>262</v>
+      </c>
+      <c r="C128" t="s">
+        <v>443</v>
+      </c>
+      <c r="D128" t="s">
+        <v>262</v>
+      </c>
+      <c r="E128" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>442</v>
+      </c>
+      <c r="B129" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" t="s">
+        <v>443</v>
+      </c>
+      <c r="D129" t="s">
+        <v>262</v>
+      </c>
+      <c r="E129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>442</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" t="s">
+        <v>443</v>
+      </c>
+      <c r="D130" t="s">
+        <v>262</v>
+      </c>
+      <c r="E130" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>442</v>
+      </c>
+      <c r="B131" t="s">
+        <v>262</v>
+      </c>
+      <c r="C131" t="s">
+        <v>443</v>
+      </c>
+      <c r="D131" t="s">
+        <v>262</v>
+      </c>
+      <c r="E131" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>442</v>
+      </c>
+      <c r="B132" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" t="s">
+        <v>443</v>
+      </c>
+      <c r="D132" t="s">
+        <v>262</v>
+      </c>
+      <c r="E132" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>442</v>
+      </c>
+      <c r="B133" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133" t="s">
+        <v>443</v>
+      </c>
+      <c r="D133" t="s">
+        <v>262</v>
+      </c>
+      <c r="E133" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>442</v>
+      </c>
+      <c r="B134" t="s">
+        <v>262</v>
+      </c>
+      <c r="C134" t="s">
+        <v>443</v>
+      </c>
+      <c r="D134" t="s">
+        <v>262</v>
+      </c>
+      <c r="E134" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>442</v>
+      </c>
+      <c r="B135" t="s">
+        <v>262</v>
+      </c>
+      <c r="C135" t="s">
+        <v>443</v>
+      </c>
+      <c r="D135" t="s">
+        <v>262</v>
+      </c>
+      <c r="E135" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>442</v>
+      </c>
+      <c r="B136" t="s">
+        <v>262</v>
+      </c>
+      <c r="C136" t="s">
+        <v>443</v>
+      </c>
+      <c r="D136" t="s">
+        <v>262</v>
+      </c>
+      <c r="E136" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>442</v>
+      </c>
+      <c r="B137" t="s">
+        <v>262</v>
+      </c>
+      <c r="C137" t="s">
+        <v>443</v>
+      </c>
+      <c r="D137" t="s">
+        <v>262</v>
+      </c>
+      <c r="E137" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>442</v>
+      </c>
+      <c r="B138" t="s">
+        <v>262</v>
+      </c>
+      <c r="C138" t="s">
+        <v>443</v>
+      </c>
+      <c r="D138" t="s">
+        <v>262</v>
+      </c>
+      <c r="E138" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>442</v>
+      </c>
+      <c r="B139" t="s">
+        <v>262</v>
+      </c>
+      <c r="C139" t="s">
+        <v>443</v>
+      </c>
+      <c r="D139" t="s">
+        <v>262</v>
+      </c>
+      <c r="E139" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>442</v>
+      </c>
+      <c r="B140" t="s">
+        <v>262</v>
+      </c>
+      <c r="C140" t="s">
+        <v>443</v>
+      </c>
+      <c r="D140" t="s">
+        <v>262</v>
+      </c>
+      <c r="E140" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>442</v>
+      </c>
+      <c r="B141" t="s">
+        <v>262</v>
+      </c>
+      <c r="C141" t="s">
+        <v>443</v>
+      </c>
+      <c r="D141" t="s">
+        <v>262</v>
+      </c>
+      <c r="E141" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>442</v>
+      </c>
+      <c r="B142" t="s">
+        <v>262</v>
+      </c>
+      <c r="C142" t="s">
+        <v>443</v>
+      </c>
+      <c r="D142" t="s">
+        <v>262</v>
+      </c>
+      <c r="E142" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>442</v>
+      </c>
+      <c r="B143" t="s">
+        <v>262</v>
+      </c>
+      <c r="C143" t="s">
+        <v>443</v>
+      </c>
+      <c r="D143" t="s">
+        <v>262</v>
+      </c>
+      <c r="E143" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>442</v>
+      </c>
+      <c r="B144" t="s">
+        <v>262</v>
+      </c>
+      <c r="C144" t="s">
+        <v>443</v>
+      </c>
+      <c r="D144" t="s">
+        <v>262</v>
+      </c>
+      <c r="E144" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>442</v>
+      </c>
+      <c r="B145" t="s">
+        <v>262</v>
+      </c>
+      <c r="C145" t="s">
+        <v>443</v>
+      </c>
+      <c r="D145" t="s">
+        <v>262</v>
+      </c>
+      <c r="E145" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>442</v>
+      </c>
+      <c r="B146" t="s">
+        <v>262</v>
+      </c>
+      <c r="C146" t="s">
+        <v>443</v>
+      </c>
+      <c r="D146" t="s">
+        <v>262</v>
+      </c>
+      <c r="E146" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>442</v>
+      </c>
+      <c r="B147" t="s">
+        <v>262</v>
+      </c>
+      <c r="C147" t="s">
+        <v>443</v>
+      </c>
+      <c r="D147" t="s">
+        <v>262</v>
+      </c>
+      <c r="E147" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>442</v>
+      </c>
+      <c r="B148" t="s">
+        <v>262</v>
+      </c>
+      <c r="C148" t="s">
+        <v>443</v>
+      </c>
+      <c r="D148" t="s">
+        <v>262</v>
+      </c>
+      <c r="E148" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>442</v>
+      </c>
+      <c r="B149" t="s">
+        <v>262</v>
+      </c>
+      <c r="C149" t="s">
+        <v>443</v>
+      </c>
+      <c r="D149" t="s">
+        <v>262</v>
+      </c>
+      <c r="E149" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>442</v>
+      </c>
+      <c r="B150" t="s">
+        <v>262</v>
+      </c>
+      <c r="C150" t="s">
+        <v>443</v>
+      </c>
+      <c r="D150" t="s">
+        <v>262</v>
+      </c>
+      <c r="E150" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>442</v>
+      </c>
+      <c r="B151" t="s">
+        <v>262</v>
+      </c>
+      <c r="C151" t="s">
+        <v>443</v>
+      </c>
+      <c r="D151" t="s">
+        <v>262</v>
+      </c>
+      <c r="E151" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>442</v>
+      </c>
+      <c r="B152" t="s">
+        <v>262</v>
+      </c>
+      <c r="C152" t="s">
+        <v>443</v>
+      </c>
+      <c r="D152" t="s">
+        <v>262</v>
+      </c>
+      <c r="E152" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>442</v>
+      </c>
+      <c r="B153" t="s">
+        <v>262</v>
+      </c>
+      <c r="C153" t="s">
+        <v>443</v>
+      </c>
+      <c r="D153" t="s">
+        <v>262</v>
+      </c>
+      <c r="E153" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>442</v>
+      </c>
+      <c r="B154" t="s">
+        <v>262</v>
+      </c>
+      <c r="C154" t="s">
+        <v>443</v>
+      </c>
+      <c r="D154" t="s">
+        <v>262</v>
+      </c>
+      <c r="E154" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>442</v>
+      </c>
+      <c r="B155" t="s">
+        <v>262</v>
+      </c>
+      <c r="C155" t="s">
+        <v>443</v>
+      </c>
+      <c r="D155" t="s">
+        <v>262</v>
+      </c>
+      <c r="E155" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>442</v>
+      </c>
+      <c r="B156" t="s">
+        <v>262</v>
+      </c>
+      <c r="C156" t="s">
+        <v>443</v>
+      </c>
+      <c r="D156" t="s">
+        <v>262</v>
+      </c>
+      <c r="E156" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>442</v>
+      </c>
+      <c r="B157" t="s">
+        <v>262</v>
+      </c>
+      <c r="C157" t="s">
+        <v>443</v>
+      </c>
+      <c r="D157" t="s">
+        <v>262</v>
+      </c>
+      <c r="E157" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>442</v>
+      </c>
+      <c r="B158" t="s">
+        <v>262</v>
+      </c>
+      <c r="C158" t="s">
+        <v>443</v>
+      </c>
+      <c r="D158" t="s">
+        <v>262</v>
+      </c>
+      <c r="E158" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>442</v>
+      </c>
+      <c r="B159" t="s">
+        <v>262</v>
+      </c>
+      <c r="C159" t="s">
+        <v>443</v>
+      </c>
+      <c r="D159" t="s">
+        <v>262</v>
+      </c>
+      <c r="E159" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>442</v>
+      </c>
+      <c r="B160" t="s">
+        <v>262</v>
+      </c>
+      <c r="C160" t="s">
+        <v>443</v>
+      </c>
+      <c r="D160" t="s">
+        <v>262</v>
+      </c>
+      <c r="E160" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>442</v>
+      </c>
+      <c r="B161" t="s">
+        <v>262</v>
+      </c>
+      <c r="C161" t="s">
+        <v>443</v>
+      </c>
+      <c r="D161" t="s">
+        <v>262</v>
+      </c>
+      <c r="E161" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>442</v>
+      </c>
+      <c r="B162" t="s">
+        <v>262</v>
+      </c>
+      <c r="C162" t="s">
+        <v>443</v>
+      </c>
+      <c r="D162" t="s">
+        <v>262</v>
+      </c>
+      <c r="E162" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -61102,7 +63906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H802"/>
   <sheetViews>
@@ -75564,7 +78368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
@@ -77552,11 +80356,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>

--- a/spine_rts-gmlc/datasets/gen.xlsx
+++ b/spine_rts-gmlc/datasets/gen.xlsx
@@ -46589,7 +46589,7 @@
   <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46599,6 +46599,7 @@
     <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">

--- a/spine_rts-gmlc/datasets/gen.xlsx
+++ b/spine_rts-gmlc/datasets/gen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="gen" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gen!$A$1:$BE$159</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Spine!$A$1:$O$159</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10823" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10828" uniqueCount="454">
   <si>
     <t>GEN UID</t>
   </si>
@@ -1384,6 +1384,15 @@
   <si>
     <t>blk_t2</t>
   </si>
+  <si>
+    <t>node__stochastic_structure</t>
+  </si>
+  <si>
+    <t>stochastic_structure</t>
+  </si>
+  <si>
+    <t>default_none</t>
+  </si>
 </sst>
 </file>
 
@@ -46586,10 +46595,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46638,7 +46647,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>277</v>
@@ -46647,10 +46656,10 @@
         <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -46667,24 +46676,24 @@
         <v>446</v>
       </c>
       <c r="E4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -46701,7 +46710,7 @@
         <v>262</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -46718,7 +46727,7 @@
         <v>262</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -46735,7 +46744,7 @@
         <v>262</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -46752,7 +46761,7 @@
         <v>262</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -46769,7 +46778,7 @@
         <v>262</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -46786,7 +46795,7 @@
         <v>262</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -46803,7 +46812,7 @@
         <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -46820,7 +46829,7 @@
         <v>262</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -46837,7 +46846,7 @@
         <v>262</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -46854,7 +46863,7 @@
         <v>262</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -46871,7 +46880,7 @@
         <v>262</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -46888,7 +46897,7 @@
         <v>262</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -46905,7 +46914,7 @@
         <v>262</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -46922,7 +46931,7 @@
         <v>262</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -46939,7 +46948,7 @@
         <v>262</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -46956,7 +46965,7 @@
         <v>262</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -46973,7 +46982,7 @@
         <v>262</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -46990,7 +46999,7 @@
         <v>262</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -47007,7 +47016,7 @@
         <v>262</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -47024,7 +47033,7 @@
         <v>262</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -47041,7 +47050,7 @@
         <v>262</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -47058,7 +47067,7 @@
         <v>262</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -47075,7 +47084,7 @@
         <v>262</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -47092,7 +47101,7 @@
         <v>262</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -47109,7 +47118,7 @@
         <v>262</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -47126,7 +47135,7 @@
         <v>262</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -47143,7 +47152,7 @@
         <v>262</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -47160,7 +47169,7 @@
         <v>262</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -47177,7 +47186,7 @@
         <v>262</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -47194,7 +47203,7 @@
         <v>262</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -47211,7 +47220,7 @@
         <v>262</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -47228,7 +47237,7 @@
         <v>262</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -47245,7 +47254,7 @@
         <v>262</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -47262,7 +47271,7 @@
         <v>262</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -47279,7 +47288,7 @@
         <v>262</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -47296,7 +47305,7 @@
         <v>262</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -47313,7 +47322,7 @@
         <v>262</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -47330,7 +47339,7 @@
         <v>262</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -47347,7 +47356,7 @@
         <v>262</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -47364,7 +47373,7 @@
         <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -47381,7 +47390,7 @@
         <v>262</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -47398,7 +47407,7 @@
         <v>262</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -47415,7 +47424,7 @@
         <v>262</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -47432,7 +47441,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -47449,7 +47458,7 @@
         <v>262</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -47466,7 +47475,7 @@
         <v>262</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -47483,7 +47492,7 @@
         <v>262</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -47500,7 +47509,7 @@
         <v>262</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -47517,7 +47526,7 @@
         <v>262</v>
       </c>
       <c r="E54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -47534,7 +47543,7 @@
         <v>262</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -47551,7 +47560,7 @@
         <v>262</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -47568,7 +47577,7 @@
         <v>262</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -47585,7 +47594,7 @@
         <v>262</v>
       </c>
       <c r="E58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -47602,7 +47611,7 @@
         <v>262</v>
       </c>
       <c r="E59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -47619,7 +47628,7 @@
         <v>262</v>
       </c>
       <c r="E60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -47636,7 +47645,7 @@
         <v>262</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -47653,7 +47662,7 @@
         <v>262</v>
       </c>
       <c r="E62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -47670,7 +47679,7 @@
         <v>262</v>
       </c>
       <c r="E63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -47687,7 +47696,7 @@
         <v>262</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -47704,7 +47713,7 @@
         <v>262</v>
       </c>
       <c r="E65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -47721,7 +47730,7 @@
         <v>262</v>
       </c>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -47738,7 +47747,7 @@
         <v>262</v>
       </c>
       <c r="E67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -47755,7 +47764,7 @@
         <v>262</v>
       </c>
       <c r="E68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -47772,7 +47781,7 @@
         <v>262</v>
       </c>
       <c r="E69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -47789,7 +47798,7 @@
         <v>262</v>
       </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -47806,7 +47815,7 @@
         <v>262</v>
       </c>
       <c r="E71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -47823,7 +47832,7 @@
         <v>262</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -47840,7 +47849,7 @@
         <v>262</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -47857,7 +47866,7 @@
         <v>262</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -47874,7 +47883,7 @@
         <v>262</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -47891,7 +47900,7 @@
         <v>262</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -47908,7 +47917,7 @@
         <v>262</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -47925,7 +47934,7 @@
         <v>262</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -47942,7 +47951,7 @@
         <v>262</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -47959,7 +47968,7 @@
         <v>262</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -47976,7 +47985,7 @@
         <v>262</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -47993,7 +48002,7 @@
         <v>262</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -48010,7 +48019,7 @@
         <v>262</v>
       </c>
       <c r="E83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -48027,7 +48036,7 @@
         <v>262</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -48044,7 +48053,7 @@
         <v>262</v>
       </c>
       <c r="E85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -48061,7 +48070,7 @@
         <v>262</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -48078,7 +48087,7 @@
         <v>262</v>
       </c>
       <c r="E87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -48095,7 +48104,7 @@
         <v>262</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -48112,7 +48121,7 @@
         <v>262</v>
       </c>
       <c r="E89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -48129,7 +48138,7 @@
         <v>262</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -48146,7 +48155,7 @@
         <v>262</v>
       </c>
       <c r="E91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -48163,7 +48172,7 @@
         <v>262</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -48180,7 +48189,7 @@
         <v>262</v>
       </c>
       <c r="E93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -48197,7 +48206,7 @@
         <v>262</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -48214,7 +48223,7 @@
         <v>262</v>
       </c>
       <c r="E95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -48231,7 +48240,7 @@
         <v>262</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -48248,7 +48257,7 @@
         <v>262</v>
       </c>
       <c r="E97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -48265,7 +48274,7 @@
         <v>262</v>
       </c>
       <c r="E98" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -48282,7 +48291,7 @@
         <v>262</v>
       </c>
       <c r="E99" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -48299,7 +48308,7 @@
         <v>262</v>
       </c>
       <c r="E100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -48316,7 +48325,7 @@
         <v>262</v>
       </c>
       <c r="E101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -48333,7 +48342,7 @@
         <v>262</v>
       </c>
       <c r="E102" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -48350,7 +48359,7 @@
         <v>262</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -48367,7 +48376,7 @@
         <v>262</v>
       </c>
       <c r="E104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -48384,7 +48393,7 @@
         <v>262</v>
       </c>
       <c r="E105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -48401,7 +48410,7 @@
         <v>262</v>
       </c>
       <c r="E106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -48418,7 +48427,7 @@
         <v>262</v>
       </c>
       <c r="E107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -48435,7 +48444,7 @@
         <v>262</v>
       </c>
       <c r="E108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -48452,7 +48461,7 @@
         <v>262</v>
       </c>
       <c r="E109" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -48469,7 +48478,7 @@
         <v>262</v>
       </c>
       <c r="E110" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -48486,7 +48495,7 @@
         <v>262</v>
       </c>
       <c r="E111" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -48503,7 +48512,7 @@
         <v>262</v>
       </c>
       <c r="E112" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -48520,7 +48529,7 @@
         <v>262</v>
       </c>
       <c r="E113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -48537,7 +48546,7 @@
         <v>262</v>
       </c>
       <c r="E114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -48554,7 +48563,7 @@
         <v>262</v>
       </c>
       <c r="E115" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -48571,7 +48580,7 @@
         <v>262</v>
       </c>
       <c r="E116" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -48588,7 +48597,7 @@
         <v>262</v>
       </c>
       <c r="E117" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -48605,7 +48614,7 @@
         <v>262</v>
       </c>
       <c r="E118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -48622,7 +48631,7 @@
         <v>262</v>
       </c>
       <c r="E119" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -48639,7 +48648,7 @@
         <v>262</v>
       </c>
       <c r="E120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -48656,7 +48665,7 @@
         <v>262</v>
       </c>
       <c r="E121" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -48673,7 +48682,7 @@
         <v>262</v>
       </c>
       <c r="E122" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -48690,7 +48699,7 @@
         <v>262</v>
       </c>
       <c r="E123" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -48707,7 +48716,7 @@
         <v>262</v>
       </c>
       <c r="E124" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -48724,7 +48733,7 @@
         <v>262</v>
       </c>
       <c r="E125" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -48741,7 +48750,7 @@
         <v>262</v>
       </c>
       <c r="E126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -48758,7 +48767,7 @@
         <v>262</v>
       </c>
       <c r="E127" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -48775,7 +48784,7 @@
         <v>262</v>
       </c>
       <c r="E128" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -48792,7 +48801,7 @@
         <v>262</v>
       </c>
       <c r="E129" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -48809,7 +48818,7 @@
         <v>262</v>
       </c>
       <c r="E130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -48826,7 +48835,7 @@
         <v>262</v>
       </c>
       <c r="E131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -48843,7 +48852,7 @@
         <v>262</v>
       </c>
       <c r="E132" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -48860,7 +48869,7 @@
         <v>262</v>
       </c>
       <c r="E133" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -48877,7 +48886,7 @@
         <v>262</v>
       </c>
       <c r="E134" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -48894,7 +48903,7 @@
         <v>262</v>
       </c>
       <c r="E135" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -48911,7 +48920,7 @@
         <v>262</v>
       </c>
       <c r="E136" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -48928,7 +48937,7 @@
         <v>262</v>
       </c>
       <c r="E137" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -48945,7 +48954,7 @@
         <v>262</v>
       </c>
       <c r="E138" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -48962,7 +48971,7 @@
         <v>262</v>
       </c>
       <c r="E139" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -48979,7 +48988,7 @@
         <v>262</v>
       </c>
       <c r="E140" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -48996,7 +49005,7 @@
         <v>262</v>
       </c>
       <c r="E141" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -49013,7 +49022,7 @@
         <v>262</v>
       </c>
       <c r="E142" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -49030,7 +49039,7 @@
         <v>262</v>
       </c>
       <c r="E143" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -49047,7 +49056,7 @@
         <v>262</v>
       </c>
       <c r="E144" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -49064,7 +49073,7 @@
         <v>262</v>
       </c>
       <c r="E145" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -49081,7 +49090,7 @@
         <v>262</v>
       </c>
       <c r="E146" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -49098,7 +49107,7 @@
         <v>262</v>
       </c>
       <c r="E147" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -49115,7 +49124,7 @@
         <v>262</v>
       </c>
       <c r="E148" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -49132,7 +49141,7 @@
         <v>262</v>
       </c>
       <c r="E149" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -49149,7 +49158,7 @@
         <v>262</v>
       </c>
       <c r="E150" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -49166,7 +49175,7 @@
         <v>262</v>
       </c>
       <c r="E151" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -49183,7 +49192,7 @@
         <v>262</v>
       </c>
       <c r="E152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -49200,7 +49209,7 @@
         <v>262</v>
       </c>
       <c r="E153" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -49217,7 +49226,7 @@
         <v>262</v>
       </c>
       <c r="E154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -49234,7 +49243,7 @@
         <v>262</v>
       </c>
       <c r="E155" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -49251,7 +49260,7 @@
         <v>262</v>
       </c>
       <c r="E156" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -49268,7 +49277,7 @@
         <v>262</v>
       </c>
       <c r="E157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -49285,7 +49294,7 @@
         <v>262</v>
       </c>
       <c r="E158" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
@@ -49302,7 +49311,7 @@
         <v>262</v>
       </c>
       <c r="E159" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
@@ -49319,7 +49328,7 @@
         <v>262</v>
       </c>
       <c r="E160" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
@@ -49336,7 +49345,7 @@
         <v>262</v>
       </c>
       <c r="E161" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
@@ -49353,6 +49362,23 @@
         <v>262</v>
       </c>
       <c r="E162" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>442</v>
+      </c>
+      <c r="B163" t="s">
+        <v>262</v>
+      </c>
+      <c r="C163" t="s">
+        <v>443</v>
+      </c>
+      <c r="D163" t="s">
+        <v>262</v>
+      </c>
+      <c r="E163" t="s">
         <v>249</v>
       </c>
     </row>

--- a/spine_rts-gmlc/datasets/gen.xlsx
+++ b/spine_rts-gmlc/datasets/gen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="gen" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11620" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12319" uniqueCount="453">
   <si>
     <t>GEN UID</t>
   </si>
@@ -1358,18 +1358,6 @@
     <t>parameter_values</t>
   </si>
   <si>
-    <t>unit_group__unit</t>
-  </si>
-  <si>
-    <t>all_units</t>
-  </si>
-  <si>
-    <t>units_on_resolution</t>
-  </si>
-  <si>
-    <t>node__temporal_block</t>
-  </si>
-  <si>
     <t>temporal_block</t>
   </si>
   <si>
@@ -1382,25 +1370,25 @@
     <t>blk_t1</t>
   </si>
   <si>
-    <t>blk_t2</t>
-  </si>
-  <si>
-    <t>node__stochastic_structure</t>
-  </si>
-  <si>
     <t>stochastic_structure</t>
   </si>
   <si>
     <t>default_none</t>
   </si>
   <si>
-    <t>define unit_group</t>
-  </si>
-  <si>
     <t>Start Heat Warm MBTU</t>
   </si>
   <si>
     <t>ROR</t>
+  </si>
+  <si>
+    <t>unit__node</t>
+  </si>
+  <si>
+    <t>units_on__stochastic_structure</t>
+  </si>
+  <si>
+    <t>units_on__temporal_block</t>
   </si>
 </sst>
 </file>
@@ -2224,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2330,7 +2318,7 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="W1" t="s">
         <v>21</v>
@@ -16292,7 +16280,7 @@
         <v>156</v>
       </c>
       <c r="E82" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F82" t="s">
         <v>158</v>
@@ -47081,19 +47069,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E323"/>
+  <dimension ref="A1:E317"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="35.54296875" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -47102,5461 +47090,5388 @@
         <v>266</v>
       </c>
       <c r="B1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>444</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" t="s">
         <v>445</v>
-      </c>
-      <c r="B3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E4" t="s">
         <v>445</v>
-      </c>
-      <c r="B4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E4" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
         <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s">
         <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
         <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s">
         <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s">
         <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s">
         <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
         <v>262</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
         <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B13" t="s">
         <v>262</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B14" t="s">
         <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B15" t="s">
         <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B16" t="s">
         <v>262</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E16" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B17" t="s">
         <v>262</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E17" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
         <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E18" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B19" t="s">
         <v>262</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B20" t="s">
         <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B21" t="s">
         <v>262</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B22" t="s">
         <v>262</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E22" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B23" t="s">
         <v>262</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B24" t="s">
         <v>262</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E24" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B25" t="s">
         <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E25" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B26" t="s">
         <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B27" t="s">
         <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E27" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B28" t="s">
         <v>262</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B29" t="s">
         <v>262</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E29" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B30" t="s">
         <v>262</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B31" t="s">
         <v>262</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B32" t="s">
         <v>262</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E32" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B33" t="s">
         <v>262</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E33" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B34" t="s">
         <v>262</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E34" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B35" t="s">
         <v>262</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E35" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B36" t="s">
         <v>262</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E36" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B37" t="s">
         <v>262</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E37" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B38" t="s">
         <v>262</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E38" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B39" t="s">
         <v>262</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E39" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B40" t="s">
         <v>262</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E40" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B41" t="s">
         <v>262</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E41" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B42" t="s">
         <v>262</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E42" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B43" t="s">
         <v>262</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E43" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B44" t="s">
         <v>262</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E44" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B45" t="s">
         <v>262</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E45" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B46" t="s">
         <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E46" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B47" t="s">
         <v>262</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E47" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B48" t="s">
         <v>262</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E48" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B49" t="s">
         <v>262</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E49" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B50" t="s">
         <v>262</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E50" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s">
         <v>262</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E51" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B52" t="s">
         <v>262</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E52" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B53" t="s">
         <v>262</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E53" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B54" t="s">
         <v>262</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E54" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B55" t="s">
         <v>262</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E55" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B56" t="s">
         <v>262</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E56" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B57" t="s">
         <v>262</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E57" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B58" t="s">
         <v>262</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E58" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B59" t="s">
         <v>262</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E59" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B60" t="s">
         <v>262</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D60" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E60" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B61" t="s">
         <v>262</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E61" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s">
         <v>262</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D62" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E62" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B63" t="s">
         <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D63" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E63" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s">
         <v>262</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s">
         <v>262</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E65" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B66" t="s">
         <v>262</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E66" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s">
         <v>262</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E67" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B68" t="s">
         <v>262</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E68" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B69" t="s">
         <v>262</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D69" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E69" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s">
         <v>262</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E70" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B71" t="s">
         <v>262</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E71" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B72" t="s">
         <v>262</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E72" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B73" t="s">
         <v>262</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E73" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B74" t="s">
         <v>262</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E74" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B75" t="s">
         <v>262</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D75" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E75" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B76" t="s">
         <v>262</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E76" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B77" t="s">
         <v>262</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E77" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B78" t="s">
         <v>262</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E78" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B79" t="s">
         <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E79" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B80" t="s">
         <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E80" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B81" t="s">
         <v>262</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E81" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B82" t="s">
         <v>262</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E82" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B83" t="s">
         <v>262</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E83" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B84" t="s">
         <v>262</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E84" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B85" t="s">
         <v>262</v>
       </c>
       <c r="C85" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E85" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B86" t="s">
         <v>262</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E86" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B87" t="s">
         <v>262</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E87" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B88" t="s">
         <v>262</v>
       </c>
       <c r="C88" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E88" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B89" t="s">
         <v>262</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D89" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E89" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B90" t="s">
         <v>262</v>
       </c>
       <c r="C90" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B91" t="s">
         <v>262</v>
       </c>
       <c r="C91" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E91" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B92" t="s">
         <v>262</v>
       </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E92" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B93" t="s">
         <v>262</v>
       </c>
       <c r="C93" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E93" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B94" t="s">
         <v>262</v>
       </c>
       <c r="C94" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D94" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E94" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B95" t="s">
         <v>262</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D95" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E95" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B96" t="s">
         <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D96" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E96" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B97" t="s">
         <v>262</v>
       </c>
       <c r="C97" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D97" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E97" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B98" t="s">
         <v>262</v>
       </c>
       <c r="C98" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E98" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B99" t="s">
         <v>262</v>
       </c>
       <c r="C99" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E99" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B100" t="s">
         <v>262</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D100" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E100" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B101" t="s">
         <v>262</v>
       </c>
       <c r="C101" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D101" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E101" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B102" t="s">
         <v>262</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D102" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E102" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B103" t="s">
         <v>262</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D103" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E103" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B104" t="s">
         <v>262</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D104" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E104" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B105" t="s">
         <v>262</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D105" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E105" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B106" t="s">
         <v>262</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D106" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E106" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B107" t="s">
         <v>262</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D107" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E107" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B108" t="s">
         <v>262</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E108" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B109" t="s">
         <v>262</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D109" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E109" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B110" t="s">
         <v>262</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E110" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B111" t="s">
         <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D111" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E111" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B112" t="s">
         <v>262</v>
       </c>
       <c r="C112" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D112" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E112" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B113" t="s">
         <v>262</v>
       </c>
       <c r="C113" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D113" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E113" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B114" t="s">
         <v>262</v>
       </c>
       <c r="C114" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D114" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E114" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B115" t="s">
         <v>262</v>
       </c>
       <c r="C115" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E115" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B116" t="s">
         <v>262</v>
       </c>
       <c r="C116" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D116" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E116" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B117" t="s">
         <v>262</v>
       </c>
       <c r="C117" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D117" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E117" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B118" t="s">
         <v>262</v>
       </c>
       <c r="C118" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D118" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E118" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B119" t="s">
         <v>262</v>
       </c>
       <c r="C119" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D119" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E119" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B120" t="s">
         <v>262</v>
       </c>
       <c r="C120" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D120" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E120" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B121" t="s">
         <v>262</v>
       </c>
       <c r="C121" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D121" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E121" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B122" t="s">
         <v>262</v>
       </c>
       <c r="C122" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D122" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E122" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B123" t="s">
         <v>262</v>
       </c>
       <c r="C123" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D123" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E123" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B124" t="s">
         <v>262</v>
       </c>
       <c r="C124" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D124" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E124" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B125" t="s">
         <v>262</v>
       </c>
       <c r="C125" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D125" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E125" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B126" t="s">
         <v>262</v>
       </c>
       <c r="C126" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D126" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E126" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B127" t="s">
         <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D127" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E127" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B128" t="s">
         <v>262</v>
       </c>
       <c r="C128" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D128" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E128" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B129" t="s">
         <v>262</v>
       </c>
       <c r="C129" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E129" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B130" t="s">
         <v>262</v>
       </c>
       <c r="C130" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D130" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E130" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B131" t="s">
         <v>262</v>
       </c>
       <c r="C131" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D131" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E131" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B132" t="s">
         <v>262</v>
       </c>
       <c r="C132" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D132" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E132" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B133" t="s">
         <v>262</v>
       </c>
       <c r="C133" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D133" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E133" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B134" t="s">
         <v>262</v>
       </c>
       <c r="C134" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D134" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E134" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B135" t="s">
         <v>262</v>
       </c>
       <c r="C135" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D135" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E135" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B136" t="s">
         <v>262</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D136" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E136" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B137" t="s">
         <v>262</v>
       </c>
       <c r="C137" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D137" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E137" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B138" t="s">
         <v>262</v>
       </c>
       <c r="C138" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D138" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E138" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B139" t="s">
         <v>262</v>
       </c>
       <c r="C139" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E139" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B140" t="s">
         <v>262</v>
       </c>
       <c r="C140" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D140" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E140" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B141" t="s">
         <v>262</v>
       </c>
       <c r="C141" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D141" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B142" t="s">
         <v>262</v>
       </c>
       <c r="C142" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D142" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E142" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B143" t="s">
         <v>262</v>
       </c>
       <c r="C143" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D143" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E143" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B144" t="s">
         <v>262</v>
       </c>
       <c r="C144" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D144" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E144" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B145" t="s">
         <v>262</v>
       </c>
       <c r="C145" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D145" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E145" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B146" t="s">
         <v>262</v>
       </c>
       <c r="C146" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D146" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E146" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B147" t="s">
         <v>262</v>
       </c>
       <c r="C147" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D147" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E147" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B148" t="s">
         <v>262</v>
       </c>
       <c r="C148" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E148" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B149" t="s">
         <v>262</v>
       </c>
       <c r="C149" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D149" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E149" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B150" t="s">
         <v>262</v>
       </c>
       <c r="C150" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D150" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E150" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B151" t="s">
         <v>262</v>
       </c>
       <c r="C151" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D151" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E151" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B152" t="s">
         <v>262</v>
       </c>
       <c r="C152" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D152" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E152" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B153" t="s">
         <v>262</v>
       </c>
       <c r="C153" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D153" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E153" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B154" t="s">
         <v>262</v>
       </c>
       <c r="C154" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D154" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E154" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B155" t="s">
         <v>262</v>
       </c>
       <c r="C155" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D155" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E155" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B156" t="s">
         <v>262</v>
       </c>
       <c r="C156" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D156" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E156" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B157" t="s">
         <v>262</v>
       </c>
       <c r="C157" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D157" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E157" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B158" t="s">
         <v>262</v>
       </c>
       <c r="C158" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D158" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E158" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B159" t="s">
         <v>262</v>
       </c>
       <c r="C159" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D159" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="E159" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B160" t="s">
         <v>262</v>
       </c>
       <c r="C160" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="D160" t="s">
-        <v>277</v>
+        <v>446</v>
       </c>
       <c r="E160" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B161" t="s">
         <v>262</v>
       </c>
       <c r="C161" t="s">
-        <v>248</v>
+        <v>62</v>
       </c>
       <c r="D161" t="s">
-        <v>277</v>
+        <v>446</v>
       </c>
       <c r="E161" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B162" t="s">
         <v>262</v>
       </c>
       <c r="C162" t="s">
-        <v>249</v>
+        <v>63</v>
       </c>
       <c r="D162" t="s">
-        <v>277</v>
+        <v>446</v>
       </c>
       <c r="E162" t="s">
-        <v>444</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>451</v>
+      </c>
+      <c r="B163" t="s">
+        <v>262</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>446</v>
+      </c>
+      <c r="E163" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="4" t="s">
-        <v>454</v>
+      <c r="A164" t="s">
+        <v>451</v>
+      </c>
+      <c r="B164" t="s">
+        <v>262</v>
+      </c>
+      <c r="C164" t="s">
+        <v>69</v>
+      </c>
+      <c r="D164" t="s">
+        <v>446</v>
+      </c>
+      <c r="E164" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B165" t="s">
         <v>262</v>
       </c>
       <c r="C165" t="s">
-        <v>443</v>
+        <v>70</v>
       </c>
       <c r="D165" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E165" t="s">
-        <v>56</v>
+        <v>447</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B166" t="s">
         <v>262</v>
       </c>
       <c r="C166" t="s">
-        <v>443</v>
+        <v>71</v>
       </c>
       <c r="D166" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E166" t="s">
-        <v>62</v>
+        <v>447</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B167" t="s">
         <v>262</v>
       </c>
       <c r="C167" t="s">
-        <v>443</v>
+        <v>72</v>
       </c>
       <c r="D167" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E167" t="s">
-        <v>63</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B168" t="s">
         <v>262</v>
       </c>
       <c r="C168" t="s">
-        <v>443</v>
+        <v>73</v>
       </c>
       <c r="D168" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E168" t="s">
-        <v>68</v>
+        <v>447</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B169" t="s">
         <v>262</v>
       </c>
       <c r="C169" t="s">
-        <v>443</v>
+        <v>78</v>
       </c>
       <c r="D169" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E169" t="s">
-        <v>69</v>
+        <v>447</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B170" t="s">
         <v>262</v>
       </c>
       <c r="C170" t="s">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="D170" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E170" t="s">
-        <v>70</v>
+        <v>447</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B171" t="s">
         <v>262</v>
       </c>
       <c r="C171" t="s">
-        <v>443</v>
+        <v>82</v>
       </c>
       <c r="D171" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E171" t="s">
-        <v>71</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B172" t="s">
         <v>262</v>
       </c>
       <c r="C172" t="s">
-        <v>443</v>
+        <v>83</v>
       </c>
       <c r="D172" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E172" t="s">
-        <v>72</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B173" t="s">
         <v>262</v>
       </c>
       <c r="C173" t="s">
-        <v>443</v>
+        <v>84</v>
       </c>
       <c r="D173" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E173" t="s">
-        <v>73</v>
+        <v>447</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B174" t="s">
         <v>262</v>
       </c>
       <c r="C174" t="s">
-        <v>443</v>
+        <v>88</v>
       </c>
       <c r="D174" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E174" t="s">
-        <v>78</v>
+        <v>447</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B175" t="s">
         <v>262</v>
       </c>
       <c r="C175" t="s">
-        <v>443</v>
+        <v>89</v>
       </c>
       <c r="D175" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E175" t="s">
-        <v>81</v>
+        <v>447</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B176" t="s">
         <v>262</v>
       </c>
       <c r="C176" t="s">
-        <v>443</v>
+        <v>91</v>
       </c>
       <c r="D176" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E176" t="s">
-        <v>82</v>
+        <v>447</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B177" t="s">
         <v>262</v>
       </c>
       <c r="C177" t="s">
-        <v>443</v>
+        <v>92</v>
       </c>
       <c r="D177" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E177" t="s">
-        <v>83</v>
+        <v>447</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B178" t="s">
         <v>262</v>
       </c>
       <c r="C178" t="s">
-        <v>443</v>
+        <v>93</v>
       </c>
       <c r="D178" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E178" t="s">
-        <v>84</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B179" t="s">
         <v>262</v>
       </c>
       <c r="C179" t="s">
-        <v>443</v>
+        <v>94</v>
       </c>
       <c r="D179" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E179" t="s">
-        <v>88</v>
+        <v>447</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B180" t="s">
         <v>262</v>
       </c>
       <c r="C180" t="s">
-        <v>443</v>
+        <v>96</v>
       </c>
       <c r="D180" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E180" t="s">
-        <v>89</v>
+        <v>447</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B181" t="s">
         <v>262</v>
       </c>
       <c r="C181" t="s">
-        <v>443</v>
+        <v>97</v>
       </c>
       <c r="D181" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E181" t="s">
-        <v>91</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B182" t="s">
         <v>262</v>
       </c>
       <c r="C182" t="s">
-        <v>443</v>
+        <v>98</v>
       </c>
       <c r="D182" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E182" t="s">
-        <v>92</v>
+        <v>447</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B183" t="s">
         <v>262</v>
       </c>
       <c r="C183" t="s">
-        <v>443</v>
+        <v>99</v>
       </c>
       <c r="D183" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E183" t="s">
-        <v>93</v>
+        <v>447</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B184" t="s">
         <v>262</v>
       </c>
       <c r="C184" t="s">
-        <v>443</v>
+        <v>100</v>
       </c>
       <c r="D184" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E184" t="s">
-        <v>94</v>
+        <v>447</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B185" t="s">
         <v>262</v>
       </c>
       <c r="C185" t="s">
-        <v>443</v>
+        <v>101</v>
       </c>
       <c r="D185" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E185" t="s">
-        <v>96</v>
+        <v>447</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B186" t="s">
         <v>262</v>
       </c>
       <c r="C186" t="s">
-        <v>443</v>
+        <v>102</v>
       </c>
       <c r="D186" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E186" t="s">
-        <v>97</v>
+        <v>447</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B187" t="s">
         <v>262</v>
       </c>
       <c r="C187" t="s">
-        <v>443</v>
+        <v>103</v>
       </c>
       <c r="D187" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E187" t="s">
-        <v>98</v>
+        <v>447</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B188" t="s">
         <v>262</v>
       </c>
       <c r="C188" t="s">
-        <v>443</v>
+        <v>104</v>
       </c>
       <c r="D188" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E188" t="s">
-        <v>99</v>
+        <v>447</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B189" t="s">
         <v>262</v>
       </c>
       <c r="C189" t="s">
-        <v>443</v>
+        <v>105</v>
       </c>
       <c r="D189" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E189" t="s">
-        <v>100</v>
+        <v>447</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B190" t="s">
         <v>262</v>
       </c>
       <c r="C190" t="s">
-        <v>443</v>
+        <v>106</v>
       </c>
       <c r="D190" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E190" t="s">
-        <v>101</v>
+        <v>447</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B191" t="s">
         <v>262</v>
       </c>
       <c r="C191" t="s">
-        <v>443</v>
+        <v>107</v>
       </c>
       <c r="D191" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E191" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B192" t="s">
         <v>262</v>
       </c>
       <c r="C192" t="s">
-        <v>443</v>
+        <v>108</v>
       </c>
       <c r="D192" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E192" t="s">
-        <v>103</v>
+        <v>447</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B193" t="s">
         <v>262</v>
       </c>
       <c r="C193" t="s">
-        <v>443</v>
+        <v>109</v>
       </c>
       <c r="D193" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E193" t="s">
-        <v>104</v>
+        <v>447</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B194" t="s">
         <v>262</v>
       </c>
       <c r="C194" t="s">
-        <v>443</v>
+        <v>110</v>
       </c>
       <c r="D194" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E194" t="s">
-        <v>105</v>
+        <v>447</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B195" t="s">
         <v>262</v>
       </c>
       <c r="C195" t="s">
-        <v>443</v>
+        <v>111</v>
       </c>
       <c r="D195" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E195" t="s">
-        <v>106</v>
+        <v>447</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B196" t="s">
         <v>262</v>
       </c>
       <c r="C196" t="s">
-        <v>443</v>
+        <v>112</v>
       </c>
       <c r="D196" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E196" t="s">
-        <v>107</v>
+        <v>447</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B197" t="s">
         <v>262</v>
       </c>
       <c r="C197" t="s">
-        <v>443</v>
+        <v>113</v>
       </c>
       <c r="D197" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E197" t="s">
-        <v>108</v>
+        <v>447</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B198" t="s">
         <v>262</v>
       </c>
       <c r="C198" t="s">
-        <v>443</v>
+        <v>114</v>
       </c>
       <c r="D198" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E198" t="s">
-        <v>109</v>
+        <v>447</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B199" t="s">
         <v>262</v>
       </c>
       <c r="C199" t="s">
-        <v>443</v>
+        <v>115</v>
       </c>
       <c r="D199" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E199" t="s">
-        <v>110</v>
+        <v>447</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B200" t="s">
         <v>262</v>
       </c>
       <c r="C200" t="s">
-        <v>443</v>
+        <v>116</v>
       </c>
       <c r="D200" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E200" t="s">
-        <v>111</v>
+        <v>447</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B201" t="s">
         <v>262</v>
       </c>
       <c r="C201" t="s">
-        <v>443</v>
+        <v>117</v>
       </c>
       <c r="D201" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E201" t="s">
-        <v>112</v>
+        <v>447</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B202" t="s">
         <v>262</v>
       </c>
       <c r="C202" t="s">
-        <v>443</v>
+        <v>118</v>
       </c>
       <c r="D202" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E202" t="s">
-        <v>113</v>
+        <v>447</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B203" t="s">
         <v>262</v>
       </c>
       <c r="C203" t="s">
-        <v>443</v>
+        <v>119</v>
       </c>
       <c r="D203" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E203" t="s">
-        <v>114</v>
+        <v>447</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B204" t="s">
         <v>262</v>
       </c>
       <c r="C204" t="s">
-        <v>443</v>
+        <v>120</v>
       </c>
       <c r="D204" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E204" t="s">
-        <v>115</v>
+        <v>447</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B205" t="s">
         <v>262</v>
       </c>
       <c r="C205" t="s">
-        <v>443</v>
+        <v>121</v>
       </c>
       <c r="D205" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E205" t="s">
-        <v>116</v>
+        <v>447</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B206" t="s">
         <v>262</v>
       </c>
       <c r="C206" t="s">
-        <v>443</v>
+        <v>122</v>
       </c>
       <c r="D206" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E206" t="s">
-        <v>117</v>
+        <v>447</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B207" t="s">
         <v>262</v>
       </c>
       <c r="C207" t="s">
-        <v>443</v>
+        <v>123</v>
       </c>
       <c r="D207" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E207" t="s">
-        <v>118</v>
+        <v>447</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B208" t="s">
         <v>262</v>
       </c>
       <c r="C208" t="s">
-        <v>443</v>
+        <v>124</v>
       </c>
       <c r="D208" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E208" t="s">
-        <v>119</v>
+        <v>447</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B209" t="s">
         <v>262</v>
       </c>
       <c r="C209" t="s">
-        <v>443</v>
+        <v>125</v>
       </c>
       <c r="D209" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E209" t="s">
-        <v>120</v>
+        <v>447</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B210" t="s">
         <v>262</v>
       </c>
       <c r="C210" t="s">
-        <v>443</v>
+        <v>126</v>
       </c>
       <c r="D210" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E210" t="s">
-        <v>121</v>
+        <v>447</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B211" t="s">
         <v>262</v>
       </c>
       <c r="C211" t="s">
-        <v>443</v>
+        <v>127</v>
       </c>
       <c r="D211" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E211" t="s">
-        <v>122</v>
+        <v>447</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B212" t="s">
         <v>262</v>
       </c>
       <c r="C212" t="s">
-        <v>443</v>
+        <v>128</v>
       </c>
       <c r="D212" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E212" t="s">
-        <v>123</v>
+        <v>447</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B213" t="s">
         <v>262</v>
       </c>
       <c r="C213" t="s">
-        <v>443</v>
+        <v>129</v>
       </c>
       <c r="D213" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E213" t="s">
-        <v>124</v>
+        <v>447</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B214" t="s">
         <v>262</v>
       </c>
       <c r="C214" t="s">
-        <v>443</v>
+        <v>130</v>
       </c>
       <c r="D214" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E214" t="s">
-        <v>125</v>
+        <v>447</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B215" t="s">
         <v>262</v>
       </c>
       <c r="C215" t="s">
-        <v>443</v>
+        <v>131</v>
       </c>
       <c r="D215" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E215" t="s">
-        <v>126</v>
+        <v>447</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B216" t="s">
         <v>262</v>
       </c>
       <c r="C216" t="s">
-        <v>443</v>
+        <v>132</v>
       </c>
       <c r="D216" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E216" t="s">
-        <v>127</v>
+        <v>447</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B217" t="s">
         <v>262</v>
       </c>
       <c r="C217" t="s">
-        <v>443</v>
+        <v>133</v>
       </c>
       <c r="D217" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E217" t="s">
-        <v>128</v>
+        <v>447</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B218" t="s">
         <v>262</v>
       </c>
       <c r="C218" t="s">
-        <v>443</v>
+        <v>134</v>
       </c>
       <c r="D218" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E218" t="s">
-        <v>129</v>
+        <v>447</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B219" t="s">
         <v>262</v>
       </c>
       <c r="C219" t="s">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="D219" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E219" t="s">
-        <v>130</v>
+        <v>447</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B220" t="s">
         <v>262</v>
       </c>
       <c r="C220" t="s">
-        <v>443</v>
+        <v>136</v>
       </c>
       <c r="D220" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E220" t="s">
-        <v>131</v>
+        <v>447</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B221" t="s">
         <v>262</v>
       </c>
       <c r="C221" t="s">
-        <v>443</v>
+        <v>137</v>
       </c>
       <c r="D221" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E221" t="s">
-        <v>132</v>
+        <v>447</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B222" t="s">
         <v>262</v>
       </c>
       <c r="C222" t="s">
-        <v>443</v>
+        <v>138</v>
       </c>
       <c r="D222" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E222" t="s">
-        <v>133</v>
+        <v>447</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B223" t="s">
         <v>262</v>
       </c>
       <c r="C223" t="s">
-        <v>443</v>
+        <v>139</v>
       </c>
       <c r="D223" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E223" t="s">
-        <v>134</v>
+        <v>447</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B224" t="s">
         <v>262</v>
       </c>
       <c r="C224" t="s">
-        <v>443</v>
+        <v>140</v>
       </c>
       <c r="D224" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E224" t="s">
-        <v>135</v>
+        <v>447</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B225" t="s">
         <v>262</v>
       </c>
       <c r="C225" t="s">
-        <v>443</v>
+        <v>141</v>
       </c>
       <c r="D225" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E225" t="s">
-        <v>136</v>
+        <v>447</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B226" t="s">
         <v>262</v>
       </c>
       <c r="C226" t="s">
-        <v>443</v>
+        <v>142</v>
       </c>
       <c r="D226" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E226" t="s">
-        <v>137</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B227" t="s">
         <v>262</v>
       </c>
       <c r="C227" t="s">
-        <v>443</v>
+        <v>143</v>
       </c>
       <c r="D227" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E227" t="s">
-        <v>138</v>
+        <v>447</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B228" t="s">
         <v>262</v>
       </c>
       <c r="C228" t="s">
-        <v>443</v>
+        <v>144</v>
       </c>
       <c r="D228" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E228" t="s">
-        <v>139</v>
+        <v>447</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B229" t="s">
         <v>262</v>
       </c>
       <c r="C229" t="s">
-        <v>443</v>
+        <v>145</v>
       </c>
       <c r="D229" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E229" t="s">
-        <v>140</v>
+        <v>447</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B230" t="s">
         <v>262</v>
       </c>
       <c r="C230" t="s">
-        <v>443</v>
+        <v>146</v>
       </c>
       <c r="D230" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E230" t="s">
-        <v>141</v>
+        <v>447</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B231" t="s">
         <v>262</v>
       </c>
       <c r="C231" t="s">
-        <v>443</v>
+        <v>147</v>
       </c>
       <c r="D231" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E231" t="s">
-        <v>142</v>
+        <v>447</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B232" t="s">
         <v>262</v>
       </c>
       <c r="C232" t="s">
-        <v>443</v>
+        <v>148</v>
       </c>
       <c r="D232" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E232" t="s">
-        <v>143</v>
+        <v>447</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B233" t="s">
         <v>262</v>
       </c>
       <c r="C233" t="s">
-        <v>443</v>
+        <v>151</v>
       </c>
       <c r="D233" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E233" t="s">
-        <v>144</v>
+        <v>447</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B234" t="s">
         <v>262</v>
       </c>
       <c r="C234" t="s">
-        <v>443</v>
+        <v>155</v>
       </c>
       <c r="D234" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E234" t="s">
-        <v>145</v>
+        <v>447</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B235" t="s">
         <v>262</v>
       </c>
       <c r="C235" t="s">
-        <v>443</v>
+        <v>159</v>
       </c>
       <c r="D235" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E235" t="s">
-        <v>146</v>
+        <v>447</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B236" t="s">
         <v>262</v>
       </c>
       <c r="C236" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
       <c r="D236" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E236" t="s">
-        <v>147</v>
+        <v>447</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B237" t="s">
         <v>262</v>
       </c>
       <c r="C237" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
       <c r="D237" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E237" t="s">
-        <v>148</v>
+        <v>447</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B238" t="s">
         <v>262</v>
       </c>
       <c r="C238" t="s">
-        <v>443</v>
+        <v>162</v>
       </c>
       <c r="D238" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E238" t="s">
-        <v>151</v>
+        <v>447</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B239" t="s">
         <v>262</v>
       </c>
       <c r="C239" t="s">
-        <v>443</v>
+        <v>163</v>
       </c>
       <c r="D239" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E239" t="s">
-        <v>155</v>
+        <v>447</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B240" t="s">
         <v>262</v>
       </c>
       <c r="C240" t="s">
-        <v>443</v>
+        <v>164</v>
       </c>
       <c r="D240" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E240" t="s">
-        <v>159</v>
+        <v>447</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B241" t="s">
         <v>262</v>
       </c>
       <c r="C241" t="s">
-        <v>443</v>
+        <v>165</v>
       </c>
       <c r="D241" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E241" t="s">
-        <v>160</v>
+        <v>447</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B242" t="s">
         <v>262</v>
       </c>
       <c r="C242" t="s">
-        <v>443</v>
+        <v>166</v>
       </c>
       <c r="D242" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E242" t="s">
-        <v>161</v>
+        <v>447</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B243" t="s">
         <v>262</v>
       </c>
       <c r="C243" t="s">
-        <v>443</v>
+        <v>167</v>
       </c>
       <c r="D243" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E243" t="s">
-        <v>162</v>
+        <v>447</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B244" t="s">
         <v>262</v>
       </c>
       <c r="C244" t="s">
-        <v>443</v>
+        <v>168</v>
       </c>
       <c r="D244" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E244" t="s">
-        <v>163</v>
+        <v>447</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B245" t="s">
         <v>262</v>
       </c>
       <c r="C245" t="s">
-        <v>443</v>
+        <v>169</v>
       </c>
       <c r="D245" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E245" t="s">
-        <v>164</v>
+        <v>447</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B246" t="s">
         <v>262</v>
       </c>
       <c r="C246" t="s">
-        <v>443</v>
+        <v>170</v>
       </c>
       <c r="D246" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E246" t="s">
-        <v>165</v>
+        <v>447</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B247" t="s">
         <v>262</v>
       </c>
       <c r="C247" t="s">
-        <v>443</v>
+        <v>171</v>
       </c>
       <c r="D247" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E247" t="s">
-        <v>166</v>
+        <v>447</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B248" t="s">
         <v>262</v>
       </c>
       <c r="C248" t="s">
-        <v>443</v>
+        <v>172</v>
       </c>
       <c r="D248" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E248" t="s">
-        <v>167</v>
+        <v>447</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B249" t="s">
         <v>262</v>
       </c>
       <c r="C249" t="s">
-        <v>443</v>
+        <v>173</v>
       </c>
       <c r="D249" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E249" t="s">
-        <v>168</v>
+        <v>447</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B250" t="s">
         <v>262</v>
       </c>
       <c r="C250" t="s">
-        <v>443</v>
+        <v>174</v>
       </c>
       <c r="D250" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E250" t="s">
-        <v>169</v>
+        <v>447</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B251" t="s">
         <v>262</v>
       </c>
       <c r="C251" t="s">
-        <v>443</v>
+        <v>175</v>
       </c>
       <c r="D251" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E251" t="s">
-        <v>170</v>
+        <v>447</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B252" t="s">
         <v>262</v>
       </c>
       <c r="C252" t="s">
-        <v>443</v>
+        <v>176</v>
       </c>
       <c r="D252" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E252" t="s">
-        <v>171</v>
+        <v>447</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B253" t="s">
         <v>262</v>
       </c>
       <c r="C253" t="s">
-        <v>443</v>
+        <v>177</v>
       </c>
       <c r="D253" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E253" t="s">
-        <v>172</v>
+        <v>447</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B254" t="s">
         <v>262</v>
       </c>
       <c r="C254" t="s">
-        <v>443</v>
+        <v>178</v>
       </c>
       <c r="D254" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E254" t="s">
-        <v>173</v>
+        <v>447</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B255" t="s">
         <v>262</v>
       </c>
       <c r="C255" t="s">
-        <v>443</v>
+        <v>179</v>
       </c>
       <c r="D255" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E255" t="s">
-        <v>174</v>
+        <v>447</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B256" t="s">
         <v>262</v>
       </c>
       <c r="C256" t="s">
-        <v>443</v>
+        <v>180</v>
       </c>
       <c r="D256" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E256" t="s">
-        <v>175</v>
+        <v>447</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B257" t="s">
         <v>262</v>
       </c>
       <c r="C257" t="s">
-        <v>443</v>
+        <v>184</v>
       </c>
       <c r="D257" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E257" t="s">
-        <v>176</v>
+        <v>447</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B258" t="s">
         <v>262</v>
       </c>
       <c r="C258" t="s">
-        <v>443</v>
+        <v>185</v>
       </c>
       <c r="D258" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E258" t="s">
-        <v>177</v>
+        <v>447</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B259" t="s">
         <v>262</v>
       </c>
       <c r="C259" t="s">
-        <v>443</v>
+        <v>186</v>
       </c>
       <c r="D259" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E259" t="s">
-        <v>178</v>
+        <v>447</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B260" t="s">
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>443</v>
+        <v>187</v>
       </c>
       <c r="D260" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E260" t="s">
-        <v>179</v>
+        <v>447</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B261" t="s">
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>443</v>
+        <v>188</v>
       </c>
       <c r="D261" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E261" t="s">
-        <v>180</v>
+        <v>447</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B262" t="s">
         <v>262</v>
       </c>
       <c r="C262" t="s">
-        <v>443</v>
+        <v>189</v>
       </c>
       <c r="D262" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E262" t="s">
-        <v>184</v>
+        <v>447</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B263" t="s">
         <v>262</v>
       </c>
       <c r="C263" t="s">
-        <v>443</v>
+        <v>190</v>
       </c>
       <c r="D263" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E263" t="s">
-        <v>185</v>
+        <v>447</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B264" t="s">
         <v>262</v>
       </c>
       <c r="C264" t="s">
-        <v>443</v>
+        <v>191</v>
       </c>
       <c r="D264" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E264" t="s">
-        <v>186</v>
+        <v>447</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B265" t="s">
         <v>262</v>
       </c>
       <c r="C265" t="s">
-        <v>443</v>
+        <v>192</v>
       </c>
       <c r="D265" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E265" t="s">
-        <v>187</v>
+        <v>447</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B266" t="s">
         <v>262</v>
       </c>
       <c r="C266" t="s">
-        <v>443</v>
+        <v>193</v>
       </c>
       <c r="D266" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E266" t="s">
-        <v>188</v>
+        <v>447</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B267" t="s">
         <v>262</v>
       </c>
       <c r="C267" t="s">
-        <v>443</v>
+        <v>194</v>
       </c>
       <c r="D267" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E267" t="s">
-        <v>189</v>
+        <v>447</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B268" t="s">
         <v>262</v>
       </c>
       <c r="C268" t="s">
-        <v>443</v>
+        <v>195</v>
       </c>
       <c r="D268" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E268" t="s">
-        <v>190</v>
+        <v>447</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B269" t="s">
         <v>262</v>
       </c>
       <c r="C269" t="s">
-        <v>443</v>
+        <v>196</v>
       </c>
       <c r="D269" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E269" t="s">
-        <v>191</v>
+        <v>447</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B270" t="s">
         <v>262</v>
       </c>
       <c r="C270" t="s">
-        <v>443</v>
+        <v>197</v>
       </c>
       <c r="D270" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E270" t="s">
-        <v>192</v>
+        <v>447</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B271" t="s">
         <v>262</v>
       </c>
       <c r="C271" t="s">
-        <v>443</v>
+        <v>198</v>
       </c>
       <c r="D271" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E271" t="s">
-        <v>193</v>
+        <v>447</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B272" t="s">
         <v>262</v>
       </c>
       <c r="C272" t="s">
-        <v>443</v>
+        <v>199</v>
       </c>
       <c r="D272" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E272" t="s">
-        <v>194</v>
+        <v>447</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B273" t="s">
         <v>262</v>
       </c>
       <c r="C273" t="s">
-        <v>443</v>
+        <v>200</v>
       </c>
       <c r="D273" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E273" t="s">
-        <v>195</v>
+        <v>447</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B274" t="s">
         <v>262</v>
       </c>
       <c r="C274" t="s">
-        <v>443</v>
+        <v>201</v>
       </c>
       <c r="D274" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E274" t="s">
-        <v>196</v>
+        <v>447</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B275" t="s">
         <v>262</v>
       </c>
       <c r="C275" t="s">
-        <v>443</v>
+        <v>202</v>
       </c>
       <c r="D275" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E275" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B276" t="s">
         <v>262</v>
       </c>
       <c r="C276" t="s">
-        <v>443</v>
+        <v>203</v>
       </c>
       <c r="D276" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E276" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B277" t="s">
         <v>262</v>
       </c>
       <c r="C277" t="s">
-        <v>443</v>
+        <v>205</v>
       </c>
       <c r="D277" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E277" t="s">
-        <v>199</v>
+        <v>447</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B278" t="s">
         <v>262</v>
       </c>
       <c r="C278" t="s">
-        <v>443</v>
+        <v>206</v>
       </c>
       <c r="D278" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E278" t="s">
-        <v>200</v>
+        <v>447</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B279" t="s">
         <v>262</v>
       </c>
       <c r="C279" t="s">
-        <v>443</v>
+        <v>207</v>
       </c>
       <c r="D279" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E279" t="s">
-        <v>201</v>
+        <v>447</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B280" t="s">
         <v>262</v>
       </c>
       <c r="C280" t="s">
-        <v>443</v>
+        <v>208</v>
       </c>
       <c r="D280" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E280" t="s">
-        <v>202</v>
+        <v>447</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B281" t="s">
         <v>262</v>
       </c>
       <c r="C281" t="s">
-        <v>443</v>
+        <v>209</v>
       </c>
       <c r="D281" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E281" t="s">
-        <v>203</v>
+        <v>447</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B282" t="s">
         <v>262</v>
       </c>
       <c r="C282" t="s">
-        <v>443</v>
+        <v>210</v>
       </c>
       <c r="D282" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E282" t="s">
-        <v>205</v>
+        <v>447</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B283" t="s">
         <v>262</v>
       </c>
       <c r="C283" t="s">
-        <v>443</v>
+        <v>213</v>
       </c>
       <c r="D283" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E283" t="s">
-        <v>206</v>
+        <v>447</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B284" t="s">
         <v>262</v>
       </c>
       <c r="C284" t="s">
-        <v>443</v>
+        <v>214</v>
       </c>
       <c r="D284" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E284" t="s">
-        <v>207</v>
+        <v>447</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B285" t="s">
         <v>262</v>
       </c>
       <c r="C285" t="s">
-        <v>443</v>
+        <v>215</v>
       </c>
       <c r="D285" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E285" t="s">
-        <v>208</v>
+        <v>447</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B286" t="s">
         <v>262</v>
       </c>
       <c r="C286" t="s">
-        <v>443</v>
+        <v>216</v>
       </c>
       <c r="D286" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E286" t="s">
-        <v>209</v>
+        <v>447</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B287" t="s">
         <v>262</v>
       </c>
       <c r="C287" t="s">
-        <v>443</v>
+        <v>217</v>
       </c>
       <c r="D287" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E287" t="s">
-        <v>210</v>
+        <v>447</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B288" t="s">
         <v>262</v>
       </c>
       <c r="C288" t="s">
-        <v>443</v>
+        <v>218</v>
       </c>
       <c r="D288" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E288" t="s">
-        <v>213</v>
+        <v>447</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B289" t="s">
         <v>262</v>
       </c>
       <c r="C289" t="s">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="D289" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E289" t="s">
-        <v>214</v>
+        <v>447</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B290" t="s">
         <v>262</v>
       </c>
       <c r="C290" t="s">
-        <v>443</v>
+        <v>220</v>
       </c>
       <c r="D290" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E290" t="s">
-        <v>215</v>
+        <v>447</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B291" t="s">
         <v>262</v>
       </c>
       <c r="C291" t="s">
-        <v>443</v>
+        <v>221</v>
       </c>
       <c r="D291" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E291" t="s">
-        <v>216</v>
+        <v>447</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B292" t="s">
         <v>262</v>
       </c>
       <c r="C292" t="s">
-        <v>443</v>
+        <v>222</v>
       </c>
       <c r="D292" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E292" t="s">
-        <v>217</v>
+        <v>447</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B293" t="s">
         <v>262</v>
       </c>
       <c r="C293" t="s">
-        <v>443</v>
+        <v>223</v>
       </c>
       <c r="D293" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E293" t="s">
-        <v>218</v>
+        <v>447</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B294" t="s">
         <v>262</v>
       </c>
       <c r="C294" t="s">
-        <v>443</v>
+        <v>224</v>
       </c>
       <c r="D294" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E294" t="s">
-        <v>219</v>
+        <v>447</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B295" t="s">
         <v>262</v>
       </c>
       <c r="C295" t="s">
-        <v>443</v>
+        <v>225</v>
       </c>
       <c r="D295" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E295" t="s">
-        <v>220</v>
+        <v>447</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B296" t="s">
         <v>262</v>
       </c>
       <c r="C296" t="s">
-        <v>443</v>
+        <v>226</v>
       </c>
       <c r="D296" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E296" t="s">
-        <v>221</v>
+        <v>447</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B297" t="s">
         <v>262</v>
       </c>
       <c r="C297" t="s">
-        <v>443</v>
+        <v>227</v>
       </c>
       <c r="D297" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E297" t="s">
-        <v>222</v>
+        <v>447</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B298" t="s">
         <v>262</v>
       </c>
       <c r="C298" t="s">
-        <v>443</v>
+        <v>228</v>
       </c>
       <c r="D298" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E298" t="s">
-        <v>223</v>
+        <v>447</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B299" t="s">
         <v>262</v>
       </c>
       <c r="C299" t="s">
-        <v>443</v>
+        <v>229</v>
       </c>
       <c r="D299" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E299" t="s">
-        <v>224</v>
+        <v>447</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B300" t="s">
         <v>262</v>
       </c>
       <c r="C300" t="s">
-        <v>443</v>
+        <v>230</v>
       </c>
       <c r="D300" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E300" t="s">
-        <v>225</v>
+        <v>447</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B301" t="s">
         <v>262</v>
       </c>
       <c r="C301" t="s">
-        <v>443</v>
+        <v>231</v>
       </c>
       <c r="D301" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E301" t="s">
-        <v>226</v>
+        <v>447</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B302" t="s">
         <v>262</v>
       </c>
       <c r="C302" t="s">
-        <v>443</v>
+        <v>232</v>
       </c>
       <c r="D302" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E302" t="s">
-        <v>227</v>
+        <v>447</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B303" t="s">
         <v>262</v>
       </c>
       <c r="C303" t="s">
-        <v>443</v>
+        <v>233</v>
       </c>
       <c r="D303" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E303" t="s">
-        <v>228</v>
+        <v>447</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B304" t="s">
         <v>262</v>
       </c>
       <c r="C304" t="s">
-        <v>443</v>
+        <v>234</v>
       </c>
       <c r="D304" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E304" t="s">
-        <v>229</v>
+        <v>447</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B305" t="s">
         <v>262</v>
       </c>
       <c r="C305" t="s">
-        <v>443</v>
+        <v>235</v>
       </c>
       <c r="D305" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E305" t="s">
-        <v>230</v>
+        <v>447</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B306" t="s">
         <v>262</v>
       </c>
       <c r="C306" t="s">
-        <v>443</v>
+        <v>236</v>
       </c>
       <c r="D306" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E306" t="s">
-        <v>231</v>
+        <v>447</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B307" t="s">
         <v>262</v>
       </c>
       <c r="C307" t="s">
-        <v>443</v>
+        <v>237</v>
       </c>
       <c r="D307" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E307" t="s">
-        <v>232</v>
+        <v>447</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B308" t="s">
         <v>262</v>
       </c>
       <c r="C308" t="s">
-        <v>443</v>
+        <v>238</v>
       </c>
       <c r="D308" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E308" t="s">
-        <v>233</v>
+        <v>447</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B309" t="s">
         <v>262</v>
       </c>
       <c r="C309" t="s">
-        <v>443</v>
+        <v>239</v>
       </c>
       <c r="D309" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E309" t="s">
-        <v>234</v>
+        <v>447</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B310" t="s">
         <v>262</v>
       </c>
       <c r="C310" t="s">
-        <v>443</v>
+        <v>240</v>
       </c>
       <c r="D310" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E310" t="s">
-        <v>235</v>
+        <v>447</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B311" t="s">
         <v>262</v>
       </c>
       <c r="C311" t="s">
-        <v>443</v>
+        <v>241</v>
       </c>
       <c r="D311" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E311" t="s">
-        <v>236</v>
+        <v>447</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B312" t="s">
         <v>262</v>
       </c>
       <c r="C312" t="s">
-        <v>443</v>
+        <v>242</v>
       </c>
       <c r="D312" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E312" t="s">
-        <v>237</v>
+        <v>447</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B313" t="s">
         <v>262</v>
       </c>
       <c r="C313" t="s">
-        <v>443</v>
+        <v>243</v>
       </c>
       <c r="D313" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E313" t="s">
-        <v>238</v>
+        <v>447</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B314" t="s">
         <v>262</v>
       </c>
       <c r="C314" t="s">
-        <v>443</v>
+        <v>246</v>
       </c>
       <c r="D314" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E314" t="s">
-        <v>239</v>
+        <v>447</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B315" t="s">
         <v>262</v>
       </c>
       <c r="C315" t="s">
-        <v>443</v>
+        <v>247</v>
       </c>
       <c r="D315" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E315" t="s">
-        <v>240</v>
+        <v>447</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B316" t="s">
         <v>262</v>
       </c>
       <c r="C316" t="s">
-        <v>443</v>
+        <v>248</v>
       </c>
       <c r="D316" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E316" t="s">
-        <v>241</v>
+        <v>447</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B317" t="s">
         <v>262</v>
       </c>
       <c r="C317" t="s">
-        <v>443</v>
+        <v>249</v>
       </c>
       <c r="D317" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="E317" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>442</v>
-      </c>
-      <c r="B318" t="s">
-        <v>262</v>
-      </c>
-      <c r="C318" t="s">
-        <v>443</v>
-      </c>
-      <c r="D318" t="s">
-        <v>262</v>
-      </c>
-      <c r="E318" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
-        <v>442</v>
-      </c>
-      <c r="B319" t="s">
-        <v>262</v>
-      </c>
-      <c r="C319" t="s">
-        <v>443</v>
-      </c>
-      <c r="D319" t="s">
-        <v>262</v>
-      </c>
-      <c r="E319" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
-        <v>442</v>
-      </c>
-      <c r="B320" t="s">
-        <v>262</v>
-      </c>
-      <c r="C320" t="s">
-        <v>443</v>
-      </c>
-      <c r="D320" t="s">
-        <v>262</v>
-      </c>
-      <c r="E320" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>442</v>
-      </c>
-      <c r="B321" t="s">
-        <v>262</v>
-      </c>
-      <c r="C321" t="s">
-        <v>443</v>
-      </c>
-      <c r="D321" t="s">
-        <v>262</v>
-      </c>
-      <c r="E321" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
-        <v>442</v>
-      </c>
-      <c r="B322" t="s">
-        <v>262</v>
-      </c>
-      <c r="C322" t="s">
-        <v>443</v>
-      </c>
-      <c r="D322" t="s">
-        <v>262</v>
-      </c>
-      <c r="E322" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
-        <v>444</v>
-      </c>
-      <c r="B323" t="s">
-        <v>262</v>
-      </c>
-      <c r="C323" t="s">
-        <v>443</v>
-      </c>
-      <c r="D323" t="s">
-        <v>277</v>
-      </c>
-      <c r="E323" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -52568,7 +52483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H807"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A715" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
@@ -67112,10 +67027,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H802"/>
+  <dimension ref="A1:H1043"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C159"/>
+    <sheetView topLeftCell="A719" workbookViewId="0">
+      <selection activeCell="D727" sqref="D727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -81482,90 +81397,2889 @@
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A728" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B728" s="4" t="s">
+      <c r="A728" t="s">
+        <v>450</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C728" t="s">
+        <v>372</v>
+      </c>
+      <c r="E728" s="3"/>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A729" t="s">
+        <v>450</v>
+      </c>
+      <c r="B729" t="s">
+        <v>62</v>
+      </c>
+      <c r="C729" t="s">
+        <v>372</v>
+      </c>
+      <c r="E729" s="3"/>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A730" t="s">
+        <v>450</v>
+      </c>
+      <c r="B730" t="s">
+        <v>63</v>
+      </c>
+      <c r="C730" t="s">
+        <v>372</v>
+      </c>
+      <c r="E730" s="3"/>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A731" t="s">
+        <v>450</v>
+      </c>
+      <c r="B731" t="s">
+        <v>68</v>
+      </c>
+      <c r="C731" t="s">
+        <v>372</v>
+      </c>
+      <c r="E731" s="3"/>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A732" t="s">
+        <v>450</v>
+      </c>
+      <c r="B732" t="s">
+        <v>69</v>
+      </c>
+      <c r="C732" t="s">
+        <v>373</v>
+      </c>
+      <c r="E732" s="3"/>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A733" t="s">
+        <v>450</v>
+      </c>
+      <c r="B733" t="s">
+        <v>70</v>
+      </c>
+      <c r="C733" t="s">
+        <v>373</v>
+      </c>
+      <c r="E733" s="3"/>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A734" t="s">
+        <v>450</v>
+      </c>
+      <c r="B734" t="s">
+        <v>71</v>
+      </c>
+      <c r="C734" t="s">
+        <v>373</v>
+      </c>
+      <c r="E734" s="3"/>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A735" t="s">
+        <v>450</v>
+      </c>
+      <c r="B735" t="s">
+        <v>72</v>
+      </c>
+      <c r="C735" t="s">
+        <v>373</v>
+      </c>
+      <c r="E735" s="3"/>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A736" t="s">
+        <v>450</v>
+      </c>
+      <c r="B736" t="s">
+        <v>73</v>
+      </c>
+      <c r="C736" t="s">
+        <v>374</v>
+      </c>
+      <c r="E736" s="3"/>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A737" t="s">
+        <v>450</v>
+      </c>
+      <c r="B737" t="s">
+        <v>78</v>
+      </c>
+      <c r="C737" t="s">
+        <v>375</v>
+      </c>
+      <c r="E737" s="3"/>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A738" t="s">
+        <v>450</v>
+      </c>
+      <c r="B738" t="s">
+        <v>81</v>
+      </c>
+      <c r="C738" t="s">
+        <v>375</v>
+      </c>
+      <c r="E738" s="3"/>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A739" t="s">
+        <v>450</v>
+      </c>
+      <c r="B739" t="s">
+        <v>82</v>
+      </c>
+      <c r="C739" t="s">
+        <v>375</v>
+      </c>
+      <c r="E739" s="3"/>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A740" t="s">
+        <v>450</v>
+      </c>
+      <c r="B740" t="s">
+        <v>83</v>
+      </c>
+      <c r="C740" t="s">
+        <v>375</v>
+      </c>
+      <c r="E740" s="3"/>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A741" t="s">
+        <v>450</v>
+      </c>
+      <c r="B741" t="s">
+        <v>84</v>
+      </c>
+      <c r="C741" t="s">
+        <v>376</v>
+      </c>
+      <c r="E741" s="3"/>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A742" t="s">
+        <v>450</v>
+      </c>
+      <c r="B742" t="s">
+        <v>88</v>
+      </c>
+      <c r="C742" t="s">
+        <v>376</v>
+      </c>
+      <c r="E742" s="3"/>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A743" t="s">
+        <v>450</v>
+      </c>
+      <c r="B743" t="s">
+        <v>89</v>
+      </c>
+      <c r="C743" t="s">
+        <v>376</v>
+      </c>
+      <c r="E743" s="3"/>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A744" t="s">
+        <v>450</v>
+      </c>
+      <c r="B744" t="s">
+        <v>91</v>
+      </c>
+      <c r="C744" t="s">
+        <v>377</v>
+      </c>
+      <c r="E744" s="3"/>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A745" t="s">
+        <v>450</v>
+      </c>
+      <c r="B745" t="s">
+        <v>92</v>
+      </c>
+      <c r="C745" t="s">
+        <v>378</v>
+      </c>
+      <c r="E745" s="3"/>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A746" t="s">
+        <v>450</v>
+      </c>
+      <c r="B746" t="s">
+        <v>93</v>
+      </c>
+      <c r="C746" t="s">
+        <v>379</v>
+      </c>
+      <c r="E746" s="3"/>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A747" t="s">
+        <v>450</v>
+      </c>
+      <c r="B747" t="s">
+        <v>94</v>
+      </c>
+      <c r="C747" t="s">
+        <v>379</v>
+      </c>
+      <c r="E747" s="3"/>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A748" t="s">
+        <v>450</v>
+      </c>
+      <c r="B748" t="s">
+        <v>96</v>
+      </c>
+      <c r="C748" t="s">
+        <v>379</v>
+      </c>
+      <c r="E748" s="3"/>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A749" t="s">
+        <v>450</v>
+      </c>
+      <c r="B749" t="s">
+        <v>97</v>
+      </c>
+      <c r="C749" t="s">
+        <v>379</v>
+      </c>
+      <c r="E749" s="3"/>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A750" t="s">
+        <v>450</v>
+      </c>
+      <c r="B750" t="s">
+        <v>98</v>
+      </c>
+      <c r="C750" t="s">
+        <v>379</v>
+      </c>
+      <c r="E750" s="3"/>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A751" t="s">
+        <v>450</v>
+      </c>
+      <c r="B751" t="s">
+        <v>99</v>
+      </c>
+      <c r="C751" t="s">
+        <v>380</v>
+      </c>
+      <c r="E751" s="3"/>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A752" t="s">
+        <v>450</v>
+      </c>
+      <c r="B752" t="s">
+        <v>100</v>
+      </c>
+      <c r="C752" t="s">
+        <v>380</v>
+      </c>
+      <c r="E752" s="3"/>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A753" t="s">
+        <v>450</v>
+      </c>
+      <c r="B753" t="s">
+        <v>101</v>
+      </c>
+      <c r="C753" t="s">
+        <v>380</v>
+      </c>
+      <c r="E753" s="3"/>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A754" t="s">
+        <v>450</v>
+      </c>
+      <c r="B754" t="s">
+        <v>102</v>
+      </c>
+      <c r="C754" t="s">
+        <v>381</v>
+      </c>
+      <c r="E754" s="3"/>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A755" t="s">
+        <v>450</v>
+      </c>
+      <c r="B755" t="s">
+        <v>103</v>
+      </c>
+      <c r="C755" t="s">
+        <v>381</v>
+      </c>
+      <c r="E755" s="3"/>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A756" t="s">
+        <v>450</v>
+      </c>
+      <c r="B756" t="s">
+        <v>104</v>
+      </c>
+      <c r="C756" t="s">
+        <v>381</v>
+      </c>
+      <c r="E756" s="3"/>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A757" t="s">
+        <v>450</v>
+      </c>
+      <c r="B757" t="s">
+        <v>105</v>
+      </c>
+      <c r="C757" t="s">
+        <v>381</v>
+      </c>
+      <c r="E757" s="3"/>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A758" t="s">
+        <v>450</v>
+      </c>
+      <c r="B758" t="s">
+        <v>106</v>
+      </c>
+      <c r="C758" t="s">
+        <v>382</v>
+      </c>
+      <c r="E758" s="3"/>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A759" t="s">
+        <v>450</v>
+      </c>
+      <c r="B759" t="s">
+        <v>107</v>
+      </c>
+      <c r="C759" t="s">
+        <v>382</v>
+      </c>
+      <c r="E759" s="3"/>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A760" t="s">
+        <v>450</v>
+      </c>
+      <c r="B760" t="s">
+        <v>108</v>
+      </c>
+      <c r="C760" t="s">
+        <v>383</v>
+      </c>
+      <c r="E760" s="3"/>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A761" t="s">
+        <v>450</v>
+      </c>
+      <c r="B761" t="s">
+        <v>109</v>
+      </c>
+      <c r="C761" t="s">
+        <v>383</v>
+      </c>
+      <c r="E761" s="3"/>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A762" t="s">
+        <v>450</v>
+      </c>
+      <c r="B762" t="s">
+        <v>110</v>
+      </c>
+      <c r="C762" t="s">
+        <v>383</v>
+      </c>
+      <c r="E762" s="3"/>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A763" t="s">
+        <v>450</v>
+      </c>
+      <c r="B763" t="s">
+        <v>111</v>
+      </c>
+      <c r="C763" t="s">
+        <v>384</v>
+      </c>
+      <c r="E763" s="3"/>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A764" t="s">
+        <v>450</v>
+      </c>
+      <c r="B764" t="s">
+        <v>112</v>
+      </c>
+      <c r="C764" t="s">
+        <v>384</v>
+      </c>
+      <c r="E764" s="3"/>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A765" t="s">
+        <v>450</v>
+      </c>
+      <c r="B765" t="s">
+        <v>113</v>
+      </c>
+      <c r="C765" t="s">
+        <v>385</v>
+      </c>
+      <c r="E765" s="3"/>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A766" t="s">
+        <v>450</v>
+      </c>
+      <c r="B766" t="s">
+        <v>114</v>
+      </c>
+      <c r="C766" t="s">
+        <v>386</v>
+      </c>
+      <c r="E766" s="3"/>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A767" t="s">
+        <v>450</v>
+      </c>
+      <c r="B767" t="s">
+        <v>115</v>
+      </c>
+      <c r="C767" t="s">
+        <v>387</v>
+      </c>
+      <c r="E767" s="3"/>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A768" t="s">
+        <v>450</v>
+      </c>
+      <c r="B768" t="s">
+        <v>116</v>
+      </c>
+      <c r="C768" t="s">
+        <v>388</v>
+      </c>
+      <c r="E768" s="3"/>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A769" t="s">
+        <v>450</v>
+      </c>
+      <c r="B769" t="s">
+        <v>117</v>
+      </c>
+      <c r="C769" t="s">
+        <v>388</v>
+      </c>
+      <c r="E769" s="3"/>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A770" t="s">
+        <v>450</v>
+      </c>
+      <c r="B770" t="s">
+        <v>118</v>
+      </c>
+      <c r="C770" t="s">
+        <v>388</v>
+      </c>
+      <c r="E770" s="3"/>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A771" t="s">
+        <v>450</v>
+      </c>
+      <c r="B771" t="s">
+        <v>119</v>
+      </c>
+      <c r="C771" t="s">
+        <v>388</v>
+      </c>
+      <c r="E771" s="3"/>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A772" t="s">
+        <v>450</v>
+      </c>
+      <c r="B772" t="s">
+        <v>120</v>
+      </c>
+      <c r="C772" t="s">
+        <v>388</v>
+      </c>
+      <c r="E772" s="3"/>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A773" t="s">
+        <v>450</v>
+      </c>
+      <c r="B773" t="s">
+        <v>121</v>
+      </c>
+      <c r="C773" t="s">
+        <v>388</v>
+      </c>
+      <c r="E773" s="3"/>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A774" t="s">
+        <v>450</v>
+      </c>
+      <c r="B774" t="s">
+        <v>122</v>
+      </c>
+      <c r="C774" t="s">
+        <v>389</v>
+      </c>
+      <c r="E774" s="3"/>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A775" t="s">
+        <v>450</v>
+      </c>
+      <c r="B775" t="s">
+        <v>123</v>
+      </c>
+      <c r="C775" t="s">
+        <v>389</v>
+      </c>
+      <c r="E775" s="3"/>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A776" t="s">
+        <v>450</v>
+      </c>
+      <c r="B776" t="s">
+        <v>124</v>
+      </c>
+      <c r="C776" t="s">
+        <v>389</v>
+      </c>
+      <c r="E776" s="3"/>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A777" t="s">
+        <v>450</v>
+      </c>
+      <c r="B777" t="s">
+        <v>125</v>
+      </c>
+      <c r="C777" t="s">
+        <v>389</v>
+      </c>
+      <c r="E777" s="3"/>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A778" t="s">
+        <v>450</v>
+      </c>
+      <c r="B778" t="s">
+        <v>126</v>
+      </c>
+      <c r="C778" t="s">
+        <v>390</v>
+      </c>
+      <c r="E778" s="3"/>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A779" t="s">
+        <v>450</v>
+      </c>
+      <c r="B779" t="s">
+        <v>127</v>
+      </c>
+      <c r="C779" t="s">
+        <v>390</v>
+      </c>
+      <c r="E779" s="3"/>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A780" t="s">
+        <v>450</v>
+      </c>
+      <c r="B780" t="s">
+        <v>128</v>
+      </c>
+      <c r="C780" t="s">
+        <v>390</v>
+      </c>
+      <c r="E780" s="3"/>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A781" t="s">
+        <v>450</v>
+      </c>
+      <c r="B781" t="s">
+        <v>129</v>
+      </c>
+      <c r="C781" t="s">
+        <v>390</v>
+      </c>
+      <c r="E781" s="3"/>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A782" t="s">
+        <v>450</v>
+      </c>
+      <c r="B782" t="s">
+        <v>130</v>
+      </c>
+      <c r="C782" t="s">
+        <v>391</v>
+      </c>
+      <c r="E782" s="3"/>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A783" t="s">
+        <v>450</v>
+      </c>
+      <c r="B783" t="s">
+        <v>131</v>
+      </c>
+      <c r="C783" t="s">
+        <v>391</v>
+      </c>
+      <c r="E783" s="3"/>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A784" t="s">
+        <v>450</v>
+      </c>
+      <c r="B784" t="s">
+        <v>132</v>
+      </c>
+      <c r="C784" t="s">
+        <v>392</v>
+      </c>
+      <c r="E784" s="3"/>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A785" t="s">
+        <v>450</v>
+      </c>
+      <c r="B785" t="s">
+        <v>133</v>
+      </c>
+      <c r="C785" t="s">
+        <v>393</v>
+      </c>
+      <c r="E785" s="3"/>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A786" t="s">
+        <v>450</v>
+      </c>
+      <c r="B786" t="s">
+        <v>134</v>
+      </c>
+      <c r="C786" t="s">
+        <v>393</v>
+      </c>
+      <c r="E786" s="3"/>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A787" t="s">
+        <v>450</v>
+      </c>
+      <c r="B787" t="s">
+        <v>135</v>
+      </c>
+      <c r="C787" t="s">
+        <v>393</v>
+      </c>
+      <c r="E787" s="3"/>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A788" t="s">
+        <v>450</v>
+      </c>
+      <c r="B788" t="s">
+        <v>136</v>
+      </c>
+      <c r="C788" t="s">
+        <v>393</v>
+      </c>
+      <c r="E788" s="3"/>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A789" t="s">
+        <v>450</v>
+      </c>
+      <c r="B789" t="s">
+        <v>137</v>
+      </c>
+      <c r="C789" t="s">
+        <v>393</v>
+      </c>
+      <c r="E789" s="3"/>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A790" t="s">
+        <v>450</v>
+      </c>
+      <c r="B790" t="s">
+        <v>138</v>
+      </c>
+      <c r="C790" t="s">
+        <v>393</v>
+      </c>
+      <c r="E790" s="3"/>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A791" t="s">
+        <v>450</v>
+      </c>
+      <c r="B791" t="s">
+        <v>139</v>
+      </c>
+      <c r="C791" t="s">
+        <v>393</v>
+      </c>
+      <c r="E791" s="3"/>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A792" t="s">
+        <v>450</v>
+      </c>
+      <c r="B792" t="s">
+        <v>140</v>
+      </c>
+      <c r="C792" t="s">
+        <v>393</v>
+      </c>
+      <c r="E792" s="3"/>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A793" t="s">
+        <v>450</v>
+      </c>
+      <c r="B793" t="s">
+        <v>141</v>
+      </c>
+      <c r="C793" t="s">
+        <v>394</v>
+      </c>
+      <c r="E793" s="3"/>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A794" t="s">
+        <v>450</v>
+      </c>
+      <c r="B794" t="s">
+        <v>142</v>
+      </c>
+      <c r="C794" t="s">
+        <v>395</v>
+      </c>
+      <c r="E794" s="3"/>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A795" t="s">
+        <v>450</v>
+      </c>
+      <c r="B795" t="s">
+        <v>143</v>
+      </c>
+      <c r="C795" t="s">
+        <v>396</v>
+      </c>
+      <c r="E795" s="3"/>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A796" t="s">
+        <v>450</v>
+      </c>
+      <c r="B796" t="s">
+        <v>144</v>
+      </c>
+      <c r="C796" t="s">
+        <v>397</v>
+      </c>
+      <c r="E796" s="3"/>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A797" t="s">
+        <v>450</v>
+      </c>
+      <c r="B797" t="s">
+        <v>145</v>
+      </c>
+      <c r="C797" t="s">
+        <v>397</v>
+      </c>
+      <c r="E797" s="3"/>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A798" t="s">
+        <v>450</v>
+      </c>
+      <c r="B798" t="s">
+        <v>146</v>
+      </c>
+      <c r="C798" t="s">
+        <v>398</v>
+      </c>
+      <c r="E798" s="3"/>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A799" t="s">
+        <v>450</v>
+      </c>
+      <c r="B799" t="s">
+        <v>147</v>
+      </c>
+      <c r="C799" t="s">
+        <v>398</v>
+      </c>
+      <c r="E799" s="3"/>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A800" t="s">
+        <v>450</v>
+      </c>
+      <c r="B800" t="s">
+        <v>148</v>
+      </c>
+      <c r="C800" t="s">
+        <v>399</v>
+      </c>
+      <c r="E800" s="3"/>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A801" t="s">
+        <v>450</v>
+      </c>
+      <c r="B801" t="s">
+        <v>151</v>
+      </c>
+      <c r="C801" t="s">
+        <v>400</v>
+      </c>
+      <c r="E801" s="3"/>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A802" t="s">
+        <v>450</v>
+      </c>
+      <c r="B802" t="s">
+        <v>155</v>
+      </c>
+      <c r="C802" t="s">
+        <v>401</v>
+      </c>
+      <c r="E802" s="3"/>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A803" t="s">
+        <v>450</v>
+      </c>
+      <c r="B803" t="s">
+        <v>159</v>
+      </c>
+      <c r="C803" t="s">
+        <v>401</v>
+      </c>
+      <c r="E803" s="3"/>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A804" t="s">
+        <v>450</v>
+      </c>
+      <c r="B804" t="s">
+        <v>160</v>
+      </c>
+      <c r="C804" t="s">
+        <v>401</v>
+      </c>
+      <c r="E804" s="3"/>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A805" t="s">
+        <v>450</v>
+      </c>
+      <c r="B805" t="s">
+        <v>161</v>
+      </c>
+      <c r="C805" t="s">
+        <v>401</v>
+      </c>
+      <c r="E805" s="3"/>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A806" t="s">
+        <v>450</v>
+      </c>
+      <c r="B806" t="s">
+        <v>162</v>
+      </c>
+      <c r="C806" t="s">
+        <v>401</v>
+      </c>
+      <c r="E806" s="3"/>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A807" t="s">
+        <v>450</v>
+      </c>
+      <c r="B807" t="s">
+        <v>163</v>
+      </c>
+      <c r="C807" t="s">
+        <v>401</v>
+      </c>
+      <c r="E807" s="3"/>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A808" t="s">
+        <v>450</v>
+      </c>
+      <c r="B808" t="s">
+        <v>164</v>
+      </c>
+      <c r="C808" t="s">
+        <v>380</v>
+      </c>
+      <c r="E808" s="3"/>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A809" t="s">
+        <v>450</v>
+      </c>
+      <c r="B809" t="s">
+        <v>165</v>
+      </c>
+      <c r="C809" t="s">
+        <v>402</v>
+      </c>
+      <c r="E809" s="3"/>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A810" t="s">
+        <v>450</v>
+      </c>
+      <c r="B810" t="s">
+        <v>166</v>
+      </c>
+      <c r="C810" t="s">
+        <v>384</v>
+      </c>
+      <c r="E810" s="3"/>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A811" t="s">
+        <v>450</v>
+      </c>
+      <c r="B811" t="s">
+        <v>167</v>
+      </c>
+      <c r="C811" t="s">
+        <v>384</v>
+      </c>
+      <c r="E811" s="3"/>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A812" t="s">
+        <v>450</v>
+      </c>
+      <c r="B812" t="s">
+        <v>168</v>
+      </c>
+      <c r="C812" t="s">
+        <v>384</v>
+      </c>
+      <c r="E812" s="3"/>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A813" t="s">
+        <v>450</v>
+      </c>
+      <c r="B813" t="s">
+        <v>169</v>
+      </c>
+      <c r="C813" t="s">
+        <v>403</v>
+      </c>
+      <c r="E813" s="3"/>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A814" t="s">
+        <v>450</v>
+      </c>
+      <c r="B814" t="s">
+        <v>170</v>
+      </c>
+      <c r="C814" t="s">
+        <v>403</v>
+      </c>
+      <c r="E814" s="3"/>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A815" t="s">
+        <v>450</v>
+      </c>
+      <c r="B815" t="s">
+        <v>171</v>
+      </c>
+      <c r="C815" t="s">
+        <v>403</v>
+      </c>
+      <c r="E815" s="3"/>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A816" t="s">
+        <v>450</v>
+      </c>
+      <c r="B816" t="s">
+        <v>172</v>
+      </c>
+      <c r="C816" t="s">
+        <v>403</v>
+      </c>
+      <c r="E816" s="3"/>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A817" t="s">
+        <v>450</v>
+      </c>
+      <c r="B817" t="s">
+        <v>173</v>
+      </c>
+      <c r="C817" t="s">
+        <v>403</v>
+      </c>
+      <c r="E817" s="3"/>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A818" t="s">
+        <v>450</v>
+      </c>
+      <c r="B818" t="s">
+        <v>174</v>
+      </c>
+      <c r="C818" t="s">
+        <v>403</v>
+      </c>
+      <c r="E818" s="3"/>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A819" t="s">
+        <v>450</v>
+      </c>
+      <c r="B819" t="s">
+        <v>175</v>
+      </c>
+      <c r="C819" t="s">
+        <v>404</v>
+      </c>
+      <c r="E819" s="3"/>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A820" t="s">
+        <v>450</v>
+      </c>
+      <c r="B820" t="s">
+        <v>176</v>
+      </c>
+      <c r="C820" t="s">
+        <v>397</v>
+      </c>
+      <c r="E820" s="3"/>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A821" t="s">
+        <v>450</v>
+      </c>
+      <c r="B821" t="s">
+        <v>177</v>
+      </c>
+      <c r="C821" t="s">
+        <v>397</v>
+      </c>
+      <c r="E821" s="3"/>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A822" t="s">
+        <v>450</v>
+      </c>
+      <c r="B822" t="s">
+        <v>178</v>
+      </c>
+      <c r="C822" t="s">
+        <v>397</v>
+      </c>
+      <c r="E822" s="3"/>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A823" t="s">
+        <v>450</v>
+      </c>
+      <c r="B823" t="s">
+        <v>179</v>
+      </c>
+      <c r="C823" t="s">
+        <v>397</v>
+      </c>
+      <c r="E823" s="3"/>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A824" t="s">
+        <v>450</v>
+      </c>
+      <c r="B824" t="s">
+        <v>180</v>
+      </c>
+      <c r="C824" t="s">
+        <v>405</v>
+      </c>
+      <c r="E824" s="3"/>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A825" t="s">
+        <v>450</v>
+      </c>
+      <c r="B825" t="s">
+        <v>184</v>
+      </c>
+      <c r="C825" t="s">
+        <v>404</v>
+      </c>
+      <c r="E825" s="3"/>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A826" t="s">
+        <v>450</v>
+      </c>
+      <c r="B826" t="s">
+        <v>185</v>
+      </c>
+      <c r="C826" t="s">
+        <v>404</v>
+      </c>
+      <c r="E826" s="3"/>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A827" t="s">
+        <v>450</v>
+      </c>
+      <c r="B827" t="s">
+        <v>186</v>
+      </c>
+      <c r="C827" t="s">
+        <v>392</v>
+      </c>
+      <c r="E827" s="3"/>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A828" t="s">
+        <v>450</v>
+      </c>
+      <c r="B828" t="s">
+        <v>187</v>
+      </c>
+      <c r="C828" t="s">
+        <v>404</v>
+      </c>
+      <c r="E828" s="3"/>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A829" t="s">
+        <v>450</v>
+      </c>
+      <c r="B829" t="s">
+        <v>188</v>
+      </c>
+      <c r="C829" t="s">
+        <v>404</v>
+      </c>
+      <c r="E829" s="3"/>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A830" t="s">
+        <v>450</v>
+      </c>
+      <c r="B830" t="s">
+        <v>189</v>
+      </c>
+      <c r="C830" t="s">
+        <v>392</v>
+      </c>
+      <c r="E830" s="3"/>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A831" t="s">
+        <v>450</v>
+      </c>
+      <c r="B831" t="s">
+        <v>190</v>
+      </c>
+      <c r="C831" t="s">
+        <v>406</v>
+      </c>
+      <c r="E831" s="3"/>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A832" t="s">
+        <v>450</v>
+      </c>
+      <c r="B832" t="s">
+        <v>191</v>
+      </c>
+      <c r="C832" t="s">
+        <v>407</v>
+      </c>
+      <c r="E832" s="3"/>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A833" t="s">
+        <v>450</v>
+      </c>
+      <c r="B833" t="s">
+        <v>192</v>
+      </c>
+      <c r="C833" t="s">
+        <v>408</v>
+      </c>
+      <c r="E833" s="3"/>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A834" t="s">
+        <v>450</v>
+      </c>
+      <c r="B834" t="s">
+        <v>193</v>
+      </c>
+      <c r="C834" t="s">
+        <v>406</v>
+      </c>
+      <c r="E834" s="3"/>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A835" t="s">
+        <v>450</v>
+      </c>
+      <c r="B835" t="s">
+        <v>194</v>
+      </c>
+      <c r="C835" t="s">
+        <v>407</v>
+      </c>
+      <c r="E835" s="3"/>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A836" t="s">
+        <v>450</v>
+      </c>
+      <c r="B836" t="s">
+        <v>195</v>
+      </c>
+      <c r="C836" t="s">
+        <v>407</v>
+      </c>
+      <c r="E836" s="3"/>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A837" t="s">
+        <v>450</v>
+      </c>
+      <c r="B837" t="s">
+        <v>196</v>
+      </c>
+      <c r="C837" t="s">
+        <v>375</v>
+      </c>
+      <c r="E837" s="3"/>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A838" t="s">
+        <v>450</v>
+      </c>
+      <c r="B838" t="s">
+        <v>197</v>
+      </c>
+      <c r="C838" t="s">
+        <v>409</v>
+      </c>
+      <c r="E838" s="3"/>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A839" t="s">
+        <v>450</v>
+      </c>
+      <c r="B839" t="s">
+        <v>198</v>
+      </c>
+      <c r="C839" t="s">
+        <v>384</v>
+      </c>
+      <c r="E839" s="3"/>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A840" t="s">
+        <v>450</v>
+      </c>
+      <c r="B840" t="s">
+        <v>199</v>
+      </c>
+      <c r="C840" t="s">
+        <v>373</v>
+      </c>
+      <c r="E840" s="3"/>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A841" t="s">
+        <v>450</v>
+      </c>
+      <c r="B841" t="s">
+        <v>200</v>
+      </c>
+      <c r="C841" t="s">
+        <v>372</v>
+      </c>
+      <c r="E841" s="3"/>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A842" t="s">
+        <v>450</v>
+      </c>
+      <c r="B842" t="s">
+        <v>201</v>
+      </c>
+      <c r="C842" t="s">
+        <v>373</v>
+      </c>
+      <c r="E842" s="3"/>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A843" t="s">
+        <v>450</v>
+      </c>
+      <c r="B843" t="s">
+        <v>202</v>
+      </c>
+      <c r="C843" t="s">
+        <v>410</v>
+      </c>
+      <c r="E843" s="3"/>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A844" t="s">
+        <v>450</v>
+      </c>
+      <c r="B844" t="s">
+        <v>203</v>
+      </c>
+      <c r="C844" t="s">
+        <v>411</v>
+      </c>
+      <c r="E844" s="3"/>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A845" t="s">
+        <v>450</v>
+      </c>
+      <c r="B845" t="s">
+        <v>205</v>
+      </c>
+      <c r="C845" t="s">
+        <v>372</v>
+      </c>
+      <c r="E845" s="3"/>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A846" t="s">
+        <v>450</v>
+      </c>
+      <c r="B846" t="s">
+        <v>206</v>
+      </c>
+      <c r="C846" t="s">
+        <v>372</v>
+      </c>
+      <c r="E846" s="3"/>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A847" t="s">
+        <v>450</v>
+      </c>
+      <c r="B847" t="s">
+        <v>207</v>
+      </c>
+      <c r="C847" t="s">
+        <v>372</v>
+      </c>
+      <c r="E847" s="3"/>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A848" t="s">
+        <v>450</v>
+      </c>
+      <c r="B848" t="s">
+        <v>208</v>
+      </c>
+      <c r="C848" t="s">
+        <v>412</v>
+      </c>
+      <c r="E848" s="3"/>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A849" t="s">
+        <v>450</v>
+      </c>
+      <c r="B849" t="s">
+        <v>209</v>
+      </c>
+      <c r="C849" t="s">
+        <v>413</v>
+      </c>
+      <c r="E849" s="3"/>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A850" t="s">
+        <v>450</v>
+      </c>
+      <c r="B850" t="s">
+        <v>210</v>
+      </c>
+      <c r="C850" t="s">
+        <v>414</v>
+      </c>
+      <c r="E850" s="3"/>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A851" t="s">
+        <v>450</v>
+      </c>
+      <c r="B851" t="s">
+        <v>213</v>
+      </c>
+      <c r="C851" t="s">
+        <v>392</v>
+      </c>
+      <c r="E851" s="3"/>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A852" t="s">
+        <v>450</v>
+      </c>
+      <c r="B852" t="s">
+        <v>214</v>
+      </c>
+      <c r="C852" t="s">
+        <v>392</v>
+      </c>
+      <c r="E852" s="3"/>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A853" t="s">
+        <v>450</v>
+      </c>
+      <c r="B853" t="s">
+        <v>215</v>
+      </c>
+      <c r="C853" t="s">
+        <v>392</v>
+      </c>
+      <c r="E853" s="3"/>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A854" t="s">
+        <v>450</v>
+      </c>
+      <c r="B854" t="s">
+        <v>216</v>
+      </c>
+      <c r="C854" t="s">
+        <v>392</v>
+      </c>
+      <c r="E854" s="3"/>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A855" t="s">
+        <v>450</v>
+      </c>
+      <c r="B855" t="s">
+        <v>217</v>
+      </c>
+      <c r="C855" t="s">
+        <v>392</v>
+      </c>
+      <c r="E855" s="3"/>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A856" t="s">
+        <v>450</v>
+      </c>
+      <c r="B856" t="s">
+        <v>218</v>
+      </c>
+      <c r="C856" t="s">
+        <v>392</v>
+      </c>
+      <c r="E856" s="3"/>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A857" t="s">
+        <v>450</v>
+      </c>
+      <c r="B857" t="s">
+        <v>219</v>
+      </c>
+      <c r="C857" t="s">
+        <v>392</v>
+      </c>
+      <c r="E857" s="3"/>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A858" t="s">
+        <v>450</v>
+      </c>
+      <c r="B858" t="s">
+        <v>220</v>
+      </c>
+      <c r="C858" t="s">
+        <v>392</v>
+      </c>
+      <c r="E858" s="3"/>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A859" t="s">
+        <v>450</v>
+      </c>
+      <c r="B859" t="s">
+        <v>221</v>
+      </c>
+      <c r="C859" t="s">
+        <v>392</v>
+      </c>
+      <c r="E859" s="3"/>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A860" t="s">
+        <v>450</v>
+      </c>
+      <c r="B860" t="s">
+        <v>222</v>
+      </c>
+      <c r="C860" t="s">
+        <v>392</v>
+      </c>
+      <c r="E860" s="3"/>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A861" t="s">
+        <v>450</v>
+      </c>
+      <c r="B861" t="s">
+        <v>223</v>
+      </c>
+      <c r="C861" t="s">
+        <v>392</v>
+      </c>
+      <c r="E861" s="3"/>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A862" t="s">
+        <v>450</v>
+      </c>
+      <c r="B862" t="s">
+        <v>224</v>
+      </c>
+      <c r="C862" t="s">
+        <v>392</v>
+      </c>
+      <c r="E862" s="3"/>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A863" t="s">
+        <v>450</v>
+      </c>
+      <c r="B863" t="s">
+        <v>225</v>
+      </c>
+      <c r="C863" t="s">
+        <v>405</v>
+      </c>
+      <c r="E863" s="3"/>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A864" t="s">
+        <v>450</v>
+      </c>
+      <c r="B864" t="s">
+        <v>226</v>
+      </c>
+      <c r="C864" t="s">
+        <v>405</v>
+      </c>
+      <c r="E864" s="3"/>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A865" t="s">
+        <v>450</v>
+      </c>
+      <c r="B865" t="s">
+        <v>227</v>
+      </c>
+      <c r="C865" t="s">
+        <v>405</v>
+      </c>
+      <c r="E865" s="3"/>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A866" t="s">
+        <v>450</v>
+      </c>
+      <c r="B866" t="s">
+        <v>228</v>
+      </c>
+      <c r="C866" t="s">
+        <v>392</v>
+      </c>
+      <c r="E866" s="3"/>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A867" t="s">
+        <v>450</v>
+      </c>
+      <c r="B867" t="s">
+        <v>229</v>
+      </c>
+      <c r="C867" t="s">
+        <v>405</v>
+      </c>
+      <c r="E867" s="3"/>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A868" t="s">
+        <v>450</v>
+      </c>
+      <c r="B868" t="s">
+        <v>230</v>
+      </c>
+      <c r="C868" t="s">
+        <v>405</v>
+      </c>
+      <c r="E868" s="3"/>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A869" t="s">
+        <v>450</v>
+      </c>
+      <c r="B869" t="s">
+        <v>231</v>
+      </c>
+      <c r="C869" t="s">
+        <v>378</v>
+      </c>
+      <c r="E869" s="3"/>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A870" t="s">
+        <v>450</v>
+      </c>
+      <c r="B870" t="s">
+        <v>232</v>
+      </c>
+      <c r="C870" t="s">
+        <v>378</v>
+      </c>
+      <c r="E870" s="3"/>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A871" t="s">
+        <v>450</v>
+      </c>
+      <c r="B871" t="s">
+        <v>233</v>
+      </c>
+      <c r="C871" t="s">
+        <v>378</v>
+      </c>
+      <c r="E871" s="3"/>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A872" t="s">
+        <v>450</v>
+      </c>
+      <c r="B872" t="s">
+        <v>234</v>
+      </c>
+      <c r="C872" t="s">
+        <v>378</v>
+      </c>
+      <c r="E872" s="3"/>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A873" t="s">
+        <v>450</v>
+      </c>
+      <c r="B873" t="s">
+        <v>235</v>
+      </c>
+      <c r="C873" t="s">
+        <v>378</v>
+      </c>
+      <c r="E873" s="3"/>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A874" t="s">
+        <v>450</v>
+      </c>
+      <c r="B874" t="s">
+        <v>236</v>
+      </c>
+      <c r="C874" t="s">
+        <v>378</v>
+      </c>
+      <c r="E874" s="3"/>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A875" t="s">
+        <v>450</v>
+      </c>
+      <c r="B875" t="s">
+        <v>237</v>
+      </c>
+      <c r="C875" t="s">
+        <v>405</v>
+      </c>
+      <c r="E875" s="3"/>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A876" t="s">
+        <v>450</v>
+      </c>
+      <c r="B876" t="s">
+        <v>238</v>
+      </c>
+      <c r="C876" t="s">
+        <v>378</v>
+      </c>
+      <c r="E876" s="3"/>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A877" t="s">
+        <v>450</v>
+      </c>
+      <c r="B877" t="s">
+        <v>239</v>
+      </c>
+      <c r="C877" t="s">
+        <v>378</v>
+      </c>
+      <c r="E877" s="3"/>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A878" t="s">
+        <v>450</v>
+      </c>
+      <c r="B878" t="s">
+        <v>240</v>
+      </c>
+      <c r="C878" t="s">
+        <v>378</v>
+      </c>
+      <c r="E878" s="3"/>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A879" t="s">
+        <v>450</v>
+      </c>
+      <c r="B879" t="s">
+        <v>241</v>
+      </c>
+      <c r="C879" t="s">
+        <v>378</v>
+      </c>
+      <c r="E879" s="3"/>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A880" t="s">
+        <v>450</v>
+      </c>
+      <c r="B880" t="s">
+        <v>242</v>
+      </c>
+      <c r="C880" t="s">
+        <v>383</v>
+      </c>
+      <c r="E880" s="3"/>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A881" t="s">
+        <v>450</v>
+      </c>
+      <c r="B881" t="s">
+        <v>243</v>
+      </c>
+      <c r="C881" t="s">
+        <v>415</v>
+      </c>
+      <c r="E881" s="3"/>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A882" t="s">
+        <v>450</v>
+      </c>
+      <c r="B882" t="s">
+        <v>246</v>
+      </c>
+      <c r="C882" t="s">
+        <v>416</v>
+      </c>
+      <c r="E882" s="3"/>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A883" t="s">
+        <v>450</v>
+      </c>
+      <c r="B883" t="s">
+        <v>247</v>
+      </c>
+      <c r="C883" t="s">
+        <v>417</v>
+      </c>
+      <c r="E883" s="3"/>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A884" t="s">
+        <v>450</v>
+      </c>
+      <c r="B884" t="s">
+        <v>248</v>
+      </c>
+      <c r="C884" t="s">
+        <v>401</v>
+      </c>
+      <c r="E884" s="3"/>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A885" t="s">
+        <v>450</v>
+      </c>
+      <c r="B885" t="s">
+        <v>249</v>
+      </c>
+      <c r="C885" t="s">
+        <v>392</v>
+      </c>
+      <c r="E885" s="3"/>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A886" t="s">
+        <v>450</v>
+      </c>
+      <c r="B886" t="s">
+        <v>249</v>
+      </c>
+      <c r="C886" t="s">
+        <v>434</v>
+      </c>
+      <c r="E886" s="3"/>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A887" t="s">
+        <v>450</v>
+      </c>
+      <c r="B887" t="s">
+        <v>203</v>
+      </c>
+      <c r="C887" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A888" t="s">
+        <v>450</v>
+      </c>
+      <c r="B888" t="s">
+        <v>180</v>
+      </c>
+      <c r="C888" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A889" t="s">
+        <v>450</v>
+      </c>
+      <c r="B889" t="s">
+        <v>184</v>
+      </c>
+      <c r="C889" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A890" t="s">
+        <v>450</v>
+      </c>
+      <c r="B890" t="s">
+        <v>185</v>
+      </c>
+      <c r="C890" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A891" t="s">
+        <v>450</v>
+      </c>
+      <c r="B891" t="s">
+        <v>186</v>
+      </c>
+      <c r="C891" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A892" t="s">
+        <v>450</v>
+      </c>
+      <c r="B892" t="s">
+        <v>187</v>
+      </c>
+      <c r="C892" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A893" t="s">
+        <v>450</v>
+      </c>
+      <c r="B893" t="s">
+        <v>188</v>
+      </c>
+      <c r="C893" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A894" t="s">
+        <v>450</v>
+      </c>
+      <c r="B894" t="s">
+        <v>189</v>
+      </c>
+      <c r="C894" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A895" t="s">
+        <v>450</v>
+      </c>
+      <c r="B895" t="s">
+        <v>190</v>
+      </c>
+      <c r="C895" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A896" t="s">
+        <v>450</v>
+      </c>
+      <c r="B896" t="s">
+        <v>191</v>
+      </c>
+      <c r="C896" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A897" t="s">
+        <v>450</v>
+      </c>
+      <c r="B897" t="s">
+        <v>192</v>
+      </c>
+      <c r="C897" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A898" t="s">
+        <v>450</v>
+      </c>
+      <c r="B898" t="s">
+        <v>193</v>
+      </c>
+      <c r="C898" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A899" t="s">
+        <v>450</v>
+      </c>
+      <c r="B899" t="s">
+        <v>194</v>
+      </c>
+      <c r="C899" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A900" t="s">
+        <v>450</v>
+      </c>
+      <c r="B900" t="s">
+        <v>195</v>
+      </c>
+      <c r="C900" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A901" t="s">
+        <v>450</v>
+      </c>
+      <c r="B901" t="s">
+        <v>196</v>
+      </c>
+      <c r="C901" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A902" t="s">
+        <v>450</v>
+      </c>
+      <c r="B902" t="s">
+        <v>197</v>
+      </c>
+      <c r="C902" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A903" t="s">
+        <v>450</v>
+      </c>
+      <c r="B903" t="s">
+        <v>198</v>
+      </c>
+      <c r="C903" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A904" t="s">
+        <v>450</v>
+      </c>
+      <c r="B904" t="s">
+        <v>199</v>
+      </c>
+      <c r="C904" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A905" t="s">
+        <v>450</v>
+      </c>
+      <c r="B905" t="s">
+        <v>200</v>
+      </c>
+      <c r="C905" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A906" t="s">
+        <v>450</v>
+      </c>
+      <c r="B906" t="s">
+        <v>201</v>
+      </c>
+      <c r="C906" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A907" t="s">
+        <v>450</v>
+      </c>
+      <c r="B907" t="s">
+        <v>202</v>
+      </c>
+      <c r="C907" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A908" t="s">
+        <v>450</v>
+      </c>
+      <c r="B908" t="s">
+        <v>205</v>
+      </c>
+      <c r="C908" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A909" t="s">
+        <v>450</v>
+      </c>
+      <c r="B909" t="s">
+        <v>206</v>
+      </c>
+      <c r="C909" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A910" t="s">
+        <v>450</v>
+      </c>
+      <c r="B910" t="s">
+        <v>207</v>
+      </c>
+      <c r="C910" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A911" t="s">
+        <v>450</v>
+      </c>
+      <c r="B911" t="s">
+        <v>208</v>
+      </c>
+      <c r="C911" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A912" t="s">
+        <v>450</v>
+      </c>
+      <c r="B912" t="s">
+        <v>209</v>
+      </c>
+      <c r="C912" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A913" t="s">
+        <v>450</v>
+      </c>
+      <c r="B913" t="s">
+        <v>210</v>
+      </c>
+      <c r="C913" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A914" t="s">
+        <v>450</v>
+      </c>
+      <c r="B914" t="s">
+        <v>213</v>
+      </c>
+      <c r="C914" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A915" t="s">
+        <v>450</v>
+      </c>
+      <c r="B915" t="s">
+        <v>214</v>
+      </c>
+      <c r="C915" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A916" t="s">
+        <v>450</v>
+      </c>
+      <c r="B916" t="s">
+        <v>215</v>
+      </c>
+      <c r="C916" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A917" t="s">
+        <v>450</v>
+      </c>
+      <c r="B917" t="s">
+        <v>216</v>
+      </c>
+      <c r="C917" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A918" t="s">
+        <v>450</v>
+      </c>
+      <c r="B918" t="s">
+        <v>217</v>
+      </c>
+      <c r="C918" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A919" t="s">
+        <v>450</v>
+      </c>
+      <c r="B919" t="s">
+        <v>218</v>
+      </c>
+      <c r="C919" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A920" t="s">
+        <v>450</v>
+      </c>
+      <c r="B920" t="s">
+        <v>219</v>
+      </c>
+      <c r="C920" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A921" t="s">
+        <v>450</v>
+      </c>
+      <c r="B921" t="s">
+        <v>220</v>
+      </c>
+      <c r="C921" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A922" t="s">
+        <v>450</v>
+      </c>
+      <c r="B922" t="s">
+        <v>221</v>
+      </c>
+      <c r="C922" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A923" t="s">
+        <v>450</v>
+      </c>
+      <c r="B923" t="s">
+        <v>222</v>
+      </c>
+      <c r="C923" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A924" t="s">
+        <v>450</v>
+      </c>
+      <c r="B924" t="s">
+        <v>223</v>
+      </c>
+      <c r="C924" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A925" t="s">
+        <v>450</v>
+      </c>
+      <c r="B925" t="s">
+        <v>224</v>
+      </c>
+      <c r="C925" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A926" t="s">
+        <v>450</v>
+      </c>
+      <c r="B926" t="s">
+        <v>225</v>
+      </c>
+      <c r="C926" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A927" t="s">
+        <v>450</v>
+      </c>
+      <c r="B927" t="s">
+        <v>226</v>
+      </c>
+      <c r="C927" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A928" t="s">
+        <v>450</v>
+      </c>
+      <c r="B928" t="s">
+        <v>227</v>
+      </c>
+      <c r="C928" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A929" t="s">
+        <v>450</v>
+      </c>
+      <c r="B929" t="s">
+        <v>228</v>
+      </c>
+      <c r="C929" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A930" t="s">
+        <v>450</v>
+      </c>
+      <c r="B930" t="s">
+        <v>229</v>
+      </c>
+      <c r="C930" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A931" t="s">
+        <v>450</v>
+      </c>
+      <c r="B931" t="s">
+        <v>230</v>
+      </c>
+      <c r="C931" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A932" t="s">
+        <v>450</v>
+      </c>
+      <c r="B932" t="s">
+        <v>231</v>
+      </c>
+      <c r="C932" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A933" t="s">
+        <v>450</v>
+      </c>
+      <c r="B933" t="s">
+        <v>232</v>
+      </c>
+      <c r="C933" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A934" t="s">
+        <v>450</v>
+      </c>
+      <c r="B934" t="s">
+        <v>233</v>
+      </c>
+      <c r="C934" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A935" t="s">
+        <v>450</v>
+      </c>
+      <c r="B935" t="s">
+        <v>234</v>
+      </c>
+      <c r="C935" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A936" t="s">
+        <v>450</v>
+      </c>
+      <c r="B936" t="s">
+        <v>235</v>
+      </c>
+      <c r="C936" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A937" t="s">
+        <v>450</v>
+      </c>
+      <c r="B937" t="s">
+        <v>236</v>
+      </c>
+      <c r="C937" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A938" t="s">
+        <v>450</v>
+      </c>
+      <c r="B938" t="s">
+        <v>237</v>
+      </c>
+      <c r="C938" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A939" t="s">
+        <v>450</v>
+      </c>
+      <c r="B939" t="s">
+        <v>238</v>
+      </c>
+      <c r="C939" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A940" t="s">
+        <v>450</v>
+      </c>
+      <c r="B940" t="s">
+        <v>239</v>
+      </c>
+      <c r="C940" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A941" t="s">
+        <v>450</v>
+      </c>
+      <c r="B941" t="s">
+        <v>240</v>
+      </c>
+      <c r="C941" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A942" t="s">
+        <v>450</v>
+      </c>
+      <c r="B942" t="s">
+        <v>241</v>
+      </c>
+      <c r="C942" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A943" t="s">
+        <v>450</v>
+      </c>
+      <c r="B943" t="s">
+        <v>242</v>
+      </c>
+      <c r="C943" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A944" t="s">
+        <v>450</v>
+      </c>
+      <c r="B944" t="s">
+        <v>243</v>
+      </c>
+      <c r="C944" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A945" t="s">
+        <v>450</v>
+      </c>
+      <c r="B945" t="s">
+        <v>246</v>
+      </c>
+      <c r="C945" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A946" t="s">
+        <v>450</v>
+      </c>
+      <c r="B946" t="s">
+        <v>247</v>
+      </c>
+      <c r="C946" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A947" t="s">
+        <v>450</v>
+      </c>
+      <c r="B947" t="s">
+        <v>248</v>
+      </c>
+      <c r="C947" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A948" t="s">
+        <v>450</v>
+      </c>
+      <c r="B948" t="s">
+        <v>155</v>
+      </c>
+      <c r="C948" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A949" t="s">
+        <v>450</v>
+      </c>
+      <c r="B949" t="s">
+        <v>159</v>
+      </c>
+      <c r="C949" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A950" t="s">
+        <v>450</v>
+      </c>
+      <c r="B950" t="s">
+        <v>160</v>
+      </c>
+      <c r="C950" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A951" t="s">
+        <v>450</v>
+      </c>
+      <c r="B951" t="s">
+        <v>161</v>
+      </c>
+      <c r="C951" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A952" t="s">
+        <v>450</v>
+      </c>
+      <c r="B952" t="s">
+        <v>162</v>
+      </c>
+      <c r="C952" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A953" t="s">
+        <v>450</v>
+      </c>
+      <c r="B953" t="s">
+        <v>163</v>
+      </c>
+      <c r="C953" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A954" t="s">
+        <v>450</v>
+      </c>
+      <c r="B954" t="s">
+        <v>164</v>
+      </c>
+      <c r="C954" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A955" t="s">
+        <v>450</v>
+      </c>
+      <c r="B955" t="s">
+        <v>166</v>
+      </c>
+      <c r="C955" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A956" t="s">
+        <v>450</v>
+      </c>
+      <c r="B956" t="s">
+        <v>167</v>
+      </c>
+      <c r="C956" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A957" t="s">
+        <v>450</v>
+      </c>
+      <c r="B957" t="s">
+        <v>168</v>
+      </c>
+      <c r="C957" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A958" t="s">
+        <v>450</v>
+      </c>
+      <c r="B958" t="s">
+        <v>169</v>
+      </c>
+      <c r="C958" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A959" t="s">
+        <v>450</v>
+      </c>
+      <c r="B959" t="s">
+        <v>170</v>
+      </c>
+      <c r="C959" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A960" t="s">
+        <v>450</v>
+      </c>
+      <c r="B960" t="s">
+        <v>171</v>
+      </c>
+      <c r="C960" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A961" t="s">
+        <v>450</v>
+      </c>
+      <c r="B961" t="s">
+        <v>172</v>
+      </c>
+      <c r="C961" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A962" t="s">
+        <v>450</v>
+      </c>
+      <c r="B962" t="s">
+        <v>173</v>
+      </c>
+      <c r="C962" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A963" t="s">
+        <v>450</v>
+      </c>
+      <c r="B963" t="s">
+        <v>174</v>
+      </c>
+      <c r="C963" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A964" t="s">
+        <v>450</v>
+      </c>
+      <c r="B964" t="s">
+        <v>176</v>
+      </c>
+      <c r="C964" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A965" t="s">
+        <v>450</v>
+      </c>
+      <c r="B965" t="s">
+        <v>177</v>
+      </c>
+      <c r="C965" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A966" t="s">
+        <v>450</v>
+      </c>
+      <c r="B966" t="s">
+        <v>178</v>
+      </c>
+      <c r="C966" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A967" t="s">
+        <v>450</v>
+      </c>
+      <c r="B967" t="s">
+        <v>179</v>
+      </c>
+      <c r="C967" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A969" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B969" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C728" s="4" t="s">
+      <c r="C969" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D728" s="4"/>
-      <c r="E728" s="4"/>
-    </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A729" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B729" s="4" t="s">
+      <c r="D969" s="4"/>
+      <c r="E969" s="4"/>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A970" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B970" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C729" s="4" t="s">
+      <c r="C970" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D729" s="4"/>
-      <c r="E729" s="4"/>
-    </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A730" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B730" s="4" t="s">
+      <c r="D970" s="4"/>
+      <c r="E970" s="4"/>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A971" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B971" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C730" s="4" t="s">
+      <c r="C971" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D730" s="4"/>
-      <c r="E730" s="4"/>
-    </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A731" s="4" t="s">
+      <c r="D971" s="4"/>
+      <c r="E971" s="4"/>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A972" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B731" s="4" t="s">
+      <c r="B972" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C731" s="4" t="s">
+      <c r="C972" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A732" s="4" t="s">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A973" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B732" s="4" t="s">
+      <c r="B973" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C732" s="4" t="s">
+      <c r="C973" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A733" s="4" t="s">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A974" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B733" s="4" t="s">
+      <c r="B974" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C733" s="4" t="s">
+      <c r="C974" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A734" s="4" t="s">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A975" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B734" s="4" t="s">
+      <c r="B975" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C734" s="4" t="s">
+      <c r="C975" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B802" s="1"/>
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1043" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spine_rts-gmlc/datasets/gen.xlsx
+++ b/spine_rts-gmlc/datasets/gen.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12319" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13109" uniqueCount="454">
   <si>
     <t>GEN UID</t>
   </si>
@@ -1390,6 +1390,9 @@
   <si>
     <t>units_on__temporal_block</t>
   </si>
+  <si>
+    <t>blk_t2</t>
+  </si>
 </sst>
 </file>
 
@@ -47069,10 +47072,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:E475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="E318" sqref="E318:E475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47104,7 +47107,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
         <v>262</v>
@@ -47113,15 +47116,15 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>262</v>
@@ -47130,15 +47133,15 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>262</v>
@@ -47147,15 +47150,15 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B5" t="s">
         <v>262</v>
@@ -47164,15 +47167,15 @@
         <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
         <v>262</v>
@@ -47181,15 +47184,15 @@
         <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E6" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
         <v>262</v>
@@ -47198,15 +47201,15 @@
         <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s">
         <v>262</v>
@@ -47215,15 +47218,15 @@
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
         <v>262</v>
@@ -47232,15 +47235,15 @@
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
         <v>262</v>
@@ -47249,15 +47252,15 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
         <v>262</v>
@@ -47266,15 +47269,15 @@
         <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B12" t="s">
         <v>262</v>
@@ -47283,15 +47286,15 @@
         <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E12" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B13" t="s">
         <v>262</v>
@@ -47300,15 +47303,15 @@
         <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B14" t="s">
         <v>262</v>
@@ -47317,15 +47320,15 @@
         <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E14" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B15" t="s">
         <v>262</v>
@@ -47334,15 +47337,15 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B16" t="s">
         <v>262</v>
@@ -47351,15 +47354,15 @@
         <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E16" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
         <v>262</v>
@@ -47368,15 +47371,15 @@
         <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B18" t="s">
         <v>262</v>
@@ -47385,15 +47388,15 @@
         <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E18" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B19" t="s">
         <v>262</v>
@@ -47402,15 +47405,15 @@
         <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E19" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B20" t="s">
         <v>262</v>
@@ -47419,15 +47422,15 @@
         <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B21" t="s">
         <v>262</v>
@@ -47436,15 +47439,15 @@
         <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B22" t="s">
         <v>262</v>
@@ -47453,15 +47456,15 @@
         <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E22" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B23" t="s">
         <v>262</v>
@@ -47470,15 +47473,15 @@
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E23" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B24" t="s">
         <v>262</v>
@@ -47487,15 +47490,15 @@
         <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E24" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B25" t="s">
         <v>262</v>
@@ -47504,15 +47507,15 @@
         <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E25" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B26" t="s">
         <v>262</v>
@@ -47521,15 +47524,15 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E26" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B27" t="s">
         <v>262</v>
@@ -47538,15 +47541,15 @@
         <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E27" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B28" t="s">
         <v>262</v>
@@ -47555,15 +47558,15 @@
         <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E28" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B29" t="s">
         <v>262</v>
@@ -47572,15 +47575,15 @@
         <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E29" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B30" t="s">
         <v>262</v>
@@ -47589,15 +47592,15 @@
         <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E30" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B31" t="s">
         <v>262</v>
@@ -47606,15 +47609,15 @@
         <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E31" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B32" t="s">
         <v>262</v>
@@ -47623,15 +47626,15 @@
         <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E32" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B33" t="s">
         <v>262</v>
@@ -47640,15 +47643,15 @@
         <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E33" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B34" t="s">
         <v>262</v>
@@ -47657,15 +47660,15 @@
         <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E34" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B35" t="s">
         <v>262</v>
@@ -47674,15 +47677,15 @@
         <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E35" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B36" t="s">
         <v>262</v>
@@ -47691,15 +47694,15 @@
         <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E36" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B37" t="s">
         <v>262</v>
@@ -47708,15 +47711,15 @@
         <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E37" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B38" t="s">
         <v>262</v>
@@ -47725,15 +47728,15 @@
         <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E38" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B39" t="s">
         <v>262</v>
@@ -47742,15 +47745,15 @@
         <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E39" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B40" t="s">
         <v>262</v>
@@ -47759,15 +47762,15 @@
         <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E40" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B41" t="s">
         <v>262</v>
@@ -47776,15 +47779,15 @@
         <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E41" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B42" t="s">
         <v>262</v>
@@ -47793,15 +47796,15 @@
         <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E42" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B43" t="s">
         <v>262</v>
@@ -47810,15 +47813,15 @@
         <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E43" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B44" t="s">
         <v>262</v>
@@ -47827,15 +47830,15 @@
         <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E44" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B45" t="s">
         <v>262</v>
@@ -47844,15 +47847,15 @@
         <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E45" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B46" t="s">
         <v>262</v>
@@ -47861,15 +47864,15 @@
         <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E46" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B47" t="s">
         <v>262</v>
@@ -47878,15 +47881,15 @@
         <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E47" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B48" t="s">
         <v>262</v>
@@ -47895,15 +47898,15 @@
         <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E48" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B49" t="s">
         <v>262</v>
@@ -47912,15 +47915,15 @@
         <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E49" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B50" t="s">
         <v>262</v>
@@ -47929,15 +47932,15 @@
         <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E50" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B51" t="s">
         <v>262</v>
@@ -47946,15 +47949,15 @@
         <v>125</v>
       </c>
       <c r="D51" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E51" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B52" t="s">
         <v>262</v>
@@ -47963,15 +47966,15 @@
         <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E52" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B53" t="s">
         <v>262</v>
@@ -47980,15 +47983,15 @@
         <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E53" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B54" t="s">
         <v>262</v>
@@ -47997,15 +48000,15 @@
         <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E54" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B55" t="s">
         <v>262</v>
@@ -48014,15 +48017,15 @@
         <v>129</v>
       </c>
       <c r="D55" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E55" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B56" t="s">
         <v>262</v>
@@ -48031,15 +48034,15 @@
         <v>130</v>
       </c>
       <c r="D56" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E56" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B57" t="s">
         <v>262</v>
@@ -48048,15 +48051,15 @@
         <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E57" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B58" t="s">
         <v>262</v>
@@ -48065,15 +48068,15 @@
         <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E58" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B59" t="s">
         <v>262</v>
@@ -48082,15 +48085,15 @@
         <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E59" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s">
         <v>262</v>
@@ -48099,15 +48102,15 @@
         <v>134</v>
       </c>
       <c r="D60" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E60" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B61" t="s">
         <v>262</v>
@@ -48116,15 +48119,15 @@
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E61" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s">
         <v>262</v>
@@ -48133,15 +48136,15 @@
         <v>136</v>
       </c>
       <c r="D62" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E62" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B63" t="s">
         <v>262</v>
@@ -48150,15 +48153,15 @@
         <v>137</v>
       </c>
       <c r="D63" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E63" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s">
         <v>262</v>
@@ -48167,15 +48170,15 @@
         <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E64" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s">
         <v>262</v>
@@ -48184,15 +48187,15 @@
         <v>139</v>
       </c>
       <c r="D65" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E65" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s">
         <v>262</v>
@@ -48201,15 +48204,15 @@
         <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E66" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B67" t="s">
         <v>262</v>
@@ -48218,15 +48221,15 @@
         <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E67" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B68" t="s">
         <v>262</v>
@@ -48235,15 +48238,15 @@
         <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E68" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B69" t="s">
         <v>262</v>
@@ -48252,15 +48255,15 @@
         <v>143</v>
       </c>
       <c r="D69" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E69" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B70" t="s">
         <v>262</v>
@@ -48269,15 +48272,15 @@
         <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E70" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s">
         <v>262</v>
@@ -48286,15 +48289,15 @@
         <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E71" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B72" t="s">
         <v>262</v>
@@ -48303,15 +48306,15 @@
         <v>146</v>
       </c>
       <c r="D72" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E72" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B73" t="s">
         <v>262</v>
@@ -48320,15 +48323,15 @@
         <v>147</v>
       </c>
       <c r="D73" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E73" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B74" t="s">
         <v>262</v>
@@ -48337,15 +48340,15 @@
         <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E74" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B75" t="s">
         <v>262</v>
@@ -48354,15 +48357,15 @@
         <v>151</v>
       </c>
       <c r="D75" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E75" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B76" t="s">
         <v>262</v>
@@ -48371,15 +48374,15 @@
         <v>155</v>
       </c>
       <c r="D76" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E76" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B77" t="s">
         <v>262</v>
@@ -48388,15 +48391,15 @@
         <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E77" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B78" t="s">
         <v>262</v>
@@ -48405,15 +48408,15 @@
         <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E78" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B79" t="s">
         <v>262</v>
@@ -48422,15 +48425,15 @@
         <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E79" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B80" t="s">
         <v>262</v>
@@ -48439,15 +48442,15 @@
         <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E80" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B81" t="s">
         <v>262</v>
@@ -48456,15 +48459,15 @@
         <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E81" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B82" t="s">
         <v>262</v>
@@ -48473,15 +48476,15 @@
         <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E82" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B83" t="s">
         <v>262</v>
@@ -48490,15 +48493,15 @@
         <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E83" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B84" t="s">
         <v>262</v>
@@ -48507,15 +48510,15 @@
         <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E84" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B85" t="s">
         <v>262</v>
@@ -48524,15 +48527,15 @@
         <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E85" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B86" t="s">
         <v>262</v>
@@ -48541,15 +48544,15 @@
         <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E86" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B87" t="s">
         <v>262</v>
@@ -48558,15 +48561,15 @@
         <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E87" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B88" t="s">
         <v>262</v>
@@ -48575,15 +48578,15 @@
         <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E88" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B89" t="s">
         <v>262</v>
@@ -48592,15 +48595,15 @@
         <v>171</v>
       </c>
       <c r="D89" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E89" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B90" t="s">
         <v>262</v>
@@ -48609,15 +48612,15 @@
         <v>172</v>
       </c>
       <c r="D90" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E90" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B91" t="s">
         <v>262</v>
@@ -48626,15 +48629,15 @@
         <v>173</v>
       </c>
       <c r="D91" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E91" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B92" t="s">
         <v>262</v>
@@ -48643,15 +48646,15 @@
         <v>174</v>
       </c>
       <c r="D92" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E92" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B93" t="s">
         <v>262</v>
@@ -48660,15 +48663,15 @@
         <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E93" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B94" t="s">
         <v>262</v>
@@ -48677,15 +48680,15 @@
         <v>176</v>
       </c>
       <c r="D94" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E94" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B95" t="s">
         <v>262</v>
@@ -48694,15 +48697,15 @@
         <v>177</v>
       </c>
       <c r="D95" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E95" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B96" t="s">
         <v>262</v>
@@ -48711,15 +48714,15 @@
         <v>178</v>
       </c>
       <c r="D96" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E96" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B97" t="s">
         <v>262</v>
@@ -48728,15 +48731,15 @@
         <v>179</v>
       </c>
       <c r="D97" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E97" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B98" t="s">
         <v>262</v>
@@ -48745,15 +48748,15 @@
         <v>180</v>
       </c>
       <c r="D98" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E98" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B99" t="s">
         <v>262</v>
@@ -48762,15 +48765,15 @@
         <v>184</v>
       </c>
       <c r="D99" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E99" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B100" t="s">
         <v>262</v>
@@ -48779,15 +48782,15 @@
         <v>185</v>
       </c>
       <c r="D100" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E100" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B101" t="s">
         <v>262</v>
@@ -48796,15 +48799,15 @@
         <v>186</v>
       </c>
       <c r="D101" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E101" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B102" t="s">
         <v>262</v>
@@ -48813,15 +48816,15 @@
         <v>187</v>
       </c>
       <c r="D102" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E102" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B103" t="s">
         <v>262</v>
@@ -48830,15 +48833,15 @@
         <v>188</v>
       </c>
       <c r="D103" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E103" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B104" t="s">
         <v>262</v>
@@ -48847,15 +48850,15 @@
         <v>189</v>
       </c>
       <c r="D104" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E104" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B105" t="s">
         <v>262</v>
@@ -48864,15 +48867,15 @@
         <v>190</v>
       </c>
       <c r="D105" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E105" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B106" t="s">
         <v>262</v>
@@ -48881,15 +48884,15 @@
         <v>191</v>
       </c>
       <c r="D106" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E106" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B107" t="s">
         <v>262</v>
@@ -48898,15 +48901,15 @@
         <v>192</v>
       </c>
       <c r="D107" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E107" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B108" t="s">
         <v>262</v>
@@ -48915,15 +48918,15 @@
         <v>193</v>
       </c>
       <c r="D108" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E108" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B109" t="s">
         <v>262</v>
@@ -48932,15 +48935,15 @@
         <v>194</v>
       </c>
       <c r="D109" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E109" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B110" t="s">
         <v>262</v>
@@ -48949,15 +48952,15 @@
         <v>195</v>
       </c>
       <c r="D110" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E110" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B111" t="s">
         <v>262</v>
@@ -48966,15 +48969,15 @@
         <v>196</v>
       </c>
       <c r="D111" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E111" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B112" t="s">
         <v>262</v>
@@ -48983,15 +48986,15 @@
         <v>197</v>
       </c>
       <c r="D112" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E112" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B113" t="s">
         <v>262</v>
@@ -49000,15 +49003,15 @@
         <v>198</v>
       </c>
       <c r="D113" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E113" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B114" t="s">
         <v>262</v>
@@ -49017,15 +49020,15 @@
         <v>199</v>
       </c>
       <c r="D114" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E114" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B115" t="s">
         <v>262</v>
@@ -49034,15 +49037,15 @@
         <v>200</v>
       </c>
       <c r="D115" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E115" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B116" t="s">
         <v>262</v>
@@ -49051,15 +49054,15 @@
         <v>201</v>
       </c>
       <c r="D116" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E116" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B117" t="s">
         <v>262</v>
@@ -49068,15 +49071,15 @@
         <v>202</v>
       </c>
       <c r="D117" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E117" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B118" t="s">
         <v>262</v>
@@ -49085,15 +49088,15 @@
         <v>203</v>
       </c>
       <c r="D118" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E118" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B119" t="s">
         <v>262</v>
@@ -49102,15 +49105,15 @@
         <v>205</v>
       </c>
       <c r="D119" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E119" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B120" t="s">
         <v>262</v>
@@ -49119,15 +49122,15 @@
         <v>206</v>
       </c>
       <c r="D120" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E120" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B121" t="s">
         <v>262</v>
@@ -49136,15 +49139,15 @@
         <v>207</v>
       </c>
       <c r="D121" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E121" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B122" t="s">
         <v>262</v>
@@ -49153,15 +49156,15 @@
         <v>208</v>
       </c>
       <c r="D122" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E122" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B123" t="s">
         <v>262</v>
@@ -49170,15 +49173,15 @@
         <v>209</v>
       </c>
       <c r="D123" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E123" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B124" t="s">
         <v>262</v>
@@ -49187,15 +49190,15 @@
         <v>210</v>
       </c>
       <c r="D124" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E124" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B125" t="s">
         <v>262</v>
@@ -49204,15 +49207,15 @@
         <v>213</v>
       </c>
       <c r="D125" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E125" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B126" t="s">
         <v>262</v>
@@ -49221,15 +49224,15 @@
         <v>214</v>
       </c>
       <c r="D126" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E126" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B127" t="s">
         <v>262</v>
@@ -49238,15 +49241,15 @@
         <v>215</v>
       </c>
       <c r="D127" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E127" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B128" t="s">
         <v>262</v>
@@ -49255,15 +49258,15 @@
         <v>216</v>
       </c>
       <c r="D128" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E128" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B129" t="s">
         <v>262</v>
@@ -49272,15 +49275,15 @@
         <v>217</v>
       </c>
       <c r="D129" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E129" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B130" t="s">
         <v>262</v>
@@ -49289,15 +49292,15 @@
         <v>218</v>
       </c>
       <c r="D130" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E130" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B131" t="s">
         <v>262</v>
@@ -49306,15 +49309,15 @@
         <v>219</v>
       </c>
       <c r="D131" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E131" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B132" t="s">
         <v>262</v>
@@ -49323,15 +49326,15 @@
         <v>220</v>
       </c>
       <c r="D132" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E132" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B133" t="s">
         <v>262</v>
@@ -49340,15 +49343,15 @@
         <v>221</v>
       </c>
       <c r="D133" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E133" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B134" t="s">
         <v>262</v>
@@ -49357,15 +49360,15 @@
         <v>222</v>
       </c>
       <c r="D134" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E134" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B135" t="s">
         <v>262</v>
@@ -49374,15 +49377,15 @@
         <v>223</v>
       </c>
       <c r="D135" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E135" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B136" t="s">
         <v>262</v>
@@ -49391,15 +49394,15 @@
         <v>224</v>
       </c>
       <c r="D136" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E136" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B137" t="s">
         <v>262</v>
@@ -49408,15 +49411,15 @@
         <v>225</v>
       </c>
       <c r="D137" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E137" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B138" t="s">
         <v>262</v>
@@ -49425,15 +49428,15 @@
         <v>226</v>
       </c>
       <c r="D138" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E138" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B139" t="s">
         <v>262</v>
@@ -49442,15 +49445,15 @@
         <v>227</v>
       </c>
       <c r="D139" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E139" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B140" t="s">
         <v>262</v>
@@ -49459,15 +49462,15 @@
         <v>228</v>
       </c>
       <c r="D140" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E140" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B141" t="s">
         <v>262</v>
@@ -49476,15 +49479,15 @@
         <v>229</v>
       </c>
       <c r="D141" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E141" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B142" t="s">
         <v>262</v>
@@ -49493,15 +49496,15 @@
         <v>230</v>
       </c>
       <c r="D142" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E142" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B143" t="s">
         <v>262</v>
@@ -49510,15 +49513,15 @@
         <v>231</v>
       </c>
       <c r="D143" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E143" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B144" t="s">
         <v>262</v>
@@ -49527,15 +49530,15 @@
         <v>232</v>
       </c>
       <c r="D144" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E144" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B145" t="s">
         <v>262</v>
@@ -49544,15 +49547,15 @@
         <v>233</v>
       </c>
       <c r="D145" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E145" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B146" t="s">
         <v>262</v>
@@ -49561,15 +49564,15 @@
         <v>234</v>
       </c>
       <c r="D146" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E146" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B147" t="s">
         <v>262</v>
@@ -49578,15 +49581,15 @@
         <v>235</v>
       </c>
       <c r="D147" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E147" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B148" t="s">
         <v>262</v>
@@ -49595,15 +49598,15 @@
         <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E148" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B149" t="s">
         <v>262</v>
@@ -49612,15 +49615,15 @@
         <v>237</v>
       </c>
       <c r="D149" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E149" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B150" t="s">
         <v>262</v>
@@ -49629,15 +49632,15 @@
         <v>238</v>
       </c>
       <c r="D150" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E150" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B151" t="s">
         <v>262</v>
@@ -49646,15 +49649,15 @@
         <v>239</v>
       </c>
       <c r="D151" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E151" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B152" t="s">
         <v>262</v>
@@ -49663,15 +49666,15 @@
         <v>240</v>
       </c>
       <c r="D152" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E152" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B153" t="s">
         <v>262</v>
@@ -49680,15 +49683,15 @@
         <v>241</v>
       </c>
       <c r="D153" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E153" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B154" t="s">
         <v>262</v>
@@ -49697,15 +49700,15 @@
         <v>242</v>
       </c>
       <c r="D154" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E154" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B155" t="s">
         <v>262</v>
@@ -49714,15 +49717,15 @@
         <v>243</v>
       </c>
       <c r="D155" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E155" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B156" t="s">
         <v>262</v>
@@ -49731,15 +49734,15 @@
         <v>246</v>
       </c>
       <c r="D156" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E156" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B157" t="s">
         <v>262</v>
@@ -49748,15 +49751,15 @@
         <v>247</v>
       </c>
       <c r="D157" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E157" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B158" t="s">
         <v>262</v>
@@ -49765,15 +49768,15 @@
         <v>248</v>
       </c>
       <c r="D158" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E158" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B159" t="s">
         <v>262</v>
@@ -49782,15 +49785,15 @@
         <v>249</v>
       </c>
       <c r="D159" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E159" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B160" t="s">
         <v>262</v>
@@ -49799,15 +49802,15 @@
         <v>56</v>
       </c>
       <c r="D160" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E160" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B161" t="s">
         <v>262</v>
@@ -49816,15 +49819,15 @@
         <v>62</v>
       </c>
       <c r="D161" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E161" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B162" t="s">
         <v>262</v>
@@ -49833,15 +49836,15 @@
         <v>63</v>
       </c>
       <c r="D162" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E162" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B163" t="s">
         <v>262</v>
@@ -49850,15 +49853,15 @@
         <v>68</v>
       </c>
       <c r="D163" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E163" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B164" t="s">
         <v>262</v>
@@ -49867,15 +49870,15 @@
         <v>69</v>
       </c>
       <c r="D164" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E164" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B165" t="s">
         <v>262</v>
@@ -49884,15 +49887,15 @@
         <v>70</v>
       </c>
       <c r="D165" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E165" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B166" t="s">
         <v>262</v>
@@ -49901,15 +49904,15 @@
         <v>71</v>
       </c>
       <c r="D166" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E166" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B167" t="s">
         <v>262</v>
@@ -49918,15 +49921,15 @@
         <v>72</v>
       </c>
       <c r="D167" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E167" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B168" t="s">
         <v>262</v>
@@ -49935,15 +49938,15 @@
         <v>73</v>
       </c>
       <c r="D168" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E168" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B169" t="s">
         <v>262</v>
@@ -49952,15 +49955,15 @@
         <v>78</v>
       </c>
       <c r="D169" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E169" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B170" t="s">
         <v>262</v>
@@ -49969,15 +49972,15 @@
         <v>81</v>
       </c>
       <c r="D170" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E170" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B171" t="s">
         <v>262</v>
@@ -49986,15 +49989,15 @@
         <v>82</v>
       </c>
       <c r="D171" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E171" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B172" t="s">
         <v>262</v>
@@ -50003,15 +50006,15 @@
         <v>83</v>
       </c>
       <c r="D172" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E172" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B173" t="s">
         <v>262</v>
@@ -50020,15 +50023,15 @@
         <v>84</v>
       </c>
       <c r="D173" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E173" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B174" t="s">
         <v>262</v>
@@ -50037,15 +50040,15 @@
         <v>88</v>
       </c>
       <c r="D174" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E174" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B175" t="s">
         <v>262</v>
@@ -50054,15 +50057,15 @@
         <v>89</v>
       </c>
       <c r="D175" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E175" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B176" t="s">
         <v>262</v>
@@ -50071,15 +50074,15 @@
         <v>91</v>
       </c>
       <c r="D176" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E176" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B177" t="s">
         <v>262</v>
@@ -50088,15 +50091,15 @@
         <v>92</v>
       </c>
       <c r="D177" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E177" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B178" t="s">
         <v>262</v>
@@ -50105,15 +50108,15 @@
         <v>93</v>
       </c>
       <c r="D178" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E178" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B179" t="s">
         <v>262</v>
@@ -50122,15 +50125,15 @@
         <v>94</v>
       </c>
       <c r="D179" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E179" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B180" t="s">
         <v>262</v>
@@ -50139,15 +50142,15 @@
         <v>96</v>
       </c>
       <c r="D180" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E180" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B181" t="s">
         <v>262</v>
@@ -50156,15 +50159,15 @@
         <v>97</v>
       </c>
       <c r="D181" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E181" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B182" t="s">
         <v>262</v>
@@ -50173,15 +50176,15 @@
         <v>98</v>
       </c>
       <c r="D182" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E182" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B183" t="s">
         <v>262</v>
@@ -50190,15 +50193,15 @@
         <v>99</v>
       </c>
       <c r="D183" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E183" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B184" t="s">
         <v>262</v>
@@ -50207,15 +50210,15 @@
         <v>100</v>
       </c>
       <c r="D184" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E184" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B185" t="s">
         <v>262</v>
@@ -50224,15 +50227,15 @@
         <v>101</v>
       </c>
       <c r="D185" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E185" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B186" t="s">
         <v>262</v>
@@ -50241,15 +50244,15 @@
         <v>102</v>
       </c>
       <c r="D186" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E186" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B187" t="s">
         <v>262</v>
@@ -50258,15 +50261,15 @@
         <v>103</v>
       </c>
       <c r="D187" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E187" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B188" t="s">
         <v>262</v>
@@ -50275,15 +50278,15 @@
         <v>104</v>
       </c>
       <c r="D188" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E188" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B189" t="s">
         <v>262</v>
@@ -50292,15 +50295,15 @@
         <v>105</v>
       </c>
       <c r="D189" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E189" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B190" t="s">
         <v>262</v>
@@ -50309,15 +50312,15 @@
         <v>106</v>
       </c>
       <c r="D190" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E190" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B191" t="s">
         <v>262</v>
@@ -50326,15 +50329,15 @@
         <v>107</v>
       </c>
       <c r="D191" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E191" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B192" t="s">
         <v>262</v>
@@ -50343,15 +50346,15 @@
         <v>108</v>
       </c>
       <c r="D192" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E192" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B193" t="s">
         <v>262</v>
@@ -50360,15 +50363,15 @@
         <v>109</v>
       </c>
       <c r="D193" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E193" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B194" t="s">
         <v>262</v>
@@ -50377,15 +50380,15 @@
         <v>110</v>
       </c>
       <c r="D194" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E194" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B195" t="s">
         <v>262</v>
@@ -50394,15 +50397,15 @@
         <v>111</v>
       </c>
       <c r="D195" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E195" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B196" t="s">
         <v>262</v>
@@ -50411,15 +50414,15 @@
         <v>112</v>
       </c>
       <c r="D196" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E196" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B197" t="s">
         <v>262</v>
@@ -50428,15 +50431,15 @@
         <v>113</v>
       </c>
       <c r="D197" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E197" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B198" t="s">
         <v>262</v>
@@ -50445,15 +50448,15 @@
         <v>114</v>
       </c>
       <c r="D198" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E198" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B199" t="s">
         <v>262</v>
@@ -50462,15 +50465,15 @@
         <v>115</v>
       </c>
       <c r="D199" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E199" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B200" t="s">
         <v>262</v>
@@ -50479,15 +50482,15 @@
         <v>116</v>
       </c>
       <c r="D200" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E200" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B201" t="s">
         <v>262</v>
@@ -50496,15 +50499,15 @@
         <v>117</v>
       </c>
       <c r="D201" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E201" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B202" t="s">
         <v>262</v>
@@ -50513,15 +50516,15 @@
         <v>118</v>
       </c>
       <c r="D202" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E202" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B203" t="s">
         <v>262</v>
@@ -50530,15 +50533,15 @@
         <v>119</v>
       </c>
       <c r="D203" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E203" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B204" t="s">
         <v>262</v>
@@ -50547,15 +50550,15 @@
         <v>120</v>
       </c>
       <c r="D204" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E204" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B205" t="s">
         <v>262</v>
@@ -50564,15 +50567,15 @@
         <v>121</v>
       </c>
       <c r="D205" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E205" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B206" t="s">
         <v>262</v>
@@ -50581,15 +50584,15 @@
         <v>122</v>
       </c>
       <c r="D206" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E206" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B207" t="s">
         <v>262</v>
@@ -50598,15 +50601,15 @@
         <v>123</v>
       </c>
       <c r="D207" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E207" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B208" t="s">
         <v>262</v>
@@ -50615,15 +50618,15 @@
         <v>124</v>
       </c>
       <c r="D208" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E208" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B209" t="s">
         <v>262</v>
@@ -50632,15 +50635,15 @@
         <v>125</v>
       </c>
       <c r="D209" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E209" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B210" t="s">
         <v>262</v>
@@ -50649,15 +50652,15 @@
         <v>126</v>
       </c>
       <c r="D210" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E210" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B211" t="s">
         <v>262</v>
@@ -50666,15 +50669,15 @@
         <v>127</v>
       </c>
       <c r="D211" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E211" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B212" t="s">
         <v>262</v>
@@ -50683,15 +50686,15 @@
         <v>128</v>
       </c>
       <c r="D212" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E212" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B213" t="s">
         <v>262</v>
@@ -50700,15 +50703,15 @@
         <v>129</v>
       </c>
       <c r="D213" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E213" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B214" t="s">
         <v>262</v>
@@ -50717,15 +50720,15 @@
         <v>130</v>
       </c>
       <c r="D214" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E214" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B215" t="s">
         <v>262</v>
@@ -50734,15 +50737,15 @@
         <v>131</v>
       </c>
       <c r="D215" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E215" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B216" t="s">
         <v>262</v>
@@ -50751,15 +50754,15 @@
         <v>132</v>
       </c>
       <c r="D216" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E216" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B217" t="s">
         <v>262</v>
@@ -50768,15 +50771,15 @@
         <v>133</v>
       </c>
       <c r="D217" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E217" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B218" t="s">
         <v>262</v>
@@ -50785,15 +50788,15 @@
         <v>134</v>
       </c>
       <c r="D218" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E218" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B219" t="s">
         <v>262</v>
@@ -50802,15 +50805,15 @@
         <v>135</v>
       </c>
       <c r="D219" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E219" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B220" t="s">
         <v>262</v>
@@ -50819,15 +50822,15 @@
         <v>136</v>
       </c>
       <c r="D220" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E220" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B221" t="s">
         <v>262</v>
@@ -50836,15 +50839,15 @@
         <v>137</v>
       </c>
       <c r="D221" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E221" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B222" t="s">
         <v>262</v>
@@ -50853,15 +50856,15 @@
         <v>138</v>
       </c>
       <c r="D222" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E222" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B223" t="s">
         <v>262</v>
@@ -50870,15 +50873,15 @@
         <v>139</v>
       </c>
       <c r="D223" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E223" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B224" t="s">
         <v>262</v>
@@ -50887,15 +50890,15 @@
         <v>140</v>
       </c>
       <c r="D224" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E224" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B225" t="s">
         <v>262</v>
@@ -50904,15 +50907,15 @@
         <v>141</v>
       </c>
       <c r="D225" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B226" t="s">
         <v>262</v>
@@ -50921,15 +50924,15 @@
         <v>142</v>
       </c>
       <c r="D226" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B227" t="s">
         <v>262</v>
@@ -50938,15 +50941,15 @@
         <v>143</v>
       </c>
       <c r="D227" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B228" t="s">
         <v>262</v>
@@ -50955,15 +50958,15 @@
         <v>144</v>
       </c>
       <c r="D228" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B229" t="s">
         <v>262</v>
@@ -50972,15 +50975,15 @@
         <v>145</v>
       </c>
       <c r="D229" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B230" t="s">
         <v>262</v>
@@ -50989,15 +50992,15 @@
         <v>146</v>
       </c>
       <c r="D230" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B231" t="s">
         <v>262</v>
@@ -51006,15 +51009,15 @@
         <v>147</v>
       </c>
       <c r="D231" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B232" t="s">
         <v>262</v>
@@ -51023,15 +51026,15 @@
         <v>148</v>
       </c>
       <c r="D232" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B233" t="s">
         <v>262</v>
@@ -51040,15 +51043,15 @@
         <v>151</v>
       </c>
       <c r="D233" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B234" t="s">
         <v>262</v>
@@ -51057,15 +51060,15 @@
         <v>155</v>
       </c>
       <c r="D234" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B235" t="s">
         <v>262</v>
@@ -51074,15 +51077,15 @@
         <v>159</v>
       </c>
       <c r="D235" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B236" t="s">
         <v>262</v>
@@ -51091,15 +51094,15 @@
         <v>160</v>
       </c>
       <c r="D236" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B237" t="s">
         <v>262</v>
@@ -51108,15 +51111,15 @@
         <v>161</v>
       </c>
       <c r="D237" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E237" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B238" t="s">
         <v>262</v>
@@ -51125,15 +51128,15 @@
         <v>162</v>
       </c>
       <c r="D238" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B239" t="s">
         <v>262</v>
@@ -51142,15 +51145,15 @@
         <v>163</v>
       </c>
       <c r="D239" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E239" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B240" t="s">
         <v>262</v>
@@ -51159,15 +51162,15 @@
         <v>164</v>
       </c>
       <c r="D240" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E240" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B241" t="s">
         <v>262</v>
@@ -51176,15 +51179,15 @@
         <v>165</v>
       </c>
       <c r="D241" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B242" t="s">
         <v>262</v>
@@ -51193,15 +51196,15 @@
         <v>166</v>
       </c>
       <c r="D242" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E242" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B243" t="s">
         <v>262</v>
@@ -51210,15 +51213,15 @@
         <v>167</v>
       </c>
       <c r="D243" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E243" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B244" t="s">
         <v>262</v>
@@ -51227,15 +51230,15 @@
         <v>168</v>
       </c>
       <c r="D244" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E244" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B245" t="s">
         <v>262</v>
@@ -51244,15 +51247,15 @@
         <v>169</v>
       </c>
       <c r="D245" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E245" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B246" t="s">
         <v>262</v>
@@ -51261,15 +51264,15 @@
         <v>170</v>
       </c>
       <c r="D246" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E246" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B247" t="s">
         <v>262</v>
@@ -51278,15 +51281,15 @@
         <v>171</v>
       </c>
       <c r="D247" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E247" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B248" t="s">
         <v>262</v>
@@ -51295,15 +51298,15 @@
         <v>172</v>
       </c>
       <c r="D248" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E248" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B249" t="s">
         <v>262</v>
@@ -51312,15 +51315,15 @@
         <v>173</v>
       </c>
       <c r="D249" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E249" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B250" t="s">
         <v>262</v>
@@ -51329,15 +51332,15 @@
         <v>174</v>
       </c>
       <c r="D250" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E250" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B251" t="s">
         <v>262</v>
@@ -51346,15 +51349,15 @@
         <v>175</v>
       </c>
       <c r="D251" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E251" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B252" t="s">
         <v>262</v>
@@ -51363,15 +51366,15 @@
         <v>176</v>
       </c>
       <c r="D252" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E252" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B253" t="s">
         <v>262</v>
@@ -51380,15 +51383,15 @@
         <v>177</v>
       </c>
       <c r="D253" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E253" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B254" t="s">
         <v>262</v>
@@ -51397,15 +51400,15 @@
         <v>178</v>
       </c>
       <c r="D254" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E254" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B255" t="s">
         <v>262</v>
@@ -51414,15 +51417,15 @@
         <v>179</v>
       </c>
       <c r="D255" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E255" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B256" t="s">
         <v>262</v>
@@ -51431,15 +51434,15 @@
         <v>180</v>
       </c>
       <c r="D256" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E256" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B257" t="s">
         <v>262</v>
@@ -51448,15 +51451,15 @@
         <v>184</v>
       </c>
       <c r="D257" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E257" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B258" t="s">
         <v>262</v>
@@ -51465,15 +51468,15 @@
         <v>185</v>
       </c>
       <c r="D258" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E258" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B259" t="s">
         <v>262</v>
@@ -51482,15 +51485,15 @@
         <v>186</v>
       </c>
       <c r="D259" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E259" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B260" t="s">
         <v>262</v>
@@ -51499,15 +51502,15 @@
         <v>187</v>
       </c>
       <c r="D260" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E260" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B261" t="s">
         <v>262</v>
@@ -51516,15 +51519,15 @@
         <v>188</v>
       </c>
       <c r="D261" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E261" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B262" t="s">
         <v>262</v>
@@ -51533,15 +51536,15 @@
         <v>189</v>
       </c>
       <c r="D262" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E262" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B263" t="s">
         <v>262</v>
@@ -51550,15 +51553,15 @@
         <v>190</v>
       </c>
       <c r="D263" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E263" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B264" t="s">
         <v>262</v>
@@ -51567,15 +51570,15 @@
         <v>191</v>
       </c>
       <c r="D264" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E264" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B265" t="s">
         <v>262</v>
@@ -51584,15 +51587,15 @@
         <v>192</v>
       </c>
       <c r="D265" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E265" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B266" t="s">
         <v>262</v>
@@ -51601,15 +51604,15 @@
         <v>193</v>
       </c>
       <c r="D266" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E266" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B267" t="s">
         <v>262</v>
@@ -51618,15 +51621,15 @@
         <v>194</v>
       </c>
       <c r="D267" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E267" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B268" t="s">
         <v>262</v>
@@ -51635,15 +51638,15 @@
         <v>195</v>
       </c>
       <c r="D268" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E268" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B269" t="s">
         <v>262</v>
@@ -51652,15 +51655,15 @@
         <v>196</v>
       </c>
       <c r="D269" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E269" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B270" t="s">
         <v>262</v>
@@ -51669,15 +51672,15 @@
         <v>197</v>
       </c>
       <c r="D270" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E270" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B271" t="s">
         <v>262</v>
@@ -51686,15 +51689,15 @@
         <v>198</v>
       </c>
       <c r="D271" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E271" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B272" t="s">
         <v>262</v>
@@ -51703,15 +51706,15 @@
         <v>199</v>
       </c>
       <c r="D272" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E272" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B273" t="s">
         <v>262</v>
@@ -51720,15 +51723,15 @@
         <v>200</v>
       </c>
       <c r="D273" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E273" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B274" t="s">
         <v>262</v>
@@ -51737,15 +51740,15 @@
         <v>201</v>
       </c>
       <c r="D274" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E274" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B275" t="s">
         <v>262</v>
@@ -51754,15 +51757,15 @@
         <v>202</v>
       </c>
       <c r="D275" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E275" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B276" t="s">
         <v>262</v>
@@ -51771,15 +51774,15 @@
         <v>203</v>
       </c>
       <c r="D276" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E276" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B277" t="s">
         <v>262</v>
@@ -51788,15 +51791,15 @@
         <v>205</v>
       </c>
       <c r="D277" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E277" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B278" t="s">
         <v>262</v>
@@ -51805,15 +51808,15 @@
         <v>206</v>
       </c>
       <c r="D278" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E278" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B279" t="s">
         <v>262</v>
@@ -51822,15 +51825,15 @@
         <v>207</v>
       </c>
       <c r="D279" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E279" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B280" t="s">
         <v>262</v>
@@ -51839,15 +51842,15 @@
         <v>208</v>
       </c>
       <c r="D280" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E280" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B281" t="s">
         <v>262</v>
@@ -51856,15 +51859,15 @@
         <v>209</v>
       </c>
       <c r="D281" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E281" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B282" t="s">
         <v>262</v>
@@ -51873,15 +51876,15 @@
         <v>210</v>
       </c>
       <c r="D282" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E282" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B283" t="s">
         <v>262</v>
@@ -51890,15 +51893,15 @@
         <v>213</v>
       </c>
       <c r="D283" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E283" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B284" t="s">
         <v>262</v>
@@ -51907,15 +51910,15 @@
         <v>214</v>
       </c>
       <c r="D284" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E284" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B285" t="s">
         <v>262</v>
@@ -51924,15 +51927,15 @@
         <v>215</v>
       </c>
       <c r="D285" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E285" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B286" t="s">
         <v>262</v>
@@ -51941,15 +51944,15 @@
         <v>216</v>
       </c>
       <c r="D286" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E286" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B287" t="s">
         <v>262</v>
@@ -51958,15 +51961,15 @@
         <v>217</v>
       </c>
       <c r="D287" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E287" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B288" t="s">
         <v>262</v>
@@ -51975,15 +51978,15 @@
         <v>218</v>
       </c>
       <c r="D288" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E288" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B289" t="s">
         <v>262</v>
@@ -51992,15 +51995,15 @@
         <v>219</v>
       </c>
       <c r="D289" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E289" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B290" t="s">
         <v>262</v>
@@ -52009,15 +52012,15 @@
         <v>220</v>
       </c>
       <c r="D290" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E290" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B291" t="s">
         <v>262</v>
@@ -52026,15 +52029,15 @@
         <v>221</v>
       </c>
       <c r="D291" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E291" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B292" t="s">
         <v>262</v>
@@ -52043,15 +52046,15 @@
         <v>222</v>
       </c>
       <c r="D292" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E292" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B293" t="s">
         <v>262</v>
@@ -52060,15 +52063,15 @@
         <v>223</v>
       </c>
       <c r="D293" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E293" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B294" t="s">
         <v>262</v>
@@ -52077,15 +52080,15 @@
         <v>224</v>
       </c>
       <c r="D294" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E294" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B295" t="s">
         <v>262</v>
@@ -52094,15 +52097,15 @@
         <v>225</v>
       </c>
       <c r="D295" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E295" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B296" t="s">
         <v>262</v>
@@ -52111,15 +52114,15 @@
         <v>226</v>
       </c>
       <c r="D296" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E296" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B297" t="s">
         <v>262</v>
@@ -52128,15 +52131,15 @@
         <v>227</v>
       </c>
       <c r="D297" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E297" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B298" t="s">
         <v>262</v>
@@ -52145,15 +52148,15 @@
         <v>228</v>
       </c>
       <c r="D298" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E298" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B299" t="s">
         <v>262</v>
@@ -52162,15 +52165,15 @@
         <v>229</v>
       </c>
       <c r="D299" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E299" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B300" t="s">
         <v>262</v>
@@ -52179,15 +52182,15 @@
         <v>230</v>
       </c>
       <c r="D300" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E300" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B301" t="s">
         <v>262</v>
@@ -52196,15 +52199,15 @@
         <v>231</v>
       </c>
       <c r="D301" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E301" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B302" t="s">
         <v>262</v>
@@ -52213,15 +52216,15 @@
         <v>232</v>
       </c>
       <c r="D302" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E302" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B303" t="s">
         <v>262</v>
@@ -52230,15 +52233,15 @@
         <v>233</v>
       </c>
       <c r="D303" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E303" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B304" t="s">
         <v>262</v>
@@ -52247,15 +52250,15 @@
         <v>234</v>
       </c>
       <c r="D304" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E304" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B305" t="s">
         <v>262</v>
@@ -52264,15 +52267,15 @@
         <v>235</v>
       </c>
       <c r="D305" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E305" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B306" t="s">
         <v>262</v>
@@ -52281,15 +52284,15 @@
         <v>236</v>
       </c>
       <c r="D306" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E306" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B307" t="s">
         <v>262</v>
@@ -52298,15 +52301,15 @@
         <v>237</v>
       </c>
       <c r="D307" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E307" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B308" t="s">
         <v>262</v>
@@ -52315,15 +52318,15 @@
         <v>238</v>
       </c>
       <c r="D308" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E308" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B309" t="s">
         <v>262</v>
@@ -52332,15 +52335,15 @@
         <v>239</v>
       </c>
       <c r="D309" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E309" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B310" t="s">
         <v>262</v>
@@ -52349,15 +52352,15 @@
         <v>240</v>
       </c>
       <c r="D310" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E310" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B311" t="s">
         <v>262</v>
@@ -52366,15 +52369,15 @@
         <v>241</v>
       </c>
       <c r="D311" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E311" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B312" t="s">
         <v>262</v>
@@ -52383,15 +52386,15 @@
         <v>242</v>
       </c>
       <c r="D312" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E312" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B313" t="s">
         <v>262</v>
@@ -52400,15 +52403,15 @@
         <v>243</v>
       </c>
       <c r="D313" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E313" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B314" t="s">
         <v>262</v>
@@ -52417,15 +52420,15 @@
         <v>246</v>
       </c>
       <c r="D314" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E314" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B315" t="s">
         <v>262</v>
@@ -52434,15 +52437,15 @@
         <v>247</v>
       </c>
       <c r="D315" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E315" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B316" t="s">
         <v>262</v>
@@ -52451,15 +52454,15 @@
         <v>248</v>
       </c>
       <c r="D316" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E316" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B317" t="s">
         <v>262</v>
@@ -52468,10 +52471,2696 @@
         <v>249</v>
       </c>
       <c r="D317" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E317" t="s">
-        <v>447</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>452</v>
+      </c>
+      <c r="B318" t="s">
+        <v>262</v>
+      </c>
+      <c r="C318" t="s">
+        <v>56</v>
+      </c>
+      <c r="D318" t="s">
+        <v>442</v>
+      </c>
+      <c r="E318" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>452</v>
+      </c>
+      <c r="B319" t="s">
+        <v>262</v>
+      </c>
+      <c r="C319" t="s">
+        <v>62</v>
+      </c>
+      <c r="D319" t="s">
+        <v>442</v>
+      </c>
+      <c r="E319" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>452</v>
+      </c>
+      <c r="B320" t="s">
+        <v>262</v>
+      </c>
+      <c r="C320" t="s">
+        <v>63</v>
+      </c>
+      <c r="D320" t="s">
+        <v>442</v>
+      </c>
+      <c r="E320" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>452</v>
+      </c>
+      <c r="B321" t="s">
+        <v>262</v>
+      </c>
+      <c r="C321" t="s">
+        <v>68</v>
+      </c>
+      <c r="D321" t="s">
+        <v>442</v>
+      </c>
+      <c r="E321" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>452</v>
+      </c>
+      <c r="B322" t="s">
+        <v>262</v>
+      </c>
+      <c r="C322" t="s">
+        <v>69</v>
+      </c>
+      <c r="D322" t="s">
+        <v>442</v>
+      </c>
+      <c r="E322" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>452</v>
+      </c>
+      <c r="B323" t="s">
+        <v>262</v>
+      </c>
+      <c r="C323" t="s">
+        <v>70</v>
+      </c>
+      <c r="D323" t="s">
+        <v>442</v>
+      </c>
+      <c r="E323" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>452</v>
+      </c>
+      <c r="B324" t="s">
+        <v>262</v>
+      </c>
+      <c r="C324" t="s">
+        <v>71</v>
+      </c>
+      <c r="D324" t="s">
+        <v>442</v>
+      </c>
+      <c r="E324" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>452</v>
+      </c>
+      <c r="B325" t="s">
+        <v>262</v>
+      </c>
+      <c r="C325" t="s">
+        <v>72</v>
+      </c>
+      <c r="D325" t="s">
+        <v>442</v>
+      </c>
+      <c r="E325" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>452</v>
+      </c>
+      <c r="B326" t="s">
+        <v>262</v>
+      </c>
+      <c r="C326" t="s">
+        <v>73</v>
+      </c>
+      <c r="D326" t="s">
+        <v>442</v>
+      </c>
+      <c r="E326" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>452</v>
+      </c>
+      <c r="B327" t="s">
+        <v>262</v>
+      </c>
+      <c r="C327" t="s">
+        <v>78</v>
+      </c>
+      <c r="D327" t="s">
+        <v>442</v>
+      </c>
+      <c r="E327" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>452</v>
+      </c>
+      <c r="B328" t="s">
+        <v>262</v>
+      </c>
+      <c r="C328" t="s">
+        <v>81</v>
+      </c>
+      <c r="D328" t="s">
+        <v>442</v>
+      </c>
+      <c r="E328" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>452</v>
+      </c>
+      <c r="B329" t="s">
+        <v>262</v>
+      </c>
+      <c r="C329" t="s">
+        <v>82</v>
+      </c>
+      <c r="D329" t="s">
+        <v>442</v>
+      </c>
+      <c r="E329" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>452</v>
+      </c>
+      <c r="B330" t="s">
+        <v>262</v>
+      </c>
+      <c r="C330" t="s">
+        <v>83</v>
+      </c>
+      <c r="D330" t="s">
+        <v>442</v>
+      </c>
+      <c r="E330" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>452</v>
+      </c>
+      <c r="B331" t="s">
+        <v>262</v>
+      </c>
+      <c r="C331" t="s">
+        <v>84</v>
+      </c>
+      <c r="D331" t="s">
+        <v>442</v>
+      </c>
+      <c r="E331" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>452</v>
+      </c>
+      <c r="B332" t="s">
+        <v>262</v>
+      </c>
+      <c r="C332" t="s">
+        <v>88</v>
+      </c>
+      <c r="D332" t="s">
+        <v>442</v>
+      </c>
+      <c r="E332" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>452</v>
+      </c>
+      <c r="B333" t="s">
+        <v>262</v>
+      </c>
+      <c r="C333" t="s">
+        <v>89</v>
+      </c>
+      <c r="D333" t="s">
+        <v>442</v>
+      </c>
+      <c r="E333" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>452</v>
+      </c>
+      <c r="B334" t="s">
+        <v>262</v>
+      </c>
+      <c r="C334" t="s">
+        <v>91</v>
+      </c>
+      <c r="D334" t="s">
+        <v>442</v>
+      </c>
+      <c r="E334" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>452</v>
+      </c>
+      <c r="B335" t="s">
+        <v>262</v>
+      </c>
+      <c r="C335" t="s">
+        <v>92</v>
+      </c>
+      <c r="D335" t="s">
+        <v>442</v>
+      </c>
+      <c r="E335" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>452</v>
+      </c>
+      <c r="B336" t="s">
+        <v>262</v>
+      </c>
+      <c r="C336" t="s">
+        <v>93</v>
+      </c>
+      <c r="D336" t="s">
+        <v>442</v>
+      </c>
+      <c r="E336" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>452</v>
+      </c>
+      <c r="B337" t="s">
+        <v>262</v>
+      </c>
+      <c r="C337" t="s">
+        <v>94</v>
+      </c>
+      <c r="D337" t="s">
+        <v>442</v>
+      </c>
+      <c r="E337" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>452</v>
+      </c>
+      <c r="B338" t="s">
+        <v>262</v>
+      </c>
+      <c r="C338" t="s">
+        <v>96</v>
+      </c>
+      <c r="D338" t="s">
+        <v>442</v>
+      </c>
+      <c r="E338" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>452</v>
+      </c>
+      <c r="B339" t="s">
+        <v>262</v>
+      </c>
+      <c r="C339" t="s">
+        <v>97</v>
+      </c>
+      <c r="D339" t="s">
+        <v>442</v>
+      </c>
+      <c r="E339" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>452</v>
+      </c>
+      <c r="B340" t="s">
+        <v>262</v>
+      </c>
+      <c r="C340" t="s">
+        <v>98</v>
+      </c>
+      <c r="D340" t="s">
+        <v>442</v>
+      </c>
+      <c r="E340" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>452</v>
+      </c>
+      <c r="B341" t="s">
+        <v>262</v>
+      </c>
+      <c r="C341" t="s">
+        <v>99</v>
+      </c>
+      <c r="D341" t="s">
+        <v>442</v>
+      </c>
+      <c r="E341" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>452</v>
+      </c>
+      <c r="B342" t="s">
+        <v>262</v>
+      </c>
+      <c r="C342" t="s">
+        <v>100</v>
+      </c>
+      <c r="D342" t="s">
+        <v>442</v>
+      </c>
+      <c r="E342" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>452</v>
+      </c>
+      <c r="B343" t="s">
+        <v>262</v>
+      </c>
+      <c r="C343" t="s">
+        <v>101</v>
+      </c>
+      <c r="D343" t="s">
+        <v>442</v>
+      </c>
+      <c r="E343" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>452</v>
+      </c>
+      <c r="B344" t="s">
+        <v>262</v>
+      </c>
+      <c r="C344" t="s">
+        <v>102</v>
+      </c>
+      <c r="D344" t="s">
+        <v>442</v>
+      </c>
+      <c r="E344" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>452</v>
+      </c>
+      <c r="B345" t="s">
+        <v>262</v>
+      </c>
+      <c r="C345" t="s">
+        <v>103</v>
+      </c>
+      <c r="D345" t="s">
+        <v>442</v>
+      </c>
+      <c r="E345" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>452</v>
+      </c>
+      <c r="B346" t="s">
+        <v>262</v>
+      </c>
+      <c r="C346" t="s">
+        <v>104</v>
+      </c>
+      <c r="D346" t="s">
+        <v>442</v>
+      </c>
+      <c r="E346" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>452</v>
+      </c>
+      <c r="B347" t="s">
+        <v>262</v>
+      </c>
+      <c r="C347" t="s">
+        <v>105</v>
+      </c>
+      <c r="D347" t="s">
+        <v>442</v>
+      </c>
+      <c r="E347" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>452</v>
+      </c>
+      <c r="B348" t="s">
+        <v>262</v>
+      </c>
+      <c r="C348" t="s">
+        <v>106</v>
+      </c>
+      <c r="D348" t="s">
+        <v>442</v>
+      </c>
+      <c r="E348" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>452</v>
+      </c>
+      <c r="B349" t="s">
+        <v>262</v>
+      </c>
+      <c r="C349" t="s">
+        <v>107</v>
+      </c>
+      <c r="D349" t="s">
+        <v>442</v>
+      </c>
+      <c r="E349" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>452</v>
+      </c>
+      <c r="B350" t="s">
+        <v>262</v>
+      </c>
+      <c r="C350" t="s">
+        <v>108</v>
+      </c>
+      <c r="D350" t="s">
+        <v>442</v>
+      </c>
+      <c r="E350" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>452</v>
+      </c>
+      <c r="B351" t="s">
+        <v>262</v>
+      </c>
+      <c r="C351" t="s">
+        <v>109</v>
+      </c>
+      <c r="D351" t="s">
+        <v>442</v>
+      </c>
+      <c r="E351" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>452</v>
+      </c>
+      <c r="B352" t="s">
+        <v>262</v>
+      </c>
+      <c r="C352" t="s">
+        <v>110</v>
+      </c>
+      <c r="D352" t="s">
+        <v>442</v>
+      </c>
+      <c r="E352" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>452</v>
+      </c>
+      <c r="B353" t="s">
+        <v>262</v>
+      </c>
+      <c r="C353" t="s">
+        <v>111</v>
+      </c>
+      <c r="D353" t="s">
+        <v>442</v>
+      </c>
+      <c r="E353" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>452</v>
+      </c>
+      <c r="B354" t="s">
+        <v>262</v>
+      </c>
+      <c r="C354" t="s">
+        <v>112</v>
+      </c>
+      <c r="D354" t="s">
+        <v>442</v>
+      </c>
+      <c r="E354" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>452</v>
+      </c>
+      <c r="B355" t="s">
+        <v>262</v>
+      </c>
+      <c r="C355" t="s">
+        <v>113</v>
+      </c>
+      <c r="D355" t="s">
+        <v>442</v>
+      </c>
+      <c r="E355" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>452</v>
+      </c>
+      <c r="B356" t="s">
+        <v>262</v>
+      </c>
+      <c r="C356" t="s">
+        <v>114</v>
+      </c>
+      <c r="D356" t="s">
+        <v>442</v>
+      </c>
+      <c r="E356" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>452</v>
+      </c>
+      <c r="B357" t="s">
+        <v>262</v>
+      </c>
+      <c r="C357" t="s">
+        <v>115</v>
+      </c>
+      <c r="D357" t="s">
+        <v>442</v>
+      </c>
+      <c r="E357" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>452</v>
+      </c>
+      <c r="B358" t="s">
+        <v>262</v>
+      </c>
+      <c r="C358" t="s">
+        <v>116</v>
+      </c>
+      <c r="D358" t="s">
+        <v>442</v>
+      </c>
+      <c r="E358" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>452</v>
+      </c>
+      <c r="B359" t="s">
+        <v>262</v>
+      </c>
+      <c r="C359" t="s">
+        <v>117</v>
+      </c>
+      <c r="D359" t="s">
+        <v>442</v>
+      </c>
+      <c r="E359" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>452</v>
+      </c>
+      <c r="B360" t="s">
+        <v>262</v>
+      </c>
+      <c r="C360" t="s">
+        <v>118</v>
+      </c>
+      <c r="D360" t="s">
+        <v>442</v>
+      </c>
+      <c r="E360" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>452</v>
+      </c>
+      <c r="B361" t="s">
+        <v>262</v>
+      </c>
+      <c r="C361" t="s">
+        <v>119</v>
+      </c>
+      <c r="D361" t="s">
+        <v>442</v>
+      </c>
+      <c r="E361" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>452</v>
+      </c>
+      <c r="B362" t="s">
+        <v>262</v>
+      </c>
+      <c r="C362" t="s">
+        <v>120</v>
+      </c>
+      <c r="D362" t="s">
+        <v>442</v>
+      </c>
+      <c r="E362" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>452</v>
+      </c>
+      <c r="B363" t="s">
+        <v>262</v>
+      </c>
+      <c r="C363" t="s">
+        <v>121</v>
+      </c>
+      <c r="D363" t="s">
+        <v>442</v>
+      </c>
+      <c r="E363" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>452</v>
+      </c>
+      <c r="B364" t="s">
+        <v>262</v>
+      </c>
+      <c r="C364" t="s">
+        <v>122</v>
+      </c>
+      <c r="D364" t="s">
+        <v>442</v>
+      </c>
+      <c r="E364" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>452</v>
+      </c>
+      <c r="B365" t="s">
+        <v>262</v>
+      </c>
+      <c r="C365" t="s">
+        <v>123</v>
+      </c>
+      <c r="D365" t="s">
+        <v>442</v>
+      </c>
+      <c r="E365" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>452</v>
+      </c>
+      <c r="B366" t="s">
+        <v>262</v>
+      </c>
+      <c r="C366" t="s">
+        <v>124</v>
+      </c>
+      <c r="D366" t="s">
+        <v>442</v>
+      </c>
+      <c r="E366" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>452</v>
+      </c>
+      <c r="B367" t="s">
+        <v>262</v>
+      </c>
+      <c r="C367" t="s">
+        <v>125</v>
+      </c>
+      <c r="D367" t="s">
+        <v>442</v>
+      </c>
+      <c r="E367" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>452</v>
+      </c>
+      <c r="B368" t="s">
+        <v>262</v>
+      </c>
+      <c r="C368" t="s">
+        <v>126</v>
+      </c>
+      <c r="D368" t="s">
+        <v>442</v>
+      </c>
+      <c r="E368" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>452</v>
+      </c>
+      <c r="B369" t="s">
+        <v>262</v>
+      </c>
+      <c r="C369" t="s">
+        <v>127</v>
+      </c>
+      <c r="D369" t="s">
+        <v>442</v>
+      </c>
+      <c r="E369" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>452</v>
+      </c>
+      <c r="B370" t="s">
+        <v>262</v>
+      </c>
+      <c r="C370" t="s">
+        <v>128</v>
+      </c>
+      <c r="D370" t="s">
+        <v>442</v>
+      </c>
+      <c r="E370" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>452</v>
+      </c>
+      <c r="B371" t="s">
+        <v>262</v>
+      </c>
+      <c r="C371" t="s">
+        <v>129</v>
+      </c>
+      <c r="D371" t="s">
+        <v>442</v>
+      </c>
+      <c r="E371" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>452</v>
+      </c>
+      <c r="B372" t="s">
+        <v>262</v>
+      </c>
+      <c r="C372" t="s">
+        <v>130</v>
+      </c>
+      <c r="D372" t="s">
+        <v>442</v>
+      </c>
+      <c r="E372" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>452</v>
+      </c>
+      <c r="B373" t="s">
+        <v>262</v>
+      </c>
+      <c r="C373" t="s">
+        <v>131</v>
+      </c>
+      <c r="D373" t="s">
+        <v>442</v>
+      </c>
+      <c r="E373" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>452</v>
+      </c>
+      <c r="B374" t="s">
+        <v>262</v>
+      </c>
+      <c r="C374" t="s">
+        <v>132</v>
+      </c>
+      <c r="D374" t="s">
+        <v>442</v>
+      </c>
+      <c r="E374" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>452</v>
+      </c>
+      <c r="B375" t="s">
+        <v>262</v>
+      </c>
+      <c r="C375" t="s">
+        <v>133</v>
+      </c>
+      <c r="D375" t="s">
+        <v>442</v>
+      </c>
+      <c r="E375" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>452</v>
+      </c>
+      <c r="B376" t="s">
+        <v>262</v>
+      </c>
+      <c r="C376" t="s">
+        <v>134</v>
+      </c>
+      <c r="D376" t="s">
+        <v>442</v>
+      </c>
+      <c r="E376" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>452</v>
+      </c>
+      <c r="B377" t="s">
+        <v>262</v>
+      </c>
+      <c r="C377" t="s">
+        <v>135</v>
+      </c>
+      <c r="D377" t="s">
+        <v>442</v>
+      </c>
+      <c r="E377" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>452</v>
+      </c>
+      <c r="B378" t="s">
+        <v>262</v>
+      </c>
+      <c r="C378" t="s">
+        <v>136</v>
+      </c>
+      <c r="D378" t="s">
+        <v>442</v>
+      </c>
+      <c r="E378" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>452</v>
+      </c>
+      <c r="B379" t="s">
+        <v>262</v>
+      </c>
+      <c r="C379" t="s">
+        <v>137</v>
+      </c>
+      <c r="D379" t="s">
+        <v>442</v>
+      </c>
+      <c r="E379" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>452</v>
+      </c>
+      <c r="B380" t="s">
+        <v>262</v>
+      </c>
+      <c r="C380" t="s">
+        <v>138</v>
+      </c>
+      <c r="D380" t="s">
+        <v>442</v>
+      </c>
+      <c r="E380" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>452</v>
+      </c>
+      <c r="B381" t="s">
+        <v>262</v>
+      </c>
+      <c r="C381" t="s">
+        <v>139</v>
+      </c>
+      <c r="D381" t="s">
+        <v>442</v>
+      </c>
+      <c r="E381" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>452</v>
+      </c>
+      <c r="B382" t="s">
+        <v>262</v>
+      </c>
+      <c r="C382" t="s">
+        <v>140</v>
+      </c>
+      <c r="D382" t="s">
+        <v>442</v>
+      </c>
+      <c r="E382" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>452</v>
+      </c>
+      <c r="B383" t="s">
+        <v>262</v>
+      </c>
+      <c r="C383" t="s">
+        <v>141</v>
+      </c>
+      <c r="D383" t="s">
+        <v>442</v>
+      </c>
+      <c r="E383" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>452</v>
+      </c>
+      <c r="B384" t="s">
+        <v>262</v>
+      </c>
+      <c r="C384" t="s">
+        <v>142</v>
+      </c>
+      <c r="D384" t="s">
+        <v>442</v>
+      </c>
+      <c r="E384" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>452</v>
+      </c>
+      <c r="B385" t="s">
+        <v>262</v>
+      </c>
+      <c r="C385" t="s">
+        <v>143</v>
+      </c>
+      <c r="D385" t="s">
+        <v>442</v>
+      </c>
+      <c r="E385" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>452</v>
+      </c>
+      <c r="B386" t="s">
+        <v>262</v>
+      </c>
+      <c r="C386" t="s">
+        <v>144</v>
+      </c>
+      <c r="D386" t="s">
+        <v>442</v>
+      </c>
+      <c r="E386" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>452</v>
+      </c>
+      <c r="B387" t="s">
+        <v>262</v>
+      </c>
+      <c r="C387" t="s">
+        <v>145</v>
+      </c>
+      <c r="D387" t="s">
+        <v>442</v>
+      </c>
+      <c r="E387" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>452</v>
+      </c>
+      <c r="B388" t="s">
+        <v>262</v>
+      </c>
+      <c r="C388" t="s">
+        <v>146</v>
+      </c>
+      <c r="D388" t="s">
+        <v>442</v>
+      </c>
+      <c r="E388" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>452</v>
+      </c>
+      <c r="B389" t="s">
+        <v>262</v>
+      </c>
+      <c r="C389" t="s">
+        <v>147</v>
+      </c>
+      <c r="D389" t="s">
+        <v>442</v>
+      </c>
+      <c r="E389" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>452</v>
+      </c>
+      <c r="B390" t="s">
+        <v>262</v>
+      </c>
+      <c r="C390" t="s">
+        <v>148</v>
+      </c>
+      <c r="D390" t="s">
+        <v>442</v>
+      </c>
+      <c r="E390" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>452</v>
+      </c>
+      <c r="B391" t="s">
+        <v>262</v>
+      </c>
+      <c r="C391" t="s">
+        <v>151</v>
+      </c>
+      <c r="D391" t="s">
+        <v>442</v>
+      </c>
+      <c r="E391" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>452</v>
+      </c>
+      <c r="B392" t="s">
+        <v>262</v>
+      </c>
+      <c r="C392" t="s">
+        <v>155</v>
+      </c>
+      <c r="D392" t="s">
+        <v>442</v>
+      </c>
+      <c r="E392" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>452</v>
+      </c>
+      <c r="B393" t="s">
+        <v>262</v>
+      </c>
+      <c r="C393" t="s">
+        <v>159</v>
+      </c>
+      <c r="D393" t="s">
+        <v>442</v>
+      </c>
+      <c r="E393" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>452</v>
+      </c>
+      <c r="B394" t="s">
+        <v>262</v>
+      </c>
+      <c r="C394" t="s">
+        <v>160</v>
+      </c>
+      <c r="D394" t="s">
+        <v>442</v>
+      </c>
+      <c r="E394" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>452</v>
+      </c>
+      <c r="B395" t="s">
+        <v>262</v>
+      </c>
+      <c r="C395" t="s">
+        <v>161</v>
+      </c>
+      <c r="D395" t="s">
+        <v>442</v>
+      </c>
+      <c r="E395" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>452</v>
+      </c>
+      <c r="B396" t="s">
+        <v>262</v>
+      </c>
+      <c r="C396" t="s">
+        <v>162</v>
+      </c>
+      <c r="D396" t="s">
+        <v>442</v>
+      </c>
+      <c r="E396" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>452</v>
+      </c>
+      <c r="B397" t="s">
+        <v>262</v>
+      </c>
+      <c r="C397" t="s">
+        <v>163</v>
+      </c>
+      <c r="D397" t="s">
+        <v>442</v>
+      </c>
+      <c r="E397" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>452</v>
+      </c>
+      <c r="B398" t="s">
+        <v>262</v>
+      </c>
+      <c r="C398" t="s">
+        <v>164</v>
+      </c>
+      <c r="D398" t="s">
+        <v>442</v>
+      </c>
+      <c r="E398" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>452</v>
+      </c>
+      <c r="B399" t="s">
+        <v>262</v>
+      </c>
+      <c r="C399" t="s">
+        <v>165</v>
+      </c>
+      <c r="D399" t="s">
+        <v>442</v>
+      </c>
+      <c r="E399" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>452</v>
+      </c>
+      <c r="B400" t="s">
+        <v>262</v>
+      </c>
+      <c r="C400" t="s">
+        <v>166</v>
+      </c>
+      <c r="D400" t="s">
+        <v>442</v>
+      </c>
+      <c r="E400" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>452</v>
+      </c>
+      <c r="B401" t="s">
+        <v>262</v>
+      </c>
+      <c r="C401" t="s">
+        <v>167</v>
+      </c>
+      <c r="D401" t="s">
+        <v>442</v>
+      </c>
+      <c r="E401" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>452</v>
+      </c>
+      <c r="B402" t="s">
+        <v>262</v>
+      </c>
+      <c r="C402" t="s">
+        <v>168</v>
+      </c>
+      <c r="D402" t="s">
+        <v>442</v>
+      </c>
+      <c r="E402" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>452</v>
+      </c>
+      <c r="B403" t="s">
+        <v>262</v>
+      </c>
+      <c r="C403" t="s">
+        <v>169</v>
+      </c>
+      <c r="D403" t="s">
+        <v>442</v>
+      </c>
+      <c r="E403" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>452</v>
+      </c>
+      <c r="B404" t="s">
+        <v>262</v>
+      </c>
+      <c r="C404" t="s">
+        <v>170</v>
+      </c>
+      <c r="D404" t="s">
+        <v>442</v>
+      </c>
+      <c r="E404" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>452</v>
+      </c>
+      <c r="B405" t="s">
+        <v>262</v>
+      </c>
+      <c r="C405" t="s">
+        <v>171</v>
+      </c>
+      <c r="D405" t="s">
+        <v>442</v>
+      </c>
+      <c r="E405" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>452</v>
+      </c>
+      <c r="B406" t="s">
+        <v>262</v>
+      </c>
+      <c r="C406" t="s">
+        <v>172</v>
+      </c>
+      <c r="D406" t="s">
+        <v>442</v>
+      </c>
+      <c r="E406" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>452</v>
+      </c>
+      <c r="B407" t="s">
+        <v>262</v>
+      </c>
+      <c r="C407" t="s">
+        <v>173</v>
+      </c>
+      <c r="D407" t="s">
+        <v>442</v>
+      </c>
+      <c r="E407" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>452</v>
+      </c>
+      <c r="B408" t="s">
+        <v>262</v>
+      </c>
+      <c r="C408" t="s">
+        <v>174</v>
+      </c>
+      <c r="D408" t="s">
+        <v>442</v>
+      </c>
+      <c r="E408" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>452</v>
+      </c>
+      <c r="B409" t="s">
+        <v>262</v>
+      </c>
+      <c r="C409" t="s">
+        <v>175</v>
+      </c>
+      <c r="D409" t="s">
+        <v>442</v>
+      </c>
+      <c r="E409" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>452</v>
+      </c>
+      <c r="B410" t="s">
+        <v>262</v>
+      </c>
+      <c r="C410" t="s">
+        <v>176</v>
+      </c>
+      <c r="D410" t="s">
+        <v>442</v>
+      </c>
+      <c r="E410" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>452</v>
+      </c>
+      <c r="B411" t="s">
+        <v>262</v>
+      </c>
+      <c r="C411" t="s">
+        <v>177</v>
+      </c>
+      <c r="D411" t="s">
+        <v>442</v>
+      </c>
+      <c r="E411" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>452</v>
+      </c>
+      <c r="B412" t="s">
+        <v>262</v>
+      </c>
+      <c r="C412" t="s">
+        <v>178</v>
+      </c>
+      <c r="D412" t="s">
+        <v>442</v>
+      </c>
+      <c r="E412" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>452</v>
+      </c>
+      <c r="B413" t="s">
+        <v>262</v>
+      </c>
+      <c r="C413" t="s">
+        <v>179</v>
+      </c>
+      <c r="D413" t="s">
+        <v>442</v>
+      </c>
+      <c r="E413" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>452</v>
+      </c>
+      <c r="B414" t="s">
+        <v>262</v>
+      </c>
+      <c r="C414" t="s">
+        <v>180</v>
+      </c>
+      <c r="D414" t="s">
+        <v>442</v>
+      </c>
+      <c r="E414" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>452</v>
+      </c>
+      <c r="B415" t="s">
+        <v>262</v>
+      </c>
+      <c r="C415" t="s">
+        <v>184</v>
+      </c>
+      <c r="D415" t="s">
+        <v>442</v>
+      </c>
+      <c r="E415" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>452</v>
+      </c>
+      <c r="B416" t="s">
+        <v>262</v>
+      </c>
+      <c r="C416" t="s">
+        <v>185</v>
+      </c>
+      <c r="D416" t="s">
+        <v>442</v>
+      </c>
+      <c r="E416" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>452</v>
+      </c>
+      <c r="B417" t="s">
+        <v>262</v>
+      </c>
+      <c r="C417" t="s">
+        <v>186</v>
+      </c>
+      <c r="D417" t="s">
+        <v>442</v>
+      </c>
+      <c r="E417" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>452</v>
+      </c>
+      <c r="B418" t="s">
+        <v>262</v>
+      </c>
+      <c r="C418" t="s">
+        <v>187</v>
+      </c>
+      <c r="D418" t="s">
+        <v>442</v>
+      </c>
+      <c r="E418" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>452</v>
+      </c>
+      <c r="B419" t="s">
+        <v>262</v>
+      </c>
+      <c r="C419" t="s">
+        <v>188</v>
+      </c>
+      <c r="D419" t="s">
+        <v>442</v>
+      </c>
+      <c r="E419" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>452</v>
+      </c>
+      <c r="B420" t="s">
+        <v>262</v>
+      </c>
+      <c r="C420" t="s">
+        <v>189</v>
+      </c>
+      <c r="D420" t="s">
+        <v>442</v>
+      </c>
+      <c r="E420" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>452</v>
+      </c>
+      <c r="B421" t="s">
+        <v>262</v>
+      </c>
+      <c r="C421" t="s">
+        <v>190</v>
+      </c>
+      <c r="D421" t="s">
+        <v>442</v>
+      </c>
+      <c r="E421" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>452</v>
+      </c>
+      <c r="B422" t="s">
+        <v>262</v>
+      </c>
+      <c r="C422" t="s">
+        <v>191</v>
+      </c>
+      <c r="D422" t="s">
+        <v>442</v>
+      </c>
+      <c r="E422" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>452</v>
+      </c>
+      <c r="B423" t="s">
+        <v>262</v>
+      </c>
+      <c r="C423" t="s">
+        <v>192</v>
+      </c>
+      <c r="D423" t="s">
+        <v>442</v>
+      </c>
+      <c r="E423" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>452</v>
+      </c>
+      <c r="B424" t="s">
+        <v>262</v>
+      </c>
+      <c r="C424" t="s">
+        <v>193</v>
+      </c>
+      <c r="D424" t="s">
+        <v>442</v>
+      </c>
+      <c r="E424" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>452</v>
+      </c>
+      <c r="B425" t="s">
+        <v>262</v>
+      </c>
+      <c r="C425" t="s">
+        <v>194</v>
+      </c>
+      <c r="D425" t="s">
+        <v>442</v>
+      </c>
+      <c r="E425" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>452</v>
+      </c>
+      <c r="B426" t="s">
+        <v>262</v>
+      </c>
+      <c r="C426" t="s">
+        <v>195</v>
+      </c>
+      <c r="D426" t="s">
+        <v>442</v>
+      </c>
+      <c r="E426" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>452</v>
+      </c>
+      <c r="B427" t="s">
+        <v>262</v>
+      </c>
+      <c r="C427" t="s">
+        <v>196</v>
+      </c>
+      <c r="D427" t="s">
+        <v>442</v>
+      </c>
+      <c r="E427" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>452</v>
+      </c>
+      <c r="B428" t="s">
+        <v>262</v>
+      </c>
+      <c r="C428" t="s">
+        <v>197</v>
+      </c>
+      <c r="D428" t="s">
+        <v>442</v>
+      </c>
+      <c r="E428" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>452</v>
+      </c>
+      <c r="B429" t="s">
+        <v>262</v>
+      </c>
+      <c r="C429" t="s">
+        <v>198</v>
+      </c>
+      <c r="D429" t="s">
+        <v>442</v>
+      </c>
+      <c r="E429" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>452</v>
+      </c>
+      <c r="B430" t="s">
+        <v>262</v>
+      </c>
+      <c r="C430" t="s">
+        <v>199</v>
+      </c>
+      <c r="D430" t="s">
+        <v>442</v>
+      </c>
+      <c r="E430" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>452</v>
+      </c>
+      <c r="B431" t="s">
+        <v>262</v>
+      </c>
+      <c r="C431" t="s">
+        <v>200</v>
+      </c>
+      <c r="D431" t="s">
+        <v>442</v>
+      </c>
+      <c r="E431" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>452</v>
+      </c>
+      <c r="B432" t="s">
+        <v>262</v>
+      </c>
+      <c r="C432" t="s">
+        <v>201</v>
+      </c>
+      <c r="D432" t="s">
+        <v>442</v>
+      </c>
+      <c r="E432" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>452</v>
+      </c>
+      <c r="B433" t="s">
+        <v>262</v>
+      </c>
+      <c r="C433" t="s">
+        <v>202</v>
+      </c>
+      <c r="D433" t="s">
+        <v>442</v>
+      </c>
+      <c r="E433" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>452</v>
+      </c>
+      <c r="B434" t="s">
+        <v>262</v>
+      </c>
+      <c r="C434" t="s">
+        <v>203</v>
+      </c>
+      <c r="D434" t="s">
+        <v>442</v>
+      </c>
+      <c r="E434" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>452</v>
+      </c>
+      <c r="B435" t="s">
+        <v>262</v>
+      </c>
+      <c r="C435" t="s">
+        <v>205</v>
+      </c>
+      <c r="D435" t="s">
+        <v>442</v>
+      </c>
+      <c r="E435" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>452</v>
+      </c>
+      <c r="B436" t="s">
+        <v>262</v>
+      </c>
+      <c r="C436" t="s">
+        <v>206</v>
+      </c>
+      <c r="D436" t="s">
+        <v>442</v>
+      </c>
+      <c r="E436" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>452</v>
+      </c>
+      <c r="B437" t="s">
+        <v>262</v>
+      </c>
+      <c r="C437" t="s">
+        <v>207</v>
+      </c>
+      <c r="D437" t="s">
+        <v>442</v>
+      </c>
+      <c r="E437" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>452</v>
+      </c>
+      <c r="B438" t="s">
+        <v>262</v>
+      </c>
+      <c r="C438" t="s">
+        <v>208</v>
+      </c>
+      <c r="D438" t="s">
+        <v>442</v>
+      </c>
+      <c r="E438" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>452</v>
+      </c>
+      <c r="B439" t="s">
+        <v>262</v>
+      </c>
+      <c r="C439" t="s">
+        <v>209</v>
+      </c>
+      <c r="D439" t="s">
+        <v>442</v>
+      </c>
+      <c r="E439" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>452</v>
+      </c>
+      <c r="B440" t="s">
+        <v>262</v>
+      </c>
+      <c r="C440" t="s">
+        <v>210</v>
+      </c>
+      <c r="D440" t="s">
+        <v>442</v>
+      </c>
+      <c r="E440" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>452</v>
+      </c>
+      <c r="B441" t="s">
+        <v>262</v>
+      </c>
+      <c r="C441" t="s">
+        <v>213</v>
+      </c>
+      <c r="D441" t="s">
+        <v>442</v>
+      </c>
+      <c r="E441" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>452</v>
+      </c>
+      <c r="B442" t="s">
+        <v>262</v>
+      </c>
+      <c r="C442" t="s">
+        <v>214</v>
+      </c>
+      <c r="D442" t="s">
+        <v>442</v>
+      </c>
+      <c r="E442" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>452</v>
+      </c>
+      <c r="B443" t="s">
+        <v>262</v>
+      </c>
+      <c r="C443" t="s">
+        <v>215</v>
+      </c>
+      <c r="D443" t="s">
+        <v>442</v>
+      </c>
+      <c r="E443" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>452</v>
+      </c>
+      <c r="B444" t="s">
+        <v>262</v>
+      </c>
+      <c r="C444" t="s">
+        <v>216</v>
+      </c>
+      <c r="D444" t="s">
+        <v>442</v>
+      </c>
+      <c r="E444" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>452</v>
+      </c>
+      <c r="B445" t="s">
+        <v>262</v>
+      </c>
+      <c r="C445" t="s">
+        <v>217</v>
+      </c>
+      <c r="D445" t="s">
+        <v>442</v>
+      </c>
+      <c r="E445" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>452</v>
+      </c>
+      <c r="B446" t="s">
+        <v>262</v>
+      </c>
+      <c r="C446" t="s">
+        <v>218</v>
+      </c>
+      <c r="D446" t="s">
+        <v>442</v>
+      </c>
+      <c r="E446" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>452</v>
+      </c>
+      <c r="B447" t="s">
+        <v>262</v>
+      </c>
+      <c r="C447" t="s">
+        <v>219</v>
+      </c>
+      <c r="D447" t="s">
+        <v>442</v>
+      </c>
+      <c r="E447" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>452</v>
+      </c>
+      <c r="B448" t="s">
+        <v>262</v>
+      </c>
+      <c r="C448" t="s">
+        <v>220</v>
+      </c>
+      <c r="D448" t="s">
+        <v>442</v>
+      </c>
+      <c r="E448" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>452</v>
+      </c>
+      <c r="B449" t="s">
+        <v>262</v>
+      </c>
+      <c r="C449" t="s">
+        <v>221</v>
+      </c>
+      <c r="D449" t="s">
+        <v>442</v>
+      </c>
+      <c r="E449" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>452</v>
+      </c>
+      <c r="B450" t="s">
+        <v>262</v>
+      </c>
+      <c r="C450" t="s">
+        <v>222</v>
+      </c>
+      <c r="D450" t="s">
+        <v>442</v>
+      </c>
+      <c r="E450" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>452</v>
+      </c>
+      <c r="B451" t="s">
+        <v>262</v>
+      </c>
+      <c r="C451" t="s">
+        <v>223</v>
+      </c>
+      <c r="D451" t="s">
+        <v>442</v>
+      </c>
+      <c r="E451" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" t="s">
+        <v>262</v>
+      </c>
+      <c r="C452" t="s">
+        <v>224</v>
+      </c>
+      <c r="D452" t="s">
+        <v>442</v>
+      </c>
+      <c r="E452" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+      <c r="B453" t="s">
+        <v>262</v>
+      </c>
+      <c r="C453" t="s">
+        <v>225</v>
+      </c>
+      <c r="D453" t="s">
+        <v>442</v>
+      </c>
+      <c r="E453" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>262</v>
+      </c>
+      <c r="C454" t="s">
+        <v>226</v>
+      </c>
+      <c r="D454" t="s">
+        <v>442</v>
+      </c>
+      <c r="E454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>452</v>
+      </c>
+      <c r="B455" t="s">
+        <v>262</v>
+      </c>
+      <c r="C455" t="s">
+        <v>227</v>
+      </c>
+      <c r="D455" t="s">
+        <v>442</v>
+      </c>
+      <c r="E455" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>452</v>
+      </c>
+      <c r="B456" t="s">
+        <v>262</v>
+      </c>
+      <c r="C456" t="s">
+        <v>228</v>
+      </c>
+      <c r="D456" t="s">
+        <v>442</v>
+      </c>
+      <c r="E456" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>452</v>
+      </c>
+      <c r="B457" t="s">
+        <v>262</v>
+      </c>
+      <c r="C457" t="s">
+        <v>229</v>
+      </c>
+      <c r="D457" t="s">
+        <v>442</v>
+      </c>
+      <c r="E457" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>452</v>
+      </c>
+      <c r="B458" t="s">
+        <v>262</v>
+      </c>
+      <c r="C458" t="s">
+        <v>230</v>
+      </c>
+      <c r="D458" t="s">
+        <v>442</v>
+      </c>
+      <c r="E458" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>452</v>
+      </c>
+      <c r="B459" t="s">
+        <v>262</v>
+      </c>
+      <c r="C459" t="s">
+        <v>231</v>
+      </c>
+      <c r="D459" t="s">
+        <v>442</v>
+      </c>
+      <c r="E459" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>452</v>
+      </c>
+      <c r="B460" t="s">
+        <v>262</v>
+      </c>
+      <c r="C460" t="s">
+        <v>232</v>
+      </c>
+      <c r="D460" t="s">
+        <v>442</v>
+      </c>
+      <c r="E460" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>452</v>
+      </c>
+      <c r="B461" t="s">
+        <v>262</v>
+      </c>
+      <c r="C461" t="s">
+        <v>233</v>
+      </c>
+      <c r="D461" t="s">
+        <v>442</v>
+      </c>
+      <c r="E461" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>452</v>
+      </c>
+      <c r="B462" t="s">
+        <v>262</v>
+      </c>
+      <c r="C462" t="s">
+        <v>234</v>
+      </c>
+      <c r="D462" t="s">
+        <v>442</v>
+      </c>
+      <c r="E462" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>452</v>
+      </c>
+      <c r="B463" t="s">
+        <v>262</v>
+      </c>
+      <c r="C463" t="s">
+        <v>235</v>
+      </c>
+      <c r="D463" t="s">
+        <v>442</v>
+      </c>
+      <c r="E463" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>452</v>
+      </c>
+      <c r="B464" t="s">
+        <v>262</v>
+      </c>
+      <c r="C464" t="s">
+        <v>236</v>
+      </c>
+      <c r="D464" t="s">
+        <v>442</v>
+      </c>
+      <c r="E464" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>452</v>
+      </c>
+      <c r="B465" t="s">
+        <v>262</v>
+      </c>
+      <c r="C465" t="s">
+        <v>237</v>
+      </c>
+      <c r="D465" t="s">
+        <v>442</v>
+      </c>
+      <c r="E465" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>452</v>
+      </c>
+      <c r="B466" t="s">
+        <v>262</v>
+      </c>
+      <c r="C466" t="s">
+        <v>238</v>
+      </c>
+      <c r="D466" t="s">
+        <v>442</v>
+      </c>
+      <c r="E466" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>452</v>
+      </c>
+      <c r="B467" t="s">
+        <v>262</v>
+      </c>
+      <c r="C467" t="s">
+        <v>239</v>
+      </c>
+      <c r="D467" t="s">
+        <v>442</v>
+      </c>
+      <c r="E467" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>452</v>
+      </c>
+      <c r="B468" t="s">
+        <v>262</v>
+      </c>
+      <c r="C468" t="s">
+        <v>240</v>
+      </c>
+      <c r="D468" t="s">
+        <v>442</v>
+      </c>
+      <c r="E468" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>452</v>
+      </c>
+      <c r="B469" t="s">
+        <v>262</v>
+      </c>
+      <c r="C469" t="s">
+        <v>241</v>
+      </c>
+      <c r="D469" t="s">
+        <v>442</v>
+      </c>
+      <c r="E469" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>452</v>
+      </c>
+      <c r="B470" t="s">
+        <v>262</v>
+      </c>
+      <c r="C470" t="s">
+        <v>242</v>
+      </c>
+      <c r="D470" t="s">
+        <v>442</v>
+      </c>
+      <c r="E470" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>452</v>
+      </c>
+      <c r="B471" t="s">
+        <v>262</v>
+      </c>
+      <c r="C471" t="s">
+        <v>243</v>
+      </c>
+      <c r="D471" t="s">
+        <v>442</v>
+      </c>
+      <c r="E471" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>452</v>
+      </c>
+      <c r="B472" t="s">
+        <v>262</v>
+      </c>
+      <c r="C472" t="s">
+        <v>246</v>
+      </c>
+      <c r="D472" t="s">
+        <v>442</v>
+      </c>
+      <c r="E472" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>452</v>
+      </c>
+      <c r="B473" t="s">
+        <v>262</v>
+      </c>
+      <c r="C473" t="s">
+        <v>247</v>
+      </c>
+      <c r="D473" t="s">
+        <v>442</v>
+      </c>
+      <c r="E473" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>452</v>
+      </c>
+      <c r="B474" t="s">
+        <v>262</v>
+      </c>
+      <c r="C474" t="s">
+        <v>248</v>
+      </c>
+      <c r="D474" t="s">
+        <v>442</v>
+      </c>
+      <c r="E474" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>452</v>
+      </c>
+      <c r="B475" t="s">
+        <v>262</v>
+      </c>
+      <c r="C475" t="s">
+        <v>249</v>
+      </c>
+      <c r="D475" t="s">
+        <v>442</v>
+      </c>
+      <c r="E475" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
